--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altiv\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/kict-dev/database/KICT Backup DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F365695-C01E-4390-BDB9-762B075FA0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CD1528-916C-FC47-9B1A-5CCFCCF1B07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
+    <workbookView xWindow="-25420" yWindow="1920" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
     <sheet name="Courses" sheetId="2" r:id="rId2"/>
-    <sheet name="reset autoincrement" sheetId="3" r:id="rId3"/>
+    <sheet name="pg_courses" sheetId="5" r:id="rId3"/>
+    <sheet name="pg_program" sheetId="4" r:id="rId4"/>
+    <sheet name="reset autoincrement" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="221">
   <si>
     <t>staff_id</t>
   </si>
@@ -686,6 +688,21 @@
   </si>
   <si>
     <t>CSCI 2301</t>
+  </si>
+  <si>
+    <t>ALTER TABLE p_g_centraliseds AUTO_INCREMENT = 0;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE p_g_decentraliseds AUTO_INCREMENT = 0;</t>
+  </si>
+  <si>
+    <t>program_name</t>
+  </si>
+  <si>
+    <t>CITA</t>
+  </si>
+  <si>
+    <t>Centre for Information Technology Advancement</t>
   </si>
 </sst>
 </file>
@@ -1100,19 +1117,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F0502-707F-E94C-BAD9-F21BCE0BBD9A}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.796875" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>10400</v>
       </c>
@@ -1147,7 +1164,7 @@
         <v>INSERT INTO staff VALUES('10400','ABDUL RAFIEZ BIN ABDUL RAZIFF', null, null);</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1716</v>
       </c>
@@ -1165,7 +1182,7 @@
         <v>INSERT INTO staff VALUES('1716','ABD. RAHMAN BIN AHLAN', null, null);</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>6250</v>
       </c>
@@ -1183,7 +1200,7 @@
         <v>INSERT INTO staff VALUES('6250','ABDUL RAHMAN BIN AHMAD DAHLAN', null, null);</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3189</v>
       </c>
@@ -1201,7 +1218,7 @@
         <v>INSERT INTO staff VALUES('3189','AHMAD FATZILAH BIN MISMAN', null, null);</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>9471</v>
       </c>
@@ -1219,7 +1236,7 @@
         <v>INSERT INTO staff VALUES('9471','AIDRINA BINTI MOHAMED SOFIADIN', null, null);</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6153</v>
       </c>
@@ -1237,7 +1254,7 @@
         <v>INSERT INTO staff VALUES('6153','AKRAM M Z M KHEDHER', null, null);</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6566</v>
       </c>
@@ -1255,7 +1272,7 @@
         <v>INSERT INTO staff VALUES('6566','ASADULLAH SHAH', null, null);</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10325</v>
       </c>
@@ -1273,7 +1290,7 @@
         <v>INSERT INTO staff VALUES('10325','ATIKAH BALQIS BINTI BASRI', null, null);</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>4177</v>
       </c>
@@ -1291,7 +1308,7 @@
         <v>INSERT INTO staff VALUES('4177','AZNAN ZUHID BIN SAIDIN', null, null);</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10402</v>
       </c>
@@ -1309,7 +1326,7 @@
         <v>INSERT INTO staff VALUES('10402','ELIN ELIANA BINTI ABDUL RAHIM', null, null);</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>7816</v>
       </c>
@@ -1327,7 +1344,7 @@
         <v>INSERT INTO staff VALUES('7816','HAZWANI BT MOHD MOHADIS', null, null);</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>6202</v>
       </c>
@@ -1345,7 +1362,7 @@
         <v>INSERT INTO staff VALUES('6202','JAMALUDIN BIN IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>4559</v>
       </c>
@@ -1363,7 +1380,7 @@
         <v>INSERT INTO staff VALUES('4559','LILI MARZIANA BT. ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>3815</v>
       </c>
@@ -1381,7 +1398,7 @@
         <v>INSERT INTO staff VALUES('3815','MADIHAH BT. S. ABD. AZIZ', null, null);</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>4573</v>
       </c>
@@ -1399,7 +1416,7 @@
         <v>INSERT INTO staff VALUES('4573','MARINI OTHMAN', null, null);</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>4578</v>
       </c>
@@ -1417,7 +1434,7 @@
         <v>INSERT INTO staff VALUES('4578','MIOR NASIR MIOR NAZRI', null, null);</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>6326</v>
       </c>
@@ -1435,7 +1452,7 @@
         <v>INSERT INTO staff VALUES('6326','MIRA KARTIWI', null, null);</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1375</v>
       </c>
@@ -1453,7 +1470,7 @@
         <v>INSERT INTO staff VALUES('1375','MOHAMAD FAUZAN BIN NOORDIN', null, null);</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>9831</v>
       </c>
@@ -1471,7 +1488,7 @@
         <v>INSERT INTO staff VALUES('9831','MOHD KHAIRUL AZMI BIN HASSAN', null, null);</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5594</v>
       </c>
@@ -1489,7 +1506,7 @@
         <v>INSERT INTO staff VALUES('5594','MOHD. IZZUDDIN BIN MOHD. TAMRIN', null, null);</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>4298</v>
       </c>
@@ -1507,7 +1524,7 @@
         <v>INSERT INTO staff VALUES('4298','MOHD. SYARQAWY BIN HAMZAH', null, null);</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>4621</v>
       </c>
@@ -1525,7 +1542,7 @@
         <v>INSERT INTO staff VALUES('4621','MUHAMAD SADRY ABU SEMAN', null, null);</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>3570</v>
       </c>
@@ -1543,7 +1560,7 @@
         <v>INSERT INTO staff VALUES('3570','MUHD. ROSYDI BIN MUHAMMAD', null, null);</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>8398</v>
       </c>
@@ -1561,7 +1578,7 @@
         <v>INSERT INTO staff VALUES('8398','MUNA BINTI AZUDDIN', null, null);</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>3451</v>
       </c>
@@ -1579,7 +1596,7 @@
         <v>INSERT INTO staff VALUES('3451','MURNI BT. MAHMUD', null, null);</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>9084</v>
       </c>
@@ -1597,7 +1614,7 @@
         <v>INSERT INTO staff VALUES('9084','NAJHAN BIN MUHAMAD IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>6856</v>
       </c>
@@ -1615,7 +1632,7 @@
         <v>INSERT INTO staff VALUES('6856','NOOR AZIAN BT. MOHAMAD ALI', null, null);</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>3904</v>
       </c>
@@ -1633,7 +1650,7 @@
         <v>INSERT INTO staff VALUES('3904','NOOR AZIZAH BT. MOHAMADALI', null, null);</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>4297</v>
       </c>
@@ -1651,7 +1668,7 @@
         <v>INSERT INTO staff VALUES('4297','NOOR HASRUL NIZAN BIN MOHAMMAD NOOR', null, null);</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>7822</v>
       </c>
@@ -1669,7 +1686,7 @@
         <v>INSERT INTO staff VALUES('7822','NOOR HAYANI BINTI ABD RAHIM', null, null);</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>6288</v>
       </c>
@@ -1687,7 +1704,7 @@
         <v>INSERT INTO staff VALUES('6288','NOOR SHAFINI MOHAMAD', null, null);</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>10163</v>
       </c>
@@ -1705,7 +1722,7 @@
         <v>INSERT INTO staff VALUES('10163','NURAZLIN BINTI ZAINAL AZMI', null, null);</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>9026</v>
       </c>
@@ -1723,7 +1740,7 @@
         <v>INSERT INTO staff VALUES('9026','NURHAFIZAH BINTI MAHRI', null, null);</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>5341</v>
       </c>
@@ -1741,7 +1758,7 @@
         <v>INSERT INTO staff VALUES('5341','NURUL NUHA BINTI ABDUL MOLOK', null, null);</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>4295</v>
       </c>
@@ -1759,7 +1776,7 @@
         <v>INSERT INTO staff VALUES('4295','SHUHAILI BT. TALIB', null, null);</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>6993</v>
       </c>
@@ -1777,7 +1794,7 @@
         <v>INSERT INTO staff VALUES('6993','SUHAILA BINTI SAMSURI', null, null);</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>6948</v>
       </c>
@@ -1795,7 +1812,7 @@
         <v>INSERT INTO staff VALUES('6948','ZAHIDAH BINTI ZULKIFLI', null, null);</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>4896</v>
       </c>
@@ -1813,7 +1830,7 @@
         <v>INSERT INTO staff VALUES('4896','ZAINATUL SHIMA ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>7132</v>
       </c>
@@ -1831,7 +1848,7 @@
         <v>INSERT INTO staff VALUES('7132','ADAMU ABUBAKAR IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>10332</v>
       </c>
@@ -1849,7 +1866,7 @@
         <v>INSERT INTO staff VALUES('10332','AHSIAH BINTI ISMAIL', null, null);</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>9608</v>
       </c>
@@ -1867,7 +1884,7 @@
         <v>INSERT INTO staff VALUES('9608','AKEEM OLOWOLAYEMO', null, null);</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>4296</v>
       </c>
@@ -1885,7 +1902,7 @@
         <v>INSERT INTO staff VALUES('4296','AMELIA RITAHANI BT. ISMAIL', null, null);</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>9221</v>
       </c>
@@ -1903,7 +1920,7 @@
         <v>INSERT INTO staff VALUES('9221','AMIR AATIEFF BIN AMIR HUSSIN', null, null);</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>9157</v>
       </c>
@@ -1921,7 +1938,7 @@
         <v>INSERT INTO staff VALUES('9157','ANDI FITRIAH BINTI ABDUL KADIR', null, null);</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>10324</v>
       </c>
@@ -1939,7 +1956,7 @@
         <v>INSERT INTO staff VALUES('10324','ASMARANI BINTI AHMAD PUZI', null, null);</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>5133</v>
       </c>
@@ -1957,7 +1974,7 @@
         <v>INSERT INTO staff VALUES('5133','AZLIN BINTI NORDIN', null, null);</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>10567</v>
       </c>
@@ -1975,7 +1992,7 @@
         <v>INSERT INTO staff VALUES('10567','DINI OKTARINA DWI HANDAYANI', null, null);</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>7910</v>
       </c>
@@ -1993,7 +2010,7 @@
         <v>INSERT INTO staff VALUES('7910','HAFIZAH BINTI MANSOR', null, null);</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>4870</v>
       </c>
@@ -2011,7 +2028,7 @@
         <v>INSERT INTO staff VALUES('4870','HAMWIRA SAKTI BIN YAACOB', null, null);</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>771</v>
       </c>
@@ -2029,7 +2046,7 @@
         <v>INSERT INTO staff VALUES('771','MAZNAH BT AHMAD', null, null);</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>8123</v>
       </c>
@@ -2047,7 +2064,7 @@
         <v>INSERT INTO staff VALUES('8123','NORBIK BASHAH BIN IDRIS', null, null);</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>9622</v>
       </c>
@@ -2065,7 +2082,7 @@
         <v>INSERT INTO staff VALUES('9622','NORLIA MD YUSOF', null, null);</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>5505</v>
       </c>
@@ -2083,7 +2100,7 @@
         <v>INSERT INTO staff VALUES('5505','NORMAZIAH BINTI ABDUL AZIZ', null, null);</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>3509</v>
       </c>
@@ -2101,7 +2118,7 @@
         <v>INSERT INTO staff VALUES('3509','NORMI SHAM BT. AWANG ABU BAKAR', null, null);</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>3705</v>
       </c>
@@ -2119,7 +2136,7 @@
         <v>INSERT INTO staff VALUES('3705','NORSAREMAH BT. SALLEH', null, null);</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>8627</v>
       </c>
@@ -2137,7 +2154,7 @@
         <v>INSERT INTO staff VALUES('8627','NORZALIZA BINTI MD NOR', null, null);</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>8405</v>
       </c>
@@ -2155,7 +2172,7 @@
         <v>INSERT INTO staff VALUES('8405','NOOR AZURA BINTI ZAKARIA', null, null);</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>5066</v>
       </c>
@@ -2173,7 +2190,7 @@
         <v>INSERT INTO staff VALUES('5066','NORZARIYAH BINTI YAHYA', null, null);</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>8371</v>
       </c>
@@ -2191,7 +2208,7 @@
         <v>INSERT INTO staff VALUES('8371','NURUL LIYANA BINTI MOHAMAD ZULKUFLI', null, null);</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>4964</v>
       </c>
@@ -2209,7 +2226,7 @@
         <v>INSERT INTO staff VALUES('4964','RAINI BINTI HASSAN', null, null);</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>8638</v>
       </c>
@@ -2227,7 +2244,7 @@
         <v>INSERT INTO staff VALUES('8638','RAWAD ABDULKHALEQ ABDULMOLLA ABDULGHAFOR', null, null);</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>5251</v>
       </c>
@@ -2245,7 +2262,7 @@
         <v>INSERT INTO staff VALUES('5251','RIZAL BIN MOHD. NOR', null, null);</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>8667</v>
       </c>
@@ -2263,7 +2280,7 @@
         <v>INSERT INTO staff VALUES('8667','SHARYAR WANI', null, null);</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>7620</v>
       </c>
@@ -2281,7 +2298,7 @@
         <v>INSERT INTO staff VALUES('7620','SITI ASMA BINTI MOHAMMED', null, null);</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>4615</v>
       </c>
@@ -2299,7 +2316,7 @@
         <v>INSERT INTO staff VALUES('4615','SURIANI BT. SULAIMAN', null, null);</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>9954</v>
       </c>
@@ -2317,7 +2334,7 @@
         <v>INSERT INTO staff VALUES('9954','TAKUMI SASE', null, null);</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>10552</v>
       </c>
@@ -2335,7 +2352,7 @@
         <v>INSERT INTO staff VALUES('10552','ZAINAB SENAN MAHMOD ATTAR BASHI', null, null);</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>10744</v>
       </c>
@@ -2353,7 +2370,7 @@
         <v>INSERT INTO staff VALUES('10744','TENGKU MOHD BIN TENGKU SEMBOK ', null, null);</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>10738</v>
       </c>
@@ -2371,7 +2388,7 @@
         <v>INSERT INTO staff VALUES('10738','AHMAD ANWAR BIN ZAINUDDIN', null, null);</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>10722</v>
       </c>
@@ -2403,15 +2420,15 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.19921875" customWidth="1"/>
-    <col min="3" max="5" width="14.796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="5" width="14.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2431,7 +2448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -2452,7 +2469,7 @@
         <v>INSERT INTO courses VALUES('ICTM 1302','INFORMATION TECHNOLOGY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -2473,7 +2490,7 @@
         <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>52</v>
       </c>
@@ -2494,7 +2511,7 @@
         <v>INSERT INTO courses VALUES('INFO 1303','DATABASE SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
@@ -2515,7 +2532,7 @@
         <v>INSERT INTO courses VALUES('INFO 2302','WEB TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
@@ -2536,7 +2553,7 @@
         <v>INSERT INTO courses VALUES('INFO 2303','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>58</v>
       </c>
@@ -2557,7 +2574,7 @@
         <v>INSERT INTO courses VALUES('INFO 2304','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>60</v>
       </c>
@@ -2578,7 +2595,7 @@
         <v>INSERT INTO courses VALUES('INFO 2305','MULTIMEDIA TECHNOLOGY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>62</v>
       </c>
@@ -2599,7 +2616,7 @@
         <v>INSERT INTO courses VALUES('INFO 2306','MANAGEMENT INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
@@ -2620,7 +2637,7 @@
         <v>INSERT INTO courses VALUES('INFO 3304','E-COMMERCE', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>66</v>
       </c>
@@ -2641,7 +2658,7 @@
         <v>INSERT INTO courses VALUES('INFO 3305','WEB APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -2662,7 +2679,7 @@
         <v>INSERT INTO courses VALUES('INFO 3307','HUMAN COMPUTER INTERACTION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>70</v>
       </c>
@@ -2683,7 +2700,7 @@
         <v>INSERT INTO courses VALUES('INFO 3308','PROJECT  MANAGEMENT IN IT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>72</v>
       </c>
@@ -2704,7 +2721,7 @@
         <v>INSERT INTO courses VALUES('INFO 4304','IT AND ISLAM', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>74</v>
       </c>
@@ -2725,7 +2742,7 @@
         <v>INSERT INTO courses VALUES('INFO 4305','CYBER LAW &amp; ETHICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
@@ -2746,7 +2763,7 @@
         <v>INSERT INTO courses VALUES('INFO 4303','TECHNOPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>78</v>
       </c>
@@ -2767,7 +2784,7 @@
         <v>INSERT INTO courses VALUES('INFO 4311','DATA WAREHOUSING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>80</v>
       </c>
@@ -2788,7 +2805,7 @@
         <v>INSERT INTO courses VALUES('INFO 4312','INFORMATION VISUALIZATION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>82</v>
       </c>
@@ -2809,7 +2826,7 @@
         <v>INSERT INTO courses VALUES('INFO 4314','BUSINESS DATA ANALYTICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>84</v>
       </c>
@@ -2830,7 +2847,7 @@
         <v>INSERT INTO courses VALUES('INFO 4320','ANIMATION TECHNIQUE', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>86</v>
       </c>
@@ -2851,7 +2868,7 @@
         <v>INSERT INTO courses VALUES('INFO 4321','CREATIVE DESIGN TECHNIQUES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>88</v>
       </c>
@@ -2872,7 +2889,7 @@
         <v>INSERT INTO courses VALUES('INFO 4325','GRAPHIC DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>90</v>
       </c>
@@ -2893,7 +2910,7 @@
         <v>INSERT INTO courses VALUES('INFO 4328','GAME DESIGN AND DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>92</v>
       </c>
@@ -2914,7 +2931,7 @@
         <v>INSERT INTO courses VALUES('INFO 4333','INTEGRATED BUSINESS PROCESS AND ERP SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>94</v>
       </c>
@@ -2935,7 +2952,7 @@
         <v>INSERT INTO courses VALUES('INFO 4335','MOBILE APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>96</v>
       </c>
@@ -2956,7 +2973,7 @@
         <v>INSERT INTO courses VALUES('INFO 4336','INFORMATION RETRIEVAL TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>98</v>
       </c>
@@ -2977,7 +2994,7 @@
         <v>INSERT INTO courses VALUES('INFO 4330','CONTROL AND AUDIT OF INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>100</v>
       </c>
@@ -2998,7 +3015,7 @@
         <v>INSERT INTO courses VALUES('INFO 4340','MANAGEMENT OF INFORMATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>102</v>
       </c>
@@ -3019,7 +3036,7 @@
         <v>INSERT INTO courses VALUES('INFO 4341','RISK MANAGEMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>104</v>
       </c>
@@ -3040,7 +3057,7 @@
         <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>106</v>
       </c>
@@ -3061,7 +3078,7 @@
         <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>108</v>
       </c>
@@ -3082,7 +3099,7 @@
         <v>INSERT INTO courses VALUES('INFO 4352','DIGITALPRENEURSHIP CUSTOMER DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>177</v>
       </c>
@@ -3103,7 +3120,7 @@
         <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>178</v>
       </c>
@@ -3124,7 +3141,7 @@
         <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>179</v>
       </c>
@@ -3145,7 +3162,7 @@
         <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>180</v>
       </c>
@@ -3166,7 +3183,7 @@
         <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>182</v>
       </c>
@@ -3187,7 +3204,7 @@
         <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>184</v>
       </c>
@@ -3208,7 +3225,7 @@
         <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>187</v>
       </c>
@@ -3229,7 +3246,7 @@
         <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>215</v>
       </c>
@@ -3250,7 +3267,7 @@
         <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>213</v>
       </c>
@@ -3271,7 +3288,7 @@
         <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>211</v>
       </c>
@@ -3292,7 +3309,7 @@
         <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>209</v>
       </c>
@@ -3313,7 +3330,7 @@
         <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>207</v>
       </c>
@@ -3334,7 +3351,7 @@
         <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>205</v>
       </c>
@@ -3355,7 +3372,7 @@
         <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>203</v>
       </c>
@@ -3376,7 +3393,7 @@
         <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>201</v>
       </c>
@@ -3397,7 +3414,7 @@
         <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>199</v>
       </c>
@@ -3418,7 +3435,7 @@
         <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>197</v>
       </c>
@@ -3439,7 +3456,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>195</v>
       </c>
@@ -3460,7 +3477,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>193</v>
       </c>
@@ -3481,7 +3498,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>191</v>
       </c>
@@ -3502,7 +3519,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>189</v>
       </c>
@@ -3523,7 +3540,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>176</v>
       </c>
@@ -3544,7 +3561,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>174</v>
       </c>
@@ -3565,7 +3582,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>172</v>
       </c>
@@ -3586,7 +3603,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>170</v>
       </c>
@@ -3607,7 +3624,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>168</v>
       </c>
@@ -3628,7 +3645,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>166</v>
       </c>
@@ -3649,7 +3666,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>164</v>
       </c>
@@ -3670,7 +3687,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>162</v>
       </c>
@@ -3691,7 +3708,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>160</v>
       </c>
@@ -3712,7 +3729,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>158</v>
       </c>
@@ -3733,7 +3750,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>156</v>
       </c>
@@ -3754,7 +3771,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>154</v>
       </c>
@@ -3775,7 +3792,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>152</v>
       </c>
@@ -3796,7 +3813,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>151</v>
       </c>
@@ -3817,7 +3834,7 @@
         <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>149</v>
       </c>
@@ -3844,21 +3861,151 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B2092-1F1C-8549-B11B-DE30A1798F02}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="5" width="14.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO courses VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;", '"&amp;E2&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('ICTM 1302','INFORMATION TECHNOLOGY', null, null, 'CITA');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B4B34A-38F9-E84B-918E-E2FD74ABAF9E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="97.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"INSERT INTO p_g_programs VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;"');"</f>
+        <v>INSERT INTO p_g_programs VALUES('CITA','Centre for Information Technology Advancement', null, null');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFE9BAB-56CC-7E4D-BA91-4D6631A89136}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/kict-dev/database/KICT Backup DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Azmi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CD1528-916C-FC47-9B1A-5CCFCCF1B07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAB8077-B13E-7441-9D1F-EF004CA4CC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25420" yWindow="1920" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="3" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="296">
   <si>
     <t>staff_id</t>
   </si>
@@ -702,14 +702,239 @@
     <t>CITA</t>
   </si>
   <si>
-    <t>Centre for Information Technology Advancement</t>
+    <t>INFO 7011</t>
+  </si>
+  <si>
+    <t>Islamic Worldview on ICT and Society</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>INFO 7901</t>
+  </si>
+  <si>
+    <t>ICT Research Methods</t>
+  </si>
+  <si>
+    <t>INFO 7131</t>
+  </si>
+  <si>
+    <t>IT Project &amp; Change Management</t>
+  </si>
+  <si>
+    <t>INFO 7151</t>
+  </si>
+  <si>
+    <t>IT Strategy &amp; Governance</t>
+  </si>
+  <si>
+    <t>INFO 7145</t>
+  </si>
+  <si>
+    <t>Methodologies for System Development</t>
+  </si>
+  <si>
+    <t>INFO 7991</t>
+  </si>
+  <si>
+    <t>Computing Project</t>
+  </si>
+  <si>
+    <t>INFO 7115</t>
+  </si>
+  <si>
+    <t>Advanced Data Management</t>
+  </si>
+  <si>
+    <t>INFO 7125</t>
+  </si>
+  <si>
+    <t>Business Data Communications &amp; Networking</t>
+  </si>
+  <si>
+    <t>INFO 7165</t>
+  </si>
+  <si>
+    <t>Advanced Enterprise Integration</t>
+  </si>
+  <si>
+    <t>INFO 7211</t>
+  </si>
+  <si>
+    <t>Knowledge Management Principles &amp; Practices</t>
+  </si>
+  <si>
+    <t>INFO 7221</t>
+  </si>
+  <si>
+    <t>Advanced E-Commerce</t>
+  </si>
+  <si>
+    <t>INFO 7231</t>
+  </si>
+  <si>
+    <t>Cybersecurity Challenges, Policy &amp; Strategy</t>
+  </si>
+  <si>
+    <t>INFO 7251</t>
+  </si>
+  <si>
+    <t>Mobile Communications &amp; Networks</t>
+  </si>
+  <si>
+    <t>INFO 7261</t>
+  </si>
+  <si>
+    <t>IT Professional Practices</t>
+  </si>
+  <si>
+    <t>INFO 7271</t>
+  </si>
+  <si>
+    <t>Human Computer Interaction &amp; Design</t>
+  </si>
+  <si>
+    <t>NFO 7992</t>
+  </si>
+  <si>
+    <t>IT Research Proposal</t>
+  </si>
+  <si>
+    <t>INFO 7993</t>
+  </si>
+  <si>
+    <t>IT Dissertation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic Worldview on IT and Society </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITA 7011 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Data Across Verticals and Domains </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBIA 7101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Quality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBIA 7102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unstructured Data Analytics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBIA 7202 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datathon and Bootcamp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBIA 7301 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCSM 7301 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Continuity &amp; Disaster Recovery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCSM 7101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical Protective Security </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCSM 7102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCSM 7998 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissertation </t>
+  </si>
+  <si>
+    <t>Management of Information Institutions</t>
+  </si>
+  <si>
+    <t>Information Analysis and Organization I</t>
+  </si>
+  <si>
+    <t>LISC 7121</t>
+  </si>
+  <si>
+    <t>Information Analysis and Organization II</t>
+  </si>
+  <si>
+    <t>Application of Information Technology in Library</t>
+  </si>
+  <si>
+    <t>LISC 7430</t>
+  </si>
+  <si>
+    <t>Digital Library</t>
+  </si>
+  <si>
+    <t>LISC 7135</t>
+  </si>
+  <si>
+    <t>Records and Archives Management</t>
+  </si>
+  <si>
+    <t>LISC 7440</t>
+  </si>
+  <si>
+    <t>Information Processing and Database Development</t>
+  </si>
+  <si>
+    <t>LISC 7420</t>
+  </si>
+  <si>
+    <t>LISC 7421</t>
+  </si>
+  <si>
+    <t>LISC 7070</t>
+  </si>
+  <si>
+    <t>LISC 7071</t>
+  </si>
+  <si>
+    <t>LISC 7120</t>
+  </si>
+  <si>
+    <t>LISC 7020</t>
+  </si>
+  <si>
+    <t>DLIS</t>
+  </si>
+  <si>
+    <t>Master in Protective Security Management (MPSM)</t>
+  </si>
+  <si>
+    <t>Master in Business Intelligence And Analytic (MBIA)</t>
+  </si>
+  <si>
+    <t>Master of Library and Information Science</t>
+  </si>
+  <si>
+    <t>Master of Information Technology</t>
+  </si>
+  <si>
+    <t>Doctor of Philosophy (Library and Information Science)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -746,6 +971,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -767,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -801,6 +1032,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3862,10 +4103,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B2092-1F1C-8549-B11B-DE30A1798F02}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3897,11 +4138,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>49</v>
+      <c r="A2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3909,31 +4150,767 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F37" si="0">"INSERT INTO courses VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;", '"&amp;E2&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('INFO 7011','Islamic Worldview on ICT and Society', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7901','ICT Research Methods', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7131','IT Project &amp; Change Management', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7151','IT Strategy &amp; Governance', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7145','Methodologies for System Development', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7991','Computing Project', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7115','Advanced Data Management', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7125','Business Data Communications &amp; Networking', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7165','Advanced Enterprise Integration', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7211','Knowledge Management Principles &amp; Practices', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7221','Advanced E-Commerce', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7231','Cybersecurity Challenges, Policy &amp; Strategy', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7251','Mobile Communications &amp; Networks', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7261','IT Professional Practices', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7271','Human Computer Interaction &amp; Design', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('NFO 7992','IT Research Proposal', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 7993','IT Dissertation', null, null, 'DIS');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F2" t="str">
-        <f>"INSERT INTO courses VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;", '"&amp;E2&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('ICTM 1302','INFORMATION TECHNOLOGY', null, null, 'CITA');</v>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CITA 7011 ','Islamic Worldview on IT and Society ', null, null, 'CITA');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CBIA 7101 ','Big Data Across Verticals and Domains ', null, null, 'CITA');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CBIA 7102 ','Data Quality ', null, null, 'CITA');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CBIA 7202 ','Unstructured Data Analytics ', null, null, 'CITA');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CBIA 7301 ','Datathon and Bootcamp ', null, null, 'CITA');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CCSM 7301 ','Risk Management ', null, null, 'CITA');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CCSM 7101 ','Business Continuity &amp; Disaster Recovery ', null, null, 'CITA');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CCSM 7102 ','Physical Protective Security ', null, null, 'CITA');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CCSM 7998 ','Dissertation ', null, null, 'CITA');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7070','Management of Information Institutions', null, null, 'DLIS');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7120','Information Analysis and Organization I', null, null, 'DLIS');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" ref="F30:F31" si="1">"INSERT INTO courses VALUES('"&amp;A30&amp;"','"&amp;B30&amp;"', "&amp;C30&amp;", "&amp;D30&amp;", '"&amp;E30&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 7071','Management of Information Institutions', null, null, 'DLIS');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('LISC 7020','Information Analysis and Organization I', null, null, 'DLIS');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7121','Information Analysis and Organization II', null, null, 'DLIS');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7420','Application of Information Technology in Library', null, null, 'DLIS');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" ref="F34" si="2">"INSERT INTO courses VALUES('"&amp;A34&amp;"','"&amp;B34&amp;"', "&amp;C34&amp;", "&amp;D34&amp;", '"&amp;E34&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 7421','Application of Information Technology in Library', null, null, 'DLIS');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7430','Digital Library', null, null, 'DLIS');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7135','Records and Archives Management', null, null, 'DLIS');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7440','Information Processing and Database Development', null, null, 'DLIS');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B4B34A-38F9-E84B-918E-E2FD74ABAF9E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" style="16" customWidth="1"/>
     <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="97.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3955,12 +4932,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>220</v>
+      <c r="B2" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3970,11 +4947,123 @@
       </c>
       <c r="E2" t="str">
         <f>"INSERT INTO p_g_programs VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;"');"</f>
-        <v>INSERT INTO p_g_programs VALUES('CITA','Centre for Information Technology Advancement', null, null');</v>
-      </c>
+        <v>INSERT INTO p_g_programs VALUES('CITA','Master in Protective Security Management (MPSM)', null, null');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"INSERT INTO p_g_programs VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;"');"</f>
+        <v>INSERT INTO p_g_programs VALUES('CITA','Master in Business Intelligence And Analytic (MBIA)', null, null');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E5" si="0">"INSERT INTO p_g_programs VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"', "&amp;C4&amp;", "&amp;D4&amp;"');"</f>
+        <v>INSERT INTO p_g_programs VALUES('DIS','Master of Information Technology', null, null');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO p_g_programs VALUES('DLIS','Master of Library and Information Science', null, null');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <f>"INSERT INTO p_g_programs VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"', "&amp;C6&amp;", "&amp;D6&amp;"');"</f>
+        <v>INSERT INTO p_g_programs VALUES('DLIS','Doctor of Philosophy (Library and Information Science)', null, null');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3983,7 +5072,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Azmi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/kict-dev/database/KICT Backup DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAB8077-B13E-7441-9D1F-EF004CA4CC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD951025-E654-4746-8B26-32B90102EC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="3" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
+    <workbookView xWindow="2120" yWindow="1500" windowWidth="23260" windowHeight="12460" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="301">
   <si>
     <t>staff_id</t>
   </si>
@@ -699,18 +699,12 @@
     <t>program_name</t>
   </si>
   <si>
-    <t>CITA</t>
-  </si>
-  <si>
     <t>INFO 7011</t>
   </si>
   <si>
     <t>Islamic Worldview on ICT and Society</t>
   </si>
   <si>
-    <t>DIS</t>
-  </si>
-  <si>
     <t>INFO 7901</t>
   </si>
   <si>
@@ -912,22 +906,43 @@
     <t>LISC 7020</t>
   </si>
   <si>
-    <t>DLIS</t>
-  </si>
-  <si>
-    <t>Master in Protective Security Management (MPSM)</t>
-  </si>
-  <si>
-    <t>Master in Business Intelligence And Analytic (MBIA)</t>
-  </si>
-  <si>
     <t>Master of Library and Information Science</t>
   </si>
   <si>
     <t>Master of Information Technology</t>
   </si>
   <si>
-    <t>Doctor of Philosophy (Library and Information Science)</t>
+    <t>MPSM</t>
+  </si>
+  <si>
+    <t>MBIA</t>
+  </si>
+  <si>
+    <t>MLIB</t>
+  </si>
+  <si>
+    <t>MITEC</t>
+  </si>
+  <si>
+    <t>Master in Protective Security Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master in Business Intelligence And Analytic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSLINA OTHMAN </t>
+  </si>
+  <si>
+    <t>ROOSFA HASHIM</t>
+  </si>
+  <si>
+    <t>SHARIFAH NUR AMIRAH SARIF ABDULLAH</t>
+  </si>
+  <si>
+    <t>NOR SAADAH MD. NOR</t>
+  </si>
+  <si>
+    <t>NUR LEYNI NILAM PUTRI JUNURHAM</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1035,13 +1050,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F0502-707F-E94C-BAD9-F21BCE0BBD9A}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1375,7 @@
     <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.83203125" customWidth="1"/>
     <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="80.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2571,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E71" si="1">"INSERT INTO staff VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"', "&amp;C67&amp;", "&amp;D67&amp;");"</f>
+        <f t="shared" ref="E67:E76" si="1">"INSERT INTO staff VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"', "&amp;C67&amp;", "&amp;D67&amp;");"</f>
         <v>INSERT INTO staff VALUES('9954','TAKUMI SASE', null, null);</v>
       </c>
     </row>
@@ -2645,6 +2653,96 @@
       <c r="E71" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO staff VALUES('10722','ABDUL WAHAB BIN ABDUL RAHMAN', null, null);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>1675</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO staff VALUES('1675','ROSLINA OTHMAN ', null, null);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>7684</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO staff VALUES('7684','ROOSFA HASHIM', null, null);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>8227</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO staff VALUES('8227','SHARIFAH NUR AMIRAH SARIF ABDULLAH', null, null);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>9019</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO staff VALUES('9019','NOR SAADAH MD. NOR', null, null);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>9041</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO staff VALUES('9041','NUR LEYNI NILAM PUTRI JUNURHAM', null, null);</v>
       </c>
     </row>
   </sheetData>
@@ -4106,7 +4204,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4139,11 +4237,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
         <v>220</v>
       </c>
-      <c r="B2" t="s">
-        <v>221</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4151,19 +4249,19 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F37" si="0">"INSERT INTO courses VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;", '"&amp;E2&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('INFO 7011','Islamic Worldview on ICT and Society', null, null, 'DIS');</v>
+        <f>"INSERT INTO courses VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('INFO 7011','Islamic Worldview on ICT and Society', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -4171,20 +4269,20 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>222</v>
+      <c r="E3" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7901','ICT Research Methods', null, null, 'DIS');</v>
+        <f t="shared" ref="F3:F37" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('INFO 7901','ICT Research Methods', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -4192,20 +4290,20 @@
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>222</v>
+      <c r="E4" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7131','IT Project &amp; Change Management', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7131','IT Project &amp; Change Management', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -4213,20 +4311,20 @@
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>222</v>
+      <c r="E5" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7151','IT Strategy &amp; Governance', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7151','IT Strategy &amp; Governance', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -4234,20 +4332,20 @@
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>222</v>
+      <c r="E6" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7145','Methodologies for System Development', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7145','Methodologies for System Development', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
@@ -4255,20 +4353,20 @@
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>222</v>
+      <c r="E7" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7991','Computing Project', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7991','Computing Project', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -4276,20 +4374,20 @@
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>222</v>
+      <c r="E8" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7115','Advanced Data Management', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7115','Advanced Data Management', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -4297,20 +4395,20 @@
       <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>222</v>
+      <c r="E9" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7125','Business Data Communications &amp; Networking', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7125','Business Data Communications &amp; Networking', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -4318,20 +4416,20 @@
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>222</v>
+      <c r="E10" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7165','Advanced Enterprise Integration', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7165','Advanced Enterprise Integration', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
@@ -4339,20 +4437,20 @@
       <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>222</v>
+      <c r="E11" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7211','Knowledge Management Principles &amp; Practices', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7211','Knowledge Management Principles &amp; Practices', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -4360,20 +4458,20 @@
       <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>222</v>
+      <c r="E12" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7221','Advanced E-Commerce', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7221','Advanced E-Commerce', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
@@ -4381,20 +4479,20 @@
       <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>222</v>
+      <c r="E13" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7231','Cybersecurity Challenges, Policy &amp; Strategy', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7231','Cybersecurity Challenges, Policy &amp; Strategy', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -4402,20 +4500,20 @@
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>222</v>
+      <c r="E14" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7251','Mobile Communications &amp; Networks', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7251','Mobile Communications &amp; Networks', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
@@ -4423,20 +4521,20 @@
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>222</v>
+      <c r="E15" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7261','IT Professional Practices', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7261','IT Professional Practices', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -4444,20 +4542,20 @@
       <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>222</v>
+      <c r="E16" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7271','Human Computer Interaction &amp; Design', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7271','Human Computer Interaction &amp; Design', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
@@ -4465,20 +4563,20 @@
       <c r="D17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>222</v>
+      <c r="E17" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('NFO 7992','IT Research Proposal', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('NFO 7992','IT Research Proposal', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
@@ -4486,20 +4584,20 @@
       <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>222</v>
+      <c r="E18" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7993','IT Dissertation', null, null, 'DIS');</v>
+        <v>INSERT INTO courses VALUES('INFO 7993','IT Dissertation', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -4508,19 +4606,19 @@
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CITA 7011 ','Islamic Worldview on IT and Society ', null, null, 'CITA');</v>
+        <v>INSERT INTO courses VALUES('CITA 7011 ','Islamic Worldview on IT and Society ', 'null', 'null', 'MBIA');</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
@@ -4529,19 +4627,19 @@
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CBIA 7101 ','Big Data Across Verticals and Domains ', null, null, 'CITA');</v>
+        <v>INSERT INTO courses VALUES('CBIA 7101 ','Big Data Across Verticals and Domains ', 'null', 'null', 'MBIA');</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
@@ -4550,19 +4648,19 @@
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CBIA 7102 ','Data Quality ', null, null, 'CITA');</v>
+        <v>INSERT INTO courses VALUES('CBIA 7102 ','Data Quality ', 'null', 'null', 'MBIA');</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
@@ -4571,19 +4669,19 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CBIA 7202 ','Unstructured Data Analytics ', null, null, 'CITA');</v>
+        <v>INSERT INTO courses VALUES('CBIA 7202 ','Unstructured Data Analytics ', 'null', 'null', 'MBIA');</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -4592,19 +4690,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CBIA 7301 ','Datathon and Bootcamp ', null, null, 'CITA');</v>
+        <v>INSERT INTO courses VALUES('CBIA 7301 ','Datathon and Bootcamp ', 'null', 'null', 'MBIA');</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
@@ -4613,19 +4711,19 @@
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CCSM 7301 ','Risk Management ', null, null, 'CITA');</v>
+        <v>INSERT INTO courses VALUES('CCSM 7301 ','Risk Management ', 'null', 'null', 'MPSM');</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
@@ -4634,19 +4732,19 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CCSM 7101 ','Business Continuity &amp; Disaster Recovery ', null, null, 'CITA');</v>
+        <v>INSERT INTO courses VALUES('CCSM 7101 ','Business Continuity &amp; Disaster Recovery ', 'null', 'null', 'MPSM');</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
@@ -4655,19 +4753,19 @@
         <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CCSM 7102 ','Physical Protective Security ', null, null, 'CITA');</v>
+        <v>INSERT INTO courses VALUES('CCSM 7102 ','Physical Protective Security ', 'null', 'null', 'MPSM');</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
@@ -4676,19 +4774,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CCSM 7998 ','Dissertation ', null, null, 'CITA');</v>
+        <v>INSERT INTO courses VALUES('CCSM 7998 ','Dissertation ', 'null', 'null', 'MPSM');</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -4697,19 +4795,19 @@
         <v>5</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7070','Management of Information Institutions', null, null, 'DLIS');</v>
+        <v>INSERT INTO courses VALUES('LISC 7070','Management of Information Institutions', 'null', 'null', 'MLIB');</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
@@ -4718,19 +4816,19 @@
         <v>5</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7120','Information Analysis and Organization I', null, null, 'DLIS');</v>
+        <v>INSERT INTO courses VALUES('LISC 7120','Information Analysis and Organization I', 'null', 'null', 'MLIB');</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
@@ -4739,19 +4837,19 @@
         <v>5</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" ref="F30:F31" si="1">"INSERT INTO courses VALUES('"&amp;A30&amp;"','"&amp;B30&amp;"', "&amp;C30&amp;", "&amp;D30&amp;", '"&amp;E30&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('LISC 7071','Management of Information Institutions', null, null, 'DLIS');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7071','Management of Information Institutions', 'null', 'null', 'MLIB');</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
@@ -4760,19 +4858,19 @@
         <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO courses VALUES('LISC 7020','Information Analysis and Organization I', null, null, 'DLIS');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7020','Information Analysis and Organization I', 'null', 'null', 'MLIB');</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
@@ -4781,19 +4879,19 @@
         <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7121','Information Analysis and Organization II', null, null, 'DLIS');</v>
+        <v>INSERT INTO courses VALUES('LISC 7121','Information Analysis and Organization II', 'null', 'null', 'MLIB');</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -4802,19 +4900,19 @@
         <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7420','Application of Information Technology in Library', null, null, 'DLIS');</v>
+        <v>INSERT INTO courses VALUES('LISC 7420','Application of Information Technology in Library', 'null', 'null', 'MLIB');</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
@@ -4823,19 +4921,19 @@
         <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" ref="F34" si="2">"INSERT INTO courses VALUES('"&amp;A34&amp;"','"&amp;B34&amp;"', "&amp;C34&amp;", "&amp;D34&amp;", '"&amp;E34&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('LISC 7421','Application of Information Technology in Library', null, null, 'DLIS');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7421','Application of Information Technology in Library', 'null', 'null', 'MLIB');</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
@@ -4844,19 +4942,19 @@
         <v>5</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7430','Digital Library', null, null, 'DLIS');</v>
+        <v>INSERT INTO courses VALUES('LISC 7430','Digital Library', 'null', 'null', 'MLIB');</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
@@ -4865,19 +4963,19 @@
         <v>5</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7135','Records and Archives Management', null, null, 'DLIS');</v>
+        <v>INSERT INTO courses VALUES('LISC 7135','Records and Archives Management', 'null', 'null', 'MLIB');</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
@@ -4886,11 +4984,11 @@
         <v>5</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7440','Information Processing and Database Development', null, null, 'DLIS');</v>
+        <v>INSERT INTO courses VALUES('LISC 7440','Information Processing and Database Development', 'null', 'null', 'MLIB');</v>
       </c>
     </row>
   </sheetData>
@@ -4901,16 +4999,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B4B34A-38F9-E84B-918E-E2FD74ABAF9E}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
     <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="97.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4934,10 +5032,10 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -4946,16 +5044,16 @@
         <v>5</v>
       </c>
       <c r="E2" t="str">
-        <f>"INSERT INTO p_g_programs VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;"');"</f>
-        <v>INSERT INTO p_g_programs VALUES('CITA','Master in Protective Security Management (MPSM)', null, null');</v>
+        <f>"INSERT INTO p_g_programs VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"',' "&amp;C2&amp;"',' "&amp;D2&amp;"');"</f>
+        <v>INSERT INTO p_g_programs VALUES('MPSM','Master in Protective Security Management',' null',' null');</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -4964,16 +5062,16 @@
         <v>5</v>
       </c>
       <c r="E3" t="str">
-        <f>"INSERT INTO p_g_programs VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;"');"</f>
-        <v>INSERT INTO p_g_programs VALUES('CITA','Master in Business Intelligence And Analytic (MBIA)', null, null');</v>
+        <f t="shared" ref="E3:E5" si="0">"INSERT INTO p_g_programs VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"',' "&amp;C3&amp;"',' "&amp;D3&amp;"');"</f>
+        <v>INSERT INTO p_g_programs VALUES('MBIA','Master in Business Intelligence And Analytic ',' null',' null');</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>289</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -4982,16 +5080,16 @@
         <v>5</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E5" si="0">"INSERT INTO p_g_programs VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"', "&amp;C4&amp;", "&amp;D4&amp;"');"</f>
-        <v>INSERT INTO p_g_programs VALUES('DIS','Master of Information Technology', null, null');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO p_g_programs VALUES('MITEC','Master of Information Technology',' null',' null');</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -5001,65 +5099,47 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO p_g_programs VALUES('DLIS','Master of Library and Information Science', null, null');</v>
+        <v>INSERT INTO p_g_programs VALUES('MLIB','Master of Library and Information Science',' null',' null');</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="str">
-        <f>"INSERT INTO p_g_programs VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"', "&amp;C6&amp;", "&amp;D6&amp;"');"</f>
-        <v>INSERT INTO p_g_programs VALUES('DLIS','Doctor of Philosophy (Library and Information Science)', null, null');</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="15"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="15"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="15"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/kict-dev/database/KICT Backup DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD951025-E654-4746-8B26-32B90102EC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB32E53-ABA5-0E44-A0C8-AE58656767ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="1500" windowWidth="23260" windowHeight="12460" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
+    <workbookView xWindow="1960" yWindow="4040" windowWidth="23260" windowHeight="12460" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="302">
   <si>
     <t>staff_id</t>
   </si>
@@ -943,6 +943,9 @@
   </si>
   <si>
     <t>NUR LEYNI NILAM PUTRI JUNURHAM</t>
+  </si>
+  <si>
+    <t>AYUB BIN ABDUL RAHMAN</t>
   </si>
 </sst>
 </file>
@@ -1364,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F0502-707F-E94C-BAD9-F21BCE0BBD9A}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2579,7 +2582,7 @@
         <v>5</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E76" si="1">"INSERT INTO staff VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"', "&amp;C67&amp;", "&amp;D67&amp;");"</f>
+        <f t="shared" ref="E67:E77" si="1">"INSERT INTO staff VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"', "&amp;C67&amp;", "&amp;D67&amp;");"</f>
         <v>INSERT INTO staff VALUES('9954','TAKUMI SASE', null, null);</v>
       </c>
     </row>
@@ -2743,6 +2746,24 @@
       <c r="E76" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO staff VALUES('9041','NUR LEYNI NILAM PUTRI JUNURHAM', null, null);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>11085</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO staff VALUES('11085','AYUB BIN ABDUL RAHMAN', null, null);</v>
       </c>
     </row>
   </sheetData>

--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB32E53-ABA5-0E44-A0C8-AE58656767ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD36822C-78B6-3C43-8543-FBB248F030F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="4040" windowWidth="23260" windowHeight="12460" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
+    <workbookView xWindow="1960" yWindow="4040" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -789,9 +789,6 @@
     <t>Human Computer Interaction &amp; Design</t>
   </si>
   <si>
-    <t>NFO 7992</t>
-  </si>
-  <si>
     <t>IT Research Proposal</t>
   </si>
   <si>
@@ -927,9 +924,6 @@
     <t>Master in Protective Security Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Master in Business Intelligence And Analytic </t>
-  </si>
-  <si>
     <t xml:space="preserve">ROSLINA OTHMAN </t>
   </si>
   <si>
@@ -946,6 +940,12 @@
   </si>
   <si>
     <t>AYUB BIN ABDUL RAHMAN</t>
+  </si>
+  <si>
+    <t>Master in Business Intelligence And Analytic</t>
+  </si>
+  <si>
+    <t>INFO 7992</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F0502-707F-E94C-BAD9-F21BCE0BBD9A}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="C47" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2663,7 +2663,7 @@
         <v>1675</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>5</v>
@@ -2681,7 +2681,7 @@
         <v>7684</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>5</v>
@@ -2699,7 +2699,7 @@
         <v>8227</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>5</v>
@@ -2717,7 +2717,7 @@
         <v>9019</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>5</v>
@@ -2735,7 +2735,7 @@
         <v>9041</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>5</v>
@@ -2753,7 +2753,7 @@
         <v>11085</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>5</v>
@@ -2776,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63454FF6-7634-A745-9553-1678A6EECCD5}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4224,8 +4224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B2092-1F1C-8549-B11B-DE30A1798F02}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F2" t="str">
         <f>"INSERT INTO courses VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"');"</f>
@@ -4291,7 +4291,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F37" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"');"</f>
@@ -4312,7 +4312,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -4333,7 +4333,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -4354,7 +4354,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -4375,7 +4375,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -4396,7 +4396,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -4417,7 +4417,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -4438,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -4459,7 +4459,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -4480,7 +4480,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -4501,7 +4501,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -4522,7 +4522,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -4543,7 +4543,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -4564,7 +4564,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -4573,11 +4573,11 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" t="s">
         <v>249</v>
       </c>
-      <c r="B17" t="s">
-        <v>250</v>
-      </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
@@ -4585,20 +4585,20 @@
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('NFO 7992','IT Research Proposal', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7992','IT Research Proposal', 'null', 'null', 'MITEC');</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" t="s">
         <v>251</v>
       </c>
-      <c r="B18" t="s">
-        <v>252</v>
-      </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -4627,7 +4627,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
@@ -4648,7 +4648,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -4657,10 +4657,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
@@ -4669,7 +4669,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -4678,10 +4678,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
@@ -4690,7 +4690,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -4711,7 +4711,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
@@ -4732,7 +4732,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -4741,10 +4741,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
@@ -4753,7 +4753,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -4762,10 +4762,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
@@ -4774,7 +4774,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -4783,11 +4783,11 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" t="s">
         <v>269</v>
       </c>
-      <c r="B27" t="s">
-        <v>270</v>
-      </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -4804,10 +4804,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -4816,7 +4816,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -4825,10 +4825,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
@@ -4837,7 +4837,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -4846,10 +4846,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
@@ -4858,7 +4858,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
@@ -4879,7 +4879,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -4888,11 +4888,11 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" t="s">
         <v>273</v>
       </c>
-      <c r="B32" t="s">
-        <v>274</v>
-      </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -4921,7 +4921,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
@@ -4942,7 +4942,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -4951,11 +4951,11 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" t="s">
         <v>276</v>
       </c>
-      <c r="B35" t="s">
-        <v>277</v>
-      </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -4972,11 +4972,11 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B36" t="s">
         <v>278</v>
       </c>
-      <c r="B36" t="s">
-        <v>279</v>
-      </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -4993,11 +4993,11 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" t="s">
         <v>280</v>
       </c>
-      <c r="B37" t="s">
-        <v>281</v>
-      </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -5023,7 +5023,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5053,10 +5053,10 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -5065,16 +5065,16 @@
         <v>5</v>
       </c>
       <c r="E2" t="str">
-        <f>"INSERT INTO p_g_programs VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"',' "&amp;C2&amp;"',' "&amp;D2&amp;"');"</f>
-        <v>INSERT INTO p_g_programs VALUES('MPSM','Master in Protective Security Management',' null',' null');</v>
+        <f>"INSERT INTO p_g_programs VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"');"</f>
+        <v>INSERT INTO p_g_programs VALUES('MPSM','Master in Protective Security Management','null','null');</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -5083,16 +5083,16 @@
         <v>5</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E5" si="0">"INSERT INTO p_g_programs VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"',' "&amp;C3&amp;"',' "&amp;D3&amp;"');"</f>
-        <v>INSERT INTO p_g_programs VALUES('MBIA','Master in Business Intelligence And Analytic ',' null',' null');</v>
+        <f t="shared" ref="E3:E5" si="0">"INSERT INTO p_g_programs VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
+        <v>INSERT INTO p_g_programs VALUES('MBIA','Master in Business Intelligence And Analytic','null','null');</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -5102,15 +5102,15 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO p_g_programs VALUES('MITEC','Master of Information Technology',' null',' null');</v>
+        <v>INSERT INTO p_g_programs VALUES('MITEC','Master of Information Technology','null','null');</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO p_g_programs VALUES('MLIB','Master of Library and Information Science',' null',' null');</v>
+        <v>INSERT INTO p_g_programs VALUES('MLIB','Master of Library and Information Science','null','null');</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">

--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD36822C-78B6-3C43-8543-FBB248F030F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D27B9A9-313C-074A-A1D4-FAAA0C14101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="4040" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
+    <workbookView xWindow="1960" yWindow="4040" windowWidth="23260" windowHeight="12460" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F0502-707F-E94C-BAD9-F21BCE0BBD9A}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="C47" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E77"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2776,7 +2776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63454FF6-7634-A745-9553-1678A6EECCD5}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F68"/>
     </sheetView>
   </sheetViews>
@@ -4224,8 +4224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B2092-1F1C-8549-B11B-DE30A1798F02}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4273,8 +4273,8 @@
         <v>292</v>
       </c>
       <c r="F2" t="str">
-        <f>"INSERT INTO courses VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('INFO 7011','Islamic Worldview on ICT and Society', 'null', 'null', 'MITEC');</v>
+        <f>"INSERT INTO courses VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;", '"&amp;E2&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('INFO 7011','Islamic Worldview on ICT and Society', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4294,8 +4294,8 @@
         <v>292</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F37" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('INFO 7901','ICT Research Methods', 'null', 'null', 'MITEC');</v>
+        <f t="shared" ref="F3:F37" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('INFO 7901','ICT Research Methods', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7131','IT Project &amp; Change Management', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7131','IT Project &amp; Change Management', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7151','IT Strategy &amp; Governance', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7151','IT Strategy &amp; Governance', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7145','Methodologies for System Development', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7145','Methodologies for System Development', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7991','Computing Project', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7991','Computing Project', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7115','Advanced Data Management', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7115','Advanced Data Management', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7125','Business Data Communications &amp; Networking', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7125','Business Data Communications &amp; Networking', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7165','Advanced Enterprise Integration', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7165','Advanced Enterprise Integration', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7211','Knowledge Management Principles &amp; Practices', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7211','Knowledge Management Principles &amp; Practices', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7221','Advanced E-Commerce', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7221','Advanced E-Commerce', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7231','Cybersecurity Challenges, Policy &amp; Strategy', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7231','Cybersecurity Challenges, Policy &amp; Strategy', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7251','Mobile Communications &amp; Networks', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7251','Mobile Communications &amp; Networks', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7261','IT Professional Practices', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7261','IT Professional Practices', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7271','Human Computer Interaction &amp; Design', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7271','Human Computer Interaction &amp; Design', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7992','IT Research Proposal', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7992','IT Research Proposal', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 7993','IT Dissertation', 'null', 'null', 'MITEC');</v>
+        <v>INSERT INTO courses VALUES('INFO 7993','IT Dissertation', null, null, 'MITEC');</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CITA 7011 ','Islamic Worldview on IT and Society ', 'null', 'null', 'MBIA');</v>
+        <v>INSERT INTO courses VALUES('CITA 7011 ','Islamic Worldview on IT and Society ', null, null, 'MBIA');</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CBIA 7101 ','Big Data Across Verticals and Domains ', 'null', 'null', 'MBIA');</v>
+        <v>INSERT INTO courses VALUES('CBIA 7101 ','Big Data Across Verticals and Domains ', null, null, 'MBIA');</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CBIA 7102 ','Data Quality ', 'null', 'null', 'MBIA');</v>
+        <v>INSERT INTO courses VALUES('CBIA 7102 ','Data Quality ', null, null, 'MBIA');</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CBIA 7202 ','Unstructured Data Analytics ', 'null', 'null', 'MBIA');</v>
+        <v>INSERT INTO courses VALUES('CBIA 7202 ','Unstructured Data Analytics ', null, null, 'MBIA');</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CBIA 7301 ','Datathon and Bootcamp ', 'null', 'null', 'MBIA');</v>
+        <v>INSERT INTO courses VALUES('CBIA 7301 ','Datathon and Bootcamp ', null, null, 'MBIA');</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CCSM 7301 ','Risk Management ', 'null', 'null', 'MPSM');</v>
+        <v>INSERT INTO courses VALUES('CCSM 7301 ','Risk Management ', null, null, 'MPSM');</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CCSM 7101 ','Business Continuity &amp; Disaster Recovery ', 'null', 'null', 'MPSM');</v>
+        <v>INSERT INTO courses VALUES('CCSM 7101 ','Business Continuity &amp; Disaster Recovery ', null, null, 'MPSM');</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CCSM 7102 ','Physical Protective Security ', 'null', 'null', 'MPSM');</v>
+        <v>INSERT INTO courses VALUES('CCSM 7102 ','Physical Protective Security ', null, null, 'MPSM');</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CCSM 7998 ','Dissertation ', 'null', 'null', 'MPSM');</v>
+        <v>INSERT INTO courses VALUES('CCSM 7998 ','Dissertation ', null, null, 'MPSM');</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7070','Management of Information Institutions', 'null', 'null', 'MLIB');</v>
+        <v>INSERT INTO courses VALUES('LISC 7070','Management of Information Institutions', null, null, 'MLIB');</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7120','Information Analysis and Organization I', 'null', 'null', 'MLIB');</v>
+        <v>INSERT INTO courses VALUES('LISC 7120','Information Analysis and Organization I', null, null, 'MLIB');</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7071','Management of Information Institutions', 'null', 'null', 'MLIB');</v>
+        <v>INSERT INTO courses VALUES('LISC 7071','Management of Information Institutions', null, null, 'MLIB');</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7020','Information Analysis and Organization I', 'null', 'null', 'MLIB');</v>
+        <v>INSERT INTO courses VALUES('LISC 7020','Information Analysis and Organization I', null, null, 'MLIB');</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7121','Information Analysis and Organization II', 'null', 'null', 'MLIB');</v>
+        <v>INSERT INTO courses VALUES('LISC 7121','Information Analysis and Organization II', null, null, 'MLIB');</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7420','Application of Information Technology in Library', 'null', 'null', 'MLIB');</v>
+        <v>INSERT INTO courses VALUES('LISC 7420','Application of Information Technology in Library', null, null, 'MLIB');</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7421','Application of Information Technology in Library', 'null', 'null', 'MLIB');</v>
+        <v>INSERT INTO courses VALUES('LISC 7421','Application of Information Technology in Library', null, null, 'MLIB');</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7430','Digital Library', 'null', 'null', 'MLIB');</v>
+        <v>INSERT INTO courses VALUES('LISC 7430','Digital Library', null, null, 'MLIB');</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7135','Records and Archives Management', 'null', 'null', 'MLIB');</v>
+        <v>INSERT INTO courses VALUES('LISC 7135','Records and Archives Management', null, null, 'MLIB');</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7440','Information Processing and Database Development', 'null', 'null', 'MLIB');</v>
+        <v>INSERT INTO courses VALUES('LISC 7440','Information Processing and Database Development', null, null, 'MLIB');</v>
       </c>
     </row>
   </sheetData>
@@ -5023,7 +5023,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5065,8 +5065,8 @@
         <v>5</v>
       </c>
       <c r="E2" t="str">
-        <f>"INSERT INTO p_g_programs VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"');"</f>
-        <v>INSERT INTO p_g_programs VALUES('MPSM','Master in Protective Security Management','null','null');</v>
+        <f>"INSERT INTO p_g_programs VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"',"&amp;C2&amp;","&amp;D2&amp;");"</f>
+        <v>INSERT INTO p_g_programs VALUES('MPSM','Master in Protective Security Management',null,null);</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5083,8 +5083,8 @@
         <v>5</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E5" si="0">"INSERT INTO p_g_programs VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
-        <v>INSERT INTO p_g_programs VALUES('MBIA','Master in Business Intelligence And Analytic','null','null');</v>
+        <f t="shared" ref="E3:E5" si="0">"INSERT INTO p_g_programs VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"',"&amp;C3&amp;","&amp;D3&amp;");"</f>
+        <v>INSERT INTO p_g_programs VALUES('MBIA','Master in Business Intelligence And Analytic',null,null);</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO p_g_programs VALUES('MITEC','Master of Information Technology','null','null');</v>
+        <v>INSERT INTO p_g_programs VALUES('MITEC','Master of Information Technology',null,null);</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO p_g_programs VALUES('MLIB','Master of Library and Information Science','null','null');</v>
+        <v>INSERT INTO p_g_programs VALUES('MLIB','Master of Library and Information Science',null,null);</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">

--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D27B9A9-313C-074A-A1D4-FAAA0C14101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298BB2E-6862-FA4D-A6AA-1E3CA0E9F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="4040" windowWidth="23260" windowHeight="12460" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16160" activeTab="1" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="304">
   <si>
     <t>staff_id</t>
   </si>
@@ -946,6 +946,12 @@
   </si>
   <si>
     <t>INFO 7992</t>
+  </si>
+  <si>
+    <t>INFO 4342</t>
+  </si>
+  <si>
+    <t>BUSINESS CONTINUITY AND DISASTER RECOVERY</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F0502-707F-E94C-BAD9-F21BCE0BBD9A}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2774,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63454FF6-7634-A745-9553-1678A6EECCD5}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F68"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2846,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
+        <f t="shared" ref="F3:F67" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
         <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
       </c>
     </row>
@@ -3398,10 +3404,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
@@ -3414,15 +3420,15 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4342','BUSINESS CONTINUITY AND DISASTER RECOVERY', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
@@ -3435,15 +3441,15 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
@@ -3456,36 +3462,36 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
         <v>INSERT INTO courses VALUES('INFO 4352','DIGITALPRENEURSHIP CUSTOMER DEVELOPMENT', null, null, 'BIT');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
@@ -3498,15 +3504,15 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
@@ -3519,15 +3525,15 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
@@ -3540,15 +3546,15 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
@@ -3561,15 +3567,15 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>5</v>
@@ -3582,15 +3588,15 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
@@ -3603,15 +3609,15 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>5</v>
@@ -3624,15 +3630,15 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>5</v>
@@ -3645,15 +3651,15 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>5</v>
@@ -3666,15 +3672,15 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>5</v>
@@ -3687,15 +3693,15 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>5</v>
@@ -3708,15 +3714,15 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
@@ -3729,15 +3735,15 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
@@ -3750,15 +3756,15 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
@@ -3771,15 +3777,15 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>5</v>
@@ -3792,15 +3798,15 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>5</v>
@@ -3813,15 +3819,15 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>5</v>
@@ -3834,15 +3840,15 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>5</v>
@@ -3855,15 +3861,15 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>5</v>
@@ -3876,15 +3882,15 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>5</v>
@@ -3897,15 +3903,15 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>5</v>
@@ -3918,15 +3924,15 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>5</v>
@@ -3939,15 +3945,15 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>5</v>
@@ -3960,15 +3966,15 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>5</v>
@@ -3981,15 +3987,15 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>5</v>
@@ -4002,15 +4008,15 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>5</v>
@@ -4023,15 +4029,15 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>5</v>
@@ -4044,15 +4050,15 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>5</v>
@@ -4065,15 +4071,15 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
@@ -4086,15 +4092,15 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
@@ -4107,15 +4113,15 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
@@ -4128,15 +4134,15 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
@@ -4149,15 +4155,15 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
@@ -4170,15 +4176,15 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>5</v>
@@ -4190,16 +4196,16 @@
         <v>185</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F68" si="1">"INSERT INTO courses VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"', "&amp;C67&amp;", "&amp;D67&amp;", '"&amp;E67&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>5</v>
@@ -4211,6 +4217,27 @@
         <v>185</v>
       </c>
       <c r="F68" t="str">
+        <f t="shared" ref="F68:F69" si="1">"INSERT INTO courses VALUES('"&amp;A68&amp;"','"&amp;B68&amp;"', "&amp;C68&amp;", "&amp;D68&amp;", '"&amp;E68&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F69" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO courses VALUES('CSCI 4326','EMPIRICAL METHODS IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>

--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298BB2E-6862-FA4D-A6AA-1E3CA0E9F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE2BBF7-090A-2243-9595-DEB795F1B4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16160" activeTab="1" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12700" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="307">
   <si>
     <t>staff_id</t>
   </si>
@@ -162,9 +162,6 @@
     <t>NOOR HAYANI BINTI ABD RAHIM</t>
   </si>
   <si>
-    <t>NOOR SHAFINI MOHAMAD</t>
-  </si>
-  <si>
     <t>NURAZLIN BINTI ZAINAL AZMI</t>
   </si>
   <si>
@@ -952,6 +949,18 @@
   </si>
   <si>
     <t>BUSINESS CONTINUITY AND DISASTER RECOVERY</t>
+  </si>
+  <si>
+    <t>INFO 4332</t>
+  </si>
+  <si>
+    <t>KNOWLEDGE MANAGEMENT PRACTICES AND APPLICATION</t>
+  </si>
+  <si>
+    <t>INFO 4313</t>
+  </si>
+  <si>
+    <t>DATA MINING</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,10 +1048,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1373,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F0502-707F-E94C-BAD9-F21BCE0BBD9A}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,10 +1393,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1436,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">"INSERT INTO staff VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;");"</f>
+        <f t="shared" ref="E3:E65" si="0">"INSERT INTO staff VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;");"</f>
         <v>INSERT INTO staff VALUES('1716','ABD. RAHMAN BIN AHLAN', null, null);</v>
       </c>
     </row>
@@ -1945,10 +1950,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>6288</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="4">
+        <v>10163</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1959,12 +1964,12 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('6288','NOOR SHAFINI MOHAMAD', null, null);</v>
+        <v>INSERT INTO staff VALUES('10163','NURAZLIN BINTI ZAINAL AZMI', null, null);</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>10163</v>
+        <v>9026</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>41</v>
@@ -1977,12 +1982,12 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('10163','NURAZLIN BINTI ZAINAL AZMI', null, null);</v>
+        <v>INSERT INTO staff VALUES('9026','NURHAFIZAH BINTI MAHRI', null, null);</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>9026</v>
+        <v>5341</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>42</v>
@@ -1995,12 +2000,12 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('9026','NURHAFIZAH BINTI MAHRI', null, null);</v>
+        <v>INSERT INTO staff VALUES('5341','NURUL NUHA BINTI ABDUL MOLOK', null, null);</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>5341</v>
+        <v>4295</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>43</v>
@@ -2013,12 +2018,12 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('5341','NURUL NUHA BINTI ABDUL MOLOK', null, null);</v>
+        <v>INSERT INTO staff VALUES('4295','SHUHAILI BT. TALIB', null, null);</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>4295</v>
+        <v>6993</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>44</v>
@@ -2031,12 +2036,12 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('4295','SHUHAILI BT. TALIB', null, null);</v>
+        <v>INSERT INTO staff VALUES('6993','SUHAILA BINTI SAMSURI', null, null);</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>6993</v>
+        <v>6948</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>45</v>
@@ -2049,12 +2054,12 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('6993','SUHAILA BINTI SAMSURI', null, null);</v>
+        <v>INSERT INTO staff VALUES('6948','ZAHIDAH BINTI ZULKIFLI', null, null);</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>6948</v>
+        <v>4896</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>46</v>
@@ -2067,15 +2072,15 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('6948','ZAHIDAH BINTI ZULKIFLI', null, null);</v>
+        <v>INSERT INTO staff VALUES('4896','ZAINATUL SHIMA ABDULLAH', null, null);</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>4896</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>47</v>
+      <c r="A39" s="9">
+        <v>7132</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
@@ -2085,14 +2090,14 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('4896','ZAINATUL SHIMA ABDULLAH', null, null);</v>
+        <v>INSERT INTO staff VALUES('7132','ADAMU ABUBAKAR IBRAHIM', null, null);</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
-        <v>7132</v>
-      </c>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="9">
+        <v>10332</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2103,14 +2108,14 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('7132','ADAMU ABUBAKAR IBRAHIM', null, null);</v>
+        <v>INSERT INTO staff VALUES('10332','AHSIAH BINTI ISMAIL', null, null);</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
-        <v>10332</v>
-      </c>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="9">
+        <v>9608</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2121,14 +2126,14 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('10332','AHSIAH BINTI ISMAIL', null, null);</v>
+        <v>INSERT INTO staff VALUES('9608','AKEEM OLOWOLAYEMO', null, null);</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="11">
-        <v>9608</v>
-      </c>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="9">
+        <v>4296</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2139,14 +2144,14 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('9608','AKEEM OLOWOLAYEMO', null, null);</v>
+        <v>INSERT INTO staff VALUES('4296','AMELIA RITAHANI BT. ISMAIL', null, null);</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
-        <v>4296</v>
-      </c>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="9">
+        <v>9221</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2157,14 +2162,14 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('4296','AMELIA RITAHANI BT. ISMAIL', null, null);</v>
+        <v>INSERT INTO staff VALUES('9221','AMIR AATIEFF BIN AMIR HUSSIN', null, null);</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="11">
-        <v>9221</v>
-      </c>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="9">
+        <v>9157</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -2175,14 +2180,14 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('9221','AMIR AATIEFF BIN AMIR HUSSIN', null, null);</v>
+        <v>INSERT INTO staff VALUES('9157','ANDI FITRIAH BINTI ABDUL KADIR', null, null);</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="11">
-        <v>9157</v>
-      </c>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="9">
+        <v>10324</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -2193,14 +2198,14 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('9157','ANDI FITRIAH BINTI ABDUL KADIR', null, null);</v>
+        <v>INSERT INTO staff VALUES('10324','ASMARANI BINTI AHMAD PUZI', null, null);</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="11">
-        <v>10324</v>
-      </c>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="9">
+        <v>5133</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -2211,14 +2216,14 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('10324','ASMARANI BINTI AHMAD PUZI', null, null);</v>
+        <v>INSERT INTO staff VALUES('5133','AZLIN BINTI NORDIN', null, null);</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="11">
-        <v>5133</v>
-      </c>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="9">
+        <v>10567</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2229,14 +2234,14 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('5133','AZLIN BINTI NORDIN', null, null);</v>
+        <v>INSERT INTO staff VALUES('10567','DINI OKTARINA DWI HANDAYANI', null, null);</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="11">
-        <v>10567</v>
-      </c>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="9">
+        <v>7910</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2247,14 +2252,14 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('10567','DINI OKTARINA DWI HANDAYANI', null, null);</v>
+        <v>INSERT INTO staff VALUES('7910','HAFIZAH BINTI MANSOR', null, null);</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="11">
-        <v>7910</v>
-      </c>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="9">
+        <v>4870</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2265,14 +2270,14 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('7910','HAFIZAH BINTI MANSOR', null, null);</v>
+        <v>INSERT INTO staff VALUES('4870','HAMWIRA SAKTI BIN YAACOB', null, null);</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="11">
-        <v>4870</v>
-      </c>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="9">
+        <v>771</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -2283,14 +2288,14 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('4870','HAMWIRA SAKTI BIN YAACOB', null, null);</v>
+        <v>INSERT INTO staff VALUES('771','MAZNAH BT AHMAD', null, null);</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="11">
-        <v>771</v>
-      </c>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="9">
+        <v>8123</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -2301,14 +2306,14 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('771','MAZNAH BT AHMAD', null, null);</v>
+        <v>INSERT INTO staff VALUES('8123','NORBIK BASHAH BIN IDRIS', null, null);</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="11">
-        <v>8123</v>
-      </c>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="9">
+        <v>9622</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -2319,14 +2324,14 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('8123','NORBIK BASHAH BIN IDRIS', null, null);</v>
+        <v>INSERT INTO staff VALUES('9622','NORLIA MD YUSOF', null, null);</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="11">
-        <v>9622</v>
-      </c>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="9">
+        <v>5505</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -2337,14 +2342,14 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('9622','NORLIA MD YUSOF', null, null);</v>
+        <v>INSERT INTO staff VALUES('5505','NORMAZIAH BINTI ABDUL AZIZ', null, null);</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="11">
-        <v>5505</v>
-      </c>
-      <c r="B54" s="12" t="s">
+      <c r="A54" s="9">
+        <v>3509</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -2355,14 +2360,14 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('5505','NORMAZIAH BINTI ABDUL AZIZ', null, null);</v>
+        <v>INSERT INTO staff VALUES('3509','NORMI SHAM BT. AWANG ABU BAKAR', null, null);</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="11">
-        <v>3509</v>
-      </c>
-      <c r="B55" s="12" t="s">
+      <c r="A55" s="9">
+        <v>3705</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2373,14 +2378,14 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('3509','NORMI SHAM BT. AWANG ABU BAKAR', null, null);</v>
+        <v>INSERT INTO staff VALUES('3705','NORSAREMAH BT. SALLEH', null, null);</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="11">
-        <v>3705</v>
-      </c>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="9">
+        <v>8627</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -2391,14 +2396,14 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('3705','NORSAREMAH BT. SALLEH', null, null);</v>
+        <v>INSERT INTO staff VALUES('8627','NORZALIZA BINTI MD NOR', null, null);</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="11">
-        <v>8627</v>
-      </c>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="9">
+        <v>8405</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -2409,14 +2414,14 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('8627','NORZALIZA BINTI MD NOR', null, null);</v>
+        <v>INSERT INTO staff VALUES('8405','NOOR AZURA BINTI ZAKARIA', null, null);</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="11">
-        <v>8405</v>
-      </c>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="9">
+        <v>5066</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2427,14 +2432,14 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('8405','NOOR AZURA BINTI ZAKARIA', null, null);</v>
+        <v>INSERT INTO staff VALUES('5066','NORZARIYAH BINTI YAHYA', null, null);</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="11">
-        <v>5066</v>
-      </c>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="9">
+        <v>8371</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2445,14 +2450,14 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('5066','NORZARIYAH BINTI YAHYA', null, null);</v>
+        <v>INSERT INTO staff VALUES('8371','NURUL LIYANA BINTI MOHAMAD ZULKUFLI', null, null);</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="11">
-        <v>8371</v>
-      </c>
-      <c r="B60" s="12" t="s">
+      <c r="A60" s="9">
+        <v>4964</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -2463,14 +2468,14 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('8371','NURUL LIYANA BINTI MOHAMAD ZULKUFLI', null, null);</v>
+        <v>INSERT INTO staff VALUES('4964','RAINI BINTI HASSAN', null, null);</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="11">
-        <v>4964</v>
-      </c>
-      <c r="B61" s="12" t="s">
+      <c r="A61" s="9">
+        <v>8638</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -2481,14 +2486,14 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('4964','RAINI BINTI HASSAN', null, null);</v>
+        <v>INSERT INTO staff VALUES('8638','RAWAD ABDULKHALEQ ABDULMOLLA ABDULGHAFOR', null, null);</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="11">
-        <v>8638</v>
-      </c>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="9">
+        <v>5251</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -2499,14 +2504,14 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('8638','RAWAD ABDULKHALEQ ABDULMOLLA ABDULGHAFOR', null, null);</v>
+        <v>INSERT INTO staff VALUES('5251','RIZAL BIN MOHD. NOR', null, null);</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="11">
-        <v>5251</v>
-      </c>
-      <c r="B63" s="12" t="s">
+      <c r="A63" s="9">
+        <v>8667</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -2517,14 +2522,14 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('5251','RIZAL BIN MOHD. NOR', null, null);</v>
+        <v>INSERT INTO staff VALUES('8667','SHARYAR WANI', null, null);</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="11">
-        <v>8667</v>
-      </c>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="9">
+        <v>7620</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -2535,14 +2540,14 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('8667','SHARYAR WANI', null, null);</v>
+        <v>INSERT INTO staff VALUES('7620','SITI ASMA BINTI MOHAMMED', null, null);</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="11">
-        <v>7620</v>
-      </c>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="9">
+        <v>4615</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>137</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -2553,14 +2558,14 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('7620','SITI ASMA BINTI MOHAMMED', null, null);</v>
+        <v>INSERT INTO staff VALUES('4615','SURIANI BT. SULAIMAN', null, null);</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="11">
-        <v>4615</v>
-      </c>
-      <c r="B66" s="12" t="s">
+      <c r="A66" s="9">
+        <v>9954</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -2570,15 +2575,15 @@
         <v>5</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO staff VALUES('4615','SURIANI BT. SULAIMAN', null, null);</v>
+        <f t="shared" ref="E66:E76" si="1">"INSERT INTO staff VALUES('"&amp;A66&amp;"','"&amp;B66&amp;"', "&amp;C66&amp;", "&amp;D66&amp;");"</f>
+        <v>INSERT INTO staff VALUES('9954','TAKUMI SASE', null, null);</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="11">
-        <v>9954</v>
-      </c>
-      <c r="B67" s="12" t="s">
+      <c r="A67" s="9">
+        <v>10552</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -2588,15 +2593,15 @@
         <v>5</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E77" si="1">"INSERT INTO staff VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"', "&amp;C67&amp;", "&amp;D67&amp;");"</f>
-        <v>INSERT INTO staff VALUES('9954','TAKUMI SASE', null, null);</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO staff VALUES('10552','ZAINAB SENAN MAHMOD ATTAR BASHI', null, null);</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="11">
-        <v>10552</v>
-      </c>
-      <c r="B68" s="12" t="s">
+      <c r="A68" s="9">
+        <v>10744</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2607,14 +2612,14 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO staff VALUES('10552','ZAINAB SENAN MAHMOD ATTAR BASHI', null, null);</v>
+        <v>INSERT INTO staff VALUES('10744','TENGKU MOHD BIN TENGKU SEMBOK ', null, null);</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="11">
-        <v>10744</v>
-      </c>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="9">
+        <v>10738</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -2625,14 +2630,14 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO staff VALUES('10744','TENGKU MOHD BIN TENGKU SEMBOK ', null, null);</v>
+        <v>INSERT INTO staff VALUES('10738','AHMAD ANWAR BIN ZAINUDDIN', null, null);</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="11">
-        <v>10738</v>
-      </c>
-      <c r="B70" s="12" t="s">
+      <c r="A70" s="9">
+        <v>10722</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -2643,15 +2648,15 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO staff VALUES('10738','AHMAD ANWAR BIN ZAINUDDIN', null, null);</v>
+        <v>INSERT INTO staff VALUES('10722','ABDUL WAHAB BIN ABDUL RAHMAN', null, null);</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="11">
-        <v>10722</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>143</v>
+      <c r="A71" s="2">
+        <v>1675</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>5</v>
@@ -2661,14 +2666,14 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO staff VALUES('10722','ABDUL WAHAB BIN ABDUL RAHMAN', null, null);</v>
+        <v>INSERT INTO staff VALUES('1675','ROSLINA OTHMAN ', null, null);</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>1675</v>
-      </c>
-      <c r="B72" s="12" t="s">
+        <v>7684</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>294</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -2679,14 +2684,14 @@
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO staff VALUES('1675','ROSLINA OTHMAN ', null, null);</v>
+        <v>INSERT INTO staff VALUES('7684','ROOSFA HASHIM', null, null);</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>7684</v>
-      </c>
-      <c r="B73" s="12" t="s">
+        <v>8227</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>295</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -2697,14 +2702,14 @@
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO staff VALUES('7684','ROOSFA HASHIM', null, null);</v>
+        <v>INSERT INTO staff VALUES('8227','SHARIFAH NUR AMIRAH SARIF ABDULLAH', null, null);</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>8227</v>
-      </c>
-      <c r="B74" s="12" t="s">
+        <v>9019</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>296</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -2715,14 +2720,14 @@
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO staff VALUES('8227','SHARIFAH NUR AMIRAH SARIF ABDULLAH', null, null);</v>
+        <v>INSERT INTO staff VALUES('9019','NOR SAADAH MD. NOR', null, null);</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>9019</v>
-      </c>
-      <c r="B75" s="12" t="s">
+        <v>9041</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>297</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -2733,14 +2738,14 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO staff VALUES('9019','NOR SAADAH MD. NOR', null, null);</v>
+        <v>INSERT INTO staff VALUES('9041','NUR LEYNI NILAM PUTRI JUNURHAM', null, null);</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>9041</v>
-      </c>
-      <c r="B76" s="12" t="s">
+        <v>11085</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>298</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -2750,24 +2755,6 @@
         <v>5</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO staff VALUES('9041','NUR LEYNI NILAM PUTRI JUNURHAM', null, null);</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>11085</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO staff VALUES('11085','AYUB BIN ABDUL RAHMAN', null, null);</v>
       </c>
@@ -2780,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63454FF6-7634-A745-9553-1678A6EECCD5}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2815,11 +2802,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -2836,11 +2823,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -2852,16 +2839,16 @@
         <v>9</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F67" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
+        <f t="shared" ref="F3:F69" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
         <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -2878,11 +2865,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -2899,11 +2886,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -2920,11 +2907,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
@@ -2941,11 +2928,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -2962,11 +2949,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -2983,11 +2970,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -3004,11 +2991,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
@@ -3025,11 +3012,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -3046,11 +3033,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
@@ -3067,11 +3054,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -3088,11 +3075,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
@@ -3109,11 +3096,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -3130,11 +3117,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
@@ -3151,11 +3138,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
@@ -3172,11 +3159,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>83</v>
+      <c r="A19" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -3189,15 +3176,15 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4314','BUSINESS DATA ANALYTICS', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4313','DATA MINING', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>85</v>
+      <c r="A20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
@@ -3210,15 +3197,15 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4320','ANIMATION TECHNIQUE', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4314','BUSINESS DATA ANALYTICS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>87</v>
+      <c r="A21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
@@ -3231,15 +3218,15 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4321','CREATIVE DESIGN TECHNIQUES', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4320','ANIMATION TECHNIQUE', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>89</v>
+      <c r="A22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
@@ -3252,15 +3239,15 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4325','GRAPHIC DESIGN', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4321','CREATIVE DESIGN TECHNIQUES', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>91</v>
+      <c r="A23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -3273,15 +3260,15 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4328','GAME DESIGN AND DEVELOPMENT', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4325','GRAPHIC DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>93</v>
+      <c r="A24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
@@ -3294,15 +3281,15 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4333','INTEGRATED BUSINESS PROCESS AND ERP SYSTEMS', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4328','GAME DESIGN AND DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>95</v>
+      <c r="A25" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
@@ -3315,15 +3302,15 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4335','MOBILE APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4332','KNOWLEDGE MANAGEMENT PRACTICES AND APPLICATION', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>97</v>
+      <c r="A26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
@@ -3336,15 +3323,15 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4336','INFORMATION RETRIEVAL TECHNOLOGIES', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4333','INTEGRATED BUSINESS PROCESS AND ERP SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>99</v>
+      <c r="A27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
@@ -3357,15 +3344,15 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4330','CONTROL AND AUDIT OF INFORMATION SYSTEMS', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4335','MOBILE APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>101</v>
+      <c r="A28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -3378,15 +3365,15 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4340','MANAGEMENT OF INFORMATION SECURITY', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4336','INFORMATION RETRIEVAL TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>103</v>
+      <c r="A29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
@@ -3399,15 +3386,15 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4341','RISK MANAGEMENT', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4330','CONTROL AND AUDIT OF INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>303</v>
+      <c r="A30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
@@ -3420,15 +3407,15 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4342','BUSINESS CONTINUITY AND DISASTER RECOVERY', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4340','MANAGEMENT OF INFORMATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>105</v>
+      <c r="A31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
@@ -3441,15 +3428,15 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4341','RISK MANAGEMENT', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>107</v>
+      <c r="A32" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
@@ -3462,15 +3449,15 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4342','BUSINESS CONTINUITY AND DISASTER RECOVERY', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>109</v>
+      <c r="A33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -3483,761 +3470,803 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
         <v>INSERT INTO courses VALUES('INFO 4352','DIGITALPRENEURSHIP CUSTOMER DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" ref="F70:F71" si="1">"INSERT INTO courses VALUES('"&amp;A70&amp;"','"&amp;B70&amp;"', "&amp;C70&amp;", "&amp;D70&amp;", '"&amp;E70&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="C71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F67" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F68" t="str">
-        <f t="shared" ref="F68:F69" si="1">"INSERT INTO courses VALUES('"&amp;A68&amp;"','"&amp;B68&amp;"', "&amp;C68&amp;", "&amp;D68&amp;", '"&amp;E68&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F69" t="str">
+      <c r="F71" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO courses VALUES('CSCI 4326','EMPIRICAL METHODS IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
@@ -4285,11 +4314,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
         <v>219</v>
       </c>
-      <c r="B2" t="s">
-        <v>220</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4297,7 +4326,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" t="str">
         <f>"INSERT INTO courses VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;", '"&amp;E2&amp;"');"</f>
@@ -4306,11 +4335,11 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
         <v>221</v>
       </c>
-      <c r="B3" t="s">
-        <v>222</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4318,7 +4347,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F37" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
@@ -4327,11 +4356,11 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
         <v>223</v>
       </c>
-      <c r="B4" t="s">
-        <v>224</v>
-      </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
@@ -4339,7 +4368,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -4348,11 +4377,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
         <v>225</v>
       </c>
-      <c r="B5" t="s">
-        <v>226</v>
-      </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
@@ -4360,7 +4389,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -4369,11 +4398,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" t="s">
         <v>227</v>
       </c>
-      <c r="B6" t="s">
-        <v>228</v>
-      </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
@@ -4381,7 +4410,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -4390,11 +4419,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
         <v>229</v>
       </c>
-      <c r="B7" t="s">
-        <v>230</v>
-      </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
@@ -4402,7 +4431,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -4411,11 +4440,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
         <v>231</v>
       </c>
-      <c r="B8" t="s">
-        <v>232</v>
-      </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4423,7 +4452,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -4432,11 +4461,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
         <v>233</v>
       </c>
-      <c r="B9" t="s">
-        <v>234</v>
-      </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
@@ -4444,7 +4473,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -4453,11 +4482,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
         <v>235</v>
       </c>
-      <c r="B10" t="s">
-        <v>236</v>
-      </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
@@ -4465,7 +4494,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -4474,11 +4503,11 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" t="s">
         <v>237</v>
       </c>
-      <c r="B11" t="s">
-        <v>238</v>
-      </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
@@ -4486,7 +4515,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -4495,11 +4524,11 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" t="s">
         <v>239</v>
       </c>
-      <c r="B12" t="s">
-        <v>240</v>
-      </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
@@ -4507,7 +4536,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -4516,11 +4545,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" t="s">
         <v>241</v>
       </c>
-      <c r="B13" t="s">
-        <v>242</v>
-      </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
@@ -4528,7 +4557,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -4537,11 +4566,11 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" t="s">
         <v>243</v>
       </c>
-      <c r="B14" t="s">
-        <v>244</v>
-      </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
@@ -4549,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -4558,11 +4587,11 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" t="s">
         <v>245</v>
       </c>
-      <c r="B15" t="s">
-        <v>246</v>
-      </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
@@ -4570,7 +4599,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -4579,11 +4608,11 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" t="s">
         <v>247</v>
       </c>
-      <c r="B16" t="s">
-        <v>248</v>
-      </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
@@ -4591,7 +4620,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -4600,10 +4629,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
@@ -4612,7 +4641,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -4621,11 +4650,11 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" t="s">
         <v>250</v>
       </c>
-      <c r="B18" t="s">
-        <v>251</v>
-      </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
@@ -4633,7 +4662,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -4642,10 +4671,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -4654,7 +4683,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -4663,10 +4692,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
@@ -4675,7 +4704,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -4684,10 +4713,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
@@ -4696,7 +4725,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -4705,10 +4734,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
@@ -4717,7 +4746,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -4726,10 +4755,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -4738,7 +4767,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -4747,10 +4776,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
@@ -4759,7 +4788,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -4768,10 +4797,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
@@ -4780,7 +4809,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -4789,10 +4818,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
@@ -4801,7 +4830,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -4810,11 +4839,11 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" t="s">
         <v>268</v>
       </c>
-      <c r="B27" t="s">
-        <v>269</v>
-      </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
@@ -4822,7 +4851,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -4831,10 +4860,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -4843,7 +4872,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -4852,10 +4881,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
@@ -4864,7 +4893,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -4873,10 +4902,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
@@ -4885,7 +4914,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -4894,10 +4923,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
@@ -4906,7 +4935,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -4915,11 +4944,11 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" t="s">
         <v>272</v>
       </c>
-      <c r="B32" t="s">
-        <v>273</v>
-      </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
@@ -4927,7 +4956,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -4936,10 +4965,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -4948,7 +4977,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -4957,10 +4986,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
@@ -4969,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -4978,11 +5007,11 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B35" t="s">
         <v>275</v>
       </c>
-      <c r="B35" t="s">
-        <v>276</v>
-      </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
@@ -4990,7 +5019,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -4999,11 +5028,11 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" t="s">
         <v>277</v>
       </c>
-      <c r="B36" t="s">
-        <v>278</v>
-      </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
@@ -5011,7 +5040,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -5020,11 +5049,11 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B37" t="s">
         <v>279</v>
       </c>
-      <c r="B37" t="s">
-        <v>280</v>
-      </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
@@ -5032,7 +5061,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -5066,7 +5095,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -5079,11 +5108,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>289</v>
+      <c r="A2" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -5097,11 +5126,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>300</v>
+      <c r="A3" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -5116,10 +5145,10 @@
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>287</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -5134,10 +5163,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -5207,22 +5236,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE2BBF7-090A-2243-9595-DEB795F1B4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA52919-64A6-D44C-B96F-622BEDBFC151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12700" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12700" activeTab="1" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="309">
   <si>
     <t>staff_id</t>
   </si>
@@ -961,6 +961,12 @@
   </si>
   <si>
     <t>DATA MINING</t>
+  </si>
+  <si>
+    <t>INFO 4326</t>
+  </si>
+  <si>
+    <t>3D MODELLING</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F0502-707F-E94C-BAD9-F21BCE0BBD9A}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="125" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -2767,10 +2773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63454FF6-7634-A745-9553-1678A6EECCD5}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2839,7 +2845,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F69" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
+        <f t="shared" ref="F3:F70" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
         <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
       </c>
     </row>
@@ -3265,10 +3271,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>89</v>
+        <v>307</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
@@ -3281,15 +3287,15 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4328','GAME DESIGN AND DEVELOPMENT', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4326','3D MODELLING', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>303</v>
+        <v>89</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>304</v>
+        <v>90</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
@@ -3302,15 +3308,15 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4332','KNOWLEDGE MANAGEMENT PRACTICES AND APPLICATION', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4328','GAME DESIGN AND DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>91</v>
+        <v>303</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>92</v>
+        <v>304</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
@@ -3323,15 +3329,15 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4333','INTEGRATED BUSINESS PROCESS AND ERP SYSTEMS', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4332','KNOWLEDGE MANAGEMENT PRACTICES AND APPLICATION', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
@@ -3344,15 +3350,15 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4335','MOBILE APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4333','INTEGRATED BUSINESS PROCESS AND ERP SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -3365,15 +3371,15 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4336','INFORMATION RETRIEVAL TECHNOLOGIES', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4335','MOBILE APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
@@ -3386,15 +3392,15 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4330','CONTROL AND AUDIT OF INFORMATION SYSTEMS', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4336','INFORMATION RETRIEVAL TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
@@ -3407,15 +3413,15 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4340','MANAGEMENT OF INFORMATION SECURITY', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4330','CONTROL AND AUDIT OF INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
@@ -3428,15 +3434,15 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4341','RISK MANAGEMENT', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4340','MANAGEMENT OF INFORMATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
@@ -3449,15 +3455,15 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4342','BUSINESS CONTINUITY AND DISASTER RECOVERY', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4341','RISK MANAGEMENT', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>103</v>
+        <v>301</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -3470,15 +3476,15 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4342','BUSINESS CONTINUITY AND DISASTER RECOVERY', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
@@ -3491,15 +3497,15 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
@@ -3512,36 +3518,36 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
         <v>INSERT INTO courses VALUES('INFO 4352','DIGITALPRENEURSHIP CUSTOMER DEVELOPMENT', null, null, 'BIT');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
@@ -3554,15 +3560,15 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>5</v>
@@ -3575,15 +3581,15 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
@@ -3596,15 +3602,15 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>5</v>
@@ -3617,15 +3623,15 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>5</v>
@@ -3638,15 +3644,15 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>5</v>
@@ -3659,15 +3665,15 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>5</v>
@@ -3680,15 +3686,15 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>5</v>
@@ -3701,15 +3707,15 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
@@ -3722,15 +3728,15 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
@@ -3743,15 +3749,15 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
@@ -3764,15 +3770,15 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>5</v>
@@ -3785,15 +3791,15 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>5</v>
@@ -3806,15 +3812,15 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>5</v>
@@ -3827,15 +3833,15 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>5</v>
@@ -3848,15 +3854,15 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>5</v>
@@ -3869,15 +3875,15 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>5</v>
@@ -3890,15 +3896,15 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>5</v>
@@ -3911,15 +3917,15 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>5</v>
@@ -3932,15 +3938,15 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>5</v>
@@ -3953,15 +3959,15 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>5</v>
@@ -3974,15 +3980,15 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>5</v>
@@ -3995,15 +4001,15 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>5</v>
@@ -4016,15 +4022,15 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>5</v>
@@ -4037,15 +4043,15 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>5</v>
@@ -4058,15 +4064,15 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
@@ -4079,15 +4085,15 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
@@ -4100,15 +4106,15 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
@@ -4121,15 +4127,15 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
@@ -4142,15 +4148,15 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
@@ -4163,15 +4169,15 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>5</v>
@@ -4184,15 +4190,15 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>5</v>
@@ -4205,15 +4211,15 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>5</v>
@@ -4226,15 +4232,15 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>5</v>
@@ -4246,16 +4252,16 @@
         <v>184</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" ref="F70:F71" si="1">"INSERT INTO courses VALUES('"&amp;A70&amp;"','"&amp;B70&amp;"', "&amp;C70&amp;", "&amp;D70&amp;", '"&amp;E70&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>5</v>
@@ -4267,6 +4273,27 @@
         <v>184</v>
       </c>
       <c r="F71" t="str">
+        <f t="shared" ref="F71:F72" si="1">"INSERT INTO courses VALUES('"&amp;A71&amp;"','"&amp;B71&amp;"', "&amp;C71&amp;", "&amp;D71&amp;", '"&amp;E71&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F72" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO courses VALUES('CSCI 4326','EMPIRICAL METHODS IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>

--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA52919-64A6-D44C-B96F-622BEDBFC151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F056E567-AB2A-5445-8504-D6835DE64739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12700" activeTab="1" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="311">
   <si>
     <t>staff_id</t>
   </si>
@@ -967,6 +967,12 @@
   </si>
   <si>
     <t>3D MODELLING</t>
+  </si>
+  <si>
+    <t>INFO 4345</t>
+  </si>
+  <si>
+    <t>WEB APPLICATION SECURITY</t>
   </si>
 </sst>
 </file>
@@ -2773,10 +2779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63454FF6-7634-A745-9553-1678A6EECCD5}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2845,7 +2851,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F70" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
+        <f t="shared" ref="F3:F71" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
         <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
       </c>
     </row>
@@ -3502,10 +3508,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>105</v>
+        <v>309</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
@@ -3518,15 +3524,15 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('INFO 4345','WEB APPLICATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
@@ -3539,36 +3545,36 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
         <v>INSERT INTO courses VALUES('INFO 4352','DIGITALPRENEURSHIP CUSTOMER DEVELOPMENT', null, null, 'BIT');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>5</v>
@@ -3581,15 +3587,15 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
@@ -3602,15 +3608,15 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>5</v>
@@ -3623,15 +3629,15 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>5</v>
@@ -3644,15 +3650,15 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>5</v>
@@ -3665,15 +3671,15 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>5</v>
@@ -3686,15 +3692,15 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>5</v>
@@ -3707,15 +3713,15 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
@@ -3728,15 +3734,15 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
@@ -3749,15 +3755,15 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
@@ -3770,15 +3776,15 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>5</v>
@@ -3791,15 +3797,15 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>5</v>
@@ -3812,15 +3818,15 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>5</v>
@@ -3833,15 +3839,15 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>5</v>
@@ -3854,15 +3860,15 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>5</v>
@@ -3875,15 +3881,15 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>5</v>
@@ -3896,15 +3902,15 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>5</v>
@@ -3917,15 +3923,15 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>5</v>
@@ -3938,15 +3944,15 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>5</v>
@@ -3959,15 +3965,15 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>5</v>
@@ -3980,15 +3986,15 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>5</v>
@@ -4001,15 +4007,15 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>5</v>
@@ -4022,15 +4028,15 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>5</v>
@@ -4043,15 +4049,15 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>5</v>
@@ -4064,15 +4070,15 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
@@ -4085,15 +4091,15 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
@@ -4106,15 +4112,15 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
@@ -4127,15 +4133,15 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
@@ -4148,15 +4154,15 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
@@ -4169,15 +4175,15 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>5</v>
@@ -4190,15 +4196,15 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>5</v>
@@ -4211,15 +4217,15 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>5</v>
@@ -4232,15 +4238,15 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>5</v>
@@ -4253,15 +4259,15 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>5</v>
@@ -4273,16 +4279,16 @@
         <v>184</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" ref="F71:F72" si="1">"INSERT INTO courses VALUES('"&amp;A71&amp;"','"&amp;B71&amp;"', "&amp;C71&amp;", "&amp;D71&amp;", '"&amp;E71&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>5</v>
@@ -4294,6 +4300,27 @@
         <v>184</v>
       </c>
       <c r="F72" t="str">
+        <f t="shared" ref="F72:F73" si="1">"INSERT INTO courses VALUES('"&amp;A72&amp;"','"&amp;B72&amp;"', "&amp;C72&amp;", "&amp;D72&amp;", '"&amp;E72&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO courses VALUES('CSCI 4326','EMPIRICAL METHODS IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>

--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F056E567-AB2A-5445-8504-D6835DE64739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB6FCA-CF3E-E64D-A85F-9F7468930617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" activeTab="1" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="313">
   <si>
     <t>staff_id</t>
   </si>
@@ -973,6 +973,12 @@
   </si>
   <si>
     <t>WEB APPLICATION SECURITY</t>
+  </si>
+  <si>
+    <t>CSCI 4334</t>
+  </si>
+  <si>
+    <t>NETWORK AND SYSTEM ADMINISTRATION</t>
   </si>
 </sst>
 </file>
@@ -2779,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63454FF6-7634-A745-9553-1678A6EECCD5}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2851,7 +2857,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F71" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
+        <f t="shared" ref="F3:F72" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
         <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
       </c>
     </row>
@@ -4117,10 +4123,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>165</v>
+        <v>311</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>164</v>
+        <v>312</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
@@ -4133,15 +4139,15 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4334','NETWORK AND SYSTEM ADMINISTRATION', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
@@ -4154,15 +4160,15 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
@@ -4175,15 +4181,15 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>5</v>
@@ -4196,15 +4202,15 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>5</v>
@@ -4217,15 +4223,15 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>5</v>
@@ -4238,15 +4244,15 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>5</v>
@@ -4259,15 +4265,15 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>5</v>
@@ -4280,15 +4286,15 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
+        <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>5</v>
@@ -4300,16 +4306,16 @@
         <v>184</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" ref="F72:F73" si="1">"INSERT INTO courses VALUES('"&amp;A72&amp;"','"&amp;B72&amp;"', "&amp;C72&amp;", "&amp;D72&amp;", '"&amp;E72&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>5</v>
@@ -4321,6 +4327,27 @@
         <v>184</v>
       </c>
       <c r="F73" t="str">
+        <f t="shared" ref="F73:F74" si="1">"INSERT INTO courses VALUES('"&amp;A73&amp;"','"&amp;B73&amp;"', "&amp;C73&amp;", "&amp;D73&amp;", '"&amp;E73&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO courses VALUES('CSCI 4326','EMPIRICAL METHODS IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>

--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB6FCA-CF3E-E64D-A85F-9F7468930617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C9D89B-C12E-9446-B847-BD0CFE7A2CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" activeTab="1" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" xr2:uid="{D96C4D52-B7C3-BB4A-B012-D6CB397DAC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="393">
   <si>
     <t>staff_id</t>
   </si>
@@ -979,6 +979,246 @@
   </si>
   <si>
     <t>NETWORK AND SYSTEM ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>LISC 7041</t>
+  </si>
+  <si>
+    <t>Information Sources and Services</t>
+  </si>
+  <si>
+    <t>LISC 7988</t>
+  </si>
+  <si>
+    <t>Directed Research Practicum</t>
+  </si>
+  <si>
+    <t>LISC 7941</t>
+  </si>
+  <si>
+    <t>Fieldwork</t>
+  </si>
+  <si>
+    <t>LISC 7051</t>
+  </si>
+  <si>
+    <t>Information Resources Development</t>
+  </si>
+  <si>
+    <t>LISC 7185</t>
+  </si>
+  <si>
+    <t>Indexing and Abstracting</t>
+  </si>
+  <si>
+    <t>LISC 7075</t>
+  </si>
+  <si>
+    <t>LISC 7184</t>
+  </si>
+  <si>
+    <t>Measurement and Evaluation</t>
+  </si>
+  <si>
+    <t>LISC 7182</t>
+  </si>
+  <si>
+    <t>Information Storage and Retrieval</t>
+  </si>
+  <si>
+    <t>LISC 7183</t>
+  </si>
+  <si>
+    <t>Bibliometrics</t>
+  </si>
+  <si>
+    <t>LISC 7072</t>
+  </si>
+  <si>
+    <t>Management of Islamic Manuscript Collection</t>
+  </si>
+  <si>
+    <t>LISC 7073</t>
+  </si>
+  <si>
+    <t>Management of Official Publications</t>
+  </si>
+  <si>
+    <t>LISC 7074</t>
+  </si>
+  <si>
+    <t>Conservation and Preservation of Information Resources</t>
+  </si>
+  <si>
+    <t>LISC 7423</t>
+  </si>
+  <si>
+    <t>Web-Based Information Design and Development</t>
+  </si>
+  <si>
+    <t>LISC 7042</t>
+  </si>
+  <si>
+    <t>Information Sources and Services in Islamic Revealed Knowledge</t>
+  </si>
+  <si>
+    <t>LISC 7422</t>
+  </si>
+  <si>
+    <t>LISC 7021</t>
+  </si>
+  <si>
+    <t>Arabic Cataloguing</t>
+  </si>
+  <si>
+    <t>LISC 7424</t>
+  </si>
+  <si>
+    <t>LISC 7987</t>
+  </si>
+  <si>
+    <t>Research Proposal</t>
+  </si>
+  <si>
+    <t>LISC 7989</t>
+  </si>
+  <si>
+    <t>LIS Research / Dissertation</t>
+  </si>
+  <si>
+    <t>LISC 8290</t>
+  </si>
+  <si>
+    <t>Seminar in Human Information Behaviour</t>
+  </si>
+  <si>
+    <t>LISC 8390</t>
+  </si>
+  <si>
+    <t>Seminar in Organization of Information Resource</t>
+  </si>
+  <si>
+    <t>LISC 8910</t>
+  </si>
+  <si>
+    <t>Statistics for Library &amp; Information Professional</t>
+  </si>
+  <si>
+    <t>LISC 8920</t>
+  </si>
+  <si>
+    <t>Survey Research Method in Library &amp; Information Science</t>
+  </si>
+  <si>
+    <t>LISC 8930</t>
+  </si>
+  <si>
+    <t>Qualitative Research Method in Library &amp; Information Science</t>
+  </si>
+  <si>
+    <t>LISC 8380</t>
+  </si>
+  <si>
+    <t>Organization of Islamic Information</t>
+  </si>
+  <si>
+    <t>LISC 8410</t>
+  </si>
+  <si>
+    <t>Trends in Information Retrieval</t>
+  </si>
+  <si>
+    <t>LISC 8450</t>
+  </si>
+  <si>
+    <t>Planning &amp; Management of Library Automation Systems</t>
+  </si>
+  <si>
+    <t>LISC 8810</t>
+  </si>
+  <si>
+    <t>Strategic Planning for Information Professional</t>
+  </si>
+  <si>
+    <t>LISC 8890</t>
+  </si>
+  <si>
+    <t>Seminar in Measurement and Evaluation of Library and Information Services</t>
+  </si>
+  <si>
+    <t>LISC 8820</t>
+  </si>
+  <si>
+    <t>Organizational Development in Information Institutions</t>
+  </si>
+  <si>
+    <t>LISC 8980</t>
+  </si>
+  <si>
+    <t>Seminar in Current Trends and Issus in LIS</t>
+  </si>
+  <si>
+    <t>LISC 8995</t>
+  </si>
+  <si>
+    <t>Comprehensive Examination</t>
+  </si>
+  <si>
+    <t>LISC  8994</t>
+  </si>
+  <si>
+    <t>LISC 8998</t>
+  </si>
+  <si>
+    <t>Dissertation</t>
+  </si>
+  <si>
+    <t>LISC 8999</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>PLIB</t>
+  </si>
+  <si>
+    <t>Doctor of Philosophy in Library and Information Science</t>
+  </si>
+  <si>
+    <t>NOR AZURA BT KAMARULZAMAN</t>
+  </si>
+  <si>
+    <t>MIMI LIZA BT ABDUL MAJID</t>
+  </si>
+  <si>
+    <t>BIIT 1301</t>
+  </si>
+  <si>
+    <t>BIIT 1302</t>
+  </si>
+  <si>
+    <t>ORGANISATIONAL INFORMATICS</t>
+  </si>
+  <si>
+    <t>BIIT 1303</t>
+  </si>
+  <si>
+    <t>BICS 1301</t>
+  </si>
+  <si>
+    <t>BICS 1302</t>
+  </si>
+  <si>
+    <t>BICS 1303</t>
+  </si>
+  <si>
+    <t>BICS 1304</t>
+  </si>
+  <si>
+    <t>BICS 1305</t>
+  </si>
+  <si>
+    <t>DISCRETE STRUCTURES</t>
   </si>
 </sst>
 </file>
@@ -1029,12 +1269,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1049,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1081,6 +1327,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1396,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F0502-707F-E94C-BAD9-F21BCE0BBD9A}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2593,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E76" si="1">"INSERT INTO staff VALUES('"&amp;A66&amp;"','"&amp;B66&amp;"', "&amp;C66&amp;", "&amp;D66&amp;");"</f>
+        <f t="shared" ref="E66:E78" si="1">"INSERT INTO staff VALUES('"&amp;A66&amp;"','"&amp;B66&amp;"', "&amp;C66&amp;", "&amp;D66&amp;");"</f>
         <v>INSERT INTO staff VALUES('9954','TAKUMI SASE', null, null);</v>
       </c>
     </row>
@@ -2775,6 +3027,42 @@
       <c r="E76" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO staff VALUES('11085','AYUB BIN ABDUL RAHMAN', null, null);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="13">
+        <v>11285</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO staff VALUES('11285','MIMI LIZA BT ABDUL MAJID', null, null);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="13">
+        <v>11417</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO staff VALUES('11417','NOR AZURA BT KAMARULZAMAN', null, null);</v>
       </c>
     </row>
   </sheetData>
@@ -2785,10 +3073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63454FF6-7634-A745-9553-1678A6EECCD5}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2841,11 +3129,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
+      <c r="A3" s="12" t="s">
+        <v>383</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -2857,16 +3145,16 @@
         <v>9</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F72" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
+        <f t="shared" ref="F3:F5" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('BIIT 1301','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>51</v>
+      <c r="A4" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>52</v>
+        <v>385</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -2879,15 +3167,15 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 1303','DATABASE SYSTEMS', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('BIIT 1302','ORGANISATIONAL INFORMATICS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>53</v>
+      <c r="A5" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -2900,15 +3188,15 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 2302','WEB TECHNOLOGIES', null, null, 'BIT');</v>
+        <v>INSERT INTO courses VALUES('BIIT 1303','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -2920,16 +3208,16 @@
         <v>9</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 2303','DATABASE PROGRAMMING', null, null, 'BIT');</v>
+        <f t="shared" ref="F6:F80" si="1">"INSERT INTO courses VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"', "&amp;C6&amp;", "&amp;D6&amp;", '"&amp;E6&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
@@ -2941,16 +3229,16 @@
         <v>9</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 2304','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 1303','DATABASE SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -2962,16 +3250,16 @@
         <v>9</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 2305','MULTIMEDIA TECHNOLOGY', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 2302','WEB TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -2983,16 +3271,16 @@
         <v>9</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 2306','MANAGEMENT INFORMATION SYSTEMS', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 2303','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -3004,16 +3292,16 @@
         <v>9</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 3304','E-COMMERCE', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 2304','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
@@ -3025,16 +3313,16 @@
         <v>9</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 3305','WEB APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 2305','MULTIMEDIA TECHNOLOGY', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -3046,16 +3334,16 @@
         <v>9</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 3307','HUMAN COMPUTER INTERACTION', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 2306','MANAGEMENT INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
@@ -3067,16 +3355,16 @@
         <v>9</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 3308','PROJECT  MANAGEMENT IN IT', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 3304','E-COMMERCE', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -3088,16 +3376,16 @@
         <v>9</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4304','IT AND ISLAM', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 3305','WEB APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
@@ -3109,16 +3397,16 @@
         <v>9</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4305','CYBER LAW &amp; ETHICS', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 3307','HUMAN COMPUTER INTERACTION', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -3130,16 +3418,16 @@
         <v>9</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4303','TECHNOPRENEURSHIP', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 3308','PROJECT  MANAGEMENT IN IT', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
@@ -3151,16 +3439,16 @@
         <v>9</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4311','DATA WAREHOUSING', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4304','IT AND ISLAM', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
@@ -3172,16 +3460,16 @@
         <v>9</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4312','INFORMATION VISUALIZATION', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4305','CYBER LAW &amp; ETHICS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>305</v>
+        <v>75</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -3193,16 +3481,16 @@
         <v>9</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4313','DATA MINING', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4303','TECHNOPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
@@ -3214,16 +3502,16 @@
         <v>9</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4314','BUSINESS DATA ANALYTICS', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4311','DATA WAREHOUSING', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
@@ -3235,16 +3523,16 @@
         <v>9</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4320','ANIMATION TECHNIQUE', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4312','INFORMATION VISUALIZATION', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
@@ -3256,16 +3544,16 @@
         <v>9</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4321','CREATIVE DESIGN TECHNIQUES', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4313','DATA MINING', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -3277,16 +3565,16 @@
         <v>9</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4325','GRAPHIC DESIGN', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4314','BUSINESS DATA ANALYTICS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
@@ -3298,16 +3586,16 @@
         <v>9</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4326','3D MODELLING', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4320','ANIMATION TECHNIQUE', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
@@ -3319,16 +3607,16 @@
         <v>9</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4328','GAME DESIGN AND DEVELOPMENT', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4321','CREATIVE DESIGN TECHNIQUES', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
@@ -3340,16 +3628,16 @@
         <v>9</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4332','KNOWLEDGE MANAGEMENT PRACTICES AND APPLICATION', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4325','GRAPHIC DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>91</v>
+        <v>307</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>92</v>
+        <v>308</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
@@ -3361,16 +3649,16 @@
         <v>9</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4333','INTEGRATED BUSINESS PROCESS AND ERP SYSTEMS', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4326','3D MODELLING', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -3382,16 +3670,16 @@
         <v>9</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4335','MOBILE APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4328','GAME DESIGN AND DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>96</v>
+        <v>304</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
@@ -3403,16 +3691,16 @@
         <v>9</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4336','INFORMATION RETRIEVAL TECHNOLOGIES', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4332','KNOWLEDGE MANAGEMENT PRACTICES AND APPLICATION', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
@@ -3424,16 +3712,16 @@
         <v>9</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4330','CONTROL AND AUDIT OF INFORMATION SYSTEMS', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4333','INTEGRATED BUSINESS PROCESS AND ERP SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
@@ -3445,16 +3733,16 @@
         <v>9</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4340','MANAGEMENT OF INFORMATION SECURITY', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4335','MOBILE APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
@@ -3466,16 +3754,16 @@
         <v>9</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4341','RISK MANAGEMENT', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4336','INFORMATION RETRIEVAL TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>301</v>
+        <v>97</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>302</v>
+        <v>98</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -3487,16 +3775,16 @@
         <v>9</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4342','BUSINESS CONTINUITY AND DISASTER RECOVERY', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4330','CONTROL AND AUDIT OF INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
@@ -3508,16 +3796,16 @@
         <v>9</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4340','MANAGEMENT OF INFORMATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>309</v>
+        <v>101</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>310</v>
+        <v>102</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
@@ -3529,16 +3817,16 @@
         <v>9</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4345','WEB APPLICATION SECURITY', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4341','RISK MANAGEMENT', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>106</v>
+        <v>302</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
@@ -3550,16 +3838,16 @@
         <v>9</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4342','BUSINESS CONTINUITY AND DISASTER RECOVERY', null, null, 'BIT');</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
@@ -3571,79 +3859,79 @@
         <v>9</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4345','WEB APPLICATION SECURITY', null, null, 'BIT');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO courses VALUES('INFO 4352','DIGITALPRENEURSHIP CUSTOMER DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="10" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>5</v>
@@ -3655,16 +3943,16 @@
         <v>184</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
+        <f t="shared" ref="F41:F45" si="2">"INSERT INTO courses VALUES('"&amp;A41&amp;"','"&amp;B41&amp;"', "&amp;C41&amp;", "&amp;D41&amp;", '"&amp;E41&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('BICS 1301','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>181</v>
+      <c r="A42" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>5</v>
@@ -3676,16 +3964,16 @@
         <v>184</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('BICS 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>183</v>
+      <c r="A43" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>5</v>
@@ -3697,16 +3985,16 @@
         <v>184</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('BICS 1303','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>186</v>
+      <c r="A44" s="12" t="s">
+        <v>390</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>5</v>
@@ -3718,16 +4006,16 @@
         <v>184</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('BICS 1304','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>214</v>
+      <c r="A45" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>213</v>
+        <v>392</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
@@ -3739,16 +4027,16 @@
         <v>184</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('BICS 1305','DISCRETE STRUCTURES', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
@@ -3760,16 +4048,16 @@
         <v>184</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
@@ -3781,16 +4069,16 @@
         <v>184</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>5</v>
@@ -3802,16 +4090,16 @@
         <v>184</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>5</v>
@@ -3823,16 +4111,16 @@
         <v>184</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>5</v>
@@ -3844,16 +4132,16 @@
         <v>184</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>5</v>
@@ -3865,16 +4153,16 @@
         <v>184</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>5</v>
@@ -3886,16 +4174,16 @@
         <v>184</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>5</v>
@@ -3907,16 +4195,16 @@
         <v>184</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>5</v>
@@ -3928,16 +4216,16 @@
         <v>184</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>5</v>
@@ -3949,16 +4237,16 @@
         <v>184</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>5</v>
@@ -3970,16 +4258,16 @@
         <v>184</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>5</v>
@@ -3991,16 +4279,16 @@
         <v>184</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>5</v>
@@ -4012,16 +4300,16 @@
         <v>184</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>5</v>
@@ -4033,16 +4321,16 @@
         <v>184</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>5</v>
@@ -4054,16 +4342,16 @@
         <v>184</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>5</v>
@@ -4075,16 +4363,16 @@
         <v>184</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
@@ -4096,16 +4384,16 @@
         <v>184</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
@@ -4117,16 +4405,16 @@
         <v>184</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>311</v>
+        <v>192</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>312</v>
+        <v>191</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
@@ -4138,16 +4426,16 @@
         <v>184</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4334','NETWORK AND SYSTEM ADMINISTRATION', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
@@ -4159,16 +4447,16 @@
         <v>184</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
@@ -4180,16 +4468,16 @@
         <v>184</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>5</v>
@@ -4201,16 +4489,16 @@
         <v>184</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>5</v>
@@ -4222,16 +4510,16 @@
         <v>184</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>5</v>
@@ -4243,16 +4531,16 @@
         <v>184</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>5</v>
@@ -4264,16 +4552,16 @@
         <v>184</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>5</v>
@@ -4285,16 +4573,16 @@
         <v>184</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>5</v>
@@ -4306,16 +4594,16 @@
         <v>184</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4334','NETWORK AND SYSTEM ADMINISTRATION', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>5</v>
@@ -4327,16 +4615,16 @@
         <v>184</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" ref="F73:F74" si="1">"INSERT INTO courses VALUES('"&amp;A73&amp;"','"&amp;B73&amp;"', "&amp;C73&amp;", "&amp;D73&amp;", '"&amp;E73&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>5</v>
@@ -4349,6 +4637,174 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" ref="F81:F82" si="3">"INSERT INTO courses VALUES('"&amp;A81&amp;"','"&amp;B81&amp;"', "&amp;C81&amp;", "&amp;D81&amp;", '"&amp;E81&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="3"/>
         <v>INSERT INTO courses VALUES('CSCI 4326','EMPIRICAL METHODS IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
@@ -4359,10 +4815,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B2092-1F1C-8549-B11B-DE30A1798F02}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4431,7 +4887,7 @@
         <v>291</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F37" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
+        <f t="shared" ref="F3:F56" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
         <v>INSERT INTO courses VALUES('INFO 7901','ICT Research Methods', null, null, 'MITEC');</v>
       </c>
     </row>
@@ -5147,6 +5603,741 @@
       <c r="F37" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO courses VALUES('LISC 7440','Information Processing and Database Development', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B38" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7041','Information Sources and Services', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B39" t="s">
+        <v>316</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7988','Directed Research Practicum', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B40" t="s">
+        <v>318</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7941','Fieldwork', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" t="s">
+        <v>320</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7051','Information Resources Development', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" t="s">
+        <v>322</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7185','Indexing and Abstracting', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B43" t="s">
+        <v>277</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7075','Records and Archives Management', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B44" t="s">
+        <v>325</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7184','Measurement and Evaluation', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7182','Information Storage and Retrieval', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B46" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7183','Bibliometrics', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B47" t="s">
+        <v>331</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7072','Management of Islamic Manuscript Collection', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" t="s">
+        <v>333</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7073','Management of Official Publications', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B49" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7074','Conservation and Preservation of Information Resources', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B50" t="s">
+        <v>337</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7423','Web-Based Information Design and Development', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B51" t="s">
+        <v>339</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7042','Information Sources and Services in Islamic Revealed Knowledge', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7422','Digital Library', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B53" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7021','Arabic Cataloguing', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B54" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7424','Information Processing and Database Development', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B55" t="s">
+        <v>345</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7987','Research Proposal', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" t="s">
+        <v>347</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7989','LIS Research / Dissertation', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B57" t="s">
+        <v>349</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" ref="F57" si="1">"INSERT INTO courses VALUES('"&amp;A57&amp;"','"&amp;B57&amp;"', "&amp;C57&amp;", "&amp;D57&amp;", '"&amp;E57&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 8290','Seminar in Human Information Behaviour', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B58" t="s">
+        <v>351</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" ref="F58:F72" si="2">"INSERT INTO courses VALUES('"&amp;A58&amp;"','"&amp;B58&amp;"', "&amp;C58&amp;", "&amp;D58&amp;", '"&amp;E58&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 8390','Seminar in Organization of Information Resource', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B59" t="s">
+        <v>353</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8910','Statistics for Library &amp; Information Professional', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B60" t="s">
+        <v>355</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8920','Survey Research Method in Library &amp; Information Science', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B61" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8930','Qualitative Research Method in Library &amp; Information Science', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B62" t="s">
+        <v>359</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8380','Organization of Islamic Information', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B63" t="s">
+        <v>361</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8410','Trends in Information Retrieval', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B64" t="s">
+        <v>363</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8450','Planning &amp; Management of Library Automation Systems', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B65" t="s">
+        <v>365</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8810','Strategic Planning for Information Professional', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" t="s">
+        <v>367</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8890','Seminar in Measurement and Evaluation of Library and Information Services', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B67" t="s">
+        <v>369</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8820','Organizational Development in Information Institutions', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8980','Seminar in Current Trends and Issus in LIS', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B69" t="s">
+        <v>373</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8995','Comprehensive Examination', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B70" t="s">
+        <v>345</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC  8994','Research Proposal', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B71" t="s">
+        <v>376</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8998','Dissertation', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B72" t="s">
+        <v>378</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO courses VALUES('LISC 8999','Thesis', null, null, 'PLIB');</v>
       </c>
     </row>
   </sheetData>
@@ -5160,7 +6351,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5261,7 +6452,22 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="1">"INSERT INTO p_g_programs VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"',"&amp;C6&amp;","&amp;D6&amp;");"</f>
+        <v>INSERT INTO p_g_programs VALUES('PLIB','Doctor of Philosophy in Library and Information Science',null,null);</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>

--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695E57B1-E53A-B74D-BA98-90E373FEF0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7050" activeTab="4"/>
+    <workbookView xWindow="-28900" yWindow="640" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="457">
   <si>
     <t>staff_id</t>
   </si>
@@ -1204,19 +1210,211 @@
   </si>
   <si>
     <t>ALTER TABLE p_g_decentraliseds AUTO_INCREMENT = 0;</t>
+  </si>
+  <si>
+    <t>MIIT 7401</t>
+  </si>
+  <si>
+    <t>MIIT 7402</t>
+  </si>
+  <si>
+    <t>MIIT 7410</t>
+  </si>
+  <si>
+    <t>MIIT 7422</t>
+  </si>
+  <si>
+    <t>MIIT 7502</t>
+  </si>
+  <si>
+    <t>Islamic Worldview On ICT &amp; Society</t>
+  </si>
+  <si>
+    <t>Analytics and Visualisation</t>
+  </si>
+  <si>
+    <t>Humanity Centred Design</t>
+  </si>
+  <si>
+    <t>LISC 7401</t>
+  </si>
+  <si>
+    <t>Reference Services</t>
+  </si>
+  <si>
+    <t>LISC 7402</t>
+  </si>
+  <si>
+    <t>Information Organization and Classification</t>
+  </si>
+  <si>
+    <t>LISC 7405</t>
+  </si>
+  <si>
+    <t>Industrial Training</t>
+  </si>
+  <si>
+    <t>LISC 7406</t>
+  </si>
+  <si>
+    <t>Directed Research</t>
+  </si>
+  <si>
+    <t>LISC 7410</t>
+  </si>
+  <si>
+    <t>Collection Development and Management</t>
+  </si>
+  <si>
+    <t>LISC 7411</t>
+  </si>
+  <si>
+    <t>Domain-Specific Taxonomy</t>
+  </si>
+  <si>
+    <t>LISC 7412</t>
+  </si>
+  <si>
+    <t>Archives and Records Management</t>
+  </si>
+  <si>
+    <t>LISC 7413</t>
+  </si>
+  <si>
+    <t>Library Assessment and Impact Evaluation</t>
+  </si>
+  <si>
+    <t>LISC 7414</t>
+  </si>
+  <si>
+    <t>Information Retrieval and Artificial Intelligence Literacy</t>
+  </si>
+  <si>
+    <t>LISC 7415</t>
+  </si>
+  <si>
+    <t>Bibliometrics and Science Mapping</t>
+  </si>
+  <si>
+    <t>LISC 7416</t>
+  </si>
+  <si>
+    <t>Management of Islamic Manuscripts</t>
+  </si>
+  <si>
+    <t>LISC 7417</t>
+  </si>
+  <si>
+    <t>Government Publications</t>
+  </si>
+  <si>
+    <t>LISC 7418</t>
+  </si>
+  <si>
+    <t>Preservation Management</t>
+  </si>
+  <si>
+    <t>LISC 7419</t>
+  </si>
+  <si>
+    <t>Web Design and Development</t>
+  </si>
+  <si>
+    <t>LISC 7425</t>
+  </si>
+  <si>
+    <t>Digital Libraries</t>
+  </si>
+  <si>
+    <t>LISC 7426</t>
+  </si>
+  <si>
+    <t>Organization and Classification of Islamic Collection</t>
+  </si>
+  <si>
+    <t>LISC 7427</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>LISC 8431</t>
+  </si>
+  <si>
+    <t>Advanced Qualitative Research Methods</t>
+  </si>
+  <si>
+    <t>LISC 8411</t>
+  </si>
+  <si>
+    <t>Statistics for Library and Information Professionals</t>
+  </si>
+  <si>
+    <t>LISC 8421</t>
+  </si>
+  <si>
+    <t>Quantitative Social Survey</t>
+  </si>
+  <si>
+    <t>LISC 8095</t>
+  </si>
+  <si>
+    <t>LISC 8441</t>
+  </si>
+  <si>
+    <t>Information Seeking Behaviour</t>
+  </si>
+  <si>
+    <t>LISC 8442</t>
+  </si>
+  <si>
+    <t>Bibliographic Representation and Organization</t>
+  </si>
+  <si>
+    <t>LISC 8443</t>
+  </si>
+  <si>
+    <t>Digital Humanities for Islamic Collections</t>
+  </si>
+  <si>
+    <t>LISC 8444</t>
+  </si>
+  <si>
+    <t>Advances in Information Retrieval</t>
+  </si>
+  <si>
+    <t>LISC 8445</t>
+  </si>
+  <si>
+    <t>Library Systems</t>
+  </si>
+  <si>
+    <t>LISC 8446</t>
+  </si>
+  <si>
+    <t>Strategic Planning for Information Professionals</t>
+  </si>
+  <si>
+    <t>LISC 8447</t>
+  </si>
+  <si>
+    <t>Seminar in Metrics and Measures for Information Services</t>
+  </si>
+  <si>
+    <t>LISC 8448</t>
+  </si>
+  <si>
+    <t>LISC 8449</t>
+  </si>
+  <si>
+    <t>Trends in Information Research</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1225,30 +1423,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1256,162 +1461,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1420,192 +1474,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1613,347 +1487,59 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2211,31 +1797,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A77" sqref="A77:A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.8333333333333" customWidth="1"/>
-    <col min="3" max="4" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="86.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2248,11 +1834,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="11">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>10400</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2266,11 +1852,11 @@
         <v>INSERT INTO staff VALUES('10400','ABDUL RAFIEZ BIN ABDUL RAZIFF', null, null);</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="11">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>1716</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2284,11 +1870,11 @@
         <v>INSERT INTO staff VALUES('1716','ABD. RAHMAN BIN AHLAN', null, null);</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>6250</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2302,11 +1888,11 @@
         <v>INSERT INTO staff VALUES('6250','ABDUL RAHMAN BIN AHMAD DAHLAN', null, null);</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="11">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>3189</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2320,11 +1906,11 @@
         <v>INSERT INTO staff VALUES('3189','AHMAD FATZILAH BIN MISMAN', null, null);</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>9471</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2338,11 +1924,11 @@
         <v>INSERT INTO staff VALUES('9471','AIDRINA BINTI MOHAMED SOFIADIN', null, null);</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>6153</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2356,11 +1942,11 @@
         <v>INSERT INTO staff VALUES('6153','AKRAM M Z M KHEDHER', null, null);</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>6566</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2374,11 +1960,11 @@
         <v>INSERT INTO staff VALUES('6566','ASADULLAH SHAH', null, null);</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="11">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>10325</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2392,11 +1978,11 @@
         <v>INSERT INTO staff VALUES('10325','ATIKAH BALQIS BINTI BASRI', null, null);</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>4177</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2410,11 +1996,11 @@
         <v>INSERT INTO staff VALUES('4177','AZNAN ZUHID BIN SAIDIN', null, null);</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>10402</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2428,11 +2014,11 @@
         <v>INSERT INTO staff VALUES('10402','ELIN ELIANA BINTI ABDUL RAHIM', null, null);</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="11">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>7816</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2446,11 +2032,11 @@
         <v>INSERT INTO staff VALUES('7816','HAZWANI BT MOHD MOHADIS', null, null);</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="11">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>6202</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2464,11 +2050,11 @@
         <v>INSERT INTO staff VALUES('6202','JAMALUDIN BIN IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="11">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>4559</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2482,11 +2068,11 @@
         <v>INSERT INTO staff VALUES('4559','LILI MARZIANA BT. ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="11">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>3815</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2500,11 +2086,11 @@
         <v>INSERT INTO staff VALUES('3815','MADIHAH BT. S. ABD. AZIZ', null, null);</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="11">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>4573</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2518,11 +2104,11 @@
         <v>INSERT INTO staff VALUES('4573','MARINI OTHMAN', null, null);</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="11">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>4578</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2536,11 +2122,11 @@
         <v>INSERT INTO staff VALUES('4578','MIOR NASIR MIOR NAZRI', null, null);</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="11">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>6326</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2554,11 +2140,11 @@
         <v>INSERT INTO staff VALUES('6326','MIRA KARTIWI', null, null);</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>1375</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2572,11 +2158,11 @@
         <v>INSERT INTO staff VALUES('1375','MOHAMAD FAUZAN BIN NOORDIN', null, null);</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="11">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>9831</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2590,11 +2176,11 @@
         <v>INSERT INTO staff VALUES('9831','MOHD KHAIRUL AZMI BIN HASSAN', null, null);</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="11">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>5594</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2608,11 +2194,11 @@
         <v>INSERT INTO staff VALUES('5594','MOHD. IZZUDDIN BIN MOHD. TAMRIN', null, null);</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>4298</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2626,11 +2212,11 @@
         <v>INSERT INTO staff VALUES('4298','MOHD. SYARQAWY BIN HAMZAH', null, null);</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="11">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>4621</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2644,11 +2230,11 @@
         <v>INSERT INTO staff VALUES('4621','MUHAMAD SADRY ABU SEMAN', null, null);</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="11">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
         <v>3570</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2662,11 +2248,11 @@
         <v>INSERT INTO staff VALUES('3570','MUHD. ROSYDI BIN MUHAMMAD', null, null);</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="11">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
         <v>8398</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2680,11 +2266,11 @@
         <v>INSERT INTO staff VALUES('8398','MUNA BINTI AZUDDIN', null, null);</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="11">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
         <v>3451</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2698,11 +2284,11 @@
         <v>INSERT INTO staff VALUES('3451','MURNI BT. MAHMUD', null, null);</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="11">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
         <v>9084</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2716,11 +2302,11 @@
         <v>INSERT INTO staff VALUES('9084','NAJHAN BIN MUHAMAD IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="11">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
         <v>6856</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2734,11 +2320,11 @@
         <v>INSERT INTO staff VALUES('6856','NOOR AZIAN BT. MOHAMAD ALI', null, null);</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="11">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
         <v>3904</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2752,11 +2338,11 @@
         <v>INSERT INTO staff VALUES('3904','NOOR AZIZAH BT. MOHAMADALI', null, null);</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="11">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
         <v>4297</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2770,11 +2356,11 @@
         <v>INSERT INTO staff VALUES('4297','NOOR HASRUL NIZAN BIN MOHAMMAD NOOR', null, null);</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="11">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
         <v>7822</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2788,11 +2374,11 @@
         <v>INSERT INTO staff VALUES('7822','NOOR HAYANI BINTI ABD RAHIM', null, null);</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="11">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
         <v>10163</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2806,11 +2392,11 @@
         <v>INSERT INTO staff VALUES('10163','NURAZLIN BINTI ZAINAL AZMI', null, null);</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="11">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
         <v>9026</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2824,11 +2410,11 @@
         <v>INSERT INTO staff VALUES('9026','NURHAFIZAH BINTI MAHRI', null, null);</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="11">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
         <v>5341</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2842,11 +2428,11 @@
         <v>INSERT INTO staff VALUES('5341','NURUL NUHA BINTI ABDUL MOLOK', null, null);</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="11">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
         <v>4295</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2860,11 +2446,11 @@
         <v>INSERT INTO staff VALUES('4295','SHUHAILI BT. TALIB', null, null);</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="11">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
         <v>6993</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -2878,11 +2464,11 @@
         <v>INSERT INTO staff VALUES('6993','SUHAILA BINTI SAMSURI', null, null);</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="11">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
         <v>6948</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -2896,11 +2482,11 @@
         <v>INSERT INTO staff VALUES('6948','ZAHIDAH BINTI ZULKIFLI', null, null);</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="11">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
         <v>4896</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2914,11 +2500,11 @@
         <v>INSERT INTO staff VALUES('4896','ZAINATUL SHIMA ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="9">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
         <v>7132</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2932,11 +2518,11 @@
         <v>INSERT INTO staff VALUES('7132','ADAMU ABUBAKAR IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="9">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
         <v>10332</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -2950,11 +2536,11 @@
         <v>INSERT INTO staff VALUES('10332','AHSIAH BINTI ISMAIL', null, null);</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="9">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
         <v>9608</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2968,11 +2554,11 @@
         <v>INSERT INTO staff VALUES('9608','AKEEM OLOWOLAYEMO', null, null);</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="9">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
         <v>4296</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2986,11 +2572,11 @@
         <v>INSERT INTO staff VALUES('4296','AMELIA RITAHANI BT. ISMAIL', null, null);</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="9">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
         <v>9221</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3004,11 +2590,11 @@
         <v>INSERT INTO staff VALUES('9221','AMIR AATIEFF BIN AMIR HUSSIN', null, null);</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="9">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
         <v>9157</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3022,11 +2608,11 @@
         <v>INSERT INTO staff VALUES('9157','ANDI FITRIAH BINTI ABDUL KADIR', null, null);</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="9">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
         <v>10324</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -3040,11 +2626,11 @@
         <v>INSERT INTO staff VALUES('10324','ASMARANI BINTI AHMAD PUZI', null, null);</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="9">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
         <v>5133</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -3058,11 +2644,11 @@
         <v>INSERT INTO staff VALUES('5133','AZLIN BINTI NORDIN', null, null);</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="9">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
         <v>10567</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -3076,11 +2662,11 @@
         <v>INSERT INTO staff VALUES('10567','DINI OKTARINA DWI HANDAYANI', null, null);</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="9">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
         <v>7910</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -3094,11 +2680,11 @@
         <v>INSERT INTO staff VALUES('7910','HAFIZAH BINTI MANSOR', null, null);</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="9">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
         <v>4870</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -3112,11 +2698,11 @@
         <v>INSERT INTO staff VALUES('4870','HAMWIRA SAKTI BIN YAACOB', null, null);</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="9">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
         <v>771</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -3130,11 +2716,11 @@
         <v>INSERT INTO staff VALUES('771','MAZNAH BT AHMAD', null, null);</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="9">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
         <v>8123</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -3148,11 +2734,11 @@
         <v>INSERT INTO staff VALUES('8123','NORBIK BASHAH BIN IDRIS', null, null);</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="9">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
         <v>9622</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -3166,11 +2752,11 @@
         <v>INSERT INTO staff VALUES('9622','NORLIA MD YUSOF', null, null);</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="9">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
         <v>5505</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3184,11 +2770,11 @@
         <v>INSERT INTO staff VALUES('5505','NORMAZIAH BINTI ABDUL AZIZ', null, null);</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="9">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
         <v>3509</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -3202,11 +2788,11 @@
         <v>INSERT INTO staff VALUES('3509','NORMI SHAM BT. AWANG ABU BAKAR', null, null);</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="9">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
         <v>3705</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3220,11 +2806,11 @@
         <v>INSERT INTO staff VALUES('3705','NORSAREMAH BT. SALLEH', null, null);</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="9">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
         <v>8627</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -3238,11 +2824,11 @@
         <v>INSERT INTO staff VALUES('8627','NORZALIZA BINTI MD NOR', null, null);</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="9">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
         <v>8405</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -3256,11 +2842,11 @@
         <v>INSERT INTO staff VALUES('8405','NOOR AZURA BINTI ZAKARIA', null, null);</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="9">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
         <v>5066</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -3274,11 +2860,11 @@
         <v>INSERT INTO staff VALUES('5066','NORZARIYAH BINTI YAHYA', null, null);</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="9">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
         <v>8371</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -3292,11 +2878,11 @@
         <v>INSERT INTO staff VALUES('8371','NURUL LIYANA BINTI MOHAMAD ZULKUFLI', null, null);</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="9">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
         <v>4964</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -3310,11 +2896,11 @@
         <v>INSERT INTO staff VALUES('4964','RAINI BINTI HASSAN', null, null);</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="9">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
         <v>8638</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3328,11 +2914,11 @@
         <v>INSERT INTO staff VALUES('8638','RAWAD ABDULKHALEQ ABDULMOLLA ABDULGHAFOR', null, null);</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="9">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
         <v>5251</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -3346,11 +2932,11 @@
         <v>INSERT INTO staff VALUES('5251','RIZAL BIN MOHD. NOR', null, null);</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="9">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
         <v>8667</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -3364,11 +2950,11 @@
         <v>INSERT INTO staff VALUES('8667','SHARYAR WANI', null, null);</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="9">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
         <v>7620</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3382,11 +2968,11 @@
         <v>INSERT INTO staff VALUES('7620','SITI ASMA BINTI MOHAMMED', null, null);</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="9">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
         <v>4615</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -3400,11 +2986,11 @@
         <v>INSERT INTO staff VALUES('4615','SURIANI BT. SULAIMAN', null, null);</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="9">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
         <v>9954</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -3418,11 +3004,11 @@
         <v>INSERT INTO staff VALUES('9954','TAKUMI SASE', null, null);</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="9">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
         <v>10552</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -3436,11 +3022,11 @@
         <v>INSERT INTO staff VALUES('10552','ZAINAB SENAN MAHMOD ATTAR BASHI', null, null);</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="9">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
         <v>10744</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3454,11 +3040,11 @@
         <v>INSERT INTO staff VALUES('10744','TENGKU MOHD BIN TENGKU SEMBOK ', null, null);</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="9">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="8">
         <v>10738</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -3472,11 +3058,11 @@
         <v>INSERT INTO staff VALUES('10738','AHMAD ANWAR BIN ZAINUDDIN', null, null);</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="9">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
         <v>10722</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -3490,11 +3076,11 @@
         <v>INSERT INTO staff VALUES('10722','ABDUL WAHAB BIN ABDUL RAHMAN', null, null);</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1675</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -3508,11 +3094,11 @@
         <v>INSERT INTO staff VALUES('1675','ROSLINA OTHMAN ', null, null);</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>7684</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -3526,11 +3112,11 @@
         <v>INSERT INTO staff VALUES('7684','ROOSFA HASHIM', null, null);</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>8227</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3544,11 +3130,11 @@
         <v>INSERT INTO staff VALUES('8227','SHARIFAH NUR AMIRAH SARIF ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>9019</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -3562,11 +3148,11 @@
         <v>INSERT INTO staff VALUES('9019','NOR SAADAH MD. NOR', null, null);</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>9041</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3580,11 +3166,11 @@
         <v>INSERT INTO staff VALUES('9041','NUR LEYNI NILAM PUTRI JUNURHAM', null, null);</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>11085</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -3598,11 +3184,11 @@
         <v>INSERT INTO staff VALUES('11085','AYUB BIN ABDUL RAHMAN', null, null);</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="13">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
         <v>11285</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -3616,11 +3202,11 @@
         <v>INSERT INTO staff VALUES('11285','MIMI LIZA BT ABDUL MAJID', null, null);</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="13">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
         <v>11417</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3636,29 +3222,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A40" sqref="A40:A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
-    <col min="3" max="5" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="5" width="14.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -3678,7 +3262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>86</v>
       </c>
@@ -3699,7 +3283,7 @@
         <v>INSERT INTO courses VALUES('BIIT 1301','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
@@ -3720,7 +3304,7 @@
         <v>INSERT INTO courses VALUES('BIIT 1302','ORGANISATIONAL INFORMATICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>91</v>
       </c>
@@ -3741,8 +3325,8 @@
         <v>INSERT INTO courses VALUES('BIIT 1303','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3762,8 +3346,8 @@
         <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3783,8 +3367,8 @@
         <v>INSERT INTO courses VALUES('INFO 1303','DATABASE SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -3804,8 +3388,8 @@
         <v>INSERT INTO courses VALUES('INFO 2302','WEB TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3825,8 +3409,8 @@
         <v>INSERT INTO courses VALUES('INFO 2303','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -3846,8 +3430,8 @@
         <v>INSERT INTO courses VALUES('INFO 2304','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3867,8 +3451,8 @@
         <v>INSERT INTO courses VALUES('INFO 2305','MULTIMEDIA TECHNOLOGY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3888,8 +3472,8 @@
         <v>INSERT INTO courses VALUES('INFO 2306','MANAGEMENT INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3909,8 +3493,8 @@
         <v>INSERT INTO courses VALUES('INFO 3304','E-COMMERCE', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3930,8 +3514,8 @@
         <v>INSERT INTO courses VALUES('INFO 3305','WEB APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3951,8 +3535,8 @@
         <v>INSERT INTO courses VALUES('INFO 3307','HUMAN COMPUTER INTERACTION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3972,8 +3556,8 @@
         <v>INSERT INTO courses VALUES('INFO 3308','PROJECT  MANAGEMENT IN IT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3993,8 +3577,8 @@
         <v>INSERT INTO courses VALUES('INFO 4304','IT AND ISLAM', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -4014,8 +3598,8 @@
         <v>INSERT INTO courses VALUES('INFO 4305','CYBER LAW &amp; ETHICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -4035,8 +3619,8 @@
         <v>INSERT INTO courses VALUES('INFO 4303','TECHNOPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -4056,8 +3640,8 @@
         <v>INSERT INTO courses VALUES('INFO 4311','DATA WAREHOUSING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -4077,8 +3661,8 @@
         <v>INSERT INTO courses VALUES('INFO 4312','INFORMATION VISUALIZATION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -4098,8 +3682,8 @@
         <v>INSERT INTO courses VALUES('INFO 4313','DATA MINING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -4119,8 +3703,8 @@
         <v>INSERT INTO courses VALUES('INFO 4314','BUSINESS DATA ANALYTICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4140,8 +3724,8 @@
         <v>INSERT INTO courses VALUES('INFO 4320','ANIMATION TECHNIQUE', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4161,8 +3745,8 @@
         <v>INSERT INTO courses VALUES('INFO 4321','CREATIVE DESIGN TECHNIQUES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -4182,8 +3766,8 @@
         <v>INSERT INTO courses VALUES('INFO 4325','GRAPHIC DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4203,8 +3787,8 @@
         <v>INSERT INTO courses VALUES('INFO 4326','3D MODELLING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -4224,8 +3808,8 @@
         <v>INSERT INTO courses VALUES('INFO 4328','GAME DESIGN AND DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -4245,8 +3829,8 @@
         <v>INSERT INTO courses VALUES('INFO 4332','KNOWLEDGE MANAGEMENT PRACTICES AND APPLICATION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -4266,8 +3850,8 @@
         <v>INSERT INTO courses VALUES('INFO 4333','INTEGRATED BUSINESS PROCESS AND ERP SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -4287,8 +3871,8 @@
         <v>INSERT INTO courses VALUES('INFO 4335','MOBILE APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -4308,8 +3892,8 @@
         <v>INSERT INTO courses VALUES('INFO 4336','INFORMATION RETRIEVAL TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -4329,8 +3913,8 @@
         <v>INSERT INTO courses VALUES('INFO 4330','CONTROL AND AUDIT OF INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -4350,8 +3934,8 @@
         <v>INSERT INTO courses VALUES('INFO 4340','MANAGEMENT OF INFORMATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4371,8 +3955,8 @@
         <v>INSERT INTO courses VALUES('INFO 4341','RISK MANAGEMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -4392,8 +3976,8 @@
         <v>INSERT INTO courses VALUES('INFO 4342','BUSINESS CONTINUITY AND DISASTER RECOVERY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -4413,8 +3997,8 @@
         <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -4434,8 +4018,8 @@
         <v>INSERT INTO courses VALUES('INFO 4345','WEB APPLICATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4455,8 +4039,8 @@
         <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -4476,11 +4060,11 @@
         <v>INSERT INTO courses VALUES('INFO 4352','DIGITALPRENEURSHIP CUSTOMER DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4497,11 +4081,11 @@
         <v>INSERT INTO courses VALUES('BICS 1301','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -4518,11 +4102,11 @@
         <v>INSERT INTO courses VALUES('BICS 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>167</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -4539,11 +4123,11 @@
         <v>INSERT INTO courses VALUES('BICS 1303','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -4560,11 +4144,11 @@
         <v>INSERT INTO courses VALUES('BICS 1304','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>171</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4581,11 +4165,11 @@
         <v>INSERT INTO courses VALUES('BICS 1305','DISCRETE STRUCTURES', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -4602,11 +4186,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -4623,11 +4207,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -4644,11 +4228,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -4665,11 +4249,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -4686,11 +4270,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4707,11 +4291,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -4728,11 +4312,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>167</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -4749,11 +4333,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4770,11 +4354,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -4791,11 +4375,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>189</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -4812,11 +4396,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>191</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -4833,11 +4417,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>193</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -4854,11 +4438,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="9" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -4875,11 +4459,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>197</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -4896,11 +4480,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>199</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -4917,11 +4501,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="9" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>201</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -4938,11 +4522,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>203</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -4959,11 +4543,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="9" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>205</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -4980,11 +4564,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="9" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>207</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -5001,11 +4585,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="9" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>209</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -5022,11 +4606,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="9" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>211</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -5043,11 +4627,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="9" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>213</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -5064,11 +4648,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>215</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -5085,11 +4669,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="9" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>217</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -5106,11 +4690,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="9" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>219</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -5127,11 +4711,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="9" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -5148,11 +4732,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4334','NETWORK AND SYSTEM ADMINISTRATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>223</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -5169,11 +4753,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -5190,11 +4774,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -5211,11 +4795,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>229</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -5232,11 +4816,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="9" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -5253,11 +4837,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="9" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>233</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -5274,11 +4858,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="9" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -5295,11 +4879,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -5316,11 +4900,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="9" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>238</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -5337,11 +4921,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>240</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -5360,28 +4944,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
-    <col min="3" max="5" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="5" width="14.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -5401,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>241</v>
       </c>
@@ -5422,7 +5004,7 @@
         <v>INSERT INTO courses VALUES('INFO 7011','Islamic Worldview on ICT and Society', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>244</v>
       </c>
@@ -5443,7 +5025,7 @@
         <v>INSERT INTO courses VALUES('INFO 7901','ICT Research Methods', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>246</v>
       </c>
@@ -5464,7 +5046,7 @@
         <v>INSERT INTO courses VALUES('INFO 7131','IT Project &amp; Change Management', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>248</v>
       </c>
@@ -5485,7 +5067,7 @@
         <v>INSERT INTO courses VALUES('INFO 7151','IT Strategy &amp; Governance', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>250</v>
       </c>
@@ -5506,7 +5088,7 @@
         <v>INSERT INTO courses VALUES('INFO 7145','Methodologies for System Development', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>252</v>
       </c>
@@ -5527,7 +5109,7 @@
         <v>INSERT INTO courses VALUES('INFO 7991','Computing Project', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>254</v>
       </c>
@@ -5548,7 +5130,7 @@
         <v>INSERT INTO courses VALUES('INFO 7115','Advanced Data Management', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>256</v>
       </c>
@@ -5569,7 +5151,7 @@
         <v>INSERT INTO courses VALUES('INFO 7125','Business Data Communications &amp; Networking', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>258</v>
       </c>
@@ -5590,7 +5172,7 @@
         <v>INSERT INTO courses VALUES('INFO 7165','Advanced Enterprise Integration', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>260</v>
       </c>
@@ -5611,7 +5193,7 @@
         <v>INSERT INTO courses VALUES('INFO 7211','Knowledge Management Principles &amp; Practices', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>262</v>
       </c>
@@ -5632,7 +5214,7 @@
         <v>INSERT INTO courses VALUES('INFO 7221','Advanced E-Commerce', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>264</v>
       </c>
@@ -5653,7 +5235,7 @@
         <v>INSERT INTO courses VALUES('INFO 7231','Cybersecurity Challenges, Policy &amp; Strategy', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>266</v>
       </c>
@@ -5674,7 +5256,7 @@
         <v>INSERT INTO courses VALUES('INFO 7251','Mobile Communications &amp; Networks', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>268</v>
       </c>
@@ -5695,7 +5277,7 @@
         <v>INSERT INTO courses VALUES('INFO 7261','IT Professional Practices', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>270</v>
       </c>
@@ -5716,7 +5298,7 @@
         <v>INSERT INTO courses VALUES('INFO 7271','Human Computer Interaction &amp; Design', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>272</v>
       </c>
@@ -5737,7 +5319,7 @@
         <v>INSERT INTO courses VALUES('INFO 7992','IT Research Proposal', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>274</v>
       </c>
@@ -5758,7 +5340,7 @@
         <v>INSERT INTO courses VALUES('INFO 7993','IT Dissertation', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>276</v>
       </c>
@@ -5779,7 +5361,7 @@
         <v>INSERT INTO courses VALUES('CITA 7011 ','Islamic Worldview on IT and Society ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>279</v>
       </c>
@@ -5800,7 +5382,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7101 ','Big Data Across Verticals and Domains ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>281</v>
       </c>
@@ -5821,7 +5403,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7102 ','Data Quality ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>283</v>
       </c>
@@ -5842,7 +5424,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7202 ','Unstructured Data Analytics ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>285</v>
       </c>
@@ -5863,7 +5445,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7301 ','Datathon and Bootcamp ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>287</v>
       </c>
@@ -5884,7 +5466,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7301 ','Risk Management ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>290</v>
       </c>
@@ -5905,7 +5487,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7101 ','Business Continuity &amp; Disaster Recovery ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>292</v>
       </c>
@@ -5926,7 +5508,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7102 ','Physical Protective Security ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>294</v>
       </c>
@@ -5947,7 +5529,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7998 ','Dissertation ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>296</v>
       </c>
@@ -5968,7 +5550,7 @@
         <v>INSERT INTO courses VALUES('LISC 7070','Management of Information Institutions', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>299</v>
       </c>
@@ -5989,7 +5571,7 @@
         <v>INSERT INTO courses VALUES('LISC 7120','Information Analysis and Organization I', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>301</v>
       </c>
@@ -6010,7 +5592,7 @@
         <v>INSERT INTO courses VALUES('LISC 7071','Management of Information Institutions', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>302</v>
       </c>
@@ -6031,7 +5613,7 @@
         <v>INSERT INTO courses VALUES('LISC 7020','Information Analysis and Organization I', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>303</v>
       </c>
@@ -6052,7 +5634,7 @@
         <v>INSERT INTO courses VALUES('LISC 7121','Information Analysis and Organization II', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>305</v>
       </c>
@@ -6073,7 +5655,7 @@
         <v>INSERT INTO courses VALUES('LISC 7420','Application of Information Technology in Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>307</v>
       </c>
@@ -6094,7 +5676,7 @@
         <v>INSERT INTO courses VALUES('LISC 7421','Application of Information Technology in Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>308</v>
       </c>
@@ -6115,7 +5697,7 @@
         <v>INSERT INTO courses VALUES('LISC 7430','Digital Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>310</v>
       </c>
@@ -6136,7 +5718,7 @@
         <v>INSERT INTO courses VALUES('LISC 7135','Records and Archives Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>312</v>
       </c>
@@ -6157,7 +5739,7 @@
         <v>INSERT INTO courses VALUES('LISC 7440','Information Processing and Database Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>314</v>
       </c>
@@ -6178,7 +5760,7 @@
         <v>INSERT INTO courses VALUES('LISC 7041','Information Sources and Services', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>316</v>
       </c>
@@ -6199,7 +5781,7 @@
         <v>INSERT INTO courses VALUES('LISC 7988','Directed Research Practicum', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>318</v>
       </c>
@@ -6220,7 +5802,7 @@
         <v>INSERT INTO courses VALUES('LISC 7941','Fieldwork', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>320</v>
       </c>
@@ -6241,7 +5823,7 @@
         <v>INSERT INTO courses VALUES('LISC 7051','Information Resources Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>322</v>
       </c>
@@ -6262,7 +5844,7 @@
         <v>INSERT INTO courses VALUES('LISC 7185','Indexing and Abstracting', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>324</v>
       </c>
@@ -6283,7 +5865,7 @@
         <v>INSERT INTO courses VALUES('LISC 7075','Records and Archives Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>325</v>
       </c>
@@ -6304,7 +5886,7 @@
         <v>INSERT INTO courses VALUES('LISC 7184','Measurement and Evaluation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>327</v>
       </c>
@@ -6325,7 +5907,7 @@
         <v>INSERT INTO courses VALUES('LISC 7182','Information Storage and Retrieval', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>329</v>
       </c>
@@ -6346,7 +5928,7 @@
         <v>INSERT INTO courses VALUES('LISC 7183','Bibliometrics', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>331</v>
       </c>
@@ -6367,7 +5949,7 @@
         <v>INSERT INTO courses VALUES('LISC 7072','Management of Islamic Manuscript Collection', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>333</v>
       </c>
@@ -6388,7 +5970,7 @@
         <v>INSERT INTO courses VALUES('LISC 7073','Management of Official Publications', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>335</v>
       </c>
@@ -6409,7 +5991,7 @@
         <v>INSERT INTO courses VALUES('LISC 7074','Conservation and Preservation of Information Resources', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>337</v>
       </c>
@@ -6430,7 +6012,7 @@
         <v>INSERT INTO courses VALUES('LISC 7423','Web-Based Information Design and Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>339</v>
       </c>
@@ -6451,7 +6033,7 @@
         <v>INSERT INTO courses VALUES('LISC 7042','Information Sources and Services in Islamic Revealed Knowledge', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>341</v>
       </c>
@@ -6472,7 +6054,7 @@
         <v>INSERT INTO courses VALUES('LISC 7422','Digital Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>342</v>
       </c>
@@ -6493,7 +6075,7 @@
         <v>INSERT INTO courses VALUES('LISC 7021','Arabic Cataloguing', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>344</v>
       </c>
@@ -6514,7 +6096,7 @@
         <v>INSERT INTO courses VALUES('LISC 7424','Information Processing and Database Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>345</v>
       </c>
@@ -6535,7 +6117,7 @@
         <v>INSERT INTO courses VALUES('LISC 7987','Research Proposal', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>347</v>
       </c>
@@ -6556,7 +6138,7 @@
         <v>INSERT INTO courses VALUES('LISC 7989','LIS Research / Dissertation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>349</v>
       </c>
@@ -6577,7 +6159,7 @@
         <v>INSERT INTO courses VALUES('LISC 8290','Seminar in Human Information Behaviour', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>352</v>
       </c>
@@ -6598,7 +6180,7 @@
         <v>INSERT INTO courses VALUES('LISC 8390','Seminar in Organization of Information Resource', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>354</v>
       </c>
@@ -6619,7 +6201,7 @@
         <v>INSERT INTO courses VALUES('LISC 8910','Statistics for Library &amp; Information Professional', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>356</v>
       </c>
@@ -6640,7 +6222,7 @@
         <v>INSERT INTO courses VALUES('LISC 8920','Survey Research Method in Library &amp; Information Science', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>358</v>
       </c>
@@ -6661,7 +6243,7 @@
         <v>INSERT INTO courses VALUES('LISC 8930','Qualitative Research Method in Library &amp; Information Science', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>360</v>
       </c>
@@ -6682,7 +6264,7 @@
         <v>INSERT INTO courses VALUES('LISC 8380','Organization of Islamic Information', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>362</v>
       </c>
@@ -6703,7 +6285,7 @@
         <v>INSERT INTO courses VALUES('LISC 8410','Trends in Information Retrieval', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>364</v>
       </c>
@@ -6724,7 +6306,7 @@
         <v>INSERT INTO courses VALUES('LISC 8450','Planning &amp; Management of Library Automation Systems', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>366</v>
       </c>
@@ -6745,7 +6327,7 @@
         <v>INSERT INTO courses VALUES('LISC 8810','Strategic Planning for Information Professional', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>368</v>
       </c>
@@ -6766,7 +6348,7 @@
         <v>INSERT INTO courses VALUES('LISC 8890','Seminar in Measurement and Evaluation of Library and Information Services', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>370</v>
       </c>
@@ -6787,7 +6369,7 @@
         <v>INSERT INTO courses VALUES('LISC 8820','Organizational Development in Information Institutions', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>372</v>
       </c>
@@ -6808,7 +6390,7 @@
         <v>INSERT INTO courses VALUES('LISC 8980','Seminar in Current Trends and Issus in LIS', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>374</v>
       </c>
@@ -6829,7 +6411,7 @@
         <v>INSERT INTO courses VALUES('LISC 8995','Comprehensive Examination', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>376</v>
       </c>
@@ -6850,7 +6432,7 @@
         <v>INSERT INTO courses VALUES('LISC  8994','Research Proposal', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>377</v>
       </c>
@@ -6871,7 +6453,7 @@
         <v>INSERT INTO courses VALUES('LISC 8998','Dissertation', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>379</v>
       </c>
@@ -6892,31 +6474,764 @@
         <v>INSERT INTO courses VALUES('LISC 8999','Thesis', null, null, 'PLIB');</v>
       </c>
     </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B73" t="s">
+        <v>396</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F73" s="13" t="str">
+        <f t="shared" ref="F73" si="3">"INSERT INTO courses VALUES('"&amp;A73&amp;"','"&amp;B73&amp;"', "&amp;C73&amp;", "&amp;D73&amp;", '"&amp;E73&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('MIIT 7401','Islamic Worldview On ICT &amp; Society', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B74" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F74" s="13" t="str">
+        <f t="shared" ref="F74:F77" si="4">"INSERT INTO courses VALUES('"&amp;A74&amp;"','"&amp;B74&amp;"', "&amp;C74&amp;", "&amp;D74&amp;", '"&amp;E74&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('MIIT 7402','ICT Research Methods', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B75" t="s">
+        <v>397</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO courses VALUES('MIIT 7410','Analytics and Visualisation', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B76" t="s">
+        <v>398</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F76" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO courses VALUES('MIIT 7422','Humanity Centred Design', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B77" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO courses VALUES('MIIT 7502','IT Research Proposal', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B78" t="s">
+        <v>400</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F78" s="13" t="str">
+        <f t="shared" ref="F78" si="5">"INSERT INTO courses VALUES('"&amp;A78&amp;"','"&amp;B78&amp;"', "&amp;C78&amp;", "&amp;D78&amp;", '"&amp;E78&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 7401','Reference Services', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B79" t="s">
+        <v>402</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F79" s="13" t="str">
+        <f t="shared" ref="F79:F94" si="6">"INSERT INTO courses VALUES('"&amp;A79&amp;"','"&amp;B79&amp;"', "&amp;C79&amp;", "&amp;D79&amp;", '"&amp;E79&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 7402','Information Organization and Classification', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B80" t="s">
+        <v>404</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F80" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7405','Industrial Training', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B81" t="s">
+        <v>406</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F81" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7406','Directed Research', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B82" t="s">
+        <v>408</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F82" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7410','Collection Development and Management', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B83" t="s">
+        <v>410</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F83" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7411','Domain-Specific Taxonomy', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B84" t="s">
+        <v>412</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7412','Archives and Records Management', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B85" t="s">
+        <v>414</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F85" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7413','Library Assessment and Impact Evaluation', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B86" t="s">
+        <v>416</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F86" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7414','Information Retrieval and Artificial Intelligence Literacy', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B87" t="s">
+        <v>418</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F87" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7415','Bibliometrics and Science Mapping', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B88" t="s">
+        <v>420</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F88" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7416','Management of Islamic Manuscripts', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B89" t="s">
+        <v>422</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F89" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7417','Government Publications', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B90" t="s">
+        <v>424</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7418','Preservation Management', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B91" t="s">
+        <v>426</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F91" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7419','Web Design and Development', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B92" t="s">
+        <v>428</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F92" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7425','Digital Libraries', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B93" t="s">
+        <v>430</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F93" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7426','Organization and Classification of Islamic Collection', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B94" t="s">
+        <v>432</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F94" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO courses VALUES('LISC 7427','Database Design', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B95" t="s">
+        <v>434</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F95" s="13" t="str">
+        <f t="shared" ref="F95" si="7">"INSERT INTO courses VALUES('"&amp;A95&amp;"','"&amp;B95&amp;"', "&amp;C95&amp;", "&amp;D95&amp;", '"&amp;E95&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 8431','Advanced Qualitative Research Methods', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B96" t="s">
+        <v>436</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F96" s="13" t="str">
+        <f t="shared" ref="F96:F107" si="8">"INSERT INTO courses VALUES('"&amp;A96&amp;"','"&amp;B96&amp;"', "&amp;C96&amp;", "&amp;D96&amp;", '"&amp;E96&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 8411','Statistics for Library and Information Professionals', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B97" t="s">
+        <v>438</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F97" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO courses VALUES('LISC 8421','Quantitative Social Survey', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B98" t="s">
+        <v>375</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F98" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO courses VALUES('LISC 8095','Comprehensive Examination', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B99" t="s">
+        <v>441</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F99" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO courses VALUES('LISC 8441','Information Seeking Behaviour', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B100" t="s">
+        <v>443</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F100" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO courses VALUES('LISC 8442','Bibliographic Representation and Organization', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B101" t="s">
+        <v>445</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F101" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO courses VALUES('LISC 8443','Digital Humanities for Islamic Collections', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B102" t="s">
+        <v>447</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F102" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO courses VALUES('LISC 8444','Advances in Information Retrieval', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B103" t="s">
+        <v>449</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F103" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO courses VALUES('LISC 8445','Library Systems', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B104" t="s">
+        <v>451</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F104" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO courses VALUES('LISC 8446','Strategic Planning for Information Professionals', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B105" t="s">
+        <v>453</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F105" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO courses VALUES('LISC 8447','Seminar in Metrics and Measures for Information Services', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B106" t="s">
+        <v>371</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F106" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO courses VALUES('LISC 8448','Organizational Development in Information Institutions', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B107" t="s">
+        <v>456</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F107" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO courses VALUES('LISC 8449','Trends in Information Research', null, null, 'PLIB');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
-    <col min="3" max="4" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="97.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="97.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -6933,7 +7248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>289</v>
       </c>
@@ -6951,7 +7266,7 @@
         <v>INSERT INTO p_g_programs VALUES('MPSM','Master in Protective Security Management',null,null);</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>278</v>
       </c>
@@ -6969,8 +7284,8 @@
         <v>INSERT INTO p_g_programs VALUES('MBIA','Master in Business Intelligence And Analytic',null,null);</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>243</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -6987,7 +7302,7 @@
         <v>INSERT INTO p_g_programs VALUES('MITEC','Master of Information Technology',null,null);</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>298</v>
       </c>
@@ -7005,7 +7320,7 @@
         <v>INSERT INTO p_g_programs VALUES('MLIB','Master of Library and Information Science',null,null);</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>351</v>
       </c>
@@ -7023,82 +7338,79 @@
         <v>INSERT INTO p_g_programs VALUES('PLIB','Doctor of Philosophy in Library and Information Science',null,null);</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>390</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695E57B1-E53A-B74D-BA98-90E373FEF0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28900" yWindow="640" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -1182,6 +1176,204 @@
     <t>Thesis</t>
   </si>
   <si>
+    <t>MIIT 7401</t>
+  </si>
+  <si>
+    <t>Islamic Worldview On ICT &amp; Society</t>
+  </si>
+  <si>
+    <t>MIIT 7402</t>
+  </si>
+  <si>
+    <t>MIIT 7410</t>
+  </si>
+  <si>
+    <t>Analytics and Visualisation</t>
+  </si>
+  <si>
+    <t>MIIT 7422</t>
+  </si>
+  <si>
+    <t>Humanity Centred Design</t>
+  </si>
+  <si>
+    <t>MIIT 7502</t>
+  </si>
+  <si>
+    <t>LISC 7401</t>
+  </si>
+  <si>
+    <t>Reference Services</t>
+  </si>
+  <si>
+    <t>LISC 7402</t>
+  </si>
+  <si>
+    <t>Information Organization and Classification</t>
+  </si>
+  <si>
+    <t>LISC 7405</t>
+  </si>
+  <si>
+    <t>Industrial Training</t>
+  </si>
+  <si>
+    <t>LISC 7406</t>
+  </si>
+  <si>
+    <t>Directed Research</t>
+  </si>
+  <si>
+    <t>LISC 7410</t>
+  </si>
+  <si>
+    <t>Collection Development and Management</t>
+  </si>
+  <si>
+    <t>LISC 7411</t>
+  </si>
+  <si>
+    <t>Domain-Specific Taxonomy</t>
+  </si>
+  <si>
+    <t>LISC 7412</t>
+  </si>
+  <si>
+    <t>Archives and Records Management</t>
+  </si>
+  <si>
+    <t>LISC 7413</t>
+  </si>
+  <si>
+    <t>Library Assessment and Impact Evaluation</t>
+  </si>
+  <si>
+    <t>LISC 7414</t>
+  </si>
+  <si>
+    <t>Information Retrieval and Artificial Intelligence Literacy</t>
+  </si>
+  <si>
+    <t>LISC 7415</t>
+  </si>
+  <si>
+    <t>Bibliometrics and Science Mapping</t>
+  </si>
+  <si>
+    <t>LISC 7416</t>
+  </si>
+  <si>
+    <t>Management of Islamic Manuscripts</t>
+  </si>
+  <si>
+    <t>LISC 7417</t>
+  </si>
+  <si>
+    <t>Government Publications</t>
+  </si>
+  <si>
+    <t>LISC 7418</t>
+  </si>
+  <si>
+    <t>Preservation Management</t>
+  </si>
+  <si>
+    <t>LISC 7419</t>
+  </si>
+  <si>
+    <t>Web Design and Development</t>
+  </si>
+  <si>
+    <t>LISC 7425</t>
+  </si>
+  <si>
+    <t>Digital Libraries</t>
+  </si>
+  <si>
+    <t>LISC 7426</t>
+  </si>
+  <si>
+    <t>Organization and Classification of Islamic Collection</t>
+  </si>
+  <si>
+    <t>LISC 7427</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>LISC 8431</t>
+  </si>
+  <si>
+    <t>Advanced Qualitative Research Methods</t>
+  </si>
+  <si>
+    <t>LISC 8411</t>
+  </si>
+  <si>
+    <t>Statistics for Library and Information Professionals</t>
+  </si>
+  <si>
+    <t>LISC 8421</t>
+  </si>
+  <si>
+    <t>Quantitative Social Survey</t>
+  </si>
+  <si>
+    <t>LISC 8095</t>
+  </si>
+  <si>
+    <t>LISC 8441</t>
+  </si>
+  <si>
+    <t>Information Seeking Behaviour</t>
+  </si>
+  <si>
+    <t>LISC 8442</t>
+  </si>
+  <si>
+    <t>Bibliographic Representation and Organization</t>
+  </si>
+  <si>
+    <t>LISC 8443</t>
+  </si>
+  <si>
+    <t>Digital Humanities for Islamic Collections</t>
+  </si>
+  <si>
+    <t>LISC 8444</t>
+  </si>
+  <si>
+    <t>Advances in Information Retrieval</t>
+  </si>
+  <si>
+    <t>LISC 8445</t>
+  </si>
+  <si>
+    <t>Library Systems</t>
+  </si>
+  <si>
+    <t>LISC 8446</t>
+  </si>
+  <si>
+    <t>Strategic Planning for Information Professionals</t>
+  </si>
+  <si>
+    <t>LISC 8447</t>
+  </si>
+  <si>
+    <t>Seminar in Metrics and Measures for Information Services</t>
+  </si>
+  <si>
+    <t>LISC 8448</t>
+  </si>
+  <si>
+    <t>LISC 8449</t>
+  </si>
+  <si>
+    <t>Trends in Information Research</t>
+  </si>
+  <si>
     <t>program_name</t>
   </si>
   <si>
@@ -1210,211 +1402,19 @@
   </si>
   <si>
     <t>ALTER TABLE p_g_decentraliseds AUTO_INCREMENT = 0;</t>
-  </si>
-  <si>
-    <t>MIIT 7401</t>
-  </si>
-  <si>
-    <t>MIIT 7402</t>
-  </si>
-  <si>
-    <t>MIIT 7410</t>
-  </si>
-  <si>
-    <t>MIIT 7422</t>
-  </si>
-  <si>
-    <t>MIIT 7502</t>
-  </si>
-  <si>
-    <t>Islamic Worldview On ICT &amp; Society</t>
-  </si>
-  <si>
-    <t>Analytics and Visualisation</t>
-  </si>
-  <si>
-    <t>Humanity Centred Design</t>
-  </si>
-  <si>
-    <t>LISC 7401</t>
-  </si>
-  <si>
-    <t>Reference Services</t>
-  </si>
-  <si>
-    <t>LISC 7402</t>
-  </si>
-  <si>
-    <t>Information Organization and Classification</t>
-  </si>
-  <si>
-    <t>LISC 7405</t>
-  </si>
-  <si>
-    <t>Industrial Training</t>
-  </si>
-  <si>
-    <t>LISC 7406</t>
-  </si>
-  <si>
-    <t>Directed Research</t>
-  </si>
-  <si>
-    <t>LISC 7410</t>
-  </si>
-  <si>
-    <t>Collection Development and Management</t>
-  </si>
-  <si>
-    <t>LISC 7411</t>
-  </si>
-  <si>
-    <t>Domain-Specific Taxonomy</t>
-  </si>
-  <si>
-    <t>LISC 7412</t>
-  </si>
-  <si>
-    <t>Archives and Records Management</t>
-  </si>
-  <si>
-    <t>LISC 7413</t>
-  </si>
-  <si>
-    <t>Library Assessment and Impact Evaluation</t>
-  </si>
-  <si>
-    <t>LISC 7414</t>
-  </si>
-  <si>
-    <t>Information Retrieval and Artificial Intelligence Literacy</t>
-  </si>
-  <si>
-    <t>LISC 7415</t>
-  </si>
-  <si>
-    <t>Bibliometrics and Science Mapping</t>
-  </si>
-  <si>
-    <t>LISC 7416</t>
-  </si>
-  <si>
-    <t>Management of Islamic Manuscripts</t>
-  </si>
-  <si>
-    <t>LISC 7417</t>
-  </si>
-  <si>
-    <t>Government Publications</t>
-  </si>
-  <si>
-    <t>LISC 7418</t>
-  </si>
-  <si>
-    <t>Preservation Management</t>
-  </si>
-  <si>
-    <t>LISC 7419</t>
-  </si>
-  <si>
-    <t>Web Design and Development</t>
-  </si>
-  <si>
-    <t>LISC 7425</t>
-  </si>
-  <si>
-    <t>Digital Libraries</t>
-  </si>
-  <si>
-    <t>LISC 7426</t>
-  </si>
-  <si>
-    <t>Organization and Classification of Islamic Collection</t>
-  </si>
-  <si>
-    <t>LISC 7427</t>
-  </si>
-  <si>
-    <t>Database Design</t>
-  </si>
-  <si>
-    <t>LISC 8431</t>
-  </si>
-  <si>
-    <t>Advanced Qualitative Research Methods</t>
-  </si>
-  <si>
-    <t>LISC 8411</t>
-  </si>
-  <si>
-    <t>Statistics for Library and Information Professionals</t>
-  </si>
-  <si>
-    <t>LISC 8421</t>
-  </si>
-  <si>
-    <t>Quantitative Social Survey</t>
-  </si>
-  <si>
-    <t>LISC 8095</t>
-  </si>
-  <si>
-    <t>LISC 8441</t>
-  </si>
-  <si>
-    <t>Information Seeking Behaviour</t>
-  </si>
-  <si>
-    <t>LISC 8442</t>
-  </si>
-  <si>
-    <t>Bibliographic Representation and Organization</t>
-  </si>
-  <si>
-    <t>LISC 8443</t>
-  </si>
-  <si>
-    <t>Digital Humanities for Islamic Collections</t>
-  </si>
-  <si>
-    <t>LISC 8444</t>
-  </si>
-  <si>
-    <t>Advances in Information Retrieval</t>
-  </si>
-  <si>
-    <t>LISC 8445</t>
-  </si>
-  <si>
-    <t>Library Systems</t>
-  </si>
-  <si>
-    <t>LISC 8446</t>
-  </si>
-  <si>
-    <t>Strategic Planning for Information Professionals</t>
-  </si>
-  <si>
-    <t>LISC 8447</t>
-  </si>
-  <si>
-    <t>Seminar in Metrics and Measures for Information Services</t>
-  </si>
-  <si>
-    <t>LISC 8448</t>
-  </si>
-  <si>
-    <t>LISC 8449</t>
-  </si>
-  <si>
-    <t>Trends in Information Research</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1423,37 +1423,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1461,11 +1461,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1474,12 +1625,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1487,24 +1818,270 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1524,22 +2101,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1797,31 +2414,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:A78"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="86.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.8333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.8333333333333" customWidth="1"/>
+    <col min="3" max="4" width="14.8333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="86.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1834,11 +2451,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+    <row r="2" spans="1:5">
+      <c r="A2" s="12">
         <v>10400</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1852,11 +2469,11 @@
         <v>INSERT INTO staff VALUES('10400','ABDUL RAFIEZ BIN ABDUL RAZIFF', null, null);</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+    <row r="3" spans="1:5">
+      <c r="A3" s="12">
         <v>1716</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1870,11 +2487,11 @@
         <v>INSERT INTO staff VALUES('1716','ABD. RAHMAN BIN AHLAN', null, null);</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+    <row r="4" spans="1:5">
+      <c r="A4" s="12">
         <v>6250</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1888,11 +2505,11 @@
         <v>INSERT INTO staff VALUES('6250','ABDUL RAHMAN BIN AHMAD DAHLAN', null, null);</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+    <row r="5" spans="1:5">
+      <c r="A5" s="12">
         <v>3189</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1906,11 +2523,11 @@
         <v>INSERT INTO staff VALUES('3189','AHMAD FATZILAH BIN MISMAN', null, null);</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+    <row r="6" spans="1:5">
+      <c r="A6" s="12">
         <v>9471</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1924,11 +2541,11 @@
         <v>INSERT INTO staff VALUES('9471','AIDRINA BINTI MOHAMED SOFIADIN', null, null);</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+    <row r="7" spans="1:5">
+      <c r="A7" s="12">
         <v>6153</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1942,11 +2559,11 @@
         <v>INSERT INTO staff VALUES('6153','AKRAM M Z M KHEDHER', null, null);</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+    <row r="8" spans="1:5">
+      <c r="A8" s="12">
         <v>6566</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1960,11 +2577,11 @@
         <v>INSERT INTO staff VALUES('6566','ASADULLAH SHAH', null, null);</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+    <row r="9" spans="1:5">
+      <c r="A9" s="12">
         <v>10325</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1978,11 +2595,11 @@
         <v>INSERT INTO staff VALUES('10325','ATIKAH BALQIS BINTI BASRI', null, null);</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+    <row r="10" spans="1:5">
+      <c r="A10" s="12">
         <v>4177</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1996,11 +2613,11 @@
         <v>INSERT INTO staff VALUES('4177','AZNAN ZUHID BIN SAIDIN', null, null);</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+    <row r="11" spans="1:5">
+      <c r="A11" s="12">
         <v>10402</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2014,11 +2631,11 @@
         <v>INSERT INTO staff VALUES('10402','ELIN ELIANA BINTI ABDUL RAHIM', null, null);</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+    <row r="12" spans="1:5">
+      <c r="A12" s="12">
         <v>7816</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2032,11 +2649,11 @@
         <v>INSERT INTO staff VALUES('7816','HAZWANI BT MOHD MOHADIS', null, null);</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+    <row r="13" spans="1:5">
+      <c r="A13" s="12">
         <v>6202</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2050,11 +2667,11 @@
         <v>INSERT INTO staff VALUES('6202','JAMALUDIN BIN IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+    <row r="14" spans="1:5">
+      <c r="A14" s="12">
         <v>4559</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2068,11 +2685,11 @@
         <v>INSERT INTO staff VALUES('4559','LILI MARZIANA BT. ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+    <row r="15" spans="1:5">
+      <c r="A15" s="12">
         <v>3815</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2086,11 +2703,11 @@
         <v>INSERT INTO staff VALUES('3815','MADIHAH BT. S. ABD. AZIZ', null, null);</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+    <row r="16" spans="1:5">
+      <c r="A16" s="12">
         <v>4573</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2104,11 +2721,11 @@
         <v>INSERT INTO staff VALUES('4573','MARINI OTHMAN', null, null);</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+    <row r="17" spans="1:5">
+      <c r="A17" s="12">
         <v>4578</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2122,11 +2739,11 @@
         <v>INSERT INTO staff VALUES('4578','MIOR NASIR MIOR NAZRI', null, null);</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+    <row r="18" spans="1:5">
+      <c r="A18" s="12">
         <v>6326</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2140,11 +2757,11 @@
         <v>INSERT INTO staff VALUES('6326','MIRA KARTIWI', null, null);</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+    <row r="19" spans="1:5">
+      <c r="A19" s="12">
         <v>1375</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2158,11 +2775,11 @@
         <v>INSERT INTO staff VALUES('1375','MOHAMAD FAUZAN BIN NOORDIN', null, null);</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+    <row r="20" spans="1:5">
+      <c r="A20" s="12">
         <v>9831</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2176,11 +2793,11 @@
         <v>INSERT INTO staff VALUES('9831','MOHD KHAIRUL AZMI BIN HASSAN', null, null);</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+    <row r="21" spans="1:5">
+      <c r="A21" s="12">
         <v>5594</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2194,11 +2811,11 @@
         <v>INSERT INTO staff VALUES('5594','MOHD. IZZUDDIN BIN MOHD. TAMRIN', null, null);</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+    <row r="22" spans="1:5">
+      <c r="A22" s="12">
         <v>4298</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2212,11 +2829,11 @@
         <v>INSERT INTO staff VALUES('4298','MOHD. SYARQAWY BIN HAMZAH', null, null);</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+    <row r="23" spans="1:5">
+      <c r="A23" s="12">
         <v>4621</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2230,11 +2847,11 @@
         <v>INSERT INTO staff VALUES('4621','MUHAMAD SADRY ABU SEMAN', null, null);</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+    <row r="24" spans="1:5">
+      <c r="A24" s="12">
         <v>3570</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2248,11 +2865,11 @@
         <v>INSERT INTO staff VALUES('3570','MUHD. ROSYDI BIN MUHAMMAD', null, null);</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+    <row r="25" spans="1:5">
+      <c r="A25" s="12">
         <v>8398</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2266,11 +2883,11 @@
         <v>INSERT INTO staff VALUES('8398','MUNA BINTI AZUDDIN', null, null);</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+    <row r="26" spans="1:5">
+      <c r="A26" s="12">
         <v>3451</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2284,11 +2901,11 @@
         <v>INSERT INTO staff VALUES('3451','MURNI BT. MAHMUD', null, null);</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+    <row r="27" spans="1:5">
+      <c r="A27" s="12">
         <v>9084</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2302,11 +2919,11 @@
         <v>INSERT INTO staff VALUES('9084','NAJHAN BIN MUHAMAD IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+    <row r="28" spans="1:5">
+      <c r="A28" s="12">
         <v>6856</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2320,11 +2937,11 @@
         <v>INSERT INTO staff VALUES('6856','NOOR AZIAN BT. MOHAMAD ALI', null, null);</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+    <row r="29" spans="1:5">
+      <c r="A29" s="12">
         <v>3904</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2338,11 +2955,11 @@
         <v>INSERT INTO staff VALUES('3904','NOOR AZIZAH BT. MOHAMADALI', null, null);</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
+    <row r="30" spans="1:5">
+      <c r="A30" s="12">
         <v>4297</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2356,11 +2973,11 @@
         <v>INSERT INTO staff VALUES('4297','NOOR HASRUL NIZAN BIN MOHAMMAD NOOR', null, null);</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
+    <row r="31" spans="1:5">
+      <c r="A31" s="12">
         <v>7822</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2374,11 +2991,11 @@
         <v>INSERT INTO staff VALUES('7822','NOOR HAYANI BINTI ABD RAHIM', null, null);</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
+    <row r="32" spans="1:5">
+      <c r="A32" s="12">
         <v>10163</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2392,11 +3009,11 @@
         <v>INSERT INTO staff VALUES('10163','NURAZLIN BINTI ZAINAL AZMI', null, null);</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
+    <row r="33" spans="1:5">
+      <c r="A33" s="12">
         <v>9026</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2410,11 +3027,11 @@
         <v>INSERT INTO staff VALUES('9026','NURHAFIZAH BINTI MAHRI', null, null);</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
+    <row r="34" spans="1:5">
+      <c r="A34" s="12">
         <v>5341</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2428,11 +3045,11 @@
         <v>INSERT INTO staff VALUES('5341','NURUL NUHA BINTI ABDUL MOLOK', null, null);</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
+    <row r="35" spans="1:5">
+      <c r="A35" s="12">
         <v>4295</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2446,11 +3063,11 @@
         <v>INSERT INTO staff VALUES('4295','SHUHAILI BT. TALIB', null, null);</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
+    <row r="36" spans="1:5">
+      <c r="A36" s="12">
         <v>6993</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -2464,11 +3081,11 @@
         <v>INSERT INTO staff VALUES('6993','SUHAILA BINTI SAMSURI', null, null);</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
+    <row r="37" spans="1:5">
+      <c r="A37" s="12">
         <v>6948</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -2482,11 +3099,11 @@
         <v>INSERT INTO staff VALUES('6948','ZAHIDAH BINTI ZULKIFLI', null, null);</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
+    <row r="38" spans="1:5">
+      <c r="A38" s="12">
         <v>4896</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2500,11 +3117,11 @@
         <v>INSERT INTO staff VALUES('4896','ZAINATUL SHIMA ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
+    <row r="39" spans="1:5">
+      <c r="A39" s="10">
         <v>7132</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2518,11 +3135,11 @@
         <v>INSERT INTO staff VALUES('7132','ADAMU ABUBAKAR IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+    <row r="40" spans="1:5">
+      <c r="A40" s="10">
         <v>10332</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -2536,11 +3153,11 @@
         <v>INSERT INTO staff VALUES('10332','AHSIAH BINTI ISMAIL', null, null);</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+    <row r="41" spans="1:5">
+      <c r="A41" s="10">
         <v>9608</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2554,11 +3171,11 @@
         <v>INSERT INTO staff VALUES('9608','AKEEM OLOWOLAYEMO', null, null);</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+    <row r="42" spans="1:5">
+      <c r="A42" s="10">
         <v>4296</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2572,11 +3189,11 @@
         <v>INSERT INTO staff VALUES('4296','AMELIA RITAHANI BT. ISMAIL', null, null);</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+    <row r="43" spans="1:5">
+      <c r="A43" s="10">
         <v>9221</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -2590,11 +3207,11 @@
         <v>INSERT INTO staff VALUES('9221','AMIR AATIEFF BIN AMIR HUSSIN', null, null);</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
+    <row r="44" spans="1:5">
+      <c r="A44" s="10">
         <v>9157</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2608,11 +3225,11 @@
         <v>INSERT INTO staff VALUES('9157','ANDI FITRIAH BINTI ABDUL KADIR', null, null);</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+    <row r="45" spans="1:5">
+      <c r="A45" s="10">
         <v>10324</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -2626,11 +3243,11 @@
         <v>INSERT INTO staff VALUES('10324','ASMARANI BINTI AHMAD PUZI', null, null);</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+    <row r="46" spans="1:5">
+      <c r="A46" s="10">
         <v>5133</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -2644,11 +3261,11 @@
         <v>INSERT INTO staff VALUES('5133','AZLIN BINTI NORDIN', null, null);</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+    <row r="47" spans="1:5">
+      <c r="A47" s="10">
         <v>10567</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2662,11 +3279,11 @@
         <v>INSERT INTO staff VALUES('10567','DINI OKTARINA DWI HANDAYANI', null, null);</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+    <row r="48" spans="1:5">
+      <c r="A48" s="10">
         <v>7910</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2680,11 +3297,11 @@
         <v>INSERT INTO staff VALUES('7910','HAFIZAH BINTI MANSOR', null, null);</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
+    <row r="49" spans="1:5">
+      <c r="A49" s="10">
         <v>4870</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2698,11 +3315,11 @@
         <v>INSERT INTO staff VALUES('4870','HAMWIRA SAKTI BIN YAACOB', null, null);</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
+    <row r="50" spans="1:5">
+      <c r="A50" s="10">
         <v>771</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -2716,11 +3333,11 @@
         <v>INSERT INTO staff VALUES('771','MAZNAH BT AHMAD', null, null);</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+    <row r="51" spans="1:5">
+      <c r="A51" s="10">
         <v>8123</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -2734,11 +3351,11 @@
         <v>INSERT INTO staff VALUES('8123','NORBIK BASHAH BIN IDRIS', null, null);</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
+    <row r="52" spans="1:5">
+      <c r="A52" s="10">
         <v>9622</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -2752,11 +3369,11 @@
         <v>INSERT INTO staff VALUES('9622','NORLIA MD YUSOF', null, null);</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
+    <row r="53" spans="1:5">
+      <c r="A53" s="10">
         <v>5505</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -2770,11 +3387,11 @@
         <v>INSERT INTO staff VALUES('5505','NORMAZIAH BINTI ABDUL AZIZ', null, null);</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
+    <row r="54" spans="1:5">
+      <c r="A54" s="10">
         <v>3509</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -2788,11 +3405,11 @@
         <v>INSERT INTO staff VALUES('3509','NORMI SHAM BT. AWANG ABU BAKAR', null, null);</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
+    <row r="55" spans="1:5">
+      <c r="A55" s="10">
         <v>3705</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2806,11 +3423,11 @@
         <v>INSERT INTO staff VALUES('3705','NORSAREMAH BT. SALLEH', null, null);</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
+    <row r="56" spans="1:5">
+      <c r="A56" s="10">
         <v>8627</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2824,11 +3441,11 @@
         <v>INSERT INTO staff VALUES('8627','NORZALIZA BINTI MD NOR', null, null);</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
+    <row r="57" spans="1:5">
+      <c r="A57" s="10">
         <v>8405</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -2842,11 +3459,11 @@
         <v>INSERT INTO staff VALUES('8405','NOOR AZURA BINTI ZAKARIA', null, null);</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+    <row r="58" spans="1:5">
+      <c r="A58" s="10">
         <v>5066</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -2860,11 +3477,11 @@
         <v>INSERT INTO staff VALUES('5066','NORZARIYAH BINTI YAHYA', null, null);</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
+    <row r="59" spans="1:5">
+      <c r="A59" s="10">
         <v>8371</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2878,11 +3495,11 @@
         <v>INSERT INTO staff VALUES('8371','NURUL LIYANA BINTI MOHAMAD ZULKUFLI', null, null);</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
+    <row r="60" spans="1:5">
+      <c r="A60" s="10">
         <v>4964</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -2896,11 +3513,11 @@
         <v>INSERT INTO staff VALUES('4964','RAINI BINTI HASSAN', null, null);</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
+    <row r="61" spans="1:5">
+      <c r="A61" s="10">
         <v>8638</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -2914,11 +3531,11 @@
         <v>INSERT INTO staff VALUES('8638','RAWAD ABDULKHALEQ ABDULMOLLA ABDULGHAFOR', null, null);</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+    <row r="62" spans="1:5">
+      <c r="A62" s="10">
         <v>5251</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -2932,11 +3549,11 @@
         <v>INSERT INTO staff VALUES('5251','RIZAL BIN MOHD. NOR', null, null);</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
+    <row r="63" spans="1:5">
+      <c r="A63" s="10">
         <v>8667</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -2950,11 +3567,11 @@
         <v>INSERT INTO staff VALUES('8667','SHARYAR WANI', null, null);</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
+    <row r="64" spans="1:5">
+      <c r="A64" s="10">
         <v>7620</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -2968,11 +3585,11 @@
         <v>INSERT INTO staff VALUES('7620','SITI ASMA BINTI MOHAMMED', null, null);</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
+    <row r="65" spans="1:5">
+      <c r="A65" s="10">
         <v>4615</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -2986,11 +3603,11 @@
         <v>INSERT INTO staff VALUES('4615','SURIANI BT. SULAIMAN', null, null);</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
+    <row r="66" spans="1:5">
+      <c r="A66" s="10">
         <v>9954</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -3004,11 +3621,11 @@
         <v>INSERT INTO staff VALUES('9954','TAKUMI SASE', null, null);</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
+    <row r="67" spans="1:5">
+      <c r="A67" s="10">
         <v>10552</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -3022,11 +3639,11 @@
         <v>INSERT INTO staff VALUES('10552','ZAINAB SENAN MAHMOD ATTAR BASHI', null, null);</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
+    <row r="68" spans="1:5">
+      <c r="A68" s="10">
         <v>10744</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3040,11 +3657,11 @@
         <v>INSERT INTO staff VALUES('10744','TENGKU MOHD BIN TENGKU SEMBOK ', null, null);</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
+    <row r="69" spans="1:5">
+      <c r="A69" s="10">
         <v>10738</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -3058,11 +3675,11 @@
         <v>INSERT INTO staff VALUES('10738','AHMAD ANWAR BIN ZAINUDDIN', null, null);</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
+    <row r="70" spans="1:5">
+      <c r="A70" s="10">
         <v>10722</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -3076,11 +3693,11 @@
         <v>INSERT INTO staff VALUES('10722','ABDUL WAHAB BIN ABDUL RAHMAN', null, null);</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="2">
         <v>1675</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -3094,11 +3711,11 @@
         <v>INSERT INTO staff VALUES('1675','ROSLINA OTHMAN ', null, null);</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="2">
         <v>7684</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -3112,11 +3729,11 @@
         <v>INSERT INTO staff VALUES('7684','ROOSFA HASHIM', null, null);</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="2">
         <v>8227</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3130,11 +3747,11 @@
         <v>INSERT INTO staff VALUES('8227','SHARIFAH NUR AMIRAH SARIF ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="2">
         <v>9019</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -3148,11 +3765,11 @@
         <v>INSERT INTO staff VALUES('9019','NOR SAADAH MD. NOR', null, null);</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="2">
         <v>9041</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3166,11 +3783,11 @@
         <v>INSERT INTO staff VALUES('9041','NUR LEYNI NILAM PUTRI JUNURHAM', null, null);</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="2">
         <v>11085</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -3184,11 +3801,11 @@
         <v>INSERT INTO staff VALUES('11085','AYUB BIN ABDUL RAHMAN', null, null);</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="2">
         <v>11285</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -3202,11 +3819,11 @@
         <v>INSERT INTO staff VALUES('11285','MIMI LIZA BT ABDUL MAJID', null, null);</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="2">
         <v>11417</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3222,27 +3839,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A44"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" customWidth="1"/>
-    <col min="3" max="5" width="14.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.83203125" customWidth="1"/>
+    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
+    <col min="3" max="5" width="14.8333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -3262,11 +3881,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3283,11 +3902,11 @@
         <v>INSERT INTO courses VALUES('BIIT 1301','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3304,11 +3923,11 @@
         <v>INSERT INTO courses VALUES('BIIT 1302','ORGANISATIONAL INFORMATICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3325,11 +3944,11 @@
         <v>INSERT INTO courses VALUES('BIIT 1303','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3346,11 +3965,11 @@
         <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3367,11 +3986,11 @@
         <v>INSERT INTO courses VALUES('INFO 1303','DATABASE SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3388,11 +4007,11 @@
         <v>INSERT INTO courses VALUES('INFO 2302','WEB TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3409,11 +4028,11 @@
         <v>INSERT INTO courses VALUES('INFO 2303','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3430,11 +4049,11 @@
         <v>INSERT INTO courses VALUES('INFO 2304','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3451,11 +4070,11 @@
         <v>INSERT INTO courses VALUES('INFO 2305','MULTIMEDIA TECHNOLOGY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3472,11 +4091,11 @@
         <v>INSERT INTO courses VALUES('INFO 2306','MANAGEMENT INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3493,11 +4112,11 @@
         <v>INSERT INTO courses VALUES('INFO 3304','E-COMMERCE', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3514,11 +4133,11 @@
         <v>INSERT INTO courses VALUES('INFO 3305','WEB APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3535,11 +4154,11 @@
         <v>INSERT INTO courses VALUES('INFO 3307','HUMAN COMPUTER INTERACTION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -3556,11 +4175,11 @@
         <v>INSERT INTO courses VALUES('INFO 3308','PROJECT  MANAGEMENT IN IT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3577,11 +4196,11 @@
         <v>INSERT INTO courses VALUES('INFO 4304','IT AND ISLAM', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3598,11 +4217,11 @@
         <v>INSERT INTO courses VALUES('INFO 4305','CYBER LAW &amp; ETHICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -3619,11 +4238,11 @@
         <v>INSERT INTO courses VALUES('INFO 4303','TECHNOPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3640,11 +4259,11 @@
         <v>INSERT INTO courses VALUES('INFO 4311','DATA WAREHOUSING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -3661,11 +4280,11 @@
         <v>INSERT INTO courses VALUES('INFO 4312','INFORMATION VISUALIZATION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -3682,11 +4301,11 @@
         <v>INSERT INTO courses VALUES('INFO 4313','DATA MINING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -3703,11 +4322,11 @@
         <v>INSERT INTO courses VALUES('INFO 4314','BUSINESS DATA ANALYTICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -3724,11 +4343,11 @@
         <v>INSERT INTO courses VALUES('INFO 4320','ANIMATION TECHNIQUE', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -3745,11 +4364,11 @@
         <v>INSERT INTO courses VALUES('INFO 4321','CREATIVE DESIGN TECHNIQUES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -3766,11 +4385,11 @@
         <v>INSERT INTO courses VALUES('INFO 4325','GRAPHIC DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -3787,11 +4406,11 @@
         <v>INSERT INTO courses VALUES('INFO 4326','3D MODELLING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3808,11 +4427,11 @@
         <v>INSERT INTO courses VALUES('INFO 4328','GAME DESIGN AND DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3829,11 +4448,11 @@
         <v>INSERT INTO courses VALUES('INFO 4332','KNOWLEDGE MANAGEMENT PRACTICES AND APPLICATION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3850,11 +4469,11 @@
         <v>INSERT INTO courses VALUES('INFO 4333','INTEGRATED BUSINESS PROCESS AND ERP SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -3871,11 +4490,11 @@
         <v>INSERT INTO courses VALUES('INFO 4335','MOBILE APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3892,11 +4511,11 @@
         <v>INSERT INTO courses VALUES('INFO 4336','INFORMATION RETRIEVAL TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3913,11 +4532,11 @@
         <v>INSERT INTO courses VALUES('INFO 4330','CONTROL AND AUDIT OF INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3934,11 +4553,11 @@
         <v>INSERT INTO courses VALUES('INFO 4340','MANAGEMENT OF INFORMATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -3955,11 +4574,11 @@
         <v>INSERT INTO courses VALUES('INFO 4341','RISK MANAGEMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -3976,11 +4595,11 @@
         <v>INSERT INTO courses VALUES('INFO 4342','BUSINESS CONTINUITY AND DISASTER RECOVERY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -3997,11 +4616,11 @@
         <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4018,11 +4637,11 @@
         <v>INSERT INTO courses VALUES('INFO 4345','WEB APPLICATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -4039,11 +4658,11 @@
         <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -4060,11 +4679,11 @@
         <v>INSERT INTO courses VALUES('INFO 4352','DIGITALPRENEURSHIP CUSTOMER DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4081,11 +4700,11 @@
         <v>INSERT INTO courses VALUES('BICS 1301','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -4102,11 +4721,11 @@
         <v>INSERT INTO courses VALUES('BICS 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -4123,11 +4742,11 @@
         <v>INSERT INTO courses VALUES('BICS 1303','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -4144,11 +4763,11 @@
         <v>INSERT INTO courses VALUES('BICS 1304','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4165,11 +4784,11 @@
         <v>INSERT INTO courses VALUES('BICS 1305','DISCRETE STRUCTURES', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -4186,11 +4805,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -4207,11 +4826,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -4228,11 +4847,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -4249,11 +4868,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -4270,11 +4889,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4291,11 +4910,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>182</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -4312,11 +4931,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -4333,11 +4952,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4354,11 +4973,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -4375,11 +4994,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -4396,11 +5015,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>191</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -4417,11 +5036,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -4438,11 +5057,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -4459,11 +5078,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:6">
+      <c r="A59" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -4480,11 +5099,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -4501,11 +5120,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:6">
+      <c r="A61" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="9" t="s">
         <v>201</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -4522,11 +5141,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -4543,11 +5162,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:6">
+      <c r="A63" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -4564,11 +5183,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -4585,11 +5204,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:6">
+      <c r="A65" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>209</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -4606,11 +5225,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:6">
+      <c r="A66" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="9" t="s">
         <v>211</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -4627,11 +5246,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="9" t="s">
         <v>213</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -4648,11 +5267,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="9" t="s">
         <v>215</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -4669,11 +5288,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>217</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -4690,11 +5309,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:6">
+      <c r="A70" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>219</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -4711,11 +5330,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -4732,11 +5351,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4334','NETWORK AND SYSTEM ADMINISTRATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:6">
+      <c r="A72" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="9" t="s">
         <v>223</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -4753,11 +5372,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:6">
+      <c r="A73" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="9" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -4774,11 +5393,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:6">
+      <c r="A74" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>227</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -4795,11 +5414,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:6">
+      <c r="A75" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="9" t="s">
         <v>229</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -4816,11 +5435,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:6">
+      <c r="A76" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="9" t="s">
         <v>231</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -4837,11 +5456,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:6">
+      <c r="A77" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="9" t="s">
         <v>233</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -4858,11 +5477,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
+    <row r="78" spans="1:6">
+      <c r="A78" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -4879,11 +5498,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+    <row r="79" spans="1:6">
+      <c r="A79" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -4900,11 +5519,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="9" t="s">
         <v>238</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -4921,11 +5540,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+    <row r="81" spans="1:6">
+      <c r="A81" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -4944,26 +5563,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" customWidth="1"/>
-    <col min="3" max="5" width="14.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.83203125" customWidth="1"/>
+    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
+    <col min="3" max="5" width="14.8333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -4983,7 +5604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>241</v>
       </c>
@@ -5004,7 +5625,7 @@
         <v>INSERT INTO courses VALUES('INFO 7011','Islamic Worldview on ICT and Society', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>244</v>
       </c>
@@ -5025,7 +5646,7 @@
         <v>INSERT INTO courses VALUES('INFO 7901','ICT Research Methods', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>246</v>
       </c>
@@ -5046,7 +5667,7 @@
         <v>INSERT INTO courses VALUES('INFO 7131','IT Project &amp; Change Management', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>248</v>
       </c>
@@ -5067,7 +5688,7 @@
         <v>INSERT INTO courses VALUES('INFO 7151','IT Strategy &amp; Governance', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>250</v>
       </c>
@@ -5088,7 +5709,7 @@
         <v>INSERT INTO courses VALUES('INFO 7145','Methodologies for System Development', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>252</v>
       </c>
@@ -5109,7 +5730,7 @@
         <v>INSERT INTO courses VALUES('INFO 7991','Computing Project', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>254</v>
       </c>
@@ -5130,7 +5751,7 @@
         <v>INSERT INTO courses VALUES('INFO 7115','Advanced Data Management', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>256</v>
       </c>
@@ -5151,7 +5772,7 @@
         <v>INSERT INTO courses VALUES('INFO 7125','Business Data Communications &amp; Networking', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>258</v>
       </c>
@@ -5172,7 +5793,7 @@
         <v>INSERT INTO courses VALUES('INFO 7165','Advanced Enterprise Integration', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>260</v>
       </c>
@@ -5193,7 +5814,7 @@
         <v>INSERT INTO courses VALUES('INFO 7211','Knowledge Management Principles &amp; Practices', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>262</v>
       </c>
@@ -5214,7 +5835,7 @@
         <v>INSERT INTO courses VALUES('INFO 7221','Advanced E-Commerce', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>264</v>
       </c>
@@ -5235,7 +5856,7 @@
         <v>INSERT INTO courses VALUES('INFO 7231','Cybersecurity Challenges, Policy &amp; Strategy', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>266</v>
       </c>
@@ -5256,7 +5877,7 @@
         <v>INSERT INTO courses VALUES('INFO 7251','Mobile Communications &amp; Networks', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>268</v>
       </c>
@@ -5277,7 +5898,7 @@
         <v>INSERT INTO courses VALUES('INFO 7261','IT Professional Practices', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>270</v>
       </c>
@@ -5298,7 +5919,7 @@
         <v>INSERT INTO courses VALUES('INFO 7271','Human Computer Interaction &amp; Design', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>272</v>
       </c>
@@ -5319,7 +5940,7 @@
         <v>INSERT INTO courses VALUES('INFO 7992','IT Research Proposal', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>274</v>
       </c>
@@ -5340,7 +5961,7 @@
         <v>INSERT INTO courses VALUES('INFO 7993','IT Dissertation', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>276</v>
       </c>
@@ -5361,7 +5982,7 @@
         <v>INSERT INTO courses VALUES('CITA 7011 ','Islamic Worldview on IT and Society ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>279</v>
       </c>
@@ -5382,7 +6003,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7101 ','Big Data Across Verticals and Domains ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>281</v>
       </c>
@@ -5403,7 +6024,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7102 ','Data Quality ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>283</v>
       </c>
@@ -5424,7 +6045,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7202 ','Unstructured Data Analytics ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>285</v>
       </c>
@@ -5445,7 +6066,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7301 ','Datathon and Bootcamp ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>287</v>
       </c>
@@ -5466,7 +6087,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7301 ','Risk Management ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>290</v>
       </c>
@@ -5487,7 +6108,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7101 ','Business Continuity &amp; Disaster Recovery ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>292</v>
       </c>
@@ -5508,7 +6129,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7102 ','Physical Protective Security ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>294</v>
       </c>
@@ -5529,7 +6150,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7998 ','Dissertation ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>296</v>
       </c>
@@ -5550,7 +6171,7 @@
         <v>INSERT INTO courses VALUES('LISC 7070','Management of Information Institutions', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>299</v>
       </c>
@@ -5571,7 +6192,7 @@
         <v>INSERT INTO courses VALUES('LISC 7120','Information Analysis and Organization I', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>301</v>
       </c>
@@ -5592,7 +6213,7 @@
         <v>INSERT INTO courses VALUES('LISC 7071','Management of Information Institutions', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>302</v>
       </c>
@@ -5613,7 +6234,7 @@
         <v>INSERT INTO courses VALUES('LISC 7020','Information Analysis and Organization I', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>303</v>
       </c>
@@ -5634,7 +6255,7 @@
         <v>INSERT INTO courses VALUES('LISC 7121','Information Analysis and Organization II', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>305</v>
       </c>
@@ -5655,7 +6276,7 @@
         <v>INSERT INTO courses VALUES('LISC 7420','Application of Information Technology in Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>307</v>
       </c>
@@ -5676,7 +6297,7 @@
         <v>INSERT INTO courses VALUES('LISC 7421','Application of Information Technology in Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>308</v>
       </c>
@@ -5697,7 +6318,7 @@
         <v>INSERT INTO courses VALUES('LISC 7430','Digital Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>310</v>
       </c>
@@ -5718,7 +6339,7 @@
         <v>INSERT INTO courses VALUES('LISC 7135','Records and Archives Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>312</v>
       </c>
@@ -5739,7 +6360,7 @@
         <v>INSERT INTO courses VALUES('LISC 7440','Information Processing and Database Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>314</v>
       </c>
@@ -5760,7 +6381,7 @@
         <v>INSERT INTO courses VALUES('LISC 7041','Information Sources and Services', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>316</v>
       </c>
@@ -5781,7 +6402,7 @@
         <v>INSERT INTO courses VALUES('LISC 7988','Directed Research Practicum', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>318</v>
       </c>
@@ -5802,7 +6423,7 @@
         <v>INSERT INTO courses VALUES('LISC 7941','Fieldwork', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>320</v>
       </c>
@@ -5823,7 +6444,7 @@
         <v>INSERT INTO courses VALUES('LISC 7051','Information Resources Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>322</v>
       </c>
@@ -5844,7 +6465,7 @@
         <v>INSERT INTO courses VALUES('LISC 7185','Indexing and Abstracting', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>324</v>
       </c>
@@ -5865,7 +6486,7 @@
         <v>INSERT INTO courses VALUES('LISC 7075','Records and Archives Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>325</v>
       </c>
@@ -5886,7 +6507,7 @@
         <v>INSERT INTO courses VALUES('LISC 7184','Measurement and Evaluation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>327</v>
       </c>
@@ -5907,7 +6528,7 @@
         <v>INSERT INTO courses VALUES('LISC 7182','Information Storage and Retrieval', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>329</v>
       </c>
@@ -5928,7 +6549,7 @@
         <v>INSERT INTO courses VALUES('LISC 7183','Bibliometrics', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>331</v>
       </c>
@@ -5949,7 +6570,7 @@
         <v>INSERT INTO courses VALUES('LISC 7072','Management of Islamic Manuscript Collection', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>333</v>
       </c>
@@ -5970,7 +6591,7 @@
         <v>INSERT INTO courses VALUES('LISC 7073','Management of Official Publications', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>335</v>
       </c>
@@ -5991,7 +6612,7 @@
         <v>INSERT INTO courses VALUES('LISC 7074','Conservation and Preservation of Information Resources', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>337</v>
       </c>
@@ -6012,7 +6633,7 @@
         <v>INSERT INTO courses VALUES('LISC 7423','Web-Based Information Design and Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>339</v>
       </c>
@@ -6033,7 +6654,7 @@
         <v>INSERT INTO courses VALUES('LISC 7042','Information Sources and Services in Islamic Revealed Knowledge', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>341</v>
       </c>
@@ -6054,7 +6675,7 @@
         <v>INSERT INTO courses VALUES('LISC 7422','Digital Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>342</v>
       </c>
@@ -6075,7 +6696,7 @@
         <v>INSERT INTO courses VALUES('LISC 7021','Arabic Cataloguing', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>344</v>
       </c>
@@ -6096,7 +6717,7 @@
         <v>INSERT INTO courses VALUES('LISC 7424','Information Processing and Database Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>345</v>
       </c>
@@ -6117,7 +6738,7 @@
         <v>INSERT INTO courses VALUES('LISC 7987','Research Proposal', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>347</v>
       </c>
@@ -6138,7 +6759,7 @@
         <v>INSERT INTO courses VALUES('LISC 7989','LIS Research / Dissertation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>349</v>
       </c>
@@ -6159,7 +6780,7 @@
         <v>INSERT INTO courses VALUES('LISC 8290','Seminar in Human Information Behaviour', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>352</v>
       </c>
@@ -6180,7 +6801,7 @@
         <v>INSERT INTO courses VALUES('LISC 8390','Seminar in Organization of Information Resource', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>354</v>
       </c>
@@ -6201,7 +6822,7 @@
         <v>INSERT INTO courses VALUES('LISC 8910','Statistics for Library &amp; Information Professional', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>356</v>
       </c>
@@ -6222,7 +6843,7 @@
         <v>INSERT INTO courses VALUES('LISC 8920','Survey Research Method in Library &amp; Information Science', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>358</v>
       </c>
@@ -6243,7 +6864,7 @@
         <v>INSERT INTO courses VALUES('LISC 8930','Qualitative Research Method in Library &amp; Information Science', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>360</v>
       </c>
@@ -6264,7 +6885,7 @@
         <v>INSERT INTO courses VALUES('LISC 8380','Organization of Islamic Information', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>362</v>
       </c>
@@ -6285,7 +6906,7 @@
         <v>INSERT INTO courses VALUES('LISC 8410','Trends in Information Retrieval', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>364</v>
       </c>
@@ -6306,7 +6927,7 @@
         <v>INSERT INTO courses VALUES('LISC 8450','Planning &amp; Management of Library Automation Systems', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>366</v>
       </c>
@@ -6327,7 +6948,7 @@
         <v>INSERT INTO courses VALUES('LISC 8810','Strategic Planning for Information Professional', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>368</v>
       </c>
@@ -6348,7 +6969,7 @@
         <v>INSERT INTO courses VALUES('LISC 8890','Seminar in Measurement and Evaluation of Library and Information Services', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
         <v>370</v>
       </c>
@@ -6369,7 +6990,7 @@
         <v>INSERT INTO courses VALUES('LISC 8820','Organizational Development in Information Institutions', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>372</v>
       </c>
@@ -6390,7 +7011,7 @@
         <v>INSERT INTO courses VALUES('LISC 8980','Seminar in Current Trends and Issus in LIS', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>374</v>
       </c>
@@ -6411,7 +7032,7 @@
         <v>INSERT INTO courses VALUES('LISC 8995','Comprehensive Examination', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>376</v>
       </c>
@@ -6432,7 +7053,7 @@
         <v>INSERT INTO courses VALUES('LISC  8994','Research Proposal', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
         <v>377</v>
       </c>
@@ -6453,7 +7074,7 @@
         <v>INSERT INTO courses VALUES('LISC 8998','Dissertation', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
         <v>379</v>
       </c>
@@ -6474,12 +7095,12 @@
         <v>INSERT INTO courses VALUES('LISC 8999','Thesis', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B73" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>6</v>
@@ -6490,14 +7111,14 @@
       <c r="E73" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F73" s="13" t="str">
+      <c r="F73" s="6" t="str">
         <f t="shared" ref="F73" si="3">"INSERT INTO courses VALUES('"&amp;A73&amp;"','"&amp;B73&amp;"', "&amp;C73&amp;", "&amp;D73&amp;", '"&amp;E73&amp;"');"</f>
         <v>INSERT INTO courses VALUES('MIIT 7401','Islamic Worldview On ICT &amp; Society', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B74" t="s">
         <v>245</v>
@@ -6511,17 +7132,17 @@
       <c r="E74" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F74" s="13" t="str">
+      <c r="F74" s="6" t="str">
         <f t="shared" ref="F74:F77" si="4">"INSERT INTO courses VALUES('"&amp;A74&amp;"','"&amp;B74&amp;"', "&amp;C74&amp;", "&amp;D74&amp;", '"&amp;E74&amp;"');"</f>
         <v>INSERT INTO courses VALUES('MIIT 7402','ICT Research Methods', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B75" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>6</v>
@@ -6532,17 +7153,17 @@
       <c r="E75" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F75" s="13" t="str">
+      <c r="F75" s="6" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO courses VALUES('MIIT 7410','Analytics and Visualisation', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B76" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>6</v>
@@ -6553,14 +7174,14 @@
       <c r="E76" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F76" s="13" t="str">
+      <c r="F76" s="6" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO courses VALUES('MIIT 7422','Humanity Centred Design', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B77" t="s">
         <v>273</v>
@@ -6574,17 +7195,17 @@
       <c r="E77" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F77" s="13" t="str">
+      <c r="F77" s="6" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO courses VALUES('MIIT 7502','IT Research Proposal', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B78" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>6</v>
@@ -6595,17 +7216,17 @@
       <c r="E78" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F78" s="13" t="str">
+      <c r="F78" s="6" t="str">
         <f t="shared" ref="F78" si="5">"INSERT INTO courses VALUES('"&amp;A78&amp;"','"&amp;B78&amp;"', "&amp;C78&amp;", "&amp;D78&amp;", '"&amp;E78&amp;"');"</f>
         <v>INSERT INTO courses VALUES('LISC 7401','Reference Services', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B79" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>6</v>
@@ -6616,17 +7237,17 @@
       <c r="E79" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F79" s="13" t="str">
+      <c r="F79" s="6" t="str">
         <f t="shared" ref="F79:F94" si="6">"INSERT INTO courses VALUES('"&amp;A79&amp;"','"&amp;B79&amp;"', "&amp;C79&amp;", "&amp;D79&amp;", '"&amp;E79&amp;"');"</f>
         <v>INSERT INTO courses VALUES('LISC 7402','Information Organization and Classification', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B80" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>6</v>
@@ -6637,17 +7258,17 @@
       <c r="E80" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F80" s="13" t="str">
+      <c r="F80" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7405','Industrial Training', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B81" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>6</v>
@@ -6658,17 +7279,17 @@
       <c r="E81" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F81" s="13" t="str">
+      <c r="F81" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7406','Directed Research', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B82" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>6</v>
@@ -6679,17 +7300,17 @@
       <c r="E82" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F82" s="13" t="str">
+      <c r="F82" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7410','Collection Development and Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B83" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>6</v>
@@ -6700,17 +7321,17 @@
       <c r="E83" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F83" s="13" t="str">
+      <c r="F83" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7411','Domain-Specific Taxonomy', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B84" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>6</v>
@@ -6721,17 +7342,17 @@
       <c r="E84" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F84" s="13" t="str">
+      <c r="F84" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7412','Archives and Records Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B85" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>6</v>
@@ -6742,17 +7363,17 @@
       <c r="E85" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F85" s="13" t="str">
+      <c r="F85" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7413','Library Assessment and Impact Evaluation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B86" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>6</v>
@@ -6763,17 +7384,17 @@
       <c r="E86" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F86" s="13" t="str">
+      <c r="F86" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7414','Information Retrieval and Artificial Intelligence Literacy', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B87" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>6</v>
@@ -6784,17 +7405,17 @@
       <c r="E87" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F87" s="13" t="str">
+      <c r="F87" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7415','Bibliometrics and Science Mapping', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B88" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>6</v>
@@ -6805,17 +7426,17 @@
       <c r="E88" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F88" s="13" t="str">
+      <c r="F88" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7416','Management of Islamic Manuscripts', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B89" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>6</v>
@@ -6826,17 +7447,17 @@
       <c r="E89" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F89" s="13" t="str">
+      <c r="F89" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7417','Government Publications', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B90" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>6</v>
@@ -6847,17 +7468,17 @@
       <c r="E90" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F90" s="13" t="str">
+      <c r="F90" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7418','Preservation Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B91" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>6</v>
@@ -6868,17 +7489,17 @@
       <c r="E91" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F91" s="13" t="str">
+      <c r="F91" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7419','Web Design and Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B92" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>6</v>
@@ -6889,17 +7510,17 @@
       <c r="E92" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F92" s="13" t="str">
+      <c r="F92" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7425','Digital Libraries', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B93" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>6</v>
@@ -6910,17 +7531,17 @@
       <c r="E93" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F93" s="13" t="str">
+      <c r="F93" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7426','Organization and Classification of Islamic Collection', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B94" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>6</v>
@@ -6931,17 +7552,17 @@
       <c r="E94" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F94" s="13" t="str">
+      <c r="F94" s="6" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7427','Database Design', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B95" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>6</v>
@@ -6952,17 +7573,17 @@
       <c r="E95" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F95" s="13" t="str">
+      <c r="F95" s="6" t="str">
         <f t="shared" ref="F95" si="7">"INSERT INTO courses VALUES('"&amp;A95&amp;"','"&amp;B95&amp;"', "&amp;C95&amp;", "&amp;D95&amp;", '"&amp;E95&amp;"');"</f>
         <v>INSERT INTO courses VALUES('LISC 8431','Advanced Qualitative Research Methods', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B96" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>6</v>
@@ -6973,17 +7594,17 @@
       <c r="E96" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F96" s="13" t="str">
+      <c r="F96" s="6" t="str">
         <f t="shared" ref="F96:F107" si="8">"INSERT INTO courses VALUES('"&amp;A96&amp;"','"&amp;B96&amp;"', "&amp;C96&amp;", "&amp;D96&amp;", '"&amp;E96&amp;"');"</f>
         <v>INSERT INTO courses VALUES('LISC 8411','Statistics for Library and Information Professionals', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B97" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>6</v>
@@ -6994,14 +7615,14 @@
       <c r="E97" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F97" s="13" t="str">
+      <c r="F97" s="6" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8421','Quantitative Social Survey', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B98" t="s">
         <v>375</v>
@@ -7015,17 +7636,17 @@
       <c r="E98" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F98" s="13" t="str">
+      <c r="F98" s="6" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8095','Comprehensive Examination', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B99" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>6</v>
@@ -7036,17 +7657,17 @@
       <c r="E99" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F99" s="13" t="str">
+      <c r="F99" s="6" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8441','Information Seeking Behaviour', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B100" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>6</v>
@@ -7057,17 +7678,17 @@
       <c r="E100" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F100" s="13" t="str">
+      <c r="F100" s="6" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8442','Bibliographic Representation and Organization', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B101" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>6</v>
@@ -7078,17 +7699,17 @@
       <c r="E101" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F101" s="13" t="str">
+      <c r="F101" s="6" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8443','Digital Humanities for Islamic Collections', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B102" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>6</v>
@@ -7099,17 +7720,17 @@
       <c r="E102" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F102" s="13" t="str">
+      <c r="F102" s="6" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8444','Advances in Information Retrieval', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B103" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>6</v>
@@ -7120,17 +7741,17 @@
       <c r="E103" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F103" s="13" t="str">
+      <c r="F103" s="6" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8445','Library Systems', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B104" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>6</v>
@@ -7141,17 +7762,17 @@
       <c r="E104" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F104" s="13" t="str">
+      <c r="F104" s="6" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8446','Strategic Planning for Information Professionals', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B105" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>6</v>
@@ -7162,14 +7783,14 @@
       <c r="E105" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F105" s="13" t="str">
+      <c r="F105" s="6" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8447','Seminar in Metrics and Measures for Information Services', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B106" t="s">
         <v>371</v>
@@ -7183,17 +7804,17 @@
       <c r="E106" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F106" s="13" t="str">
+      <c r="F106" s="6" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8448','Organizational Development in Information Institutions', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B107" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>6</v>
@@ -7204,39 +7825,41 @@
       <c r="E107" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F107" s="13" t="str">
+      <c r="F107" s="6" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8449','Trends in Information Research', null, null, 'PLIB');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="97.83203125" customWidth="1"/>
+    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
+    <col min="3" max="4" width="14.8333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="97.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -7248,12 +7871,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -7266,12 +7889,12 @@
         <v>INSERT INTO p_g_programs VALUES('MPSM','Master in Protective Security Management',null,null);</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -7284,12 +7907,12 @@
         <v>INSERT INTO p_g_programs VALUES('MBIA','Master in Business Intelligence And Analytic',null,null);</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -7302,12 +7925,12 @@
         <v>INSERT INTO p_g_programs VALUES('MITEC','Master of Information Technology',null,null);</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -7320,12 +7943,12 @@
         <v>INSERT INTO p_g_programs VALUES('MLIB','Master of Library and Information Science',null,null);</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -7338,79 +7961,82 @@
         <v>INSERT INTO p_g_programs VALUES('PLIB','Doctor of Philosophy in Library and Information Science',null,null);</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC85A1F-6B1D-3D44-BB55-973E671D1FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="475">
   <si>
     <t>staff_id</t>
   </si>
@@ -1402,19 +1408,67 @@
   </si>
   <si>
     <t>ALTER TABLE p_g_decentraliseds AUTO_INCREMENT = 0;</t>
+  </si>
+  <si>
+    <t>MIIT 7411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Professional Practices </t>
+  </si>
+  <si>
+    <t>MIIT 7412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT Project Management and Methodologies </t>
+  </si>
+  <si>
+    <t>MIIT 7420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cybersecurity Challenges, Policy and Strategy </t>
+  </si>
+  <si>
+    <t>MIIT 7421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure as a Service </t>
+  </si>
+  <si>
+    <t>MIIT 7423</t>
+  </si>
+  <si>
+    <t>MIIT 7424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Transformation </t>
+  </si>
+  <si>
+    <t>MIIT 7425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT Strategy and Governance </t>
+  </si>
+  <si>
+    <t>MIIT 7426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generative AI Applications </t>
+  </si>
+  <si>
+    <t>MIIT 7427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fintech in Islamic Finance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet of Everything </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1427,33 +1481,33 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1461,162 +1515,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1625,192 +1528,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1818,251 +1541,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2075,13 +1556,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2101,62 +1581,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2414,31 +1853,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.8333333333333" customWidth="1"/>
-    <col min="3" max="4" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="86.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2451,11 +1890,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="12">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
         <v>10400</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2469,11 +1908,11 @@
         <v>INSERT INTO staff VALUES('10400','ABDUL RAFIEZ BIN ABDUL RAZIFF', null, null);</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="12">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>1716</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2487,11 +1926,11 @@
         <v>INSERT INTO staff VALUES('1716','ABD. RAHMAN BIN AHLAN', null, null);</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>6250</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2505,11 +1944,11 @@
         <v>INSERT INTO staff VALUES('6250','ABDUL RAHMAN BIN AHMAD DAHLAN', null, null);</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>3189</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2523,11 +1962,11 @@
         <v>INSERT INTO staff VALUES('3189','AHMAD FATZILAH BIN MISMAN', null, null);</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>9471</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2541,11 +1980,11 @@
         <v>INSERT INTO staff VALUES('9471','AIDRINA BINTI MOHAMED SOFIADIN', null, null);</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>6153</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2559,11 +1998,11 @@
         <v>INSERT INTO staff VALUES('6153','AKRAM M Z M KHEDHER', null, null);</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>6566</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2577,11 +2016,11 @@
         <v>INSERT INTO staff VALUES('6566','ASADULLAH SHAH', null, null);</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>10325</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2595,11 +2034,11 @@
         <v>INSERT INTO staff VALUES('10325','ATIKAH BALQIS BINTI BASRI', null, null);</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>4177</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2613,11 +2052,11 @@
         <v>INSERT INTO staff VALUES('4177','AZNAN ZUHID BIN SAIDIN', null, null);</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="12">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>10402</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2631,11 +2070,11 @@
         <v>INSERT INTO staff VALUES('10402','ELIN ELIANA BINTI ABDUL RAHIM', null, null);</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>7816</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2649,11 +2088,11 @@
         <v>INSERT INTO staff VALUES('7816','HAZWANI BT MOHD MOHADIS', null, null);</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="12">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>6202</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2667,11 +2106,11 @@
         <v>INSERT INTO staff VALUES('6202','JAMALUDIN BIN IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="12">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
         <v>4559</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2685,11 +2124,11 @@
         <v>INSERT INTO staff VALUES('4559','LILI MARZIANA BT. ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>3815</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2703,11 +2142,11 @@
         <v>INSERT INTO staff VALUES('3815','MADIHAH BT. S. ABD. AZIZ', null, null);</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
         <v>4573</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2721,11 +2160,11 @@
         <v>INSERT INTO staff VALUES('4573','MARINI OTHMAN', null, null);</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>4578</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2739,11 +2178,11 @@
         <v>INSERT INTO staff VALUES('4578','MIOR NASIR MIOR NAZRI', null, null);</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>6326</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2757,11 +2196,11 @@
         <v>INSERT INTO staff VALUES('6326','MIRA KARTIWI', null, null);</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <v>1375</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2775,11 +2214,11 @@
         <v>INSERT INTO staff VALUES('1375','MOHAMAD FAUZAN BIN NOORDIN', null, null);</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
         <v>9831</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2793,11 +2232,11 @@
         <v>INSERT INTO staff VALUES('9831','MOHD KHAIRUL AZMI BIN HASSAN', null, null);</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>5594</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2811,11 +2250,11 @@
         <v>INSERT INTO staff VALUES('5594','MOHD. IZZUDDIN BIN MOHD. TAMRIN', null, null);</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
         <v>4298</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2829,11 +2268,11 @@
         <v>INSERT INTO staff VALUES('4298','MOHD. SYARQAWY BIN HAMZAH', null, null);</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
         <v>4621</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2847,11 +2286,11 @@
         <v>INSERT INTO staff VALUES('4621','MUHAMAD SADRY ABU SEMAN', null, null);</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
         <v>3570</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2865,11 +2304,11 @@
         <v>INSERT INTO staff VALUES('3570','MUHD. ROSYDI BIN MUHAMMAD', null, null);</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
         <v>8398</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2883,11 +2322,11 @@
         <v>INSERT INTO staff VALUES('8398','MUNA BINTI AZUDDIN', null, null);</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
         <v>3451</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2901,11 +2340,11 @@
         <v>INSERT INTO staff VALUES('3451','MURNI BT. MAHMUD', null, null);</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="12">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
         <v>9084</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2919,11 +2358,11 @@
         <v>INSERT INTO staff VALUES('9084','NAJHAN BIN MUHAMAD IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="12">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
         <v>6856</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2937,11 +2376,11 @@
         <v>INSERT INTO staff VALUES('6856','NOOR AZIAN BT. MOHAMAD ALI', null, null);</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="12">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
         <v>3904</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2955,11 +2394,11 @@
         <v>INSERT INTO staff VALUES('3904','NOOR AZIZAH BT. MOHAMADALI', null, null);</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="12">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
         <v>4297</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2973,11 +2412,11 @@
         <v>INSERT INTO staff VALUES('4297','NOOR HASRUL NIZAN BIN MOHAMMAD NOOR', null, null);</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="12">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
         <v>7822</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2991,11 +2430,11 @@
         <v>INSERT INTO staff VALUES('7822','NOOR HAYANI BINTI ABD RAHIM', null, null);</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="12">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
         <v>10163</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3009,11 +2448,11 @@
         <v>INSERT INTO staff VALUES('10163','NURAZLIN BINTI ZAINAL AZMI', null, null);</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
         <v>9026</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3027,11 +2466,11 @@
         <v>INSERT INTO staff VALUES('9026','NURHAFIZAH BINTI MAHRI', null, null);</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
         <v>5341</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -3045,11 +2484,11 @@
         <v>INSERT INTO staff VALUES('5341','NURUL NUHA BINTI ABDUL MOLOK', null, null);</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="12">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
         <v>4295</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -3063,11 +2502,11 @@
         <v>INSERT INTO staff VALUES('4295','SHUHAILI BT. TALIB', null, null);</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="12">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
         <v>6993</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -3081,11 +2520,11 @@
         <v>INSERT INTO staff VALUES('6993','SUHAILA BINTI SAMSURI', null, null);</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="12">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
         <v>6948</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -3099,11 +2538,11 @@
         <v>INSERT INTO staff VALUES('6948','ZAHIDAH BINTI ZULKIFLI', null, null);</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="12">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
         <v>4896</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -3117,11 +2556,11 @@
         <v>INSERT INTO staff VALUES('4896','ZAINATUL SHIMA ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="10">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <v>7132</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -3135,11 +2574,11 @@
         <v>INSERT INTO staff VALUES('7132','ADAMU ABUBAKAR IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="10">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>10332</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -3153,11 +2592,11 @@
         <v>INSERT INTO staff VALUES('10332','AHSIAH BINTI ISMAIL', null, null);</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="10">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <v>9608</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3171,11 +2610,11 @@
         <v>INSERT INTO staff VALUES('9608','AKEEM OLOWOLAYEMO', null, null);</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="10">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>4296</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -3189,11 +2628,11 @@
         <v>INSERT INTO staff VALUES('4296','AMELIA RITAHANI BT. ISMAIL', null, null);</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="10">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
         <v>9221</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3207,11 +2646,11 @@
         <v>INSERT INTO staff VALUES('9221','AMIR AATIEFF BIN AMIR HUSSIN', null, null);</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="10">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
         <v>9157</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3225,11 +2664,11 @@
         <v>INSERT INTO staff VALUES('9157','ANDI FITRIAH BINTI ABDUL KADIR', null, null);</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="10">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
         <v>10324</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -3243,11 +2682,11 @@
         <v>INSERT INTO staff VALUES('10324','ASMARANI BINTI AHMAD PUZI', null, null);</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="10">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
         <v>5133</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -3261,11 +2700,11 @@
         <v>INSERT INTO staff VALUES('5133','AZLIN BINTI NORDIN', null, null);</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="10">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
         <v>10567</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -3279,11 +2718,11 @@
         <v>INSERT INTO staff VALUES('10567','DINI OKTARINA DWI HANDAYANI', null, null);</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="10">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
         <v>7910</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -3297,11 +2736,11 @@
         <v>INSERT INTO staff VALUES('7910','HAFIZAH BINTI MANSOR', null, null);</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="10">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
         <v>4870</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -3315,11 +2754,11 @@
         <v>INSERT INTO staff VALUES('4870','HAMWIRA SAKTI BIN YAACOB', null, null);</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="10">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
         <v>771</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -3333,11 +2772,11 @@
         <v>INSERT INTO staff VALUES('771','MAZNAH BT AHMAD', null, null);</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="10">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
         <v>8123</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -3351,11 +2790,11 @@
         <v>INSERT INTO staff VALUES('8123','NORBIK BASHAH BIN IDRIS', null, null);</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="10">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
         <v>9622</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -3369,11 +2808,11 @@
         <v>INSERT INTO staff VALUES('9622','NORLIA MD YUSOF', null, null);</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="10">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
         <v>5505</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3387,11 +2826,11 @@
         <v>INSERT INTO staff VALUES('5505','NORMAZIAH BINTI ABDUL AZIZ', null, null);</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="10">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
         <v>3509</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -3405,11 +2844,11 @@
         <v>INSERT INTO staff VALUES('3509','NORMI SHAM BT. AWANG ABU BAKAR', null, null);</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="10">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
         <v>3705</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3423,11 +2862,11 @@
         <v>INSERT INTO staff VALUES('3705','NORSAREMAH BT. SALLEH', null, null);</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="10">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
         <v>8627</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -3441,11 +2880,11 @@
         <v>INSERT INTO staff VALUES('8627','NORZALIZA BINTI MD NOR', null, null);</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="10">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
         <v>8405</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -3459,11 +2898,11 @@
         <v>INSERT INTO staff VALUES('8405','NOOR AZURA BINTI ZAKARIA', null, null);</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="10">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
         <v>5066</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -3477,11 +2916,11 @@
         <v>INSERT INTO staff VALUES('5066','NORZARIYAH BINTI YAHYA', null, null);</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="10">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
         <v>8371</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -3495,11 +2934,11 @@
         <v>INSERT INTO staff VALUES('8371','NURUL LIYANA BINTI MOHAMAD ZULKUFLI', null, null);</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="10">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
         <v>4964</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -3513,11 +2952,11 @@
         <v>INSERT INTO staff VALUES('4964','RAINI BINTI HASSAN', null, null);</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="10">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
         <v>8638</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3531,11 +2970,11 @@
         <v>INSERT INTO staff VALUES('8638','RAWAD ABDULKHALEQ ABDULMOLLA ABDULGHAFOR', null, null);</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="10">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
         <v>5251</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -3549,11 +2988,11 @@
         <v>INSERT INTO staff VALUES('5251','RIZAL BIN MOHD. NOR', null, null);</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="10">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
         <v>8667</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -3567,11 +3006,11 @@
         <v>INSERT INTO staff VALUES('8667','SHARYAR WANI', null, null);</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="10">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
         <v>7620</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3585,11 +3024,11 @@
         <v>INSERT INTO staff VALUES('7620','SITI ASMA BINTI MOHAMMED', null, null);</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="10">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
         <v>4615</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -3603,11 +3042,11 @@
         <v>INSERT INTO staff VALUES('4615','SURIANI BT. SULAIMAN', null, null);</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="10">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
         <v>9954</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -3621,11 +3060,11 @@
         <v>INSERT INTO staff VALUES('9954','TAKUMI SASE', null, null);</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="10">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
         <v>10552</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -3639,11 +3078,11 @@
         <v>INSERT INTO staff VALUES('10552','ZAINAB SENAN MAHMOD ATTAR BASHI', null, null);</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="10">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
         <v>10744</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3657,11 +3096,11 @@
         <v>INSERT INTO staff VALUES('10744','TENGKU MOHD BIN TENGKU SEMBOK ', null, null);</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="10">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
         <v>10738</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -3675,11 +3114,11 @@
         <v>INSERT INTO staff VALUES('10738','AHMAD ANWAR BIN ZAINUDDIN', null, null);</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="10">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
         <v>10722</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -3693,11 +3132,11 @@
         <v>INSERT INTO staff VALUES('10722','ABDUL WAHAB BIN ABDUL RAHMAN', null, null);</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1675</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -3711,11 +3150,11 @@
         <v>INSERT INTO staff VALUES('1675','ROSLINA OTHMAN ', null, null);</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>7684</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -3729,11 +3168,11 @@
         <v>INSERT INTO staff VALUES('7684','ROOSFA HASHIM', null, null);</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>8227</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3747,11 +3186,11 @@
         <v>INSERT INTO staff VALUES('8227','SHARIFAH NUR AMIRAH SARIF ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>9019</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -3765,11 +3204,11 @@
         <v>INSERT INTO staff VALUES('9019','NOR SAADAH MD. NOR', null, null);</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>9041</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3783,11 +3222,11 @@
         <v>INSERT INTO staff VALUES('9041','NUR LEYNI NILAM PUTRI JUNURHAM', null, null);</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>11085</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -3801,11 +3240,11 @@
         <v>INSERT INTO staff VALUES('11085','AYUB BIN ABDUL RAHMAN', null, null);</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>11285</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -3819,11 +3258,11 @@
         <v>INSERT INTO staff VALUES('11285','MIMI LIZA BT ABDUL MAJID', null, null);</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>11417</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3839,29 +3278,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
-    <col min="3" max="5" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="5" width="14.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -3881,11 +3318,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3902,11 +3339,11 @@
         <v>INSERT INTO courses VALUES('BIIT 1301','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3923,11 +3360,11 @@
         <v>INSERT INTO courses VALUES('BIIT 1302','ORGANISATIONAL INFORMATICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3944,11 +3381,11 @@
         <v>INSERT INTO courses VALUES('BIIT 1303','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3965,11 +3402,11 @@
         <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3986,11 +3423,11 @@
         <v>INSERT INTO courses VALUES('INFO 1303','DATABASE SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4007,11 +3444,11 @@
         <v>INSERT INTO courses VALUES('INFO 2302','WEB TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -4028,11 +3465,11 @@
         <v>INSERT INTO courses VALUES('INFO 2303','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -4049,11 +3486,11 @@
         <v>INSERT INTO courses VALUES('INFO 2304','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -4070,11 +3507,11 @@
         <v>INSERT INTO courses VALUES('INFO 2305','MULTIMEDIA TECHNOLOGY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -4091,11 +3528,11 @@
         <v>INSERT INTO courses VALUES('INFO 2306','MANAGEMENT INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -4112,11 +3549,11 @@
         <v>INSERT INTO courses VALUES('INFO 3304','E-COMMERCE', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -4133,11 +3570,11 @@
         <v>INSERT INTO courses VALUES('INFO 3305','WEB APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -4154,11 +3591,11 @@
         <v>INSERT INTO courses VALUES('INFO 3307','HUMAN COMPUTER INTERACTION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -4175,11 +3612,11 @@
         <v>INSERT INTO courses VALUES('INFO 3308','PROJECT  MANAGEMENT IN IT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4196,11 +3633,11 @@
         <v>INSERT INTO courses VALUES('INFO 4304','IT AND ISLAM', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -4217,11 +3654,11 @@
         <v>INSERT INTO courses VALUES('INFO 4305','CYBER LAW &amp; ETHICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -4238,11 +3675,11 @@
         <v>INSERT INTO courses VALUES('INFO 4303','TECHNOPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4259,11 +3696,11 @@
         <v>INSERT INTO courses VALUES('INFO 4311','DATA WAREHOUSING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -4280,11 +3717,11 @@
         <v>INSERT INTO courses VALUES('INFO 4312','INFORMATION VISUALIZATION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -4301,11 +3738,11 @@
         <v>INSERT INTO courses VALUES('INFO 4313','DATA MINING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -4322,11 +3759,11 @@
         <v>INSERT INTO courses VALUES('INFO 4314','BUSINESS DATA ANALYTICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -4343,11 +3780,11 @@
         <v>INSERT INTO courses VALUES('INFO 4320','ANIMATION TECHNIQUE', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -4364,11 +3801,11 @@
         <v>INSERT INTO courses VALUES('INFO 4321','CREATIVE DESIGN TECHNIQUES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -4385,11 +3822,11 @@
         <v>INSERT INTO courses VALUES('INFO 4325','GRAPHIC DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -4406,11 +3843,11 @@
         <v>INSERT INTO courses VALUES('INFO 4326','3D MODELLING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -4427,11 +3864,11 @@
         <v>INSERT INTO courses VALUES('INFO 4328','GAME DESIGN AND DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -4448,11 +3885,11 @@
         <v>INSERT INTO courses VALUES('INFO 4332','KNOWLEDGE MANAGEMENT PRACTICES AND APPLICATION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -4469,11 +3906,11 @@
         <v>INSERT INTO courses VALUES('INFO 4333','INTEGRATED BUSINESS PROCESS AND ERP SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -4490,11 +3927,11 @@
         <v>INSERT INTO courses VALUES('INFO 4335','MOBILE APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -4511,11 +3948,11 @@
         <v>INSERT INTO courses VALUES('INFO 4336','INFORMATION RETRIEVAL TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -4532,11 +3969,11 @@
         <v>INSERT INTO courses VALUES('INFO 4330','CONTROL AND AUDIT OF INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -4553,11 +3990,11 @@
         <v>INSERT INTO courses VALUES('INFO 4340','MANAGEMENT OF INFORMATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -4574,11 +4011,11 @@
         <v>INSERT INTO courses VALUES('INFO 4341','RISK MANAGEMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -4595,11 +4032,11 @@
         <v>INSERT INTO courses VALUES('INFO 4342','BUSINESS CONTINUITY AND DISASTER RECOVERY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -4616,11 +4053,11 @@
         <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4637,11 +4074,11 @@
         <v>INSERT INTO courses VALUES('INFO 4345','WEB APPLICATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -4658,11 +4095,11 @@
         <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -4679,11 +4116,11 @@
         <v>INSERT INTO courses VALUES('INFO 4352','DIGITALPRENEURSHIP CUSTOMER DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4700,11 +4137,11 @@
         <v>INSERT INTO courses VALUES('BICS 1301','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -4721,11 +4158,11 @@
         <v>INSERT INTO courses VALUES('BICS 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -4742,11 +4179,11 @@
         <v>INSERT INTO courses VALUES('BICS 1303','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -4763,11 +4200,11 @@
         <v>INSERT INTO courses VALUES('BICS 1304','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4784,11 +4221,11 @@
         <v>INSERT INTO courses VALUES('BICS 1305','DISCRETE STRUCTURES', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -4805,11 +4242,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -4826,11 +4263,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -4847,11 +4284,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -4868,11 +4305,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -4889,11 +4326,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4910,11 +4347,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>182</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -4931,11 +4368,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -4952,11 +4389,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4973,11 +4410,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -4994,11 +4431,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -5015,11 +4452,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -5036,11 +4473,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="10" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -5057,11 +4494,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>195</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -5078,11 +4515,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -5099,11 +4536,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -5120,11 +4557,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -5141,11 +4578,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -5162,11 +4599,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -5183,11 +4620,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -5204,11 +4641,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>209</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -5225,11 +4662,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -5246,11 +4683,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -5267,11 +4704,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>215</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -5288,11 +4725,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -5309,11 +4746,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -5330,11 +4767,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -5351,11 +4788,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4334','NETWORK AND SYSTEM ADMINISTRATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="10" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -5372,11 +4809,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="10" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -5393,11 +4830,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="10" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -5414,11 +4851,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="10" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -5435,11 +4872,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="10" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -5456,11 +4893,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -5477,11 +4914,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -5498,11 +4935,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="10" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -5519,11 +4956,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -5540,11 +4977,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="10" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>240</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -5563,28 +5000,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
-    <col min="3" max="5" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="5" width="14.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -5604,7 +5039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>241</v>
       </c>
@@ -5625,7 +5060,7 @@
         <v>INSERT INTO courses VALUES('INFO 7011','Islamic Worldview on ICT and Society', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>244</v>
       </c>
@@ -5646,7 +5081,7 @@
         <v>INSERT INTO courses VALUES('INFO 7901','ICT Research Methods', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>246</v>
       </c>
@@ -5667,7 +5102,7 @@
         <v>INSERT INTO courses VALUES('INFO 7131','IT Project &amp; Change Management', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>248</v>
       </c>
@@ -5688,7 +5123,7 @@
         <v>INSERT INTO courses VALUES('INFO 7151','IT Strategy &amp; Governance', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>250</v>
       </c>
@@ -5709,7 +5144,7 @@
         <v>INSERT INTO courses VALUES('INFO 7145','Methodologies for System Development', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>252</v>
       </c>
@@ -5730,7 +5165,7 @@
         <v>INSERT INTO courses VALUES('INFO 7991','Computing Project', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>254</v>
       </c>
@@ -5751,7 +5186,7 @@
         <v>INSERT INTO courses VALUES('INFO 7115','Advanced Data Management', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>256</v>
       </c>
@@ -5772,7 +5207,7 @@
         <v>INSERT INTO courses VALUES('INFO 7125','Business Data Communications &amp; Networking', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>258</v>
       </c>
@@ -5793,7 +5228,7 @@
         <v>INSERT INTO courses VALUES('INFO 7165','Advanced Enterprise Integration', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>260</v>
       </c>
@@ -5814,7 +5249,7 @@
         <v>INSERT INTO courses VALUES('INFO 7211','Knowledge Management Principles &amp; Practices', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>262</v>
       </c>
@@ -5835,7 +5270,7 @@
         <v>INSERT INTO courses VALUES('INFO 7221','Advanced E-Commerce', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>264</v>
       </c>
@@ -5856,7 +5291,7 @@
         <v>INSERT INTO courses VALUES('INFO 7231','Cybersecurity Challenges, Policy &amp; Strategy', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>266</v>
       </c>
@@ -5877,7 +5312,7 @@
         <v>INSERT INTO courses VALUES('INFO 7251','Mobile Communications &amp; Networks', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>268</v>
       </c>
@@ -5898,7 +5333,7 @@
         <v>INSERT INTO courses VALUES('INFO 7261','IT Professional Practices', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>270</v>
       </c>
@@ -5919,7 +5354,7 @@
         <v>INSERT INTO courses VALUES('INFO 7271','Human Computer Interaction &amp; Design', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>272</v>
       </c>
@@ -5940,7 +5375,7 @@
         <v>INSERT INTO courses VALUES('INFO 7992','IT Research Proposal', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>274</v>
       </c>
@@ -5961,7 +5396,7 @@
         <v>INSERT INTO courses VALUES('INFO 7993','IT Dissertation', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>276</v>
       </c>
@@ -5982,7 +5417,7 @@
         <v>INSERT INTO courses VALUES('CITA 7011 ','Islamic Worldview on IT and Society ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>279</v>
       </c>
@@ -6003,7 +5438,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7101 ','Big Data Across Verticals and Domains ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>281</v>
       </c>
@@ -6024,7 +5459,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7102 ','Data Quality ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>283</v>
       </c>
@@ -6045,7 +5480,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7202 ','Unstructured Data Analytics ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>285</v>
       </c>
@@ -6066,7 +5501,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7301 ','Datathon and Bootcamp ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>287</v>
       </c>
@@ -6087,7 +5522,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7301 ','Risk Management ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>290</v>
       </c>
@@ -6108,7 +5543,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7101 ','Business Continuity &amp; Disaster Recovery ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>292</v>
       </c>
@@ -6129,7 +5564,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7102 ','Physical Protective Security ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>294</v>
       </c>
@@ -6150,7 +5585,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7998 ','Dissertation ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>296</v>
       </c>
@@ -6171,7 +5606,7 @@
         <v>INSERT INTO courses VALUES('LISC 7070','Management of Information Institutions', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>299</v>
       </c>
@@ -6192,7 +5627,7 @@
         <v>INSERT INTO courses VALUES('LISC 7120','Information Analysis and Organization I', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>301</v>
       </c>
@@ -6213,7 +5648,7 @@
         <v>INSERT INTO courses VALUES('LISC 7071','Management of Information Institutions', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>302</v>
       </c>
@@ -6234,7 +5669,7 @@
         <v>INSERT INTO courses VALUES('LISC 7020','Information Analysis and Organization I', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>303</v>
       </c>
@@ -6255,7 +5690,7 @@
         <v>INSERT INTO courses VALUES('LISC 7121','Information Analysis and Organization II', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>305</v>
       </c>
@@ -6276,7 +5711,7 @@
         <v>INSERT INTO courses VALUES('LISC 7420','Application of Information Technology in Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>307</v>
       </c>
@@ -6297,7 +5732,7 @@
         <v>INSERT INTO courses VALUES('LISC 7421','Application of Information Technology in Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>308</v>
       </c>
@@ -6318,7 +5753,7 @@
         <v>INSERT INTO courses VALUES('LISC 7430','Digital Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>310</v>
       </c>
@@ -6339,7 +5774,7 @@
         <v>INSERT INTO courses VALUES('LISC 7135','Records and Archives Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>312</v>
       </c>
@@ -6360,7 +5795,7 @@
         <v>INSERT INTO courses VALUES('LISC 7440','Information Processing and Database Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>314</v>
       </c>
@@ -6381,7 +5816,7 @@
         <v>INSERT INTO courses VALUES('LISC 7041','Information Sources and Services', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>316</v>
       </c>
@@ -6402,7 +5837,7 @@
         <v>INSERT INTO courses VALUES('LISC 7988','Directed Research Practicum', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>318</v>
       </c>
@@ -6423,7 +5858,7 @@
         <v>INSERT INTO courses VALUES('LISC 7941','Fieldwork', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>320</v>
       </c>
@@ -6444,7 +5879,7 @@
         <v>INSERT INTO courses VALUES('LISC 7051','Information Resources Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>322</v>
       </c>
@@ -6465,7 +5900,7 @@
         <v>INSERT INTO courses VALUES('LISC 7185','Indexing and Abstracting', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>324</v>
       </c>
@@ -6486,7 +5921,7 @@
         <v>INSERT INTO courses VALUES('LISC 7075','Records and Archives Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>325</v>
       </c>
@@ -6507,7 +5942,7 @@
         <v>INSERT INTO courses VALUES('LISC 7184','Measurement and Evaluation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>327</v>
       </c>
@@ -6528,7 +5963,7 @@
         <v>INSERT INTO courses VALUES('LISC 7182','Information Storage and Retrieval', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>329</v>
       </c>
@@ -6549,7 +5984,7 @@
         <v>INSERT INTO courses VALUES('LISC 7183','Bibliometrics', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>331</v>
       </c>
@@ -6570,7 +6005,7 @@
         <v>INSERT INTO courses VALUES('LISC 7072','Management of Islamic Manuscript Collection', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>333</v>
       </c>
@@ -6591,7 +6026,7 @@
         <v>INSERT INTO courses VALUES('LISC 7073','Management of Official Publications', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>335</v>
       </c>
@@ -6612,7 +6047,7 @@
         <v>INSERT INTO courses VALUES('LISC 7074','Conservation and Preservation of Information Resources', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>337</v>
       </c>
@@ -6633,7 +6068,7 @@
         <v>INSERT INTO courses VALUES('LISC 7423','Web-Based Information Design and Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>339</v>
       </c>
@@ -6654,7 +6089,7 @@
         <v>INSERT INTO courses VALUES('LISC 7042','Information Sources and Services in Islamic Revealed Knowledge', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>341</v>
       </c>
@@ -6675,7 +6110,7 @@
         <v>INSERT INTO courses VALUES('LISC 7422','Digital Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>342</v>
       </c>
@@ -6696,7 +6131,7 @@
         <v>INSERT INTO courses VALUES('LISC 7021','Arabic Cataloguing', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>344</v>
       </c>
@@ -6717,7 +6152,7 @@
         <v>INSERT INTO courses VALUES('LISC 7424','Information Processing and Database Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>345</v>
       </c>
@@ -6738,7 +6173,7 @@
         <v>INSERT INTO courses VALUES('LISC 7987','Research Proposal', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>347</v>
       </c>
@@ -6759,7 +6194,7 @@
         <v>INSERT INTO courses VALUES('LISC 7989','LIS Research / Dissertation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>349</v>
       </c>
@@ -6780,7 +6215,7 @@
         <v>INSERT INTO courses VALUES('LISC 8290','Seminar in Human Information Behaviour', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>352</v>
       </c>
@@ -6801,7 +6236,7 @@
         <v>INSERT INTO courses VALUES('LISC 8390','Seminar in Organization of Information Resource', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>354</v>
       </c>
@@ -6822,7 +6257,7 @@
         <v>INSERT INTO courses VALUES('LISC 8910','Statistics for Library &amp; Information Professional', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>356</v>
       </c>
@@ -6843,7 +6278,7 @@
         <v>INSERT INTO courses VALUES('LISC 8920','Survey Research Method in Library &amp; Information Science', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>358</v>
       </c>
@@ -6864,7 +6299,7 @@
         <v>INSERT INTO courses VALUES('LISC 8930','Qualitative Research Method in Library &amp; Information Science', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>360</v>
       </c>
@@ -6885,7 +6320,7 @@
         <v>INSERT INTO courses VALUES('LISC 8380','Organization of Islamic Information', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>362</v>
       </c>
@@ -6906,7 +6341,7 @@
         <v>INSERT INTO courses VALUES('LISC 8410','Trends in Information Retrieval', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>364</v>
       </c>
@@ -6927,7 +6362,7 @@
         <v>INSERT INTO courses VALUES('LISC 8450','Planning &amp; Management of Library Automation Systems', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>366</v>
       </c>
@@ -6948,7 +6383,7 @@
         <v>INSERT INTO courses VALUES('LISC 8810','Strategic Planning for Information Professional', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>368</v>
       </c>
@@ -6969,7 +6404,7 @@
         <v>INSERT INTO courses VALUES('LISC 8890','Seminar in Measurement and Evaluation of Library and Information Services', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>370</v>
       </c>
@@ -6990,7 +6425,7 @@
         <v>INSERT INTO courses VALUES('LISC 8820','Organizational Development in Information Institutions', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>372</v>
       </c>
@@ -7011,7 +6446,7 @@
         <v>INSERT INTO courses VALUES('LISC 8980','Seminar in Current Trends and Issus in LIS', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>374</v>
       </c>
@@ -7032,7 +6467,7 @@
         <v>INSERT INTO courses VALUES('LISC 8995','Comprehensive Examination', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>376</v>
       </c>
@@ -7053,7 +6488,7 @@
         <v>INSERT INTO courses VALUES('LISC  8994','Research Proposal', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>377</v>
       </c>
@@ -7074,7 +6509,7 @@
         <v>INSERT INTO courses VALUES('LISC 8998','Dissertation', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>379</v>
       </c>
@@ -7095,7 +6530,7 @@
         <v>INSERT INTO courses VALUES('LISC 8999','Thesis', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>381</v>
       </c>
@@ -7111,12 +6546,12 @@
       <c r="E73" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F73" s="6" t="str">
+      <c r="F73" t="str">
         <f t="shared" ref="F73" si="3">"INSERT INTO courses VALUES('"&amp;A73&amp;"','"&amp;B73&amp;"', "&amp;C73&amp;", "&amp;D73&amp;", '"&amp;E73&amp;"');"</f>
         <v>INSERT INTO courses VALUES('MIIT 7401','Islamic Worldview On ICT &amp; Society', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>383</v>
       </c>
@@ -7132,12 +6567,12 @@
       <c r="E74" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F74" s="6" t="str">
+      <c r="F74" t="str">
         <f t="shared" ref="F74:F77" si="4">"INSERT INTO courses VALUES('"&amp;A74&amp;"','"&amp;B74&amp;"', "&amp;C74&amp;", "&amp;D74&amp;", '"&amp;E74&amp;"');"</f>
         <v>INSERT INTO courses VALUES('MIIT 7402','ICT Research Methods', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>384</v>
       </c>
@@ -7153,12 +6588,12 @@
       <c r="E75" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F75" s="6" t="str">
+      <c r="F75" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO courses VALUES('MIIT 7410','Analytics and Visualisation', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>386</v>
       </c>
@@ -7174,12 +6609,12 @@
       <c r="E76" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F76" s="6" t="str">
+      <c r="F76" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO courses VALUES('MIIT 7422','Humanity Centred Design', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>388</v>
       </c>
@@ -7195,12 +6630,12 @@
       <c r="E77" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F77" s="6" t="str">
+      <c r="F77" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO courses VALUES('MIIT 7502','IT Research Proposal', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>389</v>
       </c>
@@ -7216,12 +6651,12 @@
       <c r="E78" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F78" s="6" t="str">
+      <c r="F78" t="str">
         <f t="shared" ref="F78" si="5">"INSERT INTO courses VALUES('"&amp;A78&amp;"','"&amp;B78&amp;"', "&amp;C78&amp;", "&amp;D78&amp;", '"&amp;E78&amp;"');"</f>
         <v>INSERT INTO courses VALUES('LISC 7401','Reference Services', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>391</v>
       </c>
@@ -7237,12 +6672,12 @@
       <c r="E79" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F79" s="6" t="str">
+      <c r="F79" t="str">
         <f t="shared" ref="F79:F94" si="6">"INSERT INTO courses VALUES('"&amp;A79&amp;"','"&amp;B79&amp;"', "&amp;C79&amp;", "&amp;D79&amp;", '"&amp;E79&amp;"');"</f>
         <v>INSERT INTO courses VALUES('LISC 7402','Information Organization and Classification', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>393</v>
       </c>
@@ -7258,12 +6693,12 @@
       <c r="E80" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F80" s="6" t="str">
+      <c r="F80" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7405','Industrial Training', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>395</v>
       </c>
@@ -7279,12 +6714,12 @@
       <c r="E81" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F81" s="6" t="str">
+      <c r="F81" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7406','Directed Research', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>397</v>
       </c>
@@ -7300,12 +6735,12 @@
       <c r="E82" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F82" s="6" t="str">
+      <c r="F82" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7410','Collection Development and Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>399</v>
       </c>
@@ -7321,12 +6756,12 @@
       <c r="E83" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F83" s="6" t="str">
+      <c r="F83" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7411','Domain-Specific Taxonomy', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>401</v>
       </c>
@@ -7342,12 +6777,12 @@
       <c r="E84" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F84" s="6" t="str">
+      <c r="F84" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7412','Archives and Records Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>403</v>
       </c>
@@ -7363,12 +6798,12 @@
       <c r="E85" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F85" s="6" t="str">
+      <c r="F85" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7413','Library Assessment and Impact Evaluation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>405</v>
       </c>
@@ -7384,12 +6819,12 @@
       <c r="E86" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F86" s="6" t="str">
+      <c r="F86" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7414','Information Retrieval and Artificial Intelligence Literacy', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>407</v>
       </c>
@@ -7405,12 +6840,12 @@
       <c r="E87" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F87" s="6" t="str">
+      <c r="F87" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7415','Bibliometrics and Science Mapping', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>409</v>
       </c>
@@ -7426,12 +6861,12 @@
       <c r="E88" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F88" s="6" t="str">
+      <c r="F88" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7416','Management of Islamic Manuscripts', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>411</v>
       </c>
@@ -7447,12 +6882,12 @@
       <c r="E89" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F89" s="6" t="str">
+      <c r="F89" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7417','Government Publications', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>413</v>
       </c>
@@ -7468,12 +6903,12 @@
       <c r="E90" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F90" s="6" t="str">
+      <c r="F90" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7418','Preservation Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>415</v>
       </c>
@@ -7489,12 +6924,12 @@
       <c r="E91" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F91" s="6" t="str">
+      <c r="F91" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7419','Web Design and Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>417</v>
       </c>
@@ -7510,12 +6945,12 @@
       <c r="E92" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F92" s="6" t="str">
+      <c r="F92" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7425','Digital Libraries', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>419</v>
       </c>
@@ -7531,12 +6966,12 @@
       <c r="E93" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F93" s="6" t="str">
+      <c r="F93" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7426','Organization and Classification of Islamic Collection', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>421</v>
       </c>
@@ -7552,12 +6987,12 @@
       <c r="E94" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F94" s="6" t="str">
+      <c r="F94" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7427','Database Design', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>423</v>
       </c>
@@ -7573,12 +7008,12 @@
       <c r="E95" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F95" s="6" t="str">
+      <c r="F95" t="str">
         <f t="shared" ref="F95" si="7">"INSERT INTO courses VALUES('"&amp;A95&amp;"','"&amp;B95&amp;"', "&amp;C95&amp;", "&amp;D95&amp;", '"&amp;E95&amp;"');"</f>
         <v>INSERT INTO courses VALUES('LISC 8431','Advanced Qualitative Research Methods', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>425</v>
       </c>
@@ -7594,12 +7029,12 @@
       <c r="E96" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F96" s="6" t="str">
+      <c r="F96" t="str">
         <f t="shared" ref="F96:F107" si="8">"INSERT INTO courses VALUES('"&amp;A96&amp;"','"&amp;B96&amp;"', "&amp;C96&amp;", "&amp;D96&amp;", '"&amp;E96&amp;"');"</f>
         <v>INSERT INTO courses VALUES('LISC 8411','Statistics for Library and Information Professionals', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>427</v>
       </c>
@@ -7615,12 +7050,12 @@
       <c r="E97" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F97" s="6" t="str">
+      <c r="F97" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8421','Quantitative Social Survey', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>429</v>
       </c>
@@ -7636,12 +7071,12 @@
       <c r="E98" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F98" s="6" t="str">
+      <c r="F98" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8095','Comprehensive Examination', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>430</v>
       </c>
@@ -7657,12 +7092,12 @@
       <c r="E99" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F99" s="6" t="str">
+      <c r="F99" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8441','Information Seeking Behaviour', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>432</v>
       </c>
@@ -7678,12 +7113,12 @@
       <c r="E100" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F100" s="6" t="str">
+      <c r="F100" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8442','Bibliographic Representation and Organization', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>434</v>
       </c>
@@ -7699,12 +7134,12 @@
       <c r="E101" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F101" s="6" t="str">
+      <c r="F101" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8443','Digital Humanities for Islamic Collections', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>436</v>
       </c>
@@ -7720,12 +7155,12 @@
       <c r="E102" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F102" s="6" t="str">
+      <c r="F102" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8444','Advances in Information Retrieval', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>438</v>
       </c>
@@ -7741,12 +7176,12 @@
       <c r="E103" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F103" s="6" t="str">
+      <c r="F103" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8445','Library Systems', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>440</v>
       </c>
@@ -7762,12 +7197,12 @@
       <c r="E104" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F104" s="6" t="str">
+      <c r="F104" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8446','Strategic Planning for Information Professionals', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>442</v>
       </c>
@@ -7783,12 +7218,12 @@
       <c r="E105" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F105" s="6" t="str">
+      <c r="F105" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8447','Seminar in Metrics and Measures for Information Services', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>444</v>
       </c>
@@ -7804,12 +7239,12 @@
       <c r="E106" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F106" s="6" t="str">
+      <c r="F106" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8448','Organizational Development in Information Institutions', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>445</v>
       </c>
@@ -7825,36 +7260,223 @@
       <c r="E107" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F107" s="6" t="str">
+      <c r="F107" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8449','Trends in Information Research', null, null, 'PLIB');</v>
       </c>
     </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B108" t="s">
+        <v>458</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" ref="F108" si="9">"INSERT INTO courses VALUES('"&amp;A108&amp;"','"&amp;B108&amp;"', "&amp;C108&amp;", "&amp;D108&amp;", '"&amp;E108&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('MIIT 7411','Digital Professional Practices ', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B109" t="s">
+        <v>460</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" ref="F109:F116" si="10">"INSERT INTO courses VALUES('"&amp;A109&amp;"','"&amp;B109&amp;"', "&amp;C109&amp;", "&amp;D109&amp;", '"&amp;E109&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('MIIT 7412','IT Project Management and Methodologies ', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B110" t="s">
+        <v>462</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO courses VALUES('MIIT 7420','Cybersecurity Challenges, Policy and Strategy ', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B111" t="s">
+        <v>464</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO courses VALUES('MIIT 7421','Infrastructure as a Service ', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B112" t="s">
+        <v>474</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO courses VALUES('MIIT 7423','Internet of Everything ', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B113" t="s">
+        <v>467</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO courses VALUES('MIIT 7424','Digital Transformation ', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B114" t="s">
+        <v>469</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO courses VALUES('MIIT 7425','IT Strategy and Governance ', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B115" t="s">
+        <v>471</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO courses VALUES('MIIT 7426','Generative AI Applications ', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B116" t="s">
+        <v>473</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO courses VALUES('MIIT 7427','Fintech in Islamic Finance ', null, null, 'MITEC');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
-    <col min="3" max="4" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="97.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="97.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -7871,7 +7493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>289</v>
       </c>
@@ -7889,7 +7511,7 @@
         <v>INSERT INTO p_g_programs VALUES('MPSM','Master in Protective Security Management',null,null);</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>278</v>
       </c>
@@ -7907,7 +7529,7 @@
         <v>INSERT INTO p_g_programs VALUES('MBIA','Master in Business Intelligence And Analytic',null,null);</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>243</v>
       </c>
@@ -7925,7 +7547,7 @@
         <v>INSERT INTO p_g_programs VALUES('MITEC','Master of Information Technology',null,null);</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>298</v>
       </c>
@@ -7943,7 +7565,7 @@
         <v>INSERT INTO p_g_programs VALUES('MLIB','Master of Library and Information Science',null,null);</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>351</v>
       </c>
@@ -7961,82 +7583,79 @@
         <v>INSERT INTO p_g_programs VALUES('PLIB','Doctor of Philosophy in Library and Information Science',null,null);</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>456</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC85A1F-6B1D-3D44-BB55-973E671D1FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -1380,6 +1374,60 @@
     <t>Trends in Information Research</t>
   </si>
   <si>
+    <t>MIIT 7411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Professional Practices </t>
+  </si>
+  <si>
+    <t>MIIT 7412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT Project Management and Methodologies </t>
+  </si>
+  <si>
+    <t>MIIT 7420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cybersecurity Challenges, Policy and Strategy </t>
+  </si>
+  <si>
+    <t>MIIT 7421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure as a Service </t>
+  </si>
+  <si>
+    <t>MIIT 7423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet of Everything </t>
+  </si>
+  <si>
+    <t>MIIT 7424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Transformation </t>
+  </si>
+  <si>
+    <t>MIIT 7425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT Strategy and Governance </t>
+  </si>
+  <si>
+    <t>MIIT 7426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generative AI Applications </t>
+  </si>
+  <si>
+    <t>MIIT 7427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fintech in Islamic Finance </t>
+  </si>
+  <si>
     <t>program_name</t>
   </si>
   <si>
@@ -1408,67 +1456,19 @@
   </si>
   <si>
     <t>ALTER TABLE p_g_decentraliseds AUTO_INCREMENT = 0;</t>
-  </si>
-  <si>
-    <t>MIIT 7411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Professional Practices </t>
-  </si>
-  <si>
-    <t>MIIT 7412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT Project Management and Methodologies </t>
-  </si>
-  <si>
-    <t>MIIT 7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cybersecurity Challenges, Policy and Strategy </t>
-  </si>
-  <si>
-    <t>MIIT 7421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure as a Service </t>
-  </si>
-  <si>
-    <t>MIIT 7423</t>
-  </si>
-  <si>
-    <t>MIIT 7424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Transformation </t>
-  </si>
-  <si>
-    <t>MIIT 7425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT Strategy and Governance </t>
-  </si>
-  <si>
-    <t>MIIT 7426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generative AI Applications </t>
-  </si>
-  <si>
-    <t>MIIT 7427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fintech in Islamic Finance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet of Everything </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1481,33 +1481,33 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1515,11 +1515,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1528,12 +1679,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1541,9 +1872,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1556,10 +2129,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1581,21 +2157,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1853,31 +2470,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="86.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.8333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.8333333333333" customWidth="1"/>
+    <col min="3" max="4" width="14.8333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="86.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1890,11 +2507,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+    <row r="2" spans="1:5">
+      <c r="A2" s="12">
         <v>10400</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1908,11 +2525,11 @@
         <v>INSERT INTO staff VALUES('10400','ABDUL RAFIEZ BIN ABDUL RAZIFF', null, null);</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+    <row r="3" spans="1:5">
+      <c r="A3" s="12">
         <v>1716</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1926,11 +2543,11 @@
         <v>INSERT INTO staff VALUES('1716','ABD. RAHMAN BIN AHLAN', null, null);</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5">
+      <c r="A4" s="12">
         <v>6250</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1944,11 +2561,11 @@
         <v>INSERT INTO staff VALUES('6250','ABDUL RAHMAN BIN AHMAD DAHLAN', null, null);</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+    <row r="5" spans="1:5">
+      <c r="A5" s="12">
         <v>3189</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1962,11 +2579,11 @@
         <v>INSERT INTO staff VALUES('3189','AHMAD FATZILAH BIN MISMAN', null, null);</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+    <row r="6" spans="1:5">
+      <c r="A6" s="12">
         <v>9471</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1980,11 +2597,11 @@
         <v>INSERT INTO staff VALUES('9471','AIDRINA BINTI MOHAMED SOFIADIN', null, null);</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+    <row r="7" spans="1:5">
+      <c r="A7" s="12">
         <v>6153</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1998,11 +2615,11 @@
         <v>INSERT INTO staff VALUES('6153','AKRAM M Z M KHEDHER', null, null);</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+    <row r="8" spans="1:5">
+      <c r="A8" s="12">
         <v>6566</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2016,11 +2633,11 @@
         <v>INSERT INTO staff VALUES('6566','ASADULLAH SHAH', null, null);</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+    <row r="9" spans="1:5">
+      <c r="A9" s="12">
         <v>10325</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2034,11 +2651,11 @@
         <v>INSERT INTO staff VALUES('10325','ATIKAH BALQIS BINTI BASRI', null, null);</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+    <row r="10" spans="1:5">
+      <c r="A10" s="12">
         <v>4177</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2052,11 +2669,11 @@
         <v>INSERT INTO staff VALUES('4177','AZNAN ZUHID BIN SAIDIN', null, null);</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+    <row r="11" spans="1:5">
+      <c r="A11" s="12">
         <v>10402</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2070,11 +2687,11 @@
         <v>INSERT INTO staff VALUES('10402','ELIN ELIANA BINTI ABDUL RAHIM', null, null);</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+    <row r="12" spans="1:5">
+      <c r="A12" s="12">
         <v>7816</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2088,11 +2705,11 @@
         <v>INSERT INTO staff VALUES('7816','HAZWANI BT MOHD MOHADIS', null, null);</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+    <row r="13" spans="1:5">
+      <c r="A13" s="12">
         <v>6202</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2106,11 +2723,11 @@
         <v>INSERT INTO staff VALUES('6202','JAMALUDIN BIN IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+    <row r="14" spans="1:5">
+      <c r="A14" s="12">
         <v>4559</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2124,11 +2741,11 @@
         <v>INSERT INTO staff VALUES('4559','LILI MARZIANA BT. ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+    <row r="15" spans="1:5">
+      <c r="A15" s="12">
         <v>3815</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2142,11 +2759,11 @@
         <v>INSERT INTO staff VALUES('3815','MADIHAH BT. S. ABD. AZIZ', null, null);</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+    <row r="16" spans="1:5">
+      <c r="A16" s="12">
         <v>4573</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2160,11 +2777,11 @@
         <v>INSERT INTO staff VALUES('4573','MARINI OTHMAN', null, null);</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+    <row r="17" spans="1:5">
+      <c r="A17" s="12">
         <v>4578</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2178,11 +2795,11 @@
         <v>INSERT INTO staff VALUES('4578','MIOR NASIR MIOR NAZRI', null, null);</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+    <row r="18" spans="1:5">
+      <c r="A18" s="12">
         <v>6326</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2196,11 +2813,11 @@
         <v>INSERT INTO staff VALUES('6326','MIRA KARTIWI', null, null);</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+    <row r="19" spans="1:5">
+      <c r="A19" s="12">
         <v>1375</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2214,11 +2831,11 @@
         <v>INSERT INTO staff VALUES('1375','MOHAMAD FAUZAN BIN NOORDIN', null, null);</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+    <row r="20" spans="1:5">
+      <c r="A20" s="12">
         <v>9831</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2232,11 +2849,11 @@
         <v>INSERT INTO staff VALUES('9831','MOHD KHAIRUL AZMI BIN HASSAN', null, null);</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+    <row r="21" spans="1:5">
+      <c r="A21" s="12">
         <v>5594</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2250,11 +2867,11 @@
         <v>INSERT INTO staff VALUES('5594','MOHD. IZZUDDIN BIN MOHD. TAMRIN', null, null);</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+    <row r="22" spans="1:5">
+      <c r="A22" s="12">
         <v>4298</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2268,11 +2885,11 @@
         <v>INSERT INTO staff VALUES('4298','MOHD. SYARQAWY BIN HAMZAH', null, null);</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+    <row r="23" spans="1:5">
+      <c r="A23" s="12">
         <v>4621</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2286,11 +2903,11 @@
         <v>INSERT INTO staff VALUES('4621','MUHAMAD SADRY ABU SEMAN', null, null);</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+    <row r="24" spans="1:5">
+      <c r="A24" s="12">
         <v>3570</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2304,11 +2921,11 @@
         <v>INSERT INTO staff VALUES('3570','MUHD. ROSYDI BIN MUHAMMAD', null, null);</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+    <row r="25" spans="1:5">
+      <c r="A25" s="12">
         <v>8398</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2322,11 +2939,11 @@
         <v>INSERT INTO staff VALUES('8398','MUNA BINTI AZUDDIN', null, null);</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+    <row r="26" spans="1:5">
+      <c r="A26" s="12">
         <v>3451</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2340,11 +2957,11 @@
         <v>INSERT INTO staff VALUES('3451','MURNI BT. MAHMUD', null, null);</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+    <row r="27" spans="1:5">
+      <c r="A27" s="12">
         <v>9084</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2358,11 +2975,11 @@
         <v>INSERT INTO staff VALUES('9084','NAJHAN BIN MUHAMAD IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+    <row r="28" spans="1:5">
+      <c r="A28" s="12">
         <v>6856</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2376,11 +2993,11 @@
         <v>INSERT INTO staff VALUES('6856','NOOR AZIAN BT. MOHAMAD ALI', null, null);</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+    <row r="29" spans="1:5">
+      <c r="A29" s="12">
         <v>3904</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2394,11 +3011,11 @@
         <v>INSERT INTO staff VALUES('3904','NOOR AZIZAH BT. MOHAMADALI', null, null);</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+    <row r="30" spans="1:5">
+      <c r="A30" s="12">
         <v>4297</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2412,11 +3029,11 @@
         <v>INSERT INTO staff VALUES('4297','NOOR HASRUL NIZAN BIN MOHAMMAD NOOR', null, null);</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+    <row r="31" spans="1:5">
+      <c r="A31" s="12">
         <v>7822</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2430,11 +3047,11 @@
         <v>INSERT INTO staff VALUES('7822','NOOR HAYANI BINTI ABD RAHIM', null, null);</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+    <row r="32" spans="1:5">
+      <c r="A32" s="12">
         <v>10163</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2448,11 +3065,11 @@
         <v>INSERT INTO staff VALUES('10163','NURAZLIN BINTI ZAINAL AZMI', null, null);</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+    <row r="33" spans="1:5">
+      <c r="A33" s="12">
         <v>9026</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2466,11 +3083,11 @@
         <v>INSERT INTO staff VALUES('9026','NURHAFIZAH BINTI MAHRI', null, null);</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+    <row r="34" spans="1:5">
+      <c r="A34" s="12">
         <v>5341</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2484,11 +3101,11 @@
         <v>INSERT INTO staff VALUES('5341','NURUL NUHA BINTI ABDUL MOLOK', null, null);</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+    <row r="35" spans="1:5">
+      <c r="A35" s="12">
         <v>4295</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2502,11 +3119,11 @@
         <v>INSERT INTO staff VALUES('4295','SHUHAILI BT. TALIB', null, null);</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+    <row r="36" spans="1:5">
+      <c r="A36" s="12">
         <v>6993</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -2520,11 +3137,11 @@
         <v>INSERT INTO staff VALUES('6993','SUHAILA BINTI SAMSURI', null, null);</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+    <row r="37" spans="1:5">
+      <c r="A37" s="12">
         <v>6948</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -2538,11 +3155,11 @@
         <v>INSERT INTO staff VALUES('6948','ZAHIDAH BINTI ZULKIFLI', null, null);</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+    <row r="38" spans="1:5">
+      <c r="A38" s="12">
         <v>4896</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2556,11 +3173,11 @@
         <v>INSERT INTO staff VALUES('4896','ZAINATUL SHIMA ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
+    <row r="39" spans="1:5">
+      <c r="A39" s="10">
         <v>7132</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2574,11 +3191,11 @@
         <v>INSERT INTO staff VALUES('7132','ADAMU ABUBAKAR IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
+    <row r="40" spans="1:5">
+      <c r="A40" s="10">
         <v>10332</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -2592,11 +3209,11 @@
         <v>INSERT INTO staff VALUES('10332','AHSIAH BINTI ISMAIL', null, null);</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
+    <row r="41" spans="1:5">
+      <c r="A41" s="10">
         <v>9608</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2610,11 +3227,11 @@
         <v>INSERT INTO staff VALUES('9608','AKEEM OLOWOLAYEMO', null, null);</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
+    <row r="42" spans="1:5">
+      <c r="A42" s="10">
         <v>4296</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2628,11 +3245,11 @@
         <v>INSERT INTO staff VALUES('4296','AMELIA RITAHANI BT. ISMAIL', null, null);</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
+    <row r="43" spans="1:5">
+      <c r="A43" s="10">
         <v>9221</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -2646,11 +3263,11 @@
         <v>INSERT INTO staff VALUES('9221','AMIR AATIEFF BIN AMIR HUSSIN', null, null);</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+    <row r="44" spans="1:5">
+      <c r="A44" s="10">
         <v>9157</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2664,11 +3281,11 @@
         <v>INSERT INTO staff VALUES('9157','ANDI FITRIAH BINTI ABDUL KADIR', null, null);</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
+    <row r="45" spans="1:5">
+      <c r="A45" s="10">
         <v>10324</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -2682,11 +3299,11 @@
         <v>INSERT INTO staff VALUES('10324','ASMARANI BINTI AHMAD PUZI', null, null);</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
+    <row r="46" spans="1:5">
+      <c r="A46" s="10">
         <v>5133</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -2700,11 +3317,11 @@
         <v>INSERT INTO staff VALUES('5133','AZLIN BINTI NORDIN', null, null);</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
+    <row r="47" spans="1:5">
+      <c r="A47" s="10">
         <v>10567</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2718,11 +3335,11 @@
         <v>INSERT INTO staff VALUES('10567','DINI OKTARINA DWI HANDAYANI', null, null);</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
+    <row r="48" spans="1:5">
+      <c r="A48" s="10">
         <v>7910</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2736,11 +3353,11 @@
         <v>INSERT INTO staff VALUES('7910','HAFIZAH BINTI MANSOR', null, null);</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="9">
+    <row r="49" spans="1:5">
+      <c r="A49" s="10">
         <v>4870</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2754,11 +3371,11 @@
         <v>INSERT INTO staff VALUES('4870','HAMWIRA SAKTI BIN YAACOB', null, null);</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="9">
+    <row r="50" spans="1:5">
+      <c r="A50" s="10">
         <v>771</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -2772,11 +3389,11 @@
         <v>INSERT INTO staff VALUES('771','MAZNAH BT AHMAD', null, null);</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="9">
+    <row r="51" spans="1:5">
+      <c r="A51" s="10">
         <v>8123</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -2790,11 +3407,11 @@
         <v>INSERT INTO staff VALUES('8123','NORBIK BASHAH BIN IDRIS', null, null);</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="9">
+    <row r="52" spans="1:5">
+      <c r="A52" s="10">
         <v>9622</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -2808,11 +3425,11 @@
         <v>INSERT INTO staff VALUES('9622','NORLIA MD YUSOF', null, null);</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="9">
+    <row r="53" spans="1:5">
+      <c r="A53" s="10">
         <v>5505</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -2826,11 +3443,11 @@
         <v>INSERT INTO staff VALUES('5505','NORMAZIAH BINTI ABDUL AZIZ', null, null);</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="9">
+    <row r="54" spans="1:5">
+      <c r="A54" s="10">
         <v>3509</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -2844,11 +3461,11 @@
         <v>INSERT INTO staff VALUES('3509','NORMI SHAM BT. AWANG ABU BAKAR', null, null);</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="9">
+    <row r="55" spans="1:5">
+      <c r="A55" s="10">
         <v>3705</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2862,11 +3479,11 @@
         <v>INSERT INTO staff VALUES('3705','NORSAREMAH BT. SALLEH', null, null);</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="9">
+    <row r="56" spans="1:5">
+      <c r="A56" s="10">
         <v>8627</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2880,11 +3497,11 @@
         <v>INSERT INTO staff VALUES('8627','NORZALIZA BINTI MD NOR', null, null);</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="9">
+    <row r="57" spans="1:5">
+      <c r="A57" s="10">
         <v>8405</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -2898,11 +3515,11 @@
         <v>INSERT INTO staff VALUES('8405','NOOR AZURA BINTI ZAKARIA', null, null);</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="9">
+    <row r="58" spans="1:5">
+      <c r="A58" s="10">
         <v>5066</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -2916,11 +3533,11 @@
         <v>INSERT INTO staff VALUES('5066','NORZARIYAH BINTI YAHYA', null, null);</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="9">
+    <row r="59" spans="1:5">
+      <c r="A59" s="10">
         <v>8371</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2934,11 +3551,11 @@
         <v>INSERT INTO staff VALUES('8371','NURUL LIYANA BINTI MOHAMAD ZULKUFLI', null, null);</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="9">
+    <row r="60" spans="1:5">
+      <c r="A60" s="10">
         <v>4964</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -2952,11 +3569,11 @@
         <v>INSERT INTO staff VALUES('4964','RAINI BINTI HASSAN', null, null);</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="9">
+    <row r="61" spans="1:5">
+      <c r="A61" s="10">
         <v>8638</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -2970,11 +3587,11 @@
         <v>INSERT INTO staff VALUES('8638','RAWAD ABDULKHALEQ ABDULMOLLA ABDULGHAFOR', null, null);</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="9">
+    <row r="62" spans="1:5">
+      <c r="A62" s="10">
         <v>5251</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -2988,11 +3605,11 @@
         <v>INSERT INTO staff VALUES('5251','RIZAL BIN MOHD. NOR', null, null);</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="9">
+    <row r="63" spans="1:5">
+      <c r="A63" s="10">
         <v>8667</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -3006,11 +3623,11 @@
         <v>INSERT INTO staff VALUES('8667','SHARYAR WANI', null, null);</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="9">
+    <row r="64" spans="1:5">
+      <c r="A64" s="10">
         <v>7620</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3024,11 +3641,11 @@
         <v>INSERT INTO staff VALUES('7620','SITI ASMA BINTI MOHAMMED', null, null);</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="9">
+    <row r="65" spans="1:5">
+      <c r="A65" s="10">
         <v>4615</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -3042,11 +3659,11 @@
         <v>INSERT INTO staff VALUES('4615','SURIANI BT. SULAIMAN', null, null);</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="9">
+    <row r="66" spans="1:5">
+      <c r="A66" s="10">
         <v>9954</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -3060,11 +3677,11 @@
         <v>INSERT INTO staff VALUES('9954','TAKUMI SASE', null, null);</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="9">
+    <row r="67" spans="1:5">
+      <c r="A67" s="10">
         <v>10552</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -3078,11 +3695,11 @@
         <v>INSERT INTO staff VALUES('10552','ZAINAB SENAN MAHMOD ATTAR BASHI', null, null);</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="9">
+    <row r="68" spans="1:5">
+      <c r="A68" s="10">
         <v>10744</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3096,11 +3713,11 @@
         <v>INSERT INTO staff VALUES('10744','TENGKU MOHD BIN TENGKU SEMBOK ', null, null);</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="9">
+    <row r="69" spans="1:5">
+      <c r="A69" s="10">
         <v>10738</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -3114,11 +3731,11 @@
         <v>INSERT INTO staff VALUES('10738','AHMAD ANWAR BIN ZAINUDDIN', null, null);</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="9">
+    <row r="70" spans="1:5">
+      <c r="A70" s="10">
         <v>10722</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -3132,11 +3749,11 @@
         <v>INSERT INTO staff VALUES('10722','ABDUL WAHAB BIN ABDUL RAHMAN', null, null);</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="2">
         <v>1675</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -3150,11 +3767,11 @@
         <v>INSERT INTO staff VALUES('1675','ROSLINA OTHMAN ', null, null);</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="2">
         <v>7684</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -3168,11 +3785,11 @@
         <v>INSERT INTO staff VALUES('7684','ROOSFA HASHIM', null, null);</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="2">
         <v>8227</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3186,11 +3803,11 @@
         <v>INSERT INTO staff VALUES('8227','SHARIFAH NUR AMIRAH SARIF ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="2">
         <v>9019</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -3204,11 +3821,11 @@
         <v>INSERT INTO staff VALUES('9019','NOR SAADAH MD. NOR', null, null);</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="2">
         <v>9041</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3222,11 +3839,11 @@
         <v>INSERT INTO staff VALUES('9041','NUR LEYNI NILAM PUTRI JUNURHAM', null, null);</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="2">
         <v>11085</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -3240,11 +3857,11 @@
         <v>INSERT INTO staff VALUES('11085','AYUB BIN ABDUL RAHMAN', null, null);</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="2">
         <v>11285</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -3258,11 +3875,11 @@
         <v>INSERT INTO staff VALUES('11285','MIMI LIZA BT ABDUL MAJID', null, null);</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="2">
         <v>11417</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3278,27 +3895,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" customWidth="1"/>
-    <col min="3" max="5" width="14.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.83203125" customWidth="1"/>
+    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
+    <col min="3" max="5" width="14.8333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -3318,11 +3937,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3339,11 +3958,11 @@
         <v>INSERT INTO courses VALUES('BIIT 1301','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3360,11 +3979,11 @@
         <v>INSERT INTO courses VALUES('BIIT 1302','ORGANISATIONAL INFORMATICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3381,11 +4000,11 @@
         <v>INSERT INTO courses VALUES('BIIT 1303','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3402,11 +4021,11 @@
         <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3423,11 +4042,11 @@
         <v>INSERT INTO courses VALUES('INFO 1303','DATABASE SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3444,11 +4063,11 @@
         <v>INSERT INTO courses VALUES('INFO 2302','WEB TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3465,11 +4084,11 @@
         <v>INSERT INTO courses VALUES('INFO 2303','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3486,11 +4105,11 @@
         <v>INSERT INTO courses VALUES('INFO 2304','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3507,11 +4126,11 @@
         <v>INSERT INTO courses VALUES('INFO 2305','MULTIMEDIA TECHNOLOGY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3528,11 +4147,11 @@
         <v>INSERT INTO courses VALUES('INFO 2306','MANAGEMENT INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3549,11 +4168,11 @@
         <v>INSERT INTO courses VALUES('INFO 3304','E-COMMERCE', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3570,11 +4189,11 @@
         <v>INSERT INTO courses VALUES('INFO 3305','WEB APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3591,11 +4210,11 @@
         <v>INSERT INTO courses VALUES('INFO 3307','HUMAN COMPUTER INTERACTION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -3612,11 +4231,11 @@
         <v>INSERT INTO courses VALUES('INFO 3308','PROJECT  MANAGEMENT IN IT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3633,11 +4252,11 @@
         <v>INSERT INTO courses VALUES('INFO 4304','IT AND ISLAM', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3654,11 +4273,11 @@
         <v>INSERT INTO courses VALUES('INFO 4305','CYBER LAW &amp; ETHICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -3675,11 +4294,11 @@
         <v>INSERT INTO courses VALUES('INFO 4303','TECHNOPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3696,11 +4315,11 @@
         <v>INSERT INTO courses VALUES('INFO 4311','DATA WAREHOUSING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -3717,11 +4336,11 @@
         <v>INSERT INTO courses VALUES('INFO 4312','INFORMATION VISUALIZATION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -3738,11 +4357,11 @@
         <v>INSERT INTO courses VALUES('INFO 4313','DATA MINING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -3759,11 +4378,11 @@
         <v>INSERT INTO courses VALUES('INFO 4314','BUSINESS DATA ANALYTICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -3780,11 +4399,11 @@
         <v>INSERT INTO courses VALUES('INFO 4320','ANIMATION TECHNIQUE', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -3801,11 +4420,11 @@
         <v>INSERT INTO courses VALUES('INFO 4321','CREATIVE DESIGN TECHNIQUES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -3822,11 +4441,11 @@
         <v>INSERT INTO courses VALUES('INFO 4325','GRAPHIC DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -3843,11 +4462,11 @@
         <v>INSERT INTO courses VALUES('INFO 4326','3D MODELLING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3864,11 +4483,11 @@
         <v>INSERT INTO courses VALUES('INFO 4328','GAME DESIGN AND DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3885,11 +4504,11 @@
         <v>INSERT INTO courses VALUES('INFO 4332','KNOWLEDGE MANAGEMENT PRACTICES AND APPLICATION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3906,11 +4525,11 @@
         <v>INSERT INTO courses VALUES('INFO 4333','INTEGRATED BUSINESS PROCESS AND ERP SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -3927,11 +4546,11 @@
         <v>INSERT INTO courses VALUES('INFO 4335','MOBILE APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3948,11 +4567,11 @@
         <v>INSERT INTO courses VALUES('INFO 4336','INFORMATION RETRIEVAL TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3969,11 +4588,11 @@
         <v>INSERT INTO courses VALUES('INFO 4330','CONTROL AND AUDIT OF INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3990,11 +4609,11 @@
         <v>INSERT INTO courses VALUES('INFO 4340','MANAGEMENT OF INFORMATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -4011,11 +4630,11 @@
         <v>INSERT INTO courses VALUES('INFO 4341','RISK MANAGEMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -4032,11 +4651,11 @@
         <v>INSERT INTO courses VALUES('INFO 4342','BUSINESS CONTINUITY AND DISASTER RECOVERY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -4053,11 +4672,11 @@
         <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4074,11 +4693,11 @@
         <v>INSERT INTO courses VALUES('INFO 4345','WEB APPLICATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -4095,11 +4714,11 @@
         <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -4116,11 +4735,11 @@
         <v>INSERT INTO courses VALUES('INFO 4352','DIGITALPRENEURSHIP CUSTOMER DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4137,11 +4756,11 @@
         <v>INSERT INTO courses VALUES('BICS 1301','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -4158,11 +4777,11 @@
         <v>INSERT INTO courses VALUES('BICS 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -4179,11 +4798,11 @@
         <v>INSERT INTO courses VALUES('BICS 1303','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -4200,11 +4819,11 @@
         <v>INSERT INTO courses VALUES('BICS 1304','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4221,11 +4840,11 @@
         <v>INSERT INTO courses VALUES('BICS 1305','DISCRETE STRUCTURES', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -4242,11 +4861,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -4263,11 +4882,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -4284,11 +4903,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -4305,11 +4924,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -4326,11 +4945,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4347,11 +4966,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>182</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -4368,11 +4987,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -4389,11 +5008,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4410,11 +5029,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -4431,11 +5050,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -4452,11 +5071,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>191</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -4473,11 +5092,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -4494,11 +5113,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -4515,11 +5134,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:6">
+      <c r="A59" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -4536,11 +5155,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -4557,11 +5176,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+    <row r="61" spans="1:6">
+      <c r="A61" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>201</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -4578,11 +5197,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -4599,11 +5218,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+    <row r="63" spans="1:6">
+      <c r="A63" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -4620,11 +5239,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -4641,11 +5260,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+    <row r="65" spans="1:6">
+      <c r="A65" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>209</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -4662,11 +5281,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+    <row r="66" spans="1:6">
+      <c r="A66" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>211</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -4683,11 +5302,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>213</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -4704,11 +5323,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>215</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -4725,11 +5344,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>217</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -4746,11 +5365,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
+    <row r="70" spans="1:6">
+      <c r="A70" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>219</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -4767,11 +5386,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -4788,11 +5407,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4334','NETWORK AND SYSTEM ADMINISTRATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:6">
+      <c r="A72" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>223</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -4809,11 +5428,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:6">
+      <c r="A73" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -4830,11 +5449,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:6">
+      <c r="A74" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>227</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -4851,11 +5470,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:6">
+      <c r="A75" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>229</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -4872,11 +5491,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
+    <row r="76" spans="1:6">
+      <c r="A76" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>231</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -4893,11 +5512,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+    <row r="77" spans="1:6">
+      <c r="A77" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>233</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -4914,11 +5533,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+    <row r="78" spans="1:6">
+      <c r="A78" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -4935,11 +5554,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:6">
+      <c r="A79" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -4956,11 +5575,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>238</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -4977,11 +5596,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:6">
+      <c r="A81" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -5000,26 +5619,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" customWidth="1"/>
-    <col min="3" max="5" width="14.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.83203125" customWidth="1"/>
+    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
+    <col min="3" max="5" width="14.8333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -5039,7 +5660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>241</v>
       </c>
@@ -5060,7 +5681,7 @@
         <v>INSERT INTO courses VALUES('INFO 7011','Islamic Worldview on ICT and Society', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>244</v>
       </c>
@@ -5081,7 +5702,7 @@
         <v>INSERT INTO courses VALUES('INFO 7901','ICT Research Methods', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>246</v>
       </c>
@@ -5102,7 +5723,7 @@
         <v>INSERT INTO courses VALUES('INFO 7131','IT Project &amp; Change Management', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>248</v>
       </c>
@@ -5123,7 +5744,7 @@
         <v>INSERT INTO courses VALUES('INFO 7151','IT Strategy &amp; Governance', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>250</v>
       </c>
@@ -5144,7 +5765,7 @@
         <v>INSERT INTO courses VALUES('INFO 7145','Methodologies for System Development', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>252</v>
       </c>
@@ -5165,7 +5786,7 @@
         <v>INSERT INTO courses VALUES('INFO 7991','Computing Project', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>254</v>
       </c>
@@ -5186,7 +5807,7 @@
         <v>INSERT INTO courses VALUES('INFO 7115','Advanced Data Management', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>256</v>
       </c>
@@ -5207,7 +5828,7 @@
         <v>INSERT INTO courses VALUES('INFO 7125','Business Data Communications &amp; Networking', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>258</v>
       </c>
@@ -5228,7 +5849,7 @@
         <v>INSERT INTO courses VALUES('INFO 7165','Advanced Enterprise Integration', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>260</v>
       </c>
@@ -5249,7 +5870,7 @@
         <v>INSERT INTO courses VALUES('INFO 7211','Knowledge Management Principles &amp; Practices', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>262</v>
       </c>
@@ -5270,7 +5891,7 @@
         <v>INSERT INTO courses VALUES('INFO 7221','Advanced E-Commerce', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>264</v>
       </c>
@@ -5291,7 +5912,7 @@
         <v>INSERT INTO courses VALUES('INFO 7231','Cybersecurity Challenges, Policy &amp; Strategy', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>266</v>
       </c>
@@ -5312,7 +5933,7 @@
         <v>INSERT INTO courses VALUES('INFO 7251','Mobile Communications &amp; Networks', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>268</v>
       </c>
@@ -5333,7 +5954,7 @@
         <v>INSERT INTO courses VALUES('INFO 7261','IT Professional Practices', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>270</v>
       </c>
@@ -5354,7 +5975,7 @@
         <v>INSERT INTO courses VALUES('INFO 7271','Human Computer Interaction &amp; Design', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>272</v>
       </c>
@@ -5375,7 +5996,7 @@
         <v>INSERT INTO courses VALUES('INFO 7992','IT Research Proposal', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>274</v>
       </c>
@@ -5396,7 +6017,7 @@
         <v>INSERT INTO courses VALUES('INFO 7993','IT Dissertation', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>276</v>
       </c>
@@ -5417,7 +6038,7 @@
         <v>INSERT INTO courses VALUES('CITA 7011 ','Islamic Worldview on IT and Society ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>279</v>
       </c>
@@ -5438,7 +6059,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7101 ','Big Data Across Verticals and Domains ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>281</v>
       </c>
@@ -5459,7 +6080,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7102 ','Data Quality ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>283</v>
       </c>
@@ -5480,7 +6101,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7202 ','Unstructured Data Analytics ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>285</v>
       </c>
@@ -5501,7 +6122,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7301 ','Datathon and Bootcamp ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>287</v>
       </c>
@@ -5522,7 +6143,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7301 ','Risk Management ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>290</v>
       </c>
@@ -5543,7 +6164,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7101 ','Business Continuity &amp; Disaster Recovery ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>292</v>
       </c>
@@ -5564,7 +6185,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7102 ','Physical Protective Security ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>294</v>
       </c>
@@ -5585,7 +6206,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7998 ','Dissertation ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>296</v>
       </c>
@@ -5606,7 +6227,7 @@
         <v>INSERT INTO courses VALUES('LISC 7070','Management of Information Institutions', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>299</v>
       </c>
@@ -5627,7 +6248,7 @@
         <v>INSERT INTO courses VALUES('LISC 7120','Information Analysis and Organization I', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>301</v>
       </c>
@@ -5648,7 +6269,7 @@
         <v>INSERT INTO courses VALUES('LISC 7071','Management of Information Institutions', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>302</v>
       </c>
@@ -5669,7 +6290,7 @@
         <v>INSERT INTO courses VALUES('LISC 7020','Information Analysis and Organization I', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>303</v>
       </c>
@@ -5690,7 +6311,7 @@
         <v>INSERT INTO courses VALUES('LISC 7121','Information Analysis and Organization II', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>305</v>
       </c>
@@ -5711,7 +6332,7 @@
         <v>INSERT INTO courses VALUES('LISC 7420','Application of Information Technology in Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>307</v>
       </c>
@@ -5732,7 +6353,7 @@
         <v>INSERT INTO courses VALUES('LISC 7421','Application of Information Technology in Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>308</v>
       </c>
@@ -5753,7 +6374,7 @@
         <v>INSERT INTO courses VALUES('LISC 7430','Digital Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>310</v>
       </c>
@@ -5774,7 +6395,7 @@
         <v>INSERT INTO courses VALUES('LISC 7135','Records and Archives Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>312</v>
       </c>
@@ -5795,7 +6416,7 @@
         <v>INSERT INTO courses VALUES('LISC 7440','Information Processing and Database Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>314</v>
       </c>
@@ -5816,7 +6437,7 @@
         <v>INSERT INTO courses VALUES('LISC 7041','Information Sources and Services', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>316</v>
       </c>
@@ -5837,7 +6458,7 @@
         <v>INSERT INTO courses VALUES('LISC 7988','Directed Research Practicum', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>318</v>
       </c>
@@ -5858,7 +6479,7 @@
         <v>INSERT INTO courses VALUES('LISC 7941','Fieldwork', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>320</v>
       </c>
@@ -5879,7 +6500,7 @@
         <v>INSERT INTO courses VALUES('LISC 7051','Information Resources Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>322</v>
       </c>
@@ -5900,7 +6521,7 @@
         <v>INSERT INTO courses VALUES('LISC 7185','Indexing and Abstracting', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>324</v>
       </c>
@@ -5921,7 +6542,7 @@
         <v>INSERT INTO courses VALUES('LISC 7075','Records and Archives Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>325</v>
       </c>
@@ -5942,7 +6563,7 @@
         <v>INSERT INTO courses VALUES('LISC 7184','Measurement and Evaluation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>327</v>
       </c>
@@ -5963,7 +6584,7 @@
         <v>INSERT INTO courses VALUES('LISC 7182','Information Storage and Retrieval', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>329</v>
       </c>
@@ -5984,7 +6605,7 @@
         <v>INSERT INTO courses VALUES('LISC 7183','Bibliometrics', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>331</v>
       </c>
@@ -6005,7 +6626,7 @@
         <v>INSERT INTO courses VALUES('LISC 7072','Management of Islamic Manuscript Collection', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>333</v>
       </c>
@@ -6026,7 +6647,7 @@
         <v>INSERT INTO courses VALUES('LISC 7073','Management of Official Publications', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>335</v>
       </c>
@@ -6047,7 +6668,7 @@
         <v>INSERT INTO courses VALUES('LISC 7074','Conservation and Preservation of Information Resources', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>337</v>
       </c>
@@ -6068,7 +6689,7 @@
         <v>INSERT INTO courses VALUES('LISC 7423','Web-Based Information Design and Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>339</v>
       </c>
@@ -6089,7 +6710,7 @@
         <v>INSERT INTO courses VALUES('LISC 7042','Information Sources and Services in Islamic Revealed Knowledge', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>341</v>
       </c>
@@ -6110,7 +6731,7 @@
         <v>INSERT INTO courses VALUES('LISC 7422','Digital Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>342</v>
       </c>
@@ -6131,7 +6752,7 @@
         <v>INSERT INTO courses VALUES('LISC 7021','Arabic Cataloguing', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>344</v>
       </c>
@@ -6152,7 +6773,7 @@
         <v>INSERT INTO courses VALUES('LISC 7424','Information Processing and Database Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>345</v>
       </c>
@@ -6173,7 +6794,7 @@
         <v>INSERT INTO courses VALUES('LISC 7987','Research Proposal', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>347</v>
       </c>
@@ -6194,7 +6815,7 @@
         <v>INSERT INTO courses VALUES('LISC 7989','LIS Research / Dissertation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>349</v>
       </c>
@@ -6215,7 +6836,7 @@
         <v>INSERT INTO courses VALUES('LISC 8290','Seminar in Human Information Behaviour', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>352</v>
       </c>
@@ -6236,7 +6857,7 @@
         <v>INSERT INTO courses VALUES('LISC 8390','Seminar in Organization of Information Resource', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>354</v>
       </c>
@@ -6257,7 +6878,7 @@
         <v>INSERT INTO courses VALUES('LISC 8910','Statistics for Library &amp; Information Professional', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>356</v>
       </c>
@@ -6278,7 +6899,7 @@
         <v>INSERT INTO courses VALUES('LISC 8920','Survey Research Method in Library &amp; Information Science', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>358</v>
       </c>
@@ -6299,7 +6920,7 @@
         <v>INSERT INTO courses VALUES('LISC 8930','Qualitative Research Method in Library &amp; Information Science', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>360</v>
       </c>
@@ -6320,7 +6941,7 @@
         <v>INSERT INTO courses VALUES('LISC 8380','Organization of Islamic Information', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>362</v>
       </c>
@@ -6341,7 +6962,7 @@
         <v>INSERT INTO courses VALUES('LISC 8410','Trends in Information Retrieval', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>364</v>
       </c>
@@ -6362,7 +6983,7 @@
         <v>INSERT INTO courses VALUES('LISC 8450','Planning &amp; Management of Library Automation Systems', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>366</v>
       </c>
@@ -6383,7 +7004,7 @@
         <v>INSERT INTO courses VALUES('LISC 8810','Strategic Planning for Information Professional', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>368</v>
       </c>
@@ -6404,7 +7025,7 @@
         <v>INSERT INTO courses VALUES('LISC 8890','Seminar in Measurement and Evaluation of Library and Information Services', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
         <v>370</v>
       </c>
@@ -6425,7 +7046,7 @@
         <v>INSERT INTO courses VALUES('LISC 8820','Organizational Development in Information Institutions', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>372</v>
       </c>
@@ -6446,7 +7067,7 @@
         <v>INSERT INTO courses VALUES('LISC 8980','Seminar in Current Trends and Issus in LIS', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>374</v>
       </c>
@@ -6467,7 +7088,7 @@
         <v>INSERT INTO courses VALUES('LISC 8995','Comprehensive Examination', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>376</v>
       </c>
@@ -6488,7 +7109,7 @@
         <v>INSERT INTO courses VALUES('LISC  8994','Research Proposal', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
         <v>377</v>
       </c>
@@ -6509,7 +7130,7 @@
         <v>INSERT INTO courses VALUES('LISC 8998','Dissertation', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
         <v>379</v>
       </c>
@@ -6530,7 +7151,7 @@
         <v>INSERT INTO courses VALUES('LISC 8999','Thesis', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
         <v>381</v>
       </c>
@@ -6551,7 +7172,7 @@
         <v>INSERT INTO courses VALUES('MIIT 7401','Islamic Worldview On ICT &amp; Society', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>383</v>
       </c>
@@ -6572,7 +7193,7 @@
         <v>INSERT INTO courses VALUES('MIIT 7402','ICT Research Methods', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>384</v>
       </c>
@@ -6593,7 +7214,7 @@
         <v>INSERT INTO courses VALUES('MIIT 7410','Analytics and Visualisation', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>386</v>
       </c>
@@ -6614,7 +7235,7 @@
         <v>INSERT INTO courses VALUES('MIIT 7422','Humanity Centred Design', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>388</v>
       </c>
@@ -6635,7 +7256,7 @@
         <v>INSERT INTO courses VALUES('MIIT 7502','IT Research Proposal', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>389</v>
       </c>
@@ -6656,7 +7277,7 @@
         <v>INSERT INTO courses VALUES('LISC 7401','Reference Services', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>391</v>
       </c>
@@ -6677,7 +7298,7 @@
         <v>INSERT INTO courses VALUES('LISC 7402','Information Organization and Classification', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>393</v>
       </c>
@@ -6698,7 +7319,7 @@
         <v>INSERT INTO courses VALUES('LISC 7405','Industrial Training', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
         <v>395</v>
       </c>
@@ -6719,7 +7340,7 @@
         <v>INSERT INTO courses VALUES('LISC 7406','Directed Research', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>397</v>
       </c>
@@ -6740,7 +7361,7 @@
         <v>INSERT INTO courses VALUES('LISC 7410','Collection Development and Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
         <v>399</v>
       </c>
@@ -6761,7 +7382,7 @@
         <v>INSERT INTO courses VALUES('LISC 7411','Domain-Specific Taxonomy', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
         <v>401</v>
       </c>
@@ -6782,7 +7403,7 @@
         <v>INSERT INTO courses VALUES('LISC 7412','Archives and Records Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
         <v>403</v>
       </c>
@@ -6803,7 +7424,7 @@
         <v>INSERT INTO courses VALUES('LISC 7413','Library Assessment and Impact Evaluation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
         <v>405</v>
       </c>
@@ -6824,7 +7445,7 @@
         <v>INSERT INTO courses VALUES('LISC 7414','Information Retrieval and Artificial Intelligence Literacy', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
         <v>407</v>
       </c>
@@ -6845,7 +7466,7 @@
         <v>INSERT INTO courses VALUES('LISC 7415','Bibliometrics and Science Mapping', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
         <v>409</v>
       </c>
@@ -6866,7 +7487,7 @@
         <v>INSERT INTO courses VALUES('LISC 7416','Management of Islamic Manuscripts', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
         <v>411</v>
       </c>
@@ -6887,7 +7508,7 @@
         <v>INSERT INTO courses VALUES('LISC 7417','Government Publications', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>413</v>
       </c>
@@ -6908,7 +7529,7 @@
         <v>INSERT INTO courses VALUES('LISC 7418','Preservation Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>415</v>
       </c>
@@ -6929,7 +7550,7 @@
         <v>INSERT INTO courses VALUES('LISC 7419','Web Design and Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>417</v>
       </c>
@@ -6950,7 +7571,7 @@
         <v>INSERT INTO courses VALUES('LISC 7425','Digital Libraries', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>419</v>
       </c>
@@ -6971,7 +7592,7 @@
         <v>INSERT INTO courses VALUES('LISC 7426','Organization and Classification of Islamic Collection', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>421</v>
       </c>
@@ -6992,7 +7613,7 @@
         <v>INSERT INTO courses VALUES('LISC 7427','Database Design', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>423</v>
       </c>
@@ -7013,7 +7634,7 @@
         <v>INSERT INTO courses VALUES('LISC 8431','Advanced Qualitative Research Methods', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
         <v>425</v>
       </c>
@@ -7034,7 +7655,7 @@
         <v>INSERT INTO courses VALUES('LISC 8411','Statistics for Library and Information Professionals', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
         <v>427</v>
       </c>
@@ -7055,7 +7676,7 @@
         <v>INSERT INTO courses VALUES('LISC 8421','Quantitative Social Survey', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
         <v>429</v>
       </c>
@@ -7076,7 +7697,7 @@
         <v>INSERT INTO courses VALUES('LISC 8095','Comprehensive Examination', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
         <v>430</v>
       </c>
@@ -7097,7 +7718,7 @@
         <v>INSERT INTO courses VALUES('LISC 8441','Information Seeking Behaviour', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
         <v>432</v>
       </c>
@@ -7118,7 +7739,7 @@
         <v>INSERT INTO courses VALUES('LISC 8442','Bibliographic Representation and Organization', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
         <v>434</v>
       </c>
@@ -7139,7 +7760,7 @@
         <v>INSERT INTO courses VALUES('LISC 8443','Digital Humanities for Islamic Collections', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
         <v>436</v>
       </c>
@@ -7160,7 +7781,7 @@
         <v>INSERT INTO courses VALUES('LISC 8444','Advances in Information Retrieval', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
         <v>438</v>
       </c>
@@ -7181,7 +7802,7 @@
         <v>INSERT INTO courses VALUES('LISC 8445','Library Systems', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
         <v>440</v>
       </c>
@@ -7202,7 +7823,7 @@
         <v>INSERT INTO courses VALUES('LISC 8446','Strategic Planning for Information Professionals', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
         <v>442</v>
       </c>
@@ -7223,7 +7844,7 @@
         <v>INSERT INTO courses VALUES('LISC 8447','Seminar in Metrics and Measures for Information Services', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
         <v>444</v>
       </c>
@@ -7244,7 +7865,7 @@
         <v>INSERT INTO courses VALUES('LISC 8448','Organizational Development in Information Institutions', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
         <v>445</v>
       </c>
@@ -7265,12 +7886,12 @@
         <v>INSERT INTO courses VALUES('LISC 8449','Trends in Information Research', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B108" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>6</v>
@@ -7278,7 +7899,7 @@
       <c r="D108" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E108" s="13" t="s">
+      <c r="E108" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F108" t="str">
@@ -7286,12 +7907,12 @@
         <v>INSERT INTO courses VALUES('MIIT 7411','Digital Professional Practices ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B109" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>6</v>
@@ -7299,7 +7920,7 @@
       <c r="D109" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E109" s="13" t="s">
+      <c r="E109" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F109" t="str">
@@ -7307,12 +7928,12 @@
         <v>INSERT INTO courses VALUES('MIIT 7412','IT Project Management and Methodologies ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B110" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>6</v>
@@ -7320,7 +7941,7 @@
       <c r="D110" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E110" s="13" t="s">
+      <c r="E110" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F110" t="str">
@@ -7328,12 +7949,12 @@
         <v>INSERT INTO courses VALUES('MIIT 7420','Cybersecurity Challenges, Policy and Strategy ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B111" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>6</v>
@@ -7341,7 +7962,7 @@
       <c r="D111" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="E111" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F111" t="str">
@@ -7349,12 +7970,12 @@
         <v>INSERT INTO courses VALUES('MIIT 7421','Infrastructure as a Service ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B112" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>6</v>
@@ -7362,7 +7983,7 @@
       <c r="D112" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E112" s="13" t="s">
+      <c r="E112" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F112" t="str">
@@ -7370,12 +7991,12 @@
         <v>INSERT INTO courses VALUES('MIIT 7423','Internet of Everything ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B113" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>6</v>
@@ -7383,7 +8004,7 @@
       <c r="D113" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="13" t="s">
+      <c r="E113" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F113" t="str">
@@ -7391,12 +8012,12 @@
         <v>INSERT INTO courses VALUES('MIIT 7424','Digital Transformation ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B114" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>6</v>
@@ -7404,7 +8025,7 @@
       <c r="D114" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="E114" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F114" t="str">
@@ -7412,12 +8033,12 @@
         <v>INSERT INTO courses VALUES('MIIT 7425','IT Strategy and Governance ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B115" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>6</v>
@@ -7425,7 +8046,7 @@
       <c r="D115" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="13" t="s">
+      <c r="E115" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F115" t="str">
@@ -7433,12 +8054,12 @@
         <v>INSERT INTO courses VALUES('MIIT 7426','Generative AI Applications ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B116" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>6</v>
@@ -7446,7 +8067,7 @@
       <c r="D116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="13" t="s">
+      <c r="E116" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F116" t="str">
@@ -7456,32 +8077,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="97.83203125" customWidth="1"/>
+    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
+    <col min="3" max="4" width="14.8333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="97.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -7493,12 +8116,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -7511,12 +8134,12 @@
         <v>INSERT INTO p_g_programs VALUES('MPSM','Master in Protective Security Management',null,null);</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -7529,12 +8152,12 @@
         <v>INSERT INTO p_g_programs VALUES('MBIA','Master in Business Intelligence And Analytic',null,null);</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -7547,12 +8170,12 @@
         <v>INSERT INTO p_g_programs VALUES('MITEC','Master of Information Technology',null,null);</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -7565,12 +8188,12 @@
         <v>INSERT INTO p_g_programs VALUES('MLIB','Master of Library and Information Science',null,null);</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -7583,79 +8206,82 @@
         <v>INSERT INTO p_g_programs VALUES('PLIB','Doctor of Philosophy in Library and Information Science',null,null);</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/kict/database/KICT Backup DB/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392F9EF7-DB61-A649-A19C-DCC79649ABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="476">
   <si>
     <t>staff_id</t>
   </si>
@@ -1456,19 +1462,16 @@
   </si>
   <si>
     <t>ALTER TABLE p_g_decentraliseds AUTO_INCREMENT = 0;</t>
+  </si>
+  <si>
+    <t>LISC 7199</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1477,37 +1480,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1515,162 +1525,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1679,192 +1538,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1872,347 +1551,66 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2470,31 +1868,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.8333333333333" customWidth="1"/>
-    <col min="3" max="4" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="86.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2507,11 +1905,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="12">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
         <v>10400</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2525,11 +1923,11 @@
         <v>INSERT INTO staff VALUES('10400','ABDUL RAFIEZ BIN ABDUL RAZIFF', null, null);</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="12">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>1716</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2543,11 +1941,11 @@
         <v>INSERT INTO staff VALUES('1716','ABD. RAHMAN BIN AHLAN', null, null);</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>6250</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2561,11 +1959,11 @@
         <v>INSERT INTO staff VALUES('6250','ABDUL RAHMAN BIN AHMAD DAHLAN', null, null);</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>3189</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2579,11 +1977,11 @@
         <v>INSERT INTO staff VALUES('3189','AHMAD FATZILAH BIN MISMAN', null, null);</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>9471</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2597,11 +1995,11 @@
         <v>INSERT INTO staff VALUES('9471','AIDRINA BINTI MOHAMED SOFIADIN', null, null);</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>6153</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2615,11 +2013,11 @@
         <v>INSERT INTO staff VALUES('6153','AKRAM M Z M KHEDHER', null, null);</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>6566</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2633,11 +2031,11 @@
         <v>INSERT INTO staff VALUES('6566','ASADULLAH SHAH', null, null);</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>10325</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2651,11 +2049,11 @@
         <v>INSERT INTO staff VALUES('10325','ATIKAH BALQIS BINTI BASRI', null, null);</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>4177</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2669,11 +2067,11 @@
         <v>INSERT INTO staff VALUES('4177','AZNAN ZUHID BIN SAIDIN', null, null);</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="12">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>10402</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2687,11 +2085,11 @@
         <v>INSERT INTO staff VALUES('10402','ELIN ELIANA BINTI ABDUL RAHIM', null, null);</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>7816</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2705,11 +2103,11 @@
         <v>INSERT INTO staff VALUES('7816','HAZWANI BT MOHD MOHADIS', null, null);</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="12">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>6202</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2723,11 +2121,11 @@
         <v>INSERT INTO staff VALUES('6202','JAMALUDIN BIN IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="12">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
         <v>4559</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2741,11 +2139,11 @@
         <v>INSERT INTO staff VALUES('4559','LILI MARZIANA BT. ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>3815</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2759,11 +2157,11 @@
         <v>INSERT INTO staff VALUES('3815','MADIHAH BT. S. ABD. AZIZ', null, null);</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
         <v>4573</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2777,11 +2175,11 @@
         <v>INSERT INTO staff VALUES('4573','MARINI OTHMAN', null, null);</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>4578</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2795,11 +2193,11 @@
         <v>INSERT INTO staff VALUES('4578','MIOR NASIR MIOR NAZRI', null, null);</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>6326</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2813,11 +2211,11 @@
         <v>INSERT INTO staff VALUES('6326','MIRA KARTIWI', null, null);</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <v>1375</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2831,11 +2229,11 @@
         <v>INSERT INTO staff VALUES('1375','MOHAMAD FAUZAN BIN NOORDIN', null, null);</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
         <v>9831</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2849,11 +2247,11 @@
         <v>INSERT INTO staff VALUES('9831','MOHD KHAIRUL AZMI BIN HASSAN', null, null);</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>5594</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2867,11 +2265,11 @@
         <v>INSERT INTO staff VALUES('5594','MOHD. IZZUDDIN BIN MOHD. TAMRIN', null, null);</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
         <v>4298</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2885,11 +2283,11 @@
         <v>INSERT INTO staff VALUES('4298','MOHD. SYARQAWY BIN HAMZAH', null, null);</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
         <v>4621</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2903,11 +2301,11 @@
         <v>INSERT INTO staff VALUES('4621','MUHAMAD SADRY ABU SEMAN', null, null);</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
         <v>3570</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2921,11 +2319,11 @@
         <v>INSERT INTO staff VALUES('3570','MUHD. ROSYDI BIN MUHAMMAD', null, null);</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
         <v>8398</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2939,11 +2337,11 @@
         <v>INSERT INTO staff VALUES('8398','MUNA BINTI AZUDDIN', null, null);</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
         <v>3451</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2957,11 +2355,11 @@
         <v>INSERT INTO staff VALUES('3451','MURNI BT. MAHMUD', null, null);</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="12">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
         <v>9084</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2975,11 +2373,11 @@
         <v>INSERT INTO staff VALUES('9084','NAJHAN BIN MUHAMAD IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="12">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
         <v>6856</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2993,11 +2391,11 @@
         <v>INSERT INTO staff VALUES('6856','NOOR AZIAN BT. MOHAMAD ALI', null, null);</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="12">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
         <v>3904</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3011,11 +2409,11 @@
         <v>INSERT INTO staff VALUES('3904','NOOR AZIZAH BT. MOHAMADALI', null, null);</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="12">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
         <v>4297</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -3029,11 +2427,11 @@
         <v>INSERT INTO staff VALUES('4297','NOOR HASRUL NIZAN BIN MOHAMMAD NOOR', null, null);</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="12">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
         <v>7822</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3047,11 +2445,11 @@
         <v>INSERT INTO staff VALUES('7822','NOOR HAYANI BINTI ABD RAHIM', null, null);</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="12">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
         <v>10163</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3065,11 +2463,11 @@
         <v>INSERT INTO staff VALUES('10163','NURAZLIN BINTI ZAINAL AZMI', null, null);</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
         <v>9026</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3083,11 +2481,11 @@
         <v>INSERT INTO staff VALUES('9026','NURHAFIZAH BINTI MAHRI', null, null);</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
         <v>5341</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -3101,11 +2499,11 @@
         <v>INSERT INTO staff VALUES('5341','NURUL NUHA BINTI ABDUL MOLOK', null, null);</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="12">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
         <v>4295</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -3119,11 +2517,11 @@
         <v>INSERT INTO staff VALUES('4295','SHUHAILI BT. TALIB', null, null);</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="12">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
         <v>6993</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -3137,11 +2535,11 @@
         <v>INSERT INTO staff VALUES('6993','SUHAILA BINTI SAMSURI', null, null);</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="12">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
         <v>6948</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -3155,11 +2553,11 @@
         <v>INSERT INTO staff VALUES('6948','ZAHIDAH BINTI ZULKIFLI', null, null);</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="12">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
         <v>4896</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -3173,11 +2571,11 @@
         <v>INSERT INTO staff VALUES('4896','ZAINATUL SHIMA ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="10">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <v>7132</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -3191,11 +2589,11 @@
         <v>INSERT INTO staff VALUES('7132','ADAMU ABUBAKAR IBRAHIM', null, null);</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="10">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>10332</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -3209,11 +2607,11 @@
         <v>INSERT INTO staff VALUES('10332','AHSIAH BINTI ISMAIL', null, null);</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="10">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <v>9608</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3227,11 +2625,11 @@
         <v>INSERT INTO staff VALUES('9608','AKEEM OLOWOLAYEMO', null, null);</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="10">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>4296</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -3245,11 +2643,11 @@
         <v>INSERT INTO staff VALUES('4296','AMELIA RITAHANI BT. ISMAIL', null, null);</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="10">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
         <v>9221</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3263,11 +2661,11 @@
         <v>INSERT INTO staff VALUES('9221','AMIR AATIEFF BIN AMIR HUSSIN', null, null);</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="10">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
         <v>9157</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3281,11 +2679,11 @@
         <v>INSERT INTO staff VALUES('9157','ANDI FITRIAH BINTI ABDUL KADIR', null, null);</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="10">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
         <v>10324</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -3299,11 +2697,11 @@
         <v>INSERT INTO staff VALUES('10324','ASMARANI BINTI AHMAD PUZI', null, null);</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="10">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
         <v>5133</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -3317,11 +2715,11 @@
         <v>INSERT INTO staff VALUES('5133','AZLIN BINTI NORDIN', null, null);</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="10">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
         <v>10567</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -3335,11 +2733,11 @@
         <v>INSERT INTO staff VALUES('10567','DINI OKTARINA DWI HANDAYANI', null, null);</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="10">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
         <v>7910</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -3353,11 +2751,11 @@
         <v>INSERT INTO staff VALUES('7910','HAFIZAH BINTI MANSOR', null, null);</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="10">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
         <v>4870</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -3371,11 +2769,11 @@
         <v>INSERT INTO staff VALUES('4870','HAMWIRA SAKTI BIN YAACOB', null, null);</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="10">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
         <v>771</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -3389,11 +2787,11 @@
         <v>INSERT INTO staff VALUES('771','MAZNAH BT AHMAD', null, null);</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="10">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
         <v>8123</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -3407,11 +2805,11 @@
         <v>INSERT INTO staff VALUES('8123','NORBIK BASHAH BIN IDRIS', null, null);</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="10">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
         <v>9622</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -3425,11 +2823,11 @@
         <v>INSERT INTO staff VALUES('9622','NORLIA MD YUSOF', null, null);</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="10">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
         <v>5505</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3443,11 +2841,11 @@
         <v>INSERT INTO staff VALUES('5505','NORMAZIAH BINTI ABDUL AZIZ', null, null);</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="10">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
         <v>3509</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -3461,11 +2859,11 @@
         <v>INSERT INTO staff VALUES('3509','NORMI SHAM BT. AWANG ABU BAKAR', null, null);</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="10">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
         <v>3705</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3479,11 +2877,11 @@
         <v>INSERT INTO staff VALUES('3705','NORSAREMAH BT. SALLEH', null, null);</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="10">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
         <v>8627</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -3497,11 +2895,11 @@
         <v>INSERT INTO staff VALUES('8627','NORZALIZA BINTI MD NOR', null, null);</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="10">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
         <v>8405</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -3515,11 +2913,11 @@
         <v>INSERT INTO staff VALUES('8405','NOOR AZURA BINTI ZAKARIA', null, null);</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="10">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
         <v>5066</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -3533,11 +2931,11 @@
         <v>INSERT INTO staff VALUES('5066','NORZARIYAH BINTI YAHYA', null, null);</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="10">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
         <v>8371</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -3551,11 +2949,11 @@
         <v>INSERT INTO staff VALUES('8371','NURUL LIYANA BINTI MOHAMAD ZULKUFLI', null, null);</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="10">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
         <v>4964</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -3569,11 +2967,11 @@
         <v>INSERT INTO staff VALUES('4964','RAINI BINTI HASSAN', null, null);</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="10">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
         <v>8638</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3587,11 +2985,11 @@
         <v>INSERT INTO staff VALUES('8638','RAWAD ABDULKHALEQ ABDULMOLLA ABDULGHAFOR', null, null);</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="10">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
         <v>5251</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -3605,11 +3003,11 @@
         <v>INSERT INTO staff VALUES('5251','RIZAL BIN MOHD. NOR', null, null);</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="10">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
         <v>8667</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -3623,11 +3021,11 @@
         <v>INSERT INTO staff VALUES('8667','SHARYAR WANI', null, null);</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="10">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
         <v>7620</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3641,11 +3039,11 @@
         <v>INSERT INTO staff VALUES('7620','SITI ASMA BINTI MOHAMMED', null, null);</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="10">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
         <v>4615</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -3659,11 +3057,11 @@
         <v>INSERT INTO staff VALUES('4615','SURIANI BT. SULAIMAN', null, null);</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="10">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
         <v>9954</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -3677,11 +3075,11 @@
         <v>INSERT INTO staff VALUES('9954','TAKUMI SASE', null, null);</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="10">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
         <v>10552</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -3695,11 +3093,11 @@
         <v>INSERT INTO staff VALUES('10552','ZAINAB SENAN MAHMOD ATTAR BASHI', null, null);</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="10">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
         <v>10744</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3713,11 +3111,11 @@
         <v>INSERT INTO staff VALUES('10744','TENGKU MOHD BIN TENGKU SEMBOK ', null, null);</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="10">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
         <v>10738</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -3731,11 +3129,11 @@
         <v>INSERT INTO staff VALUES('10738','AHMAD ANWAR BIN ZAINUDDIN', null, null);</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="10">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
         <v>10722</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -3749,11 +3147,11 @@
         <v>INSERT INTO staff VALUES('10722','ABDUL WAHAB BIN ABDUL RAHMAN', null, null);</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1675</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -3767,11 +3165,11 @@
         <v>INSERT INTO staff VALUES('1675','ROSLINA OTHMAN ', null, null);</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>7684</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -3785,11 +3183,11 @@
         <v>INSERT INTO staff VALUES('7684','ROOSFA HASHIM', null, null);</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>8227</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3803,11 +3201,11 @@
         <v>INSERT INTO staff VALUES('8227','SHARIFAH NUR AMIRAH SARIF ABDULLAH', null, null);</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>9019</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -3821,11 +3219,11 @@
         <v>INSERT INTO staff VALUES('9019','NOR SAADAH MD. NOR', null, null);</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>9041</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3839,11 +3237,11 @@
         <v>INSERT INTO staff VALUES('9041','NUR LEYNI NILAM PUTRI JUNURHAM', null, null);</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>11085</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -3857,11 +3255,11 @@
         <v>INSERT INTO staff VALUES('11085','AYUB BIN ABDUL RAHMAN', null, null);</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>11285</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -3875,11 +3273,11 @@
         <v>INSERT INTO staff VALUES('11285','MIMI LIZA BT ABDUL MAJID', null, null);</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>11417</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3895,29 +3293,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
-    <col min="3" max="5" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="5" width="14.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -3937,11 +3333,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3958,11 +3354,11 @@
         <v>INSERT INTO courses VALUES('BIIT 1301','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3979,11 +3375,11 @@
         <v>INSERT INTO courses VALUES('BIIT 1302','ORGANISATIONAL INFORMATICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -4000,11 +3396,11 @@
         <v>INSERT INTO courses VALUES('BIIT 1303','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -4021,11 +3417,11 @@
         <v>INSERT INTO courses VALUES('INFO 1302','BUSINESS FUNDAMENTALS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -4042,11 +3438,11 @@
         <v>INSERT INTO courses VALUES('INFO 1303','DATABASE SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4063,11 +3459,11 @@
         <v>INSERT INTO courses VALUES('INFO 2302','WEB TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -4084,11 +3480,11 @@
         <v>INSERT INTO courses VALUES('INFO 2303','DATABASE PROGRAMMING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -4105,11 +3501,11 @@
         <v>INSERT INTO courses VALUES('INFO 2304','SYSTEM ANALYSIS AND DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -4126,11 +3522,11 @@
         <v>INSERT INTO courses VALUES('INFO 2305','MULTIMEDIA TECHNOLOGY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -4147,11 +3543,11 @@
         <v>INSERT INTO courses VALUES('INFO 2306','MANAGEMENT INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -4168,11 +3564,11 @@
         <v>INSERT INTO courses VALUES('INFO 3304','E-COMMERCE', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -4189,11 +3585,11 @@
         <v>INSERT INTO courses VALUES('INFO 3305','WEB APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -4210,11 +3606,11 @@
         <v>INSERT INTO courses VALUES('INFO 3307','HUMAN COMPUTER INTERACTION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -4231,11 +3627,11 @@
         <v>INSERT INTO courses VALUES('INFO 3308','PROJECT  MANAGEMENT IN IT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4252,11 +3648,11 @@
         <v>INSERT INTO courses VALUES('INFO 4304','IT AND ISLAM', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -4273,11 +3669,11 @@
         <v>INSERT INTO courses VALUES('INFO 4305','CYBER LAW &amp; ETHICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -4294,11 +3690,11 @@
         <v>INSERT INTO courses VALUES('INFO 4303','TECHNOPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4315,11 +3711,11 @@
         <v>INSERT INTO courses VALUES('INFO 4311','DATA WAREHOUSING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -4336,11 +3732,11 @@
         <v>INSERT INTO courses VALUES('INFO 4312','INFORMATION VISUALIZATION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -4357,11 +3753,11 @@
         <v>INSERT INTO courses VALUES('INFO 4313','DATA MINING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -4378,11 +3774,11 @@
         <v>INSERT INTO courses VALUES('INFO 4314','BUSINESS DATA ANALYTICS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -4399,11 +3795,11 @@
         <v>INSERT INTO courses VALUES('INFO 4320','ANIMATION TECHNIQUE', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -4420,11 +3816,11 @@
         <v>INSERT INTO courses VALUES('INFO 4321','CREATIVE DESIGN TECHNIQUES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -4441,11 +3837,11 @@
         <v>INSERT INTO courses VALUES('INFO 4325','GRAPHIC DESIGN', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -4462,11 +3858,11 @@
         <v>INSERT INTO courses VALUES('INFO 4326','3D MODELLING', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -4483,11 +3879,11 @@
         <v>INSERT INTO courses VALUES('INFO 4328','GAME DESIGN AND DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -4504,11 +3900,11 @@
         <v>INSERT INTO courses VALUES('INFO 4332','KNOWLEDGE MANAGEMENT PRACTICES AND APPLICATION', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -4525,11 +3921,11 @@
         <v>INSERT INTO courses VALUES('INFO 4333','INTEGRATED BUSINESS PROCESS AND ERP SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -4546,11 +3942,11 @@
         <v>INSERT INTO courses VALUES('INFO 4335','MOBILE APPLICATION DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -4567,11 +3963,11 @@
         <v>INSERT INTO courses VALUES('INFO 4336','INFORMATION RETRIEVAL TECHNOLOGIES', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -4588,11 +3984,11 @@
         <v>INSERT INTO courses VALUES('INFO 4330','CONTROL AND AUDIT OF INFORMATION SYSTEMS', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -4609,11 +4005,11 @@
         <v>INSERT INTO courses VALUES('INFO 4340','MANAGEMENT OF INFORMATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -4630,11 +4026,11 @@
         <v>INSERT INTO courses VALUES('INFO 4341','RISK MANAGEMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -4651,11 +4047,11 @@
         <v>INSERT INTO courses VALUES('INFO 4342','BUSINESS CONTINUITY AND DISASTER RECOVERY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -4672,11 +4068,11 @@
         <v>INSERT INTO courses VALUES('INFO 4343','INFORMATION PRIVACY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4693,11 +4089,11 @@
         <v>INSERT INTO courses VALUES('INFO 4345','WEB APPLICATION SECURITY', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -4714,11 +4110,11 @@
         <v>INSERT INTO courses VALUES('INFO 4351','DIGITALPRENEURSHIP', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -4735,11 +4131,11 @@
         <v>INSERT INTO courses VALUES('INFO 4352','DIGITALPRENEURSHIP CUSTOMER DEVELOPMENT', null, null, 'BIT');</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4756,11 +4152,11 @@
         <v>INSERT INTO courses VALUES('BICS 1301','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -4777,11 +4173,11 @@
         <v>INSERT INTO courses VALUES('BICS 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -4798,11 +4194,11 @@
         <v>INSERT INTO courses VALUES('BICS 1303','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -4819,11 +4215,11 @@
         <v>INSERT INTO courses VALUES('BICS 1304','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4840,11 +4236,11 @@
         <v>INSERT INTO courses VALUES('BICS 1305','DISCRETE STRUCTURES', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -4861,11 +4257,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1300','ELEMENTS OF PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -4882,11 +4278,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1301','OBJECT ORIENTED PROGRAMMING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -4903,11 +4299,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1302','INTRODUCTION TO COMPUTER ORGANIZATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -4924,11 +4320,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1303','MATHEMATICS FOR COMPUTING I', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -4945,11 +4341,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1304','PROBABILITY AND STATISTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -4966,11 +4362,11 @@
         <v>INSERT INTO courses VALUES('CSCI 1305','INTRODUCTION TO SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>182</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -4987,11 +4383,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2300','DATA STRUCTURES AND ALGORITHMS I', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -5008,11 +4404,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2301','COMPUTER NETWORKING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -5029,11 +4425,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2302','DIGITAL SYSTEMS FUNDAMENTALS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -5050,11 +4446,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2303','PRINCIPLE OF IT SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -5071,11 +4467,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2304','INTELLIGENT SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -5092,11 +4488,11 @@
         <v>INSERT INTO courses VALUES('CSCI 2305','MATHEMATICS FOR COMPUTING II', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="10" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -5113,11 +4509,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3300','OPERATING SYSTEMS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>195</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -5134,11 +4530,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3301','COMPUTER ARCHITECTURE AND ASSEMBLY LANGUAGE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -5155,11 +4551,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3302','DATA STRUCTURES AND ALGORITHMS II', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -5176,11 +4572,11 @@
         <v>INSERT INTO courses VALUES('CSCI 3303','MATHEMATICS FOR COMPUTING III', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -5197,11 +4593,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4300','COMPUTATION AND COMPLEXITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -5218,11 +4614,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4312','BLOCKCHAIN &amp; APPLICATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -5239,11 +4635,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4320','SOFTWARE TESTING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -5260,11 +4656,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4321','PROJECT MANAGEMENT IN SOFTWARE ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>209</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -5281,11 +4677,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4322','SOFTWARE DESIGN AND ARCHITECTURE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -5302,11 +4698,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4323','REQUIREMENTS ENGINEERING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -5323,11 +4719,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4330','NETWORKING CONCEPTS AND PRACTICES', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>215</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -5344,11 +4740,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4331','ENTERPRISE NETWORK', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -5365,11 +4761,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4332','DIGITAL EVIDENCE FORENSICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -5386,11 +4782,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4333','CRYPTOGRAPHY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -5407,11 +4803,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4334','NETWORK AND SYSTEM ADMINISTRATION', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="10" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -5428,11 +4824,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4336','NETWORK SECURITY', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="10" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -5449,11 +4845,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4340','MACHINE LEARNING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="10" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -5470,11 +4866,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4341','BIG DATA ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="10" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -5491,11 +4887,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4342','NATURAL LANGUAGE PROCESSING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="10" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -5512,11 +4908,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4343','DATA SCIENCE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -5533,11 +4929,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4346','BIOINSPIRED COMPUTING', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -5554,11 +4950,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4347','BRAIN COMPUTATIONAL ANALYTICS', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="10" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -5575,11 +4971,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4311','MOBILE APPLICATION DEVELOPMENT', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -5596,11 +4992,11 @@
         <v>INSERT INTO courses VALUES('CSCI 4325','SOFTWARE QUALITY ASSURANCE', null, null, 'BCS');</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="10" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>240</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -5619,28 +5015,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
-    <col min="3" max="5" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="97.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="5" width="14.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="97.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -5660,7 +5054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>241</v>
       </c>
@@ -5681,7 +5075,7 @@
         <v>INSERT INTO courses VALUES('INFO 7011','Islamic Worldview on ICT and Society', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>244</v>
       </c>
@@ -5698,11 +5092,11 @@
         <v>243</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F56" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
+        <f t="shared" ref="F3:F57" si="0">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
         <v>INSERT INTO courses VALUES('INFO 7901','ICT Research Methods', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>246</v>
       </c>
@@ -5723,7 +5117,7 @@
         <v>INSERT INTO courses VALUES('INFO 7131','IT Project &amp; Change Management', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>248</v>
       </c>
@@ -5744,7 +5138,7 @@
         <v>INSERT INTO courses VALUES('INFO 7151','IT Strategy &amp; Governance', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>250</v>
       </c>
@@ -5765,7 +5159,7 @@
         <v>INSERT INTO courses VALUES('INFO 7145','Methodologies for System Development', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>252</v>
       </c>
@@ -5786,7 +5180,7 @@
         <v>INSERT INTO courses VALUES('INFO 7991','Computing Project', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>254</v>
       </c>
@@ -5807,7 +5201,7 @@
         <v>INSERT INTO courses VALUES('INFO 7115','Advanced Data Management', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>256</v>
       </c>
@@ -5828,7 +5222,7 @@
         <v>INSERT INTO courses VALUES('INFO 7125','Business Data Communications &amp; Networking', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>258</v>
       </c>
@@ -5849,7 +5243,7 @@
         <v>INSERT INTO courses VALUES('INFO 7165','Advanced Enterprise Integration', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>260</v>
       </c>
@@ -5870,7 +5264,7 @@
         <v>INSERT INTO courses VALUES('INFO 7211','Knowledge Management Principles &amp; Practices', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>262</v>
       </c>
@@ -5891,7 +5285,7 @@
         <v>INSERT INTO courses VALUES('INFO 7221','Advanced E-Commerce', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>264</v>
       </c>
@@ -5912,7 +5306,7 @@
         <v>INSERT INTO courses VALUES('INFO 7231','Cybersecurity Challenges, Policy &amp; Strategy', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>266</v>
       </c>
@@ -5933,7 +5327,7 @@
         <v>INSERT INTO courses VALUES('INFO 7251','Mobile Communications &amp; Networks', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>268</v>
       </c>
@@ -5954,7 +5348,7 @@
         <v>INSERT INTO courses VALUES('INFO 7261','IT Professional Practices', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>270</v>
       </c>
@@ -5975,7 +5369,7 @@
         <v>INSERT INTO courses VALUES('INFO 7271','Human Computer Interaction &amp; Design', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>272</v>
       </c>
@@ -5996,7 +5390,7 @@
         <v>INSERT INTO courses VALUES('INFO 7992','IT Research Proposal', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>274</v>
       </c>
@@ -6017,7 +5411,7 @@
         <v>INSERT INTO courses VALUES('INFO 7993','IT Dissertation', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>276</v>
       </c>
@@ -6038,7 +5432,7 @@
         <v>INSERT INTO courses VALUES('CITA 7011 ','Islamic Worldview on IT and Society ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>279</v>
       </c>
@@ -6059,7 +5453,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7101 ','Big Data Across Verticals and Domains ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>281</v>
       </c>
@@ -6080,7 +5474,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7102 ','Data Quality ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>283</v>
       </c>
@@ -6101,7 +5495,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7202 ','Unstructured Data Analytics ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>285</v>
       </c>
@@ -6122,7 +5516,7 @@
         <v>INSERT INTO courses VALUES('CBIA 7301 ','Datathon and Bootcamp ', null, null, 'MBIA');</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>287</v>
       </c>
@@ -6143,7 +5537,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7301 ','Risk Management ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>290</v>
       </c>
@@ -6164,7 +5558,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7101 ','Business Continuity &amp; Disaster Recovery ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>292</v>
       </c>
@@ -6185,7 +5579,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7102 ','Physical Protective Security ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>294</v>
       </c>
@@ -6206,7 +5600,7 @@
         <v>INSERT INTO courses VALUES('CCSM 7998 ','Dissertation ', null, null, 'MPSM');</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>296</v>
       </c>
@@ -6227,7 +5621,7 @@
         <v>INSERT INTO courses VALUES('LISC 7070','Management of Information Institutions', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>299</v>
       </c>
@@ -6248,7 +5642,7 @@
         <v>INSERT INTO courses VALUES('LISC 7120','Information Analysis and Organization I', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>301</v>
       </c>
@@ -6269,7 +5663,7 @@
         <v>INSERT INTO courses VALUES('LISC 7071','Management of Information Institutions', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>302</v>
       </c>
@@ -6290,7 +5684,7 @@
         <v>INSERT INTO courses VALUES('LISC 7020','Information Analysis and Organization I', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>303</v>
       </c>
@@ -6311,7 +5705,7 @@
         <v>INSERT INTO courses VALUES('LISC 7121','Information Analysis and Organization II', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>305</v>
       </c>
@@ -6332,7 +5726,7 @@
         <v>INSERT INTO courses VALUES('LISC 7420','Application of Information Technology in Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>307</v>
       </c>
@@ -6353,7 +5747,7 @@
         <v>INSERT INTO courses VALUES('LISC 7421','Application of Information Technology in Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>308</v>
       </c>
@@ -6374,7 +5768,7 @@
         <v>INSERT INTO courses VALUES('LISC 7430','Digital Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>310</v>
       </c>
@@ -6395,7 +5789,7 @@
         <v>INSERT INTO courses VALUES('LISC 7135','Records and Archives Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>312</v>
       </c>
@@ -6416,7 +5810,7 @@
         <v>INSERT INTO courses VALUES('LISC 7440','Information Processing and Database Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>314</v>
       </c>
@@ -6437,7 +5831,7 @@
         <v>INSERT INTO courses VALUES('LISC 7041','Information Sources and Services', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>316</v>
       </c>
@@ -6458,7 +5852,7 @@
         <v>INSERT INTO courses VALUES('LISC 7988','Directed Research Practicum', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>318</v>
       </c>
@@ -6479,7 +5873,7 @@
         <v>INSERT INTO courses VALUES('LISC 7941','Fieldwork', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>320</v>
       </c>
@@ -6500,7 +5894,7 @@
         <v>INSERT INTO courses VALUES('LISC 7051','Information Resources Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>322</v>
       </c>
@@ -6521,7 +5915,7 @@
         <v>INSERT INTO courses VALUES('LISC 7185','Indexing and Abstracting', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>324</v>
       </c>
@@ -6542,7 +5936,7 @@
         <v>INSERT INTO courses VALUES('LISC 7075','Records and Archives Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>325</v>
       </c>
@@ -6563,7 +5957,7 @@
         <v>INSERT INTO courses VALUES('LISC 7184','Measurement and Evaluation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>327</v>
       </c>
@@ -6584,7 +5978,7 @@
         <v>INSERT INTO courses VALUES('LISC 7182','Information Storage and Retrieval', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>329</v>
       </c>
@@ -6605,7 +5999,7 @@
         <v>INSERT INTO courses VALUES('LISC 7183','Bibliometrics', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>331</v>
       </c>
@@ -6626,7 +6020,7 @@
         <v>INSERT INTO courses VALUES('LISC 7072','Management of Islamic Manuscript Collection', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>333</v>
       </c>
@@ -6647,11 +6041,11 @@
         <v>INSERT INTO courses VALUES('LISC 7073','Management of Official Publications', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="15" t="s">
         <v>336</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -6668,7 +6062,7 @@
         <v>INSERT INTO courses VALUES('LISC 7074','Conservation and Preservation of Information Resources', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>337</v>
       </c>
@@ -6689,7 +6083,7 @@
         <v>INSERT INTO courses VALUES('LISC 7423','Web-Based Information Design and Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>339</v>
       </c>
@@ -6710,7 +6104,7 @@
         <v>INSERT INTO courses VALUES('LISC 7042','Information Sources and Services in Islamic Revealed Knowledge', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>341</v>
       </c>
@@ -6731,7 +6125,7 @@
         <v>INSERT INTO courses VALUES('LISC 7422','Digital Library', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>342</v>
       </c>
@@ -6752,33 +6146,33 @@
         <v>INSERT INTO courses VALUES('LISC 7021','Arabic Cataloguing', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F54" t="str">
+        <f>"INSERT INTO courses VALUES('"&amp;A54&amp;"','"&amp;B54&amp;"', "&amp;C54&amp;", "&amp;D54&amp;", '"&amp;E54&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 7199','Conservation and Preservation of Information Resources', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>313</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7424','Information Processing and Database Development', null, null, 'MLIB');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B55" t="s">
-        <v>346</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>6</v>
@@ -6791,15 +6185,15 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO courses VALUES('LISC 7987','Research Proposal', null, null, 'MLIB');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>INSERT INTO courses VALUES('LISC 7424','Information Processing and Database Development', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>6</v>
@@ -6812,36 +6206,36 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO courses VALUES('LISC 7987','Research Proposal', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B57" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
         <v>INSERT INTO courses VALUES('LISC 7989','LIS Research / Dissertation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>350</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" ref="F57" si="1">"INSERT INTO courses VALUES('"&amp;A57&amp;"','"&amp;B57&amp;"', "&amp;C57&amp;", "&amp;D57&amp;", '"&amp;E57&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('LISC 8290','Seminar in Human Information Behaviour', null, null, 'PLIB');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B58" t="s">
-        <v>353</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>6</v>
@@ -6853,16 +6247,16 @@
         <v>351</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" ref="F58:F72" si="2">"INSERT INTO courses VALUES('"&amp;A58&amp;"','"&amp;B58&amp;"', "&amp;C58&amp;", "&amp;D58&amp;", '"&amp;E58&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('LISC 8390','Seminar in Organization of Information Resource', null, null, 'PLIB');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <f t="shared" ref="F58" si="1">"INSERT INTO courses VALUES('"&amp;A58&amp;"','"&amp;B58&amp;"', "&amp;C58&amp;", "&amp;D58&amp;", '"&amp;E58&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 8290','Seminar in Human Information Behaviour', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>6</v>
@@ -6874,310 +6268,310 @@
         <v>351</v>
       </c>
       <c r="F59" t="str">
+        <f t="shared" ref="F59:F73" si="2">"INSERT INTO courses VALUES('"&amp;A59&amp;"','"&amp;B59&amp;"', "&amp;C59&amp;", "&amp;D59&amp;", '"&amp;E59&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 8390','Seminar in Organization of Information Resource', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B60" t="s">
+        <v>355</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F60" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8910','Statistics for Library &amp; Information Professional', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>357</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="C61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F60" t="str">
+      <c r="F61" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8920','Survey Research Method in Library &amp; Information Science', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>359</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="C62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F61" t="str">
+      <c r="F62" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8930','Qualitative Research Method in Library &amp; Information Science', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>361</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="C63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F62" t="str">
+      <c r="F63" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8380','Organization of Islamic Information', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>363</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="C64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F64" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8410','Trends in Information Retrieval', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>365</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F65" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8450','Planning &amp; Management of Library Automation Systems', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>367</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F65" t="str">
+      <c r="F66" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8810','Strategic Planning for Information Professional', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>369</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="C67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F66" t="str">
+      <c r="F67" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8890','Seminar in Measurement and Evaluation of Library and Information Services', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>371</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="C68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F67" t="str">
+      <c r="F68" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8820','Organizational Development in Information Institutions', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>373</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="C69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F69" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8980','Seminar in Current Trends and Issus in LIS', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>375</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="C70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F69" t="str">
+      <c r="F70" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8995','Comprehensive Examination', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>346</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="C71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F71" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC  8994','Research Proposal', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>378</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="C72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F72" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8998','Dissertation', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>380</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="C73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F72" t="str">
+      <c r="F73" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO courses VALUES('LISC 8999','Thesis', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>382</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" ref="F73" si="3">"INSERT INTO courses VALUES('"&amp;A73&amp;"','"&amp;B73&amp;"', "&amp;C73&amp;", "&amp;D73&amp;", '"&amp;E73&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('MIIT 7401','Islamic Worldview On ICT &amp; Society', null, null, 'MITEC');</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B74" t="s">
-        <v>245</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>6</v>
@@ -7189,16 +6583,16 @@
         <v>243</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" ref="F74:F77" si="4">"INSERT INTO courses VALUES('"&amp;A74&amp;"','"&amp;B74&amp;"', "&amp;C74&amp;", "&amp;D74&amp;", '"&amp;E74&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('MIIT 7402','ICT Research Methods', null, null, 'MITEC');</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <f t="shared" ref="F74" si="3">"INSERT INTO courses VALUES('"&amp;A74&amp;"','"&amp;B74&amp;"', "&amp;C74&amp;", "&amp;D74&amp;", '"&amp;E74&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('MIIT 7401','Islamic Worldview On ICT &amp; Society', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B75" t="s">
-        <v>385</v>
+        <v>245</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>6</v>
@@ -7210,79 +6604,79 @@
         <v>243</v>
       </c>
       <c r="F75" t="str">
+        <f t="shared" ref="F75:F78" si="4">"INSERT INTO courses VALUES('"&amp;A75&amp;"','"&amp;B75&amp;"', "&amp;C75&amp;", "&amp;D75&amp;", '"&amp;E75&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('MIIT 7402','ICT Research Methods', null, null, 'MITEC');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B76" t="s">
+        <v>385</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F76" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO courses VALUES('MIIT 7410','Analytics and Visualisation', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="2" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>387</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="C77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F77" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO courses VALUES('MIIT 7422','Humanity Centred Design', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>273</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="C78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F78" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO courses VALUES('MIIT 7502','IT Research Proposal', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>390</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F78" t="str">
-        <f t="shared" ref="F78" si="5">"INSERT INTO courses VALUES('"&amp;A78&amp;"','"&amp;B78&amp;"', "&amp;C78&amp;", "&amp;D78&amp;", '"&amp;E78&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('LISC 7401','Reference Services', null, null, 'MLIB');</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B79" t="s">
-        <v>392</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>6</v>
@@ -7294,16 +6688,16 @@
         <v>298</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" ref="F79:F94" si="6">"INSERT INTO courses VALUES('"&amp;A79&amp;"','"&amp;B79&amp;"', "&amp;C79&amp;", "&amp;D79&amp;", '"&amp;E79&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('LISC 7402','Information Organization and Classification', null, null, 'MLIB');</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <f t="shared" ref="F79" si="5">"INSERT INTO courses VALUES('"&amp;A79&amp;"','"&amp;B79&amp;"', "&amp;C79&amp;", "&amp;D79&amp;", '"&amp;E79&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 7401','Reference Services', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B80" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>6</v>
@@ -7315,331 +6709,331 @@
         <v>298</v>
       </c>
       <c r="F80" t="str">
+        <f t="shared" ref="F80:F95" si="6">"INSERT INTO courses VALUES('"&amp;A80&amp;"','"&amp;B80&amp;"', "&amp;C80&amp;", "&amp;D80&amp;", '"&amp;E80&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 7402','Information Organization and Classification', null, null, 'MLIB');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B81" t="s">
+        <v>394</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F81" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7405','Industrial Training', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>396</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="C82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F82" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7406','Directed Research', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>398</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="2" t="s">
+      <c r="C83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F82" t="str">
+      <c r="F83" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7410','Collection Development and Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>400</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="C84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F83" t="str">
+      <c r="F84" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7411','Domain-Specific Taxonomy', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>402</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="C85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F85" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7412','Archives and Records Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>404</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="C86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F86" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7413','Library Assessment and Impact Evaluation', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>406</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="C87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F87" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7414','Information Retrieval and Artificial Intelligence Literacy', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>408</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="C88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F88" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7415','Bibliometrics and Science Mapping', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>410</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="C89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F89" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7416','Management of Islamic Manuscripts', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>412</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="2" t="s">
+      <c r="C90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F90" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7417','Government Publications', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>414</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="C91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F91" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7418','Preservation Management', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>416</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="2" t="s">
+      <c r="C92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F92" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7419','Web Design and Development', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>418</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="C93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F92" t="str">
+      <c r="F93" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7425','Digital Libraries', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>420</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="C94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F93" t="str">
+      <c r="F94" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7426','Organization and Classification of Islamic Collection', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>422</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="C95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F95" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO courses VALUES('LISC 7427','Database Design', null, null, 'MLIB');</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>424</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F95" t="str">
-        <f t="shared" ref="F95" si="7">"INSERT INTO courses VALUES('"&amp;A95&amp;"','"&amp;B95&amp;"', "&amp;C95&amp;", "&amp;D95&amp;", '"&amp;E95&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('LISC 8431','Advanced Qualitative Research Methods', null, null, 'PLIB');</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B96" t="s">
-        <v>426</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>6</v>
@@ -7651,16 +7045,16 @@
         <v>351</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" ref="F96:F107" si="8">"INSERT INTO courses VALUES('"&amp;A96&amp;"','"&amp;B96&amp;"', "&amp;C96&amp;", "&amp;D96&amp;", '"&amp;E96&amp;"');"</f>
-        <v>INSERT INTO courses VALUES('LISC 8411','Statistics for Library and Information Professionals', null, null, 'PLIB');</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <f t="shared" ref="F96" si="7">"INSERT INTO courses VALUES('"&amp;A96&amp;"','"&amp;B96&amp;"', "&amp;C96&amp;", "&amp;D96&amp;", '"&amp;E96&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 8431','Advanced Qualitative Research Methods', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B97" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>6</v>
@@ -7672,434 +7066,453 @@
         <v>351</v>
       </c>
       <c r="F97" t="str">
+        <f t="shared" ref="F97:F108" si="8">"INSERT INTO courses VALUES('"&amp;A97&amp;"','"&amp;B97&amp;"', "&amp;C97&amp;", "&amp;D97&amp;", '"&amp;E97&amp;"');"</f>
+        <v>INSERT INTO courses VALUES('LISC 8411','Statistics for Library and Information Professionals', null, null, 'PLIB');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B98" t="s">
+        <v>428</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F98" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8421','Quantitative Social Survey', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="2" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>375</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="C99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F98" t="str">
+      <c r="F99" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8095','Comprehensive Examination', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="2" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>431</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="C100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F100" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8441','Information Seeking Behaviour', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="2" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>433</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="C101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F101" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8442','Bibliographic Representation and Organization', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>435</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="C102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F101" t="str">
+      <c r="F102" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8443','Digital Humanities for Islamic Collections', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>437</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="C103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F102" t="str">
+      <c r="F103" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8444','Advances in Information Retrieval', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>439</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="C104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F103" t="str">
+      <c r="F104" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8445','Library Systems', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>441</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="C105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F104" t="str">
+      <c r="F105" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8446','Strategic Planning for Information Professionals', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="2" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>443</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E105" s="2" t="s">
+      <c r="C106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F105" t="str">
+      <c r="F106" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8447','Seminar in Metrics and Measures for Information Services', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="2" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>371</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="C107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F106" t="str">
+      <c r="F107" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8448','Organizational Development in Information Institutions', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="2" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>446</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="C108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F107" t="str">
+      <c r="F108" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO courses VALUES('LISC 8449','Trends in Information Research', null, null, 'PLIB');</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="2" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>448</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="6" t="s">
+      <c r="C109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F108" t="str">
-        <f t="shared" ref="F108" si="9">"INSERT INTO courses VALUES('"&amp;A108&amp;"','"&amp;B108&amp;"', "&amp;C108&amp;", "&amp;D108&amp;", '"&amp;E108&amp;"');"</f>
+      <c r="F109" t="str">
+        <f t="shared" ref="F109" si="9">"INSERT INTO courses VALUES('"&amp;A109&amp;"','"&amp;B109&amp;"', "&amp;C109&amp;", "&amp;D109&amp;", '"&amp;E109&amp;"');"</f>
         <v>INSERT INTO courses VALUES('MIIT 7411','Digital Professional Practices ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>450</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="6" t="s">
+      <c r="C110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F109" t="str">
-        <f t="shared" ref="F109:F116" si="10">"INSERT INTO courses VALUES('"&amp;A109&amp;"','"&amp;B109&amp;"', "&amp;C109&amp;", "&amp;D109&amp;", '"&amp;E109&amp;"');"</f>
+      <c r="F110" t="str">
+        <f t="shared" ref="F110:F117" si="10">"INSERT INTO courses VALUES('"&amp;A110&amp;"','"&amp;B110&amp;"', "&amp;C110&amp;", "&amp;D110&amp;", '"&amp;E110&amp;"');"</f>
         <v>INSERT INTO courses VALUES('MIIT 7412','IT Project Management and Methodologies ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>452</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="6" t="s">
+      <c r="C111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F110" t="str">
+      <c r="F111" t="str">
         <f t="shared" si="10"/>
         <v>INSERT INTO courses VALUES('MIIT 7420','Cybersecurity Challenges, Policy and Strategy ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>454</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E111" s="6" t="s">
+      <c r="C112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F111" t="str">
+      <c r="F112" t="str">
         <f t="shared" si="10"/>
         <v>INSERT INTO courses VALUES('MIIT 7421','Infrastructure as a Service ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" s="6" t="s">
+      <c r="C113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F112" t="str">
+      <c r="F113" t="str">
         <f t="shared" si="10"/>
         <v>INSERT INTO courses VALUES('MIIT 7423','Internet of Everything ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>458</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E113" s="6" t="s">
+      <c r="C114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F113" t="str">
+      <c r="F114" t="str">
         <f t="shared" si="10"/>
         <v>INSERT INTO courses VALUES('MIIT 7424','Digital Transformation ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>460</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E114" s="6" t="s">
+      <c r="C115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F114" t="str">
+      <c r="F115" t="str">
         <f t="shared" si="10"/>
         <v>INSERT INTO courses VALUES('MIIT 7425','IT Strategy and Governance ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>462</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E115" s="6" t="s">
+      <c r="C116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F115" t="str">
+      <c r="F116" t="str">
         <f t="shared" si="10"/>
         <v>INSERT INTO courses VALUES('MIIT 7426','Generative AI Applications ', null, null, 'MITEC');</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="2" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>464</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116" s="6" t="s">
+      <c r="C117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F116" t="str">
+      <c r="F117" t="str">
         <f t="shared" si="10"/>
         <v>INSERT INTO courses VALUES('MIIT 7427','Fintech in Islamic Finance ', null, null, 'MITEC');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1666666666667" customWidth="1"/>
-    <col min="3" max="4" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="97.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="97.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -8116,7 +7529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>289</v>
       </c>
@@ -8134,7 +7547,7 @@
         <v>INSERT INTO p_g_programs VALUES('MPSM','Master in Protective Security Management',null,null);</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>278</v>
       </c>
@@ -8152,7 +7565,7 @@
         <v>INSERT INTO p_g_programs VALUES('MBIA','Master in Business Intelligence And Analytic',null,null);</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>243</v>
       </c>
@@ -8170,7 +7583,7 @@
         <v>INSERT INTO p_g_programs VALUES('MITEC','Master of Information Technology',null,null);</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>298</v>
       </c>
@@ -8188,7 +7601,7 @@
         <v>INSERT INTO p_g_programs VALUES('MLIB','Master of Library and Information Science',null,null);</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>351</v>
       </c>
@@ -8206,82 +7619,79 @@
         <v>INSERT INTO p_g_programs VALUES('PLIB','Doctor of Philosophy in Library and Information Science',null,null);</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1666666666667" defaultRowHeight="15.75" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>474</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/database/KICT Backup DB/Insert_Query.xlsx
+++ b/database/KICT Backup DB/Insert_Query.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" state="visible" r:id="rId3"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="633">
   <si>
     <t xml:space="preserve">staff_id</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t xml:space="preserve">AIZAL YUSRINA BT IDRIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAN ALI @ WAN YUSOFF WAN MAMAT </t>
   </si>
   <si>
     <t xml:space="preserve">course_id</t>
@@ -2112,23 +2115,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2309,10 +2295,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B69" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.16796875" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3742,6 +3728,36 @@
       <c r="E79" s="2" t="str">
         <f aca="false">"INSERT INTO staff VALUES('"&amp;A79&amp;"','"&amp;B79&amp;"', "&amp;C79&amp;", "&amp;D79&amp;");"</f>
         <v>INSERT INTO staff VALUES('11509','AIZAL YUSRINA BT IDRIS', null, null);</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>6178</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f aca="false">"INSERT INTO staff VALUES('"&amp;A80&amp;"','"&amp;B80&amp;"', "&amp;C80&amp;", "&amp;D80&amp;");"</f>
+        <v>INSERT INTO staff VALUES('6178','WAN ALI @ WAN YUSOFF WAN MAMAT ', null, null);</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f aca="false">"INSERT INTO staff VALUES('"&amp;A81&amp;"','"&amp;B81&amp;"', "&amp;C81&amp;", "&amp;D81&amp;");"</f>
+        <v>INSERT INTO staff VALUES('','', null, null);</v>
       </c>
     </row>
   </sheetData>
@@ -3762,7 +3778,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -3776,10 +3792,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -3788,7 +3804,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -3796,10 +3812,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
@@ -3808,7 +3824,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;", '"&amp;E2&amp;"');"</f>
@@ -3817,19 +3833,19 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F3" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
@@ -3838,10 +3854,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -3850,7 +3866,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"', "&amp;C4&amp;", "&amp;D4&amp;", '"&amp;E4&amp;"');"</f>
@@ -3859,10 +3875,10 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>6</v>
@@ -3871,7 +3887,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"', "&amp;C5&amp;", "&amp;D5&amp;", '"&amp;E5&amp;"');"</f>
@@ -3880,10 +3896,10 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
@@ -3892,7 +3908,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"', "&amp;C6&amp;", "&amp;D6&amp;", '"&amp;E6&amp;"');"</f>
@@ -3901,10 +3917,10 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
@@ -3913,7 +3929,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A7&amp;"','"&amp;B7&amp;"', "&amp;C7&amp;", "&amp;D7&amp;", '"&amp;E7&amp;"');"</f>
@@ -3922,10 +3938,10 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -3934,7 +3950,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A8&amp;"','"&amp;B8&amp;"', "&amp;C8&amp;", "&amp;D8&amp;", '"&amp;E8&amp;"');"</f>
@@ -3943,10 +3959,10 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>6</v>
@@ -3955,7 +3971,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A9&amp;"','"&amp;B9&amp;"', "&amp;C9&amp;", "&amp;D9&amp;", '"&amp;E9&amp;"');"</f>
@@ -3964,10 +3980,10 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>6</v>
@@ -3976,7 +3992,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F10" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A10&amp;"','"&amp;B10&amp;"', "&amp;C10&amp;", "&amp;D10&amp;", '"&amp;E10&amp;"');"</f>
@@ -3985,10 +4001,10 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>6</v>
@@ -3997,7 +4013,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A11&amp;"','"&amp;B11&amp;"', "&amp;C11&amp;", "&amp;D11&amp;", '"&amp;E11&amp;"');"</f>
@@ -4006,10 +4022,10 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -4018,7 +4034,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A12&amp;"','"&amp;B12&amp;"', "&amp;C12&amp;", "&amp;D12&amp;", '"&amp;E12&amp;"');"</f>
@@ -4027,10 +4043,10 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
@@ -4039,7 +4055,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A13&amp;"','"&amp;B13&amp;"', "&amp;C13&amp;", "&amp;D13&amp;", '"&amp;E13&amp;"');"</f>
@@ -4048,10 +4064,10 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
@@ -4060,7 +4076,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A14&amp;"','"&amp;B14&amp;"', "&amp;C14&amp;", "&amp;D14&amp;", '"&amp;E14&amp;"');"</f>
@@ -4069,10 +4085,10 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>6</v>
@@ -4081,7 +4097,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A15&amp;"','"&amp;B15&amp;"', "&amp;C15&amp;", "&amp;D15&amp;", '"&amp;E15&amp;"');"</f>
@@ -4090,10 +4106,10 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>6</v>
@@ -4102,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A16&amp;"','"&amp;B16&amp;"', "&amp;C16&amp;", "&amp;D16&amp;", '"&amp;E16&amp;"');"</f>
@@ -4111,10 +4127,10 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>6</v>
@@ -4123,7 +4139,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A17&amp;"','"&amp;B17&amp;"', "&amp;C17&amp;", "&amp;D17&amp;", '"&amp;E17&amp;"');"</f>
@@ -4132,10 +4148,10 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>6</v>
@@ -4144,7 +4160,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A18&amp;"','"&amp;B18&amp;"', "&amp;C18&amp;", "&amp;D18&amp;", '"&amp;E18&amp;"');"</f>
@@ -4153,10 +4169,10 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>6</v>
@@ -4165,7 +4181,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A19&amp;"','"&amp;B19&amp;"', "&amp;C19&amp;", "&amp;D19&amp;", '"&amp;E19&amp;"');"</f>
@@ -4174,10 +4190,10 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>6</v>
@@ -4186,7 +4202,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A20&amp;"','"&amp;B20&amp;"', "&amp;C20&amp;", "&amp;D20&amp;", '"&amp;E20&amp;"');"</f>
@@ -4195,10 +4211,10 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>6</v>
@@ -4207,7 +4223,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A21&amp;"','"&amp;B21&amp;"', "&amp;C21&amp;", "&amp;D21&amp;", '"&amp;E21&amp;"');"</f>
@@ -4216,10 +4232,10 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>6</v>
@@ -4228,7 +4244,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A22&amp;"','"&amp;B22&amp;"', "&amp;C22&amp;", "&amp;D22&amp;", '"&amp;E22&amp;"');"</f>
@@ -4237,10 +4253,10 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>6</v>
@@ -4249,7 +4265,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A23&amp;"','"&amp;B23&amp;"', "&amp;C23&amp;", "&amp;D23&amp;", '"&amp;E23&amp;"');"</f>
@@ -4258,10 +4274,10 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>6</v>
@@ -4270,7 +4286,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A24&amp;"','"&amp;B24&amp;"', "&amp;C24&amp;", "&amp;D24&amp;", '"&amp;E24&amp;"');"</f>
@@ -4279,10 +4295,10 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>6</v>
@@ -4291,7 +4307,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A25&amp;"','"&amp;B25&amp;"', "&amp;C25&amp;", "&amp;D25&amp;", '"&amp;E25&amp;"');"</f>
@@ -4300,10 +4316,10 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>6</v>
@@ -4312,7 +4328,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F26" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A26&amp;"','"&amp;B26&amp;"', "&amp;C26&amp;", "&amp;D26&amp;", '"&amp;E26&amp;"');"</f>
@@ -4321,10 +4337,10 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>6</v>
@@ -4333,7 +4349,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F27" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A27&amp;"','"&amp;B27&amp;"', "&amp;C27&amp;", "&amp;D27&amp;", '"&amp;E27&amp;"');"</f>
@@ -4342,10 +4358,10 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
@@ -4354,7 +4370,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A28&amp;"','"&amp;B28&amp;"', "&amp;C28&amp;", "&amp;D28&amp;", '"&amp;E28&amp;"');"</f>
@@ -4363,10 +4379,10 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>6</v>
@@ -4375,7 +4391,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A29&amp;"','"&amp;B29&amp;"', "&amp;C29&amp;", "&amp;D29&amp;", '"&amp;E29&amp;"');"</f>
@@ -4384,10 +4400,10 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>6</v>
@@ -4396,7 +4412,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A30&amp;"','"&amp;B30&amp;"', "&amp;C30&amp;", "&amp;D30&amp;", '"&amp;E30&amp;"');"</f>
@@ -4405,10 +4421,10 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>6</v>
@@ -4417,7 +4433,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F31" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A31&amp;"','"&amp;B31&amp;"', "&amp;C31&amp;", "&amp;D31&amp;", '"&amp;E31&amp;"');"</f>
@@ -4426,10 +4442,10 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>6</v>
@@ -4438,7 +4454,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F32" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A32&amp;"','"&amp;B32&amp;"', "&amp;C32&amp;", "&amp;D32&amp;", '"&amp;E32&amp;"');"</f>
@@ -4447,10 +4463,10 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>6</v>
@@ -4459,7 +4475,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F33" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A33&amp;"','"&amp;B33&amp;"', "&amp;C33&amp;", "&amp;D33&amp;", '"&amp;E33&amp;"');"</f>
@@ -4468,10 +4484,10 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
@@ -4480,7 +4496,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F34" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A34&amp;"','"&amp;B34&amp;"', "&amp;C34&amp;", "&amp;D34&amp;", '"&amp;E34&amp;"');"</f>
@@ -4489,10 +4505,10 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>6</v>
@@ -4501,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F35" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A35&amp;"','"&amp;B35&amp;"', "&amp;C35&amp;", "&amp;D35&amp;", '"&amp;E35&amp;"');"</f>
@@ -4510,10 +4526,10 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>6</v>
@@ -4522,7 +4538,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A36&amp;"','"&amp;B36&amp;"', "&amp;C36&amp;", "&amp;D36&amp;", '"&amp;E36&amp;"');"</f>
@@ -4531,10 +4547,10 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>6</v>
@@ -4543,7 +4559,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F37" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A37&amp;"','"&amp;B37&amp;"', "&amp;C37&amp;", "&amp;D37&amp;", '"&amp;E37&amp;"');"</f>
@@ -4552,10 +4568,10 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>6</v>
@@ -4564,7 +4580,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A38&amp;"','"&amp;B38&amp;"', "&amp;C38&amp;", "&amp;D38&amp;", '"&amp;E38&amp;"');"</f>
@@ -4573,10 +4589,10 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>6</v>
@@ -4585,7 +4601,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A39&amp;"','"&amp;B39&amp;"', "&amp;C39&amp;", "&amp;D39&amp;", '"&amp;E39&amp;"');"</f>
@@ -4594,10 +4610,10 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>6</v>
@@ -4606,7 +4622,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A40&amp;"','"&amp;B40&amp;"', "&amp;C40&amp;", "&amp;D40&amp;", '"&amp;E40&amp;"');"</f>
@@ -4615,10 +4631,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>6</v>
@@ -4627,7 +4643,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A41&amp;"','"&amp;B41&amp;"', "&amp;C41&amp;", "&amp;D41&amp;", '"&amp;E41&amp;"');"</f>
@@ -4636,10 +4652,10 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>6</v>
@@ -4648,7 +4664,7 @@
         <v>6</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A42&amp;"','"&amp;B42&amp;"', "&amp;C42&amp;", "&amp;D42&amp;", '"&amp;E42&amp;"');"</f>
@@ -4657,10 +4673,10 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>6</v>
@@ -4669,7 +4685,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A43&amp;"','"&amp;B43&amp;"', "&amp;C43&amp;", "&amp;D43&amp;", '"&amp;E43&amp;"');"</f>
@@ -4678,10 +4694,10 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>6</v>
@@ -4690,7 +4706,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A44&amp;"','"&amp;B44&amp;"', "&amp;C44&amp;", "&amp;D44&amp;", '"&amp;E44&amp;"');"</f>
@@ -4699,10 +4715,10 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>6</v>
@@ -4711,7 +4727,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F45" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A45&amp;"','"&amp;B45&amp;"', "&amp;C45&amp;", "&amp;D45&amp;", '"&amp;E45&amp;"');"</f>
@@ -4720,10 +4736,10 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>6</v>
@@ -4732,7 +4748,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A46&amp;"','"&amp;B46&amp;"', "&amp;C46&amp;", "&amp;D46&amp;", '"&amp;E46&amp;"');"</f>
@@ -4741,10 +4757,10 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>6</v>
@@ -4753,7 +4769,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F47" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A47&amp;"','"&amp;B47&amp;"', "&amp;C47&amp;", "&amp;D47&amp;", '"&amp;E47&amp;"');"</f>
@@ -4762,10 +4778,10 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>6</v>
@@ -4774,7 +4790,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F48" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A48&amp;"','"&amp;B48&amp;"', "&amp;C48&amp;", "&amp;D48&amp;", '"&amp;E48&amp;"');"</f>
@@ -4783,10 +4799,10 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>6</v>
@@ -4795,7 +4811,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F49" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A49&amp;"','"&amp;B49&amp;"', "&amp;C49&amp;", "&amp;D49&amp;", '"&amp;E49&amp;"');"</f>
@@ -4804,10 +4820,10 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>6</v>
@@ -4816,7 +4832,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F50" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A50&amp;"','"&amp;B50&amp;"', "&amp;C50&amp;", "&amp;D50&amp;", '"&amp;E50&amp;"');"</f>
@@ -4825,10 +4841,10 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>6</v>
@@ -4837,7 +4853,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A51&amp;"','"&amp;B51&amp;"', "&amp;C51&amp;", "&amp;D51&amp;", '"&amp;E51&amp;"');"</f>
@@ -4846,10 +4862,10 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>6</v>
@@ -4858,7 +4874,7 @@
         <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F52" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A52&amp;"','"&amp;B52&amp;"', "&amp;C52&amp;", "&amp;D52&amp;", '"&amp;E52&amp;"');"</f>
@@ -4867,10 +4883,10 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>6</v>
@@ -4879,7 +4895,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F53" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A53&amp;"','"&amp;B53&amp;"', "&amp;C53&amp;", "&amp;D53&amp;", '"&amp;E53&amp;"');"</f>
@@ -4888,10 +4904,10 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>6</v>
@@ -4900,7 +4916,7 @@
         <v>6</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F54" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A54&amp;"','"&amp;B54&amp;"', "&amp;C54&amp;", "&amp;D54&amp;", '"&amp;E54&amp;"');"</f>
@@ -4909,10 +4925,10 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>6</v>
@@ -4921,7 +4937,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F55" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A55&amp;"','"&amp;B55&amp;"', "&amp;C55&amp;", "&amp;D55&amp;", '"&amp;E55&amp;"');"</f>
@@ -4930,10 +4946,10 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>6</v>
@@ -4942,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F56" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A56&amp;"','"&amp;B56&amp;"', "&amp;C56&amp;", "&amp;D56&amp;", '"&amp;E56&amp;"');"</f>
@@ -4951,10 +4967,10 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>6</v>
@@ -4963,7 +4979,7 @@
         <v>6</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F57" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A57&amp;"','"&amp;B57&amp;"', "&amp;C57&amp;", "&amp;D57&amp;", '"&amp;E57&amp;"');"</f>
@@ -4972,10 +4988,10 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>6</v>
@@ -4984,7 +5000,7 @@
         <v>6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F58" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A58&amp;"','"&amp;B58&amp;"', "&amp;C58&amp;", "&amp;D58&amp;", '"&amp;E58&amp;"');"</f>
@@ -4993,10 +5009,10 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>6</v>
@@ -5005,7 +5021,7 @@
         <v>6</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F59" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A59&amp;"','"&amp;B59&amp;"', "&amp;C59&amp;", "&amp;D59&amp;", '"&amp;E59&amp;"');"</f>
@@ -5014,10 +5030,10 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>6</v>
@@ -5026,7 +5042,7 @@
         <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F60" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A60&amp;"','"&amp;B60&amp;"', "&amp;C60&amp;", "&amp;D60&amp;", '"&amp;E60&amp;"');"</f>
@@ -5035,10 +5051,10 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>6</v>
@@ -5047,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A61&amp;"','"&amp;B61&amp;"', "&amp;C61&amp;", "&amp;D61&amp;", '"&amp;E61&amp;"');"</f>
@@ -5056,10 +5072,10 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>6</v>
@@ -5068,7 +5084,7 @@
         <v>6</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F62" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A62&amp;"','"&amp;B62&amp;"', "&amp;C62&amp;", "&amp;D62&amp;", '"&amp;E62&amp;"');"</f>
@@ -5077,10 +5093,10 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>6</v>
@@ -5089,7 +5105,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A63&amp;"','"&amp;B63&amp;"', "&amp;C63&amp;", "&amp;D63&amp;", '"&amp;E63&amp;"');"</f>
@@ -5098,10 +5114,10 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>6</v>
@@ -5110,7 +5126,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A64&amp;"','"&amp;B64&amp;"', "&amp;C64&amp;", "&amp;D64&amp;", '"&amp;E64&amp;"');"</f>
@@ -5119,10 +5135,10 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>6</v>
@@ -5131,7 +5147,7 @@
         <v>6</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A65&amp;"','"&amp;B65&amp;"', "&amp;C65&amp;", "&amp;D65&amp;", '"&amp;E65&amp;"');"</f>
@@ -5140,10 +5156,10 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>6</v>
@@ -5152,7 +5168,7 @@
         <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A66&amp;"','"&amp;B66&amp;"', "&amp;C66&amp;", "&amp;D66&amp;", '"&amp;E66&amp;"');"</f>
@@ -5161,10 +5177,10 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>6</v>
@@ -5173,7 +5189,7 @@
         <v>6</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"', "&amp;C67&amp;", "&amp;D67&amp;", '"&amp;E67&amp;"');"</f>
@@ -5182,10 +5198,10 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>6</v>
@@ -5194,7 +5210,7 @@
         <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A68&amp;"','"&amp;B68&amp;"', "&amp;C68&amp;", "&amp;D68&amp;", '"&amp;E68&amp;"');"</f>
@@ -5203,10 +5219,10 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>6</v>
@@ -5215,7 +5231,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A69&amp;"','"&amp;B69&amp;"', "&amp;C69&amp;", "&amp;D69&amp;", '"&amp;E69&amp;"');"</f>
@@ -5224,10 +5240,10 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>6</v>
@@ -5236,7 +5252,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A70&amp;"','"&amp;B70&amp;"', "&amp;C70&amp;", "&amp;D70&amp;", '"&amp;E70&amp;"');"</f>
@@ -5245,10 +5261,10 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>6</v>
@@ -5257,7 +5273,7 @@
         <v>6</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A71&amp;"','"&amp;B71&amp;"', "&amp;C71&amp;", "&amp;D71&amp;", '"&amp;E71&amp;"');"</f>
@@ -5266,10 +5282,10 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>6</v>
@@ -5278,7 +5294,7 @@
         <v>6</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A72&amp;"','"&amp;B72&amp;"', "&amp;C72&amp;", "&amp;D72&amp;", '"&amp;E72&amp;"');"</f>
@@ -5287,10 +5303,10 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>6</v>
@@ -5299,7 +5315,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A73&amp;"','"&amp;B73&amp;"', "&amp;C73&amp;", "&amp;D73&amp;", '"&amp;E73&amp;"');"</f>
@@ -5308,10 +5324,10 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>6</v>
@@ -5320,7 +5336,7 @@
         <v>6</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A74&amp;"','"&amp;B74&amp;"', "&amp;C74&amp;", "&amp;D74&amp;", '"&amp;E74&amp;"');"</f>
@@ -5329,10 +5345,10 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>6</v>
@@ -5341,7 +5357,7 @@
         <v>6</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F75" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A75&amp;"','"&amp;B75&amp;"', "&amp;C75&amp;", "&amp;D75&amp;", '"&amp;E75&amp;"');"</f>
@@ -5350,10 +5366,10 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>6</v>
@@ -5362,7 +5378,7 @@
         <v>6</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F76" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A76&amp;"','"&amp;B76&amp;"', "&amp;C76&amp;", "&amp;D76&amp;", '"&amp;E76&amp;"');"</f>
@@ -5371,10 +5387,10 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>6</v>
@@ -5383,7 +5399,7 @@
         <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F77" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A77&amp;"','"&amp;B77&amp;"', "&amp;C77&amp;", "&amp;D77&amp;", '"&amp;E77&amp;"');"</f>
@@ -5392,10 +5408,10 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>6</v>
@@ -5404,7 +5420,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F78" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A78&amp;"','"&amp;B78&amp;"', "&amp;C78&amp;", "&amp;D78&amp;", '"&amp;E78&amp;"');"</f>
@@ -5413,10 +5429,10 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>6</v>
@@ -5425,7 +5441,7 @@
         <v>6</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F79" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A79&amp;"','"&amp;B79&amp;"', "&amp;C79&amp;", "&amp;D79&amp;", '"&amp;E79&amp;"');"</f>
@@ -5434,10 +5450,10 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>6</v>
@@ -5446,7 +5462,7 @@
         <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F80" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A80&amp;"','"&amp;B80&amp;"', "&amp;C80&amp;", "&amp;D80&amp;", '"&amp;E80&amp;"');"</f>
@@ -5455,10 +5471,10 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>6</v>
@@ -5467,7 +5483,7 @@
         <v>6</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F81" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A81&amp;"','"&amp;B81&amp;"', "&amp;C81&amp;", "&amp;D81&amp;", '"&amp;E81&amp;"');"</f>
@@ -5476,10 +5492,10 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>6</v>
@@ -5488,7 +5504,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F82" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A82&amp;"','"&amp;B82&amp;"', "&amp;C82&amp;", "&amp;D82&amp;", '"&amp;E82&amp;"');"</f>
@@ -5497,10 +5513,10 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>6</v>
@@ -5509,7 +5525,7 @@
         <v>6</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F83" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A83&amp;"','"&amp;B83&amp;"', "&amp;C83&amp;", "&amp;D83&amp;", '"&amp;E83&amp;"');"</f>
@@ -5519,10 +5535,10 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>6</v>
@@ -5531,7 +5547,7 @@
         <v>6</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F84" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A84&amp;"','"&amp;B84&amp;"', "&amp;C84&amp;", "&amp;D84&amp;", '"&amp;E84&amp;"');"</f>
@@ -5540,10 +5556,10 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>6</v>
@@ -5552,7 +5568,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A85&amp;"','"&amp;B85&amp;"', "&amp;C85&amp;", "&amp;D85&amp;", '"&amp;E85&amp;"');"</f>
@@ -5561,10 +5577,10 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>6</v>
@@ -5573,7 +5589,7 @@
         <v>6</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F86" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A86&amp;"','"&amp;B86&amp;"', "&amp;C86&amp;", "&amp;D86&amp;", '"&amp;E86&amp;"');"</f>
@@ -5582,10 +5598,10 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>6</v>
@@ -5594,7 +5610,7 @@
         <v>6</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F87" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A87&amp;"','"&amp;B87&amp;"', "&amp;C87&amp;", "&amp;D87&amp;", '"&amp;E87&amp;"');"</f>
@@ -5603,19 +5619,19 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="F88" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A88&amp;"','"&amp;B88&amp;"', "&amp;C88&amp;", "&amp;D88&amp;", '"&amp;E88&amp;"');"</f>
@@ -5624,10 +5640,10 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>6</v>
@@ -5636,7 +5652,7 @@
         <v>6</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F89" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A89&amp;"','"&amp;B89&amp;"', "&amp;C89&amp;", "&amp;D89&amp;", '"&amp;E89&amp;"');"</f>
@@ -5645,10 +5661,10 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>6</v>
@@ -5657,7 +5673,7 @@
         <v>6</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F90" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A90&amp;"','"&amp;B90&amp;"', "&amp;C90&amp;", "&amp;D90&amp;", '"&amp;E90&amp;"');"</f>
@@ -5666,10 +5682,10 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>6</v>
@@ -5678,7 +5694,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F91" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A91&amp;"','"&amp;B91&amp;"', "&amp;C91&amp;", "&amp;D91&amp;", '"&amp;E91&amp;"');"</f>
@@ -5687,10 +5703,10 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>6</v>
@@ -5699,7 +5715,7 @@
         <v>6</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F92" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A92&amp;"','"&amp;B92&amp;"', "&amp;C92&amp;", "&amp;D92&amp;", '"&amp;E92&amp;"');"</f>
@@ -5708,10 +5724,10 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>6</v>
@@ -5720,7 +5736,7 @@
         <v>6</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F93" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A93&amp;"','"&amp;B93&amp;"', "&amp;C93&amp;", "&amp;D93&amp;", '"&amp;E93&amp;"');"</f>
@@ -5729,10 +5745,10 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>6</v>
@@ -5741,7 +5757,7 @@
         <v>6</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F94" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A94&amp;"','"&amp;B94&amp;"', "&amp;C94&amp;", "&amp;D94&amp;", '"&amp;E94&amp;"');"</f>
@@ -5750,10 +5766,10 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>6</v>
@@ -5762,7 +5778,7 @@
         <v>6</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F95" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A95&amp;"','"&amp;B95&amp;"', "&amp;C95&amp;", "&amp;D95&amp;", '"&amp;E95&amp;"');"</f>
@@ -5771,10 +5787,10 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>6</v>
@@ -5783,7 +5799,7 @@
         <v>6</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F96" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A96&amp;"','"&amp;B96&amp;"', "&amp;C96&amp;", "&amp;D96&amp;", '"&amp;E96&amp;"');"</f>
@@ -5792,10 +5808,10 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>6</v>
@@ -5804,7 +5820,7 @@
         <v>6</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F97" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A97&amp;"','"&amp;B97&amp;"', "&amp;C97&amp;", "&amp;D97&amp;", '"&amp;E97&amp;"');"</f>
@@ -5813,10 +5829,10 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>6</v>
@@ -5825,7 +5841,7 @@
         <v>6</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F98" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A98&amp;"','"&amp;B98&amp;"', "&amp;C98&amp;", "&amp;D98&amp;", '"&amp;E98&amp;"');"</f>
@@ -5834,10 +5850,10 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>6</v>
@@ -5846,7 +5862,7 @@
         <v>6</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F99" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A99&amp;"','"&amp;B99&amp;"', "&amp;C99&amp;", "&amp;D99&amp;", '"&amp;E99&amp;"');"</f>
@@ -5855,10 +5871,10 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>6</v>
@@ -5867,7 +5883,7 @@
         <v>6</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F100" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A100&amp;"','"&amp;B100&amp;"', "&amp;C100&amp;", "&amp;D100&amp;", '"&amp;E100&amp;"');"</f>
@@ -5876,10 +5892,10 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>6</v>
@@ -5888,7 +5904,7 @@
         <v>6</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F101" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A101&amp;"','"&amp;B101&amp;"', "&amp;C101&amp;", "&amp;D101&amp;", '"&amp;E101&amp;"');"</f>
@@ -5897,10 +5913,10 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>6</v>
@@ -5909,7 +5925,7 @@
         <v>6</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F102" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A102&amp;"','"&amp;B102&amp;"', "&amp;C102&amp;", "&amp;D102&amp;", '"&amp;E102&amp;"');"</f>
@@ -5918,10 +5934,10 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>6</v>
@@ -5930,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F103" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A103&amp;"','"&amp;B103&amp;"', "&amp;C103&amp;", "&amp;D103&amp;", '"&amp;E103&amp;"');"</f>
@@ -5939,10 +5955,10 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>6</v>
@@ -5951,7 +5967,7 @@
         <v>6</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F104" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A104&amp;"','"&amp;B104&amp;"', "&amp;C104&amp;", "&amp;D104&amp;", '"&amp;E104&amp;"');"</f>
@@ -5960,10 +5976,10 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>6</v>
@@ -5972,7 +5988,7 @@
         <v>6</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F105" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A105&amp;"','"&amp;B105&amp;"', "&amp;C105&amp;", "&amp;D105&amp;", '"&amp;E105&amp;"');"</f>
@@ -5981,10 +5997,10 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>6</v>
@@ -5993,7 +6009,7 @@
         <v>6</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F106" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A106&amp;"','"&amp;B106&amp;"', "&amp;C106&amp;", "&amp;D106&amp;", '"&amp;E106&amp;"');"</f>
@@ -6002,10 +6018,10 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>6</v>
@@ -6014,7 +6030,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F107" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A107&amp;"','"&amp;B107&amp;"', "&amp;C107&amp;", "&amp;D107&amp;", '"&amp;E107&amp;"');"</f>
@@ -6023,10 +6039,10 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>6</v>
@@ -6035,7 +6051,7 @@
         <v>6</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F108" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A108&amp;"','"&amp;B108&amp;"', "&amp;C108&amp;", "&amp;D108&amp;", '"&amp;E108&amp;"');"</f>
@@ -6044,10 +6060,10 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>6</v>
@@ -6056,7 +6072,7 @@
         <v>6</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F109" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A109&amp;"','"&amp;B109&amp;"', "&amp;C109&amp;", "&amp;D109&amp;", '"&amp;E109&amp;"');"</f>
@@ -6065,10 +6081,10 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>6</v>
@@ -6077,7 +6093,7 @@
         <v>6</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F110" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A110&amp;"','"&amp;B110&amp;"', "&amp;C110&amp;", "&amp;D110&amp;", '"&amp;E110&amp;"');"</f>
@@ -6086,10 +6102,10 @@
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>6</v>
@@ -6098,7 +6114,7 @@
         <v>6</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F111" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A111&amp;"','"&amp;B111&amp;"', "&amp;C111&amp;", "&amp;D111&amp;", '"&amp;E111&amp;"');"</f>
@@ -6107,10 +6123,10 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>6</v>
@@ -6119,7 +6135,7 @@
         <v>6</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F112" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A112&amp;"','"&amp;B112&amp;"', "&amp;C112&amp;", "&amp;D112&amp;", '"&amp;E112&amp;"');"</f>
@@ -6128,10 +6144,10 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>6</v>
@@ -6140,7 +6156,7 @@
         <v>6</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F113" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A113&amp;"','"&amp;B113&amp;"', "&amp;C113&amp;", "&amp;D113&amp;", '"&amp;E113&amp;"');"</f>
@@ -6149,10 +6165,10 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>6</v>
@@ -6161,7 +6177,7 @@
         <v>6</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F114" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A114&amp;"','"&amp;B114&amp;"', "&amp;C114&amp;", "&amp;D114&amp;", '"&amp;E114&amp;"');"</f>
@@ -6170,10 +6186,10 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>6</v>
@@ -6182,7 +6198,7 @@
         <v>6</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F115" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A115&amp;"','"&amp;B115&amp;"', "&amp;C115&amp;", "&amp;D115&amp;", '"&amp;E115&amp;"');"</f>
@@ -6191,10 +6207,10 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>6</v>
@@ -6203,7 +6219,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F116" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A116&amp;"','"&amp;B116&amp;"', "&amp;C116&amp;", "&amp;D116&amp;", '"&amp;E116&amp;"');"</f>
@@ -6212,10 +6228,10 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>6</v>
@@ -6224,7 +6240,7 @@
         <v>6</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F117" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A117&amp;"','"&amp;B117&amp;"', "&amp;C117&amp;", "&amp;D117&amp;", '"&amp;E117&amp;"');"</f>
@@ -6233,10 +6249,10 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>6</v>
@@ -6245,7 +6261,7 @@
         <v>6</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F118" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A118&amp;"','"&amp;B118&amp;"', "&amp;C118&amp;", "&amp;D118&amp;", '"&amp;E118&amp;"');"</f>
@@ -6254,10 +6270,10 @@
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>6</v>
@@ -6266,7 +6282,7 @@
         <v>6</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F119" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A119&amp;"','"&amp;B119&amp;"', "&amp;C119&amp;", "&amp;D119&amp;", '"&amp;E119&amp;"');"</f>
@@ -6275,10 +6291,10 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>6</v>
@@ -6287,7 +6303,7 @@
         <v>6</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F120" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A120&amp;"','"&amp;B120&amp;"', "&amp;C120&amp;", "&amp;D120&amp;", '"&amp;E120&amp;"');"</f>
@@ -6296,10 +6312,10 @@
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>6</v>
@@ -6308,7 +6324,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F121" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A121&amp;"','"&amp;B121&amp;"', "&amp;C121&amp;", "&amp;D121&amp;", '"&amp;E121&amp;"');"</f>
@@ -6317,10 +6333,10 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>6</v>
@@ -6329,7 +6345,7 @@
         <v>6</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F122" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A122&amp;"','"&amp;B122&amp;"', "&amp;C122&amp;", "&amp;D122&amp;", '"&amp;E122&amp;"');"</f>
@@ -6338,10 +6354,10 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>6</v>
@@ -6350,7 +6366,7 @@
         <v>6</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F123" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A123&amp;"','"&amp;B123&amp;"', "&amp;C123&amp;", "&amp;D123&amp;", '"&amp;E123&amp;"');"</f>
@@ -6359,10 +6375,10 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>6</v>
@@ -6371,7 +6387,7 @@
         <v>6</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F124" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A124&amp;"','"&amp;B124&amp;"', "&amp;C124&amp;", "&amp;D124&amp;", '"&amp;E124&amp;"');"</f>
@@ -6380,10 +6396,10 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>6</v>
@@ -6392,7 +6408,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F125" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A125&amp;"','"&amp;B125&amp;"', "&amp;C125&amp;", "&amp;D125&amp;", '"&amp;E125&amp;"');"</f>
@@ -6401,10 +6417,10 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>6</v>
@@ -6413,7 +6429,7 @@
         <v>6</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F126" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A126&amp;"','"&amp;B126&amp;"', "&amp;C126&amp;", "&amp;D126&amp;", '"&amp;E126&amp;"');"</f>
@@ -6422,10 +6438,10 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>6</v>
@@ -6434,7 +6450,7 @@
         <v>6</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F127" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A127&amp;"','"&amp;B127&amp;"', "&amp;C127&amp;", "&amp;D127&amp;", '"&amp;E127&amp;"');"</f>
@@ -6443,10 +6459,10 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>6</v>
@@ -6455,7 +6471,7 @@
         <v>6</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F128" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A128&amp;"','"&amp;B128&amp;"', "&amp;C128&amp;", "&amp;D128&amp;", '"&amp;E128&amp;"');"</f>
@@ -6464,10 +6480,10 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>6</v>
@@ -6476,7 +6492,7 @@
         <v>6</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F129" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A129&amp;"','"&amp;B129&amp;"', "&amp;C129&amp;", "&amp;D129&amp;", '"&amp;E129&amp;"');"</f>
@@ -6485,10 +6501,10 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>6</v>
@@ -6497,7 +6513,7 @@
         <v>6</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F130" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A130&amp;"','"&amp;B130&amp;"', "&amp;C130&amp;", "&amp;D130&amp;", '"&amp;E130&amp;"');"</f>
@@ -6506,10 +6522,10 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>6</v>
@@ -6518,7 +6534,7 @@
         <v>6</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F131" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A131&amp;"','"&amp;B131&amp;"', "&amp;C131&amp;", "&amp;D131&amp;", '"&amp;E131&amp;"');"</f>
@@ -6527,10 +6543,10 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>6</v>
@@ -6539,7 +6555,7 @@
         <v>6</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F132" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A132&amp;"','"&amp;B132&amp;"', "&amp;C132&amp;", "&amp;D132&amp;", '"&amp;E132&amp;"');"</f>
@@ -6548,10 +6564,10 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>6</v>
@@ -6560,7 +6576,7 @@
         <v>6</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F133" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A133&amp;"','"&amp;B133&amp;"', "&amp;C133&amp;", "&amp;D133&amp;", '"&amp;E133&amp;"');"</f>
@@ -6569,10 +6585,10 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>6</v>
@@ -6581,7 +6597,7 @@
         <v>6</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F134" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A134&amp;"','"&amp;B134&amp;"', "&amp;C134&amp;", "&amp;D134&amp;", '"&amp;E134&amp;"');"</f>
@@ -6590,10 +6606,10 @@
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>6</v>
@@ -6602,7 +6618,7 @@
         <v>6</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F135" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A135&amp;"','"&amp;B135&amp;"', "&amp;C135&amp;", "&amp;D135&amp;", '"&amp;E135&amp;"');"</f>
@@ -6611,10 +6627,10 @@
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>6</v>
@@ -6623,7 +6639,7 @@
         <v>6</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F136" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A136&amp;"','"&amp;B136&amp;"', "&amp;C136&amp;", "&amp;D136&amp;", '"&amp;E136&amp;"');"</f>
@@ -6632,10 +6648,10 @@
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>6</v>
@@ -6644,7 +6660,7 @@
         <v>6</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F137" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A137&amp;"','"&amp;B137&amp;"', "&amp;C137&amp;", "&amp;D137&amp;", '"&amp;E137&amp;"');"</f>
@@ -6653,10 +6669,10 @@
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>6</v>
@@ -6665,7 +6681,7 @@
         <v>6</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F138" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A138&amp;"','"&amp;B138&amp;"', "&amp;C138&amp;", "&amp;D138&amp;", '"&amp;E138&amp;"');"</f>
@@ -6674,10 +6690,10 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>6</v>
@@ -6686,7 +6702,7 @@
         <v>6</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F139" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A139&amp;"','"&amp;B139&amp;"', "&amp;C139&amp;", "&amp;D139&amp;", '"&amp;E139&amp;"');"</f>
@@ -6695,10 +6711,10 @@
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>6</v>
@@ -6707,7 +6723,7 @@
         <v>6</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F140" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A140&amp;"','"&amp;B140&amp;"', "&amp;C140&amp;", "&amp;D140&amp;", '"&amp;E140&amp;"');"</f>
@@ -6716,10 +6732,10 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>6</v>
@@ -6728,7 +6744,7 @@
         <v>6</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F141" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A141&amp;"','"&amp;B141&amp;"', "&amp;C141&amp;", "&amp;D141&amp;", '"&amp;E141&amp;"');"</f>
@@ -6737,10 +6753,10 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>6</v>
@@ -6749,7 +6765,7 @@
         <v>6</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F142" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A142&amp;"','"&amp;B142&amp;"', "&amp;C142&amp;", "&amp;D142&amp;", '"&amp;E142&amp;"');"</f>
@@ -6758,10 +6774,10 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>6</v>
@@ -6770,7 +6786,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F143" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A143&amp;"','"&amp;B143&amp;"', "&amp;C143&amp;", "&amp;D143&amp;", '"&amp;E143&amp;"');"</f>
@@ -6779,10 +6795,10 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>6</v>
@@ -6791,7 +6807,7 @@
         <v>6</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F144" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A144&amp;"','"&amp;B144&amp;"', "&amp;C144&amp;", "&amp;D144&amp;", '"&amp;E144&amp;"');"</f>
@@ -6800,10 +6816,10 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>6</v>
@@ -6812,7 +6828,7 @@
         <v>6</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F145" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A145&amp;"','"&amp;B145&amp;"', "&amp;C145&amp;", "&amp;D145&amp;", '"&amp;E145&amp;"');"</f>
@@ -6821,10 +6837,10 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>6</v>
@@ -6833,7 +6849,7 @@
         <v>6</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F146" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A146&amp;"','"&amp;B146&amp;"', "&amp;C146&amp;", "&amp;D146&amp;", '"&amp;E146&amp;"');"</f>
@@ -6842,10 +6858,10 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>6</v>
@@ -6854,7 +6870,7 @@
         <v>6</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F147" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A147&amp;"','"&amp;B147&amp;"', "&amp;C147&amp;", "&amp;D147&amp;", '"&amp;E147&amp;"');"</f>
@@ -6863,10 +6879,10 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>6</v>
@@ -6875,7 +6891,7 @@
         <v>6</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F148" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A148&amp;"','"&amp;B148&amp;"', "&amp;C148&amp;", "&amp;D148&amp;", '"&amp;E148&amp;"');"</f>
@@ -6884,10 +6900,10 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>6</v>
@@ -6896,7 +6912,7 @@
         <v>6</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F149" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A149&amp;"','"&amp;B149&amp;"', "&amp;C149&amp;", "&amp;D149&amp;", '"&amp;E149&amp;"');"</f>
@@ -6905,10 +6921,10 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>6</v>
@@ -6917,7 +6933,7 @@
         <v>6</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F150" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A150&amp;"','"&amp;B150&amp;"', "&amp;C150&amp;", "&amp;D150&amp;", '"&amp;E150&amp;"');"</f>
@@ -6926,10 +6942,10 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>6</v>
@@ -6938,7 +6954,7 @@
         <v>6</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F151" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A151&amp;"','"&amp;B151&amp;"', "&amp;C151&amp;", "&amp;D151&amp;", '"&amp;E151&amp;"');"</f>
@@ -6947,10 +6963,10 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>6</v>
@@ -6959,7 +6975,7 @@
         <v>6</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F152" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A152&amp;"','"&amp;B152&amp;"', "&amp;C152&amp;", "&amp;D152&amp;", '"&amp;E152&amp;"');"</f>
@@ -6968,10 +6984,10 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>6</v>
@@ -6980,7 +6996,7 @@
         <v>6</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F153" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A153&amp;"','"&amp;B153&amp;"', "&amp;C153&amp;", "&amp;D153&amp;", '"&amp;E153&amp;"');"</f>
@@ -6989,10 +7005,10 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>6</v>
@@ -7001,7 +7017,7 @@
         <v>6</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F154" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A154&amp;"','"&amp;B154&amp;"', "&amp;C154&amp;", "&amp;D154&amp;", '"&amp;E154&amp;"');"</f>
@@ -7010,10 +7026,10 @@
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>6</v>
@@ -7022,7 +7038,7 @@
         <v>6</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F155" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A155&amp;"','"&amp;B155&amp;"', "&amp;C155&amp;", "&amp;D155&amp;", '"&amp;E155&amp;"');"</f>
@@ -7031,10 +7047,10 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>6</v>
@@ -7043,7 +7059,7 @@
         <v>6</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F156" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A156&amp;"','"&amp;B156&amp;"', "&amp;C156&amp;", "&amp;D156&amp;", '"&amp;E156&amp;"');"</f>
@@ -7052,10 +7068,10 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>6</v>
@@ -7064,7 +7080,7 @@
         <v>6</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F157" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A157&amp;"','"&amp;B157&amp;"', "&amp;C157&amp;", "&amp;D157&amp;", '"&amp;E157&amp;"');"</f>
@@ -7073,10 +7089,10 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>6</v>
@@ -7085,7 +7101,7 @@
         <v>6</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F158" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A158&amp;"','"&amp;B158&amp;"', "&amp;C158&amp;", "&amp;D158&amp;", '"&amp;E158&amp;"');"</f>
@@ -7094,10 +7110,10 @@
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>6</v>
@@ -7106,7 +7122,7 @@
         <v>6</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F159" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A159&amp;"','"&amp;B159&amp;"', "&amp;C159&amp;", "&amp;D159&amp;", '"&amp;E159&amp;"');"</f>
@@ -7115,10 +7131,10 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>6</v>
@@ -7127,7 +7143,7 @@
         <v>6</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F160" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A160&amp;"','"&amp;B160&amp;"', "&amp;C160&amp;", "&amp;D160&amp;", '"&amp;E160&amp;"');"</f>
@@ -7136,10 +7152,10 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>6</v>
@@ -7148,7 +7164,7 @@
         <v>6</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F161" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A161&amp;"','"&amp;B161&amp;"', "&amp;C161&amp;", "&amp;D161&amp;", '"&amp;E161&amp;"');"</f>
@@ -7157,10 +7173,10 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>6</v>
@@ -7169,7 +7185,7 @@
         <v>6</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F162" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A162&amp;"','"&amp;B162&amp;"', "&amp;C162&amp;", "&amp;D162&amp;", '"&amp;E162&amp;"');"</f>
@@ -7178,10 +7194,10 @@
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>6</v>
@@ -7190,7 +7206,7 @@
         <v>6</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F163" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A163&amp;"','"&amp;B163&amp;"', "&amp;C163&amp;", "&amp;D163&amp;", '"&amp;E163&amp;"');"</f>
@@ -7199,10 +7215,10 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>6</v>
@@ -7211,7 +7227,7 @@
         <v>6</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F164" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A164&amp;"','"&amp;B164&amp;"', "&amp;C164&amp;", "&amp;D164&amp;", '"&amp;E164&amp;"');"</f>
@@ -7251,10 +7267,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -7263,7 +7279,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -7271,10 +7287,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
@@ -7283,7 +7299,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F2" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;", '"&amp;E2&amp;"');"</f>
@@ -7292,19 +7308,19 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="F3" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
@@ -7313,10 +7329,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -7325,7 +7341,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F4" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"', "&amp;C4&amp;", "&amp;D4&amp;", '"&amp;E4&amp;"');"</f>
@@ -7334,10 +7350,10 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>6</v>
@@ -7346,7 +7362,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F5" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"', "&amp;C5&amp;", "&amp;D5&amp;", '"&amp;E5&amp;"');"</f>
@@ -7355,10 +7371,10 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
@@ -7367,7 +7383,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F6" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"', "&amp;C6&amp;", "&amp;D6&amp;", '"&amp;E6&amp;"');"</f>
@@ -7376,10 +7392,10 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
@@ -7388,7 +7404,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F7" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A7&amp;"','"&amp;B7&amp;"', "&amp;C7&amp;", "&amp;D7&amp;", '"&amp;E7&amp;"');"</f>
@@ -7397,10 +7413,10 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -7409,7 +7425,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F8" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A8&amp;"','"&amp;B8&amp;"', "&amp;C8&amp;", "&amp;D8&amp;", '"&amp;E8&amp;"');"</f>
@@ -7418,10 +7434,10 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>6</v>
@@ -7430,7 +7446,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F9" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A9&amp;"','"&amp;B9&amp;"', "&amp;C9&amp;", "&amp;D9&amp;", '"&amp;E9&amp;"');"</f>
@@ -7439,10 +7455,10 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>6</v>
@@ -7451,7 +7467,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F10" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A10&amp;"','"&amp;B10&amp;"', "&amp;C10&amp;", "&amp;D10&amp;", '"&amp;E10&amp;"');"</f>
@@ -7460,10 +7476,10 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>6</v>
@@ -7472,7 +7488,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F11" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A11&amp;"','"&amp;B11&amp;"', "&amp;C11&amp;", "&amp;D11&amp;", '"&amp;E11&amp;"');"</f>
@@ -7481,19 +7497,19 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="F12" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A12&amp;"','"&amp;B12&amp;"', "&amp;C12&amp;", "&amp;D12&amp;", '"&amp;E12&amp;"');"</f>
@@ -7502,10 +7518,10 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
@@ -7514,7 +7530,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F13" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A13&amp;"','"&amp;B13&amp;"', "&amp;C13&amp;", "&amp;D13&amp;", '"&amp;E13&amp;"');"</f>
@@ -7523,10 +7539,10 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
@@ -7535,7 +7551,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F14" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A14&amp;"','"&amp;B14&amp;"', "&amp;C14&amp;", "&amp;D14&amp;", '"&amp;E14&amp;"');"</f>
@@ -7544,10 +7560,10 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>6</v>
@@ -7556,7 +7572,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F15" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A15&amp;"','"&amp;B15&amp;"', "&amp;C15&amp;", "&amp;D15&amp;", '"&amp;E15&amp;"');"</f>
@@ -7565,10 +7581,10 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>6</v>
@@ -7577,7 +7593,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F16" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A16&amp;"','"&amp;B16&amp;"', "&amp;C16&amp;", "&amp;D16&amp;", '"&amp;E16&amp;"');"</f>
@@ -7586,10 +7602,10 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>6</v>
@@ -7598,7 +7614,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F17" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A17&amp;"','"&amp;B17&amp;"', "&amp;C17&amp;", "&amp;D17&amp;", '"&amp;E17&amp;"');"</f>
@@ -7607,10 +7623,10 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>6</v>
@@ -7619,7 +7635,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F18" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A18&amp;"','"&amp;B18&amp;"', "&amp;C18&amp;", "&amp;D18&amp;", '"&amp;E18&amp;"');"</f>
@@ -7628,10 +7644,10 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>6</v>
@@ -7640,7 +7656,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F19" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A19&amp;"','"&amp;B19&amp;"', "&amp;C19&amp;", "&amp;D19&amp;", '"&amp;E19&amp;"');"</f>
@@ -7649,10 +7665,10 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>6</v>
@@ -7661,7 +7677,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F20" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A20&amp;"','"&amp;B20&amp;"', "&amp;C20&amp;", "&amp;D20&amp;", '"&amp;E20&amp;"');"</f>
@@ -7670,10 +7686,10 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>6</v>
@@ -7682,7 +7698,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F21" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A21&amp;"','"&amp;B21&amp;"', "&amp;C21&amp;", "&amp;D21&amp;", '"&amp;E21&amp;"');"</f>
@@ -7691,10 +7707,10 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>6</v>
@@ -7703,7 +7719,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F22" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A22&amp;"','"&amp;B22&amp;"', "&amp;C22&amp;", "&amp;D22&amp;", '"&amp;E22&amp;"');"</f>
@@ -7712,10 +7728,10 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>6</v>
@@ -7724,7 +7740,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F23" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A23&amp;"','"&amp;B23&amp;"', "&amp;C23&amp;", "&amp;D23&amp;", '"&amp;E23&amp;"');"</f>
@@ -7733,10 +7749,10 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>6</v>
@@ -7745,7 +7761,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F24" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A24&amp;"','"&amp;B24&amp;"', "&amp;C24&amp;", "&amp;D24&amp;", '"&amp;E24&amp;"');"</f>
@@ -7754,10 +7770,10 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>6</v>
@@ -7766,7 +7782,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F25" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A25&amp;"','"&amp;B25&amp;"', "&amp;C25&amp;", "&amp;D25&amp;", '"&amp;E25&amp;"');"</f>
@@ -7775,10 +7791,10 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>6</v>
@@ -7787,7 +7803,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F26" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A26&amp;"','"&amp;B26&amp;"', "&amp;C26&amp;", "&amp;D26&amp;", '"&amp;E26&amp;"');"</f>
@@ -7796,10 +7812,10 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>6</v>
@@ -7808,7 +7824,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F27" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A27&amp;"','"&amp;B27&amp;"', "&amp;C27&amp;", "&amp;D27&amp;", '"&amp;E27&amp;"');"</f>
@@ -7817,10 +7833,10 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
@@ -7829,7 +7845,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F28" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A28&amp;"','"&amp;B28&amp;"', "&amp;C28&amp;", "&amp;D28&amp;", '"&amp;E28&amp;"');"</f>
@@ -7838,10 +7854,10 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>6</v>
@@ -7850,7 +7866,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F29" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A29&amp;"','"&amp;B29&amp;"', "&amp;C29&amp;", "&amp;D29&amp;", '"&amp;E29&amp;"');"</f>
@@ -7859,10 +7875,10 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>6</v>
@@ -7871,7 +7887,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F30" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A30&amp;"','"&amp;B30&amp;"', "&amp;C30&amp;", "&amp;D30&amp;", '"&amp;E30&amp;"');"</f>
@@ -7880,10 +7896,10 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>6</v>
@@ -7892,7 +7908,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F31" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A31&amp;"','"&amp;B31&amp;"', "&amp;C31&amp;", "&amp;D31&amp;", '"&amp;E31&amp;"');"</f>
@@ -7901,10 +7917,10 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>6</v>
@@ -7913,7 +7929,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F32" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A32&amp;"','"&amp;B32&amp;"', "&amp;C32&amp;", "&amp;D32&amp;", '"&amp;E32&amp;"');"</f>
@@ -7922,10 +7938,10 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>6</v>
@@ -7934,7 +7950,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F33" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A33&amp;"','"&amp;B33&amp;"', "&amp;C33&amp;", "&amp;D33&amp;", '"&amp;E33&amp;"');"</f>
@@ -7943,10 +7959,10 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
@@ -7955,7 +7971,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F34" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A34&amp;"','"&amp;B34&amp;"', "&amp;C34&amp;", "&amp;D34&amp;", '"&amp;E34&amp;"');"</f>
@@ -7964,10 +7980,10 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>6</v>
@@ -7976,7 +7992,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F35" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A35&amp;"','"&amp;B35&amp;"', "&amp;C35&amp;", "&amp;D35&amp;", '"&amp;E35&amp;"');"</f>
@@ -7985,10 +8001,10 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>6</v>
@@ -7997,7 +8013,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F36" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A36&amp;"','"&amp;B36&amp;"', "&amp;C36&amp;", "&amp;D36&amp;", '"&amp;E36&amp;"');"</f>
@@ -8006,10 +8022,10 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>6</v>
@@ -8018,7 +8034,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F37" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A37&amp;"','"&amp;B37&amp;"', "&amp;C37&amp;", "&amp;D37&amp;", '"&amp;E37&amp;"');"</f>
@@ -8027,10 +8043,10 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>6</v>
@@ -8039,7 +8055,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F38" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A38&amp;"','"&amp;B38&amp;"', "&amp;C38&amp;", "&amp;D38&amp;", '"&amp;E38&amp;"');"</f>
@@ -8048,10 +8064,10 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>6</v>
@@ -8060,7 +8076,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F39" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A39&amp;"','"&amp;B39&amp;"', "&amp;C39&amp;", "&amp;D39&amp;", '"&amp;E39&amp;"');"</f>
@@ -8069,10 +8085,10 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>6</v>
@@ -8081,7 +8097,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F40" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A40&amp;"','"&amp;B40&amp;"', "&amp;C40&amp;", "&amp;D40&amp;", '"&amp;E40&amp;"');"</f>
@@ -8090,10 +8106,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>6</v>
@@ -8102,7 +8118,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F41" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A41&amp;"','"&amp;B41&amp;"', "&amp;C41&amp;", "&amp;D41&amp;", '"&amp;E41&amp;"');"</f>
@@ -8111,10 +8127,10 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>6</v>
@@ -8123,7 +8139,7 @@
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F42" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A42&amp;"','"&amp;B42&amp;"', "&amp;C42&amp;", "&amp;D42&amp;", '"&amp;E42&amp;"');"</f>
@@ -8132,19 +8148,19 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="F43" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A43&amp;"','"&amp;B43&amp;"', "&amp;C43&amp;", "&amp;D43&amp;", '"&amp;E43&amp;"');"</f>
@@ -8153,10 +8169,10 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>6</v>
@@ -8165,7 +8181,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F44" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A44&amp;"','"&amp;B44&amp;"', "&amp;C44&amp;", "&amp;D44&amp;", '"&amp;E44&amp;"');"</f>
@@ -8174,10 +8190,10 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>6</v>
@@ -8186,7 +8202,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F45" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A45&amp;"','"&amp;B45&amp;"', "&amp;C45&amp;", "&amp;D45&amp;", '"&amp;E45&amp;"');"</f>
@@ -8195,10 +8211,10 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>6</v>
@@ -8207,7 +8223,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F46" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A46&amp;"','"&amp;B46&amp;"', "&amp;C46&amp;", "&amp;D46&amp;", '"&amp;E46&amp;"');"</f>
@@ -8216,10 +8232,10 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>6</v>
@@ -8228,7 +8244,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F47" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A47&amp;"','"&amp;B47&amp;"', "&amp;C47&amp;", "&amp;D47&amp;", '"&amp;E47&amp;"');"</f>
@@ -8237,11 +8253,11 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="C48" s="7" t="s">
         <v>6</v>
       </c>
@@ -8249,7 +8265,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F48" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A48&amp;"','"&amp;B48&amp;"', "&amp;C48&amp;", "&amp;D48&amp;", '"&amp;E48&amp;"');"</f>
@@ -8258,10 +8274,10 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>6</v>
@@ -8270,7 +8286,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F49" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A49&amp;"','"&amp;B49&amp;"', "&amp;C49&amp;", "&amp;D49&amp;", '"&amp;E49&amp;"');"</f>
@@ -8279,10 +8295,10 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>6</v>
@@ -8291,7 +8307,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F50" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A50&amp;"','"&amp;B50&amp;"', "&amp;C50&amp;", "&amp;D50&amp;", '"&amp;E50&amp;"');"</f>
@@ -8300,10 +8316,10 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>6</v>
@@ -8312,7 +8328,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F51" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A51&amp;"','"&amp;B51&amp;"', "&amp;C51&amp;", "&amp;D51&amp;", '"&amp;E51&amp;"');"</f>
@@ -8321,10 +8337,10 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>6</v>
@@ -8333,7 +8349,7 @@
         <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F52" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A52&amp;"','"&amp;B52&amp;"', "&amp;C52&amp;", "&amp;D52&amp;", '"&amp;E52&amp;"');"</f>
@@ -8342,10 +8358,10 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>6</v>
@@ -8354,7 +8370,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F53" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A53&amp;"','"&amp;B53&amp;"', "&amp;C53&amp;", "&amp;D53&amp;", '"&amp;E53&amp;"');"</f>
@@ -8363,10 +8379,10 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>6</v>
@@ -8375,7 +8391,7 @@
         <v>6</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F54" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A54&amp;"','"&amp;B54&amp;"', "&amp;C54&amp;", "&amp;D54&amp;", '"&amp;E54&amp;"');"</f>
@@ -8384,10 +8400,10 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>6</v>
@@ -8396,7 +8412,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F55" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A55&amp;"','"&amp;B55&amp;"', "&amp;C55&amp;", "&amp;D55&amp;", '"&amp;E55&amp;"');"</f>
@@ -8405,10 +8421,10 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>6</v>
@@ -8417,7 +8433,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F56" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A56&amp;"','"&amp;B56&amp;"', "&amp;C56&amp;", "&amp;D56&amp;", '"&amp;E56&amp;"');"</f>
@@ -8426,10 +8442,10 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>6</v>
@@ -8438,7 +8454,7 @@
         <v>6</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F57" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A57&amp;"','"&amp;B57&amp;"', "&amp;C57&amp;", "&amp;D57&amp;", '"&amp;E57&amp;"');"</f>
@@ -8447,10 +8463,10 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>6</v>
@@ -8459,7 +8475,7 @@
         <v>6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F58" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A58&amp;"','"&amp;B58&amp;"', "&amp;C58&amp;", "&amp;D58&amp;", '"&amp;E58&amp;"');"</f>
@@ -8468,10 +8484,10 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>6</v>
@@ -8480,7 +8496,7 @@
         <v>6</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F59" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A59&amp;"','"&amp;B59&amp;"', "&amp;C59&amp;", "&amp;D59&amp;", '"&amp;E59&amp;"');"</f>
@@ -8489,10 +8505,10 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>6</v>
@@ -8501,7 +8517,7 @@
         <v>6</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F60" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A60&amp;"','"&amp;B60&amp;"', "&amp;C60&amp;", "&amp;D60&amp;", '"&amp;E60&amp;"');"</f>
@@ -8510,10 +8526,10 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>6</v>
@@ -8522,7 +8538,7 @@
         <v>6</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F61" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A61&amp;"','"&amp;B61&amp;"', "&amp;C61&amp;", "&amp;D61&amp;", '"&amp;E61&amp;"');"</f>
@@ -8531,10 +8547,10 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>6</v>
@@ -8543,7 +8559,7 @@
         <v>6</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F62" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A62&amp;"','"&amp;B62&amp;"', "&amp;C62&amp;", "&amp;D62&amp;", '"&amp;E62&amp;"');"</f>
@@ -8552,10 +8568,10 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>6</v>
@@ -8564,7 +8580,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F63" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A63&amp;"','"&amp;B63&amp;"', "&amp;C63&amp;", "&amp;D63&amp;", '"&amp;E63&amp;"');"</f>
@@ -8573,10 +8589,10 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>6</v>
@@ -8585,7 +8601,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F64" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A64&amp;"','"&amp;B64&amp;"', "&amp;C64&amp;", "&amp;D64&amp;", '"&amp;E64&amp;"');"</f>
@@ -8594,10 +8610,10 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>6</v>
@@ -8606,7 +8622,7 @@
         <v>6</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F65" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A65&amp;"','"&amp;B65&amp;"', "&amp;C65&amp;", "&amp;D65&amp;", '"&amp;E65&amp;"');"</f>
@@ -8615,10 +8631,10 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>6</v>
@@ -8627,7 +8643,7 @@
         <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F66" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A66&amp;"','"&amp;B66&amp;"', "&amp;C66&amp;", "&amp;D66&amp;", '"&amp;E66&amp;"');"</f>
@@ -8636,10 +8652,10 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>6</v>
@@ -8648,7 +8664,7 @@
         <v>6</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F67" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"', "&amp;C67&amp;", "&amp;D67&amp;", '"&amp;E67&amp;"');"</f>
@@ -8657,10 +8673,10 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>6</v>
@@ -8669,7 +8685,7 @@
         <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F68" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A68&amp;"','"&amp;B68&amp;"', "&amp;C68&amp;", "&amp;D68&amp;", '"&amp;E68&amp;"');"</f>
@@ -8678,10 +8694,10 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>6</v>
@@ -8690,7 +8706,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F69" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A69&amp;"','"&amp;B69&amp;"', "&amp;C69&amp;", "&amp;D69&amp;", '"&amp;E69&amp;"');"</f>
@@ -8699,10 +8715,10 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>6</v>
@@ -8711,7 +8727,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F70" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A70&amp;"','"&amp;B70&amp;"', "&amp;C70&amp;", "&amp;D70&amp;", '"&amp;E70&amp;"');"</f>
@@ -8720,10 +8736,10 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>6</v>
@@ -8732,7 +8748,7 @@
         <v>6</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F71" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A71&amp;"','"&amp;B71&amp;"', "&amp;C71&amp;", "&amp;D71&amp;", '"&amp;E71&amp;"');"</f>
@@ -8741,10 +8757,10 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>6</v>
@@ -8753,7 +8769,7 @@
         <v>6</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F72" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A72&amp;"','"&amp;B72&amp;"', "&amp;C72&amp;", "&amp;D72&amp;", '"&amp;E72&amp;"');"</f>
@@ -8762,10 +8778,10 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>6</v>
@@ -8774,7 +8790,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F73" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A73&amp;"','"&amp;B73&amp;"', "&amp;C73&amp;", "&amp;D73&amp;", '"&amp;E73&amp;"');"</f>
@@ -8783,10 +8799,10 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>6</v>
@@ -8795,7 +8811,7 @@
         <v>6</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F74" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A74&amp;"','"&amp;B74&amp;"', "&amp;C74&amp;", "&amp;D74&amp;", '"&amp;E74&amp;"');"</f>
@@ -8804,10 +8820,10 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>6</v>
@@ -8816,7 +8832,7 @@
         <v>6</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F75" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A75&amp;"','"&amp;B75&amp;"', "&amp;C75&amp;", "&amp;D75&amp;", '"&amp;E75&amp;"');"</f>
@@ -8825,11 +8841,11 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="C76" s="7" t="s">
         <v>6</v>
       </c>
@@ -8837,7 +8853,7 @@
         <v>6</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F76" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A76&amp;"','"&amp;B76&amp;"', "&amp;C76&amp;", "&amp;D76&amp;", '"&amp;E76&amp;"');"</f>
@@ -8846,10 +8862,10 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>6</v>
@@ -8858,7 +8874,7 @@
         <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F77" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A77&amp;"','"&amp;B77&amp;"', "&amp;C77&amp;", "&amp;D77&amp;", '"&amp;E77&amp;"');"</f>
@@ -8867,10 +8883,10 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>6</v>
@@ -8879,7 +8895,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F78" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A78&amp;"','"&amp;B78&amp;"', "&amp;C78&amp;", "&amp;D78&amp;", '"&amp;E78&amp;"');"</f>
@@ -8888,10 +8904,10 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>6</v>
@@ -8900,7 +8916,7 @@
         <v>6</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F79" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A79&amp;"','"&amp;B79&amp;"', "&amp;C79&amp;", "&amp;D79&amp;", '"&amp;E79&amp;"');"</f>
@@ -8909,10 +8925,10 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>6</v>
@@ -8921,7 +8937,7 @@
         <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F80" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A80&amp;"','"&amp;B80&amp;"', "&amp;C80&amp;", "&amp;D80&amp;", '"&amp;E80&amp;"');"</f>
@@ -8930,10 +8946,10 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>6</v>
@@ -8942,7 +8958,7 @@
         <v>6</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F81" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A81&amp;"','"&amp;B81&amp;"', "&amp;C81&amp;", "&amp;D81&amp;", '"&amp;E81&amp;"');"</f>
@@ -8951,10 +8967,10 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>6</v>
@@ -8963,7 +8979,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F82" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A82&amp;"','"&amp;B82&amp;"', "&amp;C82&amp;", "&amp;D82&amp;", '"&amp;E82&amp;"');"</f>
@@ -8972,10 +8988,10 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>6</v>
@@ -8984,7 +9000,7 @@
         <v>6</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F83" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A83&amp;"','"&amp;B83&amp;"', "&amp;C83&amp;", "&amp;D83&amp;", '"&amp;E83&amp;"');"</f>
@@ -8993,10 +9009,10 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>6</v>
@@ -9005,7 +9021,7 @@
         <v>6</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F84" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A84&amp;"','"&amp;B84&amp;"', "&amp;C84&amp;", "&amp;D84&amp;", '"&amp;E84&amp;"');"</f>
@@ -9014,10 +9030,10 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>6</v>
@@ -9026,7 +9042,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F85" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A85&amp;"','"&amp;B85&amp;"', "&amp;C85&amp;", "&amp;D85&amp;", '"&amp;E85&amp;"');"</f>
@@ -9035,10 +9051,10 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>6</v>
@@ -9047,7 +9063,7 @@
         <v>6</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F86" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A86&amp;"','"&amp;B86&amp;"', "&amp;C86&amp;", "&amp;D86&amp;", '"&amp;E86&amp;"');"</f>
@@ -9056,10 +9072,10 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>6</v>
@@ -9068,7 +9084,7 @@
         <v>6</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F87" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A87&amp;"','"&amp;B87&amp;"', "&amp;C87&amp;", "&amp;D87&amp;", '"&amp;E87&amp;"');"</f>
@@ -9077,10 +9093,10 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>6</v>
@@ -9089,7 +9105,7 @@
         <v>6</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F88" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A88&amp;"','"&amp;B88&amp;"', "&amp;C88&amp;", "&amp;D88&amp;", '"&amp;E88&amp;"');"</f>
@@ -9098,10 +9114,10 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>6</v>
@@ -9110,7 +9126,7 @@
         <v>6</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F89" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A89&amp;"','"&amp;B89&amp;"', "&amp;C89&amp;", "&amp;D89&amp;", '"&amp;E89&amp;"');"</f>
@@ -9119,19 +9135,19 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="F90" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A90&amp;"','"&amp;B90&amp;"', "&amp;C90&amp;", "&amp;D90&amp;", '"&amp;E90&amp;"');"</f>
@@ -9140,10 +9156,10 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>6</v>
@@ -9152,7 +9168,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F91" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A91&amp;"','"&amp;B91&amp;"', "&amp;C91&amp;", "&amp;D91&amp;", '"&amp;E91&amp;"');"</f>
@@ -9161,10 +9177,10 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>6</v>
@@ -9173,7 +9189,7 @@
         <v>6</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F92" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A92&amp;"','"&amp;B92&amp;"', "&amp;C92&amp;", "&amp;D92&amp;", '"&amp;E92&amp;"');"</f>
@@ -9182,10 +9198,10 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>6</v>
@@ -9194,7 +9210,7 @@
         <v>6</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F93" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A93&amp;"','"&amp;B93&amp;"', "&amp;C93&amp;", "&amp;D93&amp;", '"&amp;E93&amp;"');"</f>
@@ -9203,10 +9219,10 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>6</v>
@@ -9215,7 +9231,7 @@
         <v>6</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F94" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A94&amp;"','"&amp;B94&amp;"', "&amp;C94&amp;", "&amp;D94&amp;", '"&amp;E94&amp;"');"</f>
@@ -9224,10 +9240,10 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>6</v>
@@ -9236,7 +9252,7 @@
         <v>6</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F95" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A95&amp;"','"&amp;B95&amp;"', "&amp;C95&amp;", "&amp;D95&amp;", '"&amp;E95&amp;"');"</f>
@@ -9245,10 +9261,10 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>6</v>
@@ -9257,7 +9273,7 @@
         <v>6</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F96" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A96&amp;"','"&amp;B96&amp;"', "&amp;C96&amp;", "&amp;D96&amp;", '"&amp;E96&amp;"');"</f>
@@ -9266,10 +9282,10 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>6</v>
@@ -9278,7 +9294,7 @@
         <v>6</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F97" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A97&amp;"','"&amp;B97&amp;"', "&amp;C97&amp;", "&amp;D97&amp;", '"&amp;E97&amp;"');"</f>
@@ -9287,19 +9303,19 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="F98" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A98&amp;"','"&amp;B98&amp;"', "&amp;C98&amp;", "&amp;D98&amp;", '"&amp;E98&amp;"');"</f>
@@ -9308,10 +9324,10 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>6</v>
@@ -9320,7 +9336,7 @@
         <v>6</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F99" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A99&amp;"','"&amp;B99&amp;"', "&amp;C99&amp;", "&amp;D99&amp;", '"&amp;E99&amp;"');"</f>
@@ -9329,10 +9345,10 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>6</v>
@@ -9341,7 +9357,7 @@
         <v>6</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F100" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A100&amp;"','"&amp;B100&amp;"', "&amp;C100&amp;", "&amp;D100&amp;", '"&amp;E100&amp;"');"</f>
@@ -9350,10 +9366,10 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>6</v>
@@ -9362,7 +9378,7 @@
         <v>6</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F101" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A101&amp;"','"&amp;B101&amp;"', "&amp;C101&amp;", "&amp;D101&amp;", '"&amp;E101&amp;"');"</f>
@@ -9371,10 +9387,10 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>6</v>
@@ -9383,7 +9399,7 @@
         <v>6</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F102" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A102&amp;"','"&amp;B102&amp;"', "&amp;C102&amp;", "&amp;D102&amp;", '"&amp;E102&amp;"');"</f>
@@ -9392,10 +9408,10 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>6</v>
@@ -9404,7 +9420,7 @@
         <v>6</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F103" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A103&amp;"','"&amp;B103&amp;"', "&amp;C103&amp;", "&amp;D103&amp;", '"&amp;E103&amp;"');"</f>
@@ -9413,10 +9429,10 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>6</v>
@@ -9425,7 +9441,7 @@
         <v>6</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F104" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A104&amp;"','"&amp;B104&amp;"', "&amp;C104&amp;", "&amp;D104&amp;", '"&amp;E104&amp;"');"</f>
@@ -9434,10 +9450,10 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>6</v>
@@ -9446,7 +9462,7 @@
         <v>6</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F105" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A105&amp;"','"&amp;B105&amp;"', "&amp;C105&amp;", "&amp;D105&amp;", '"&amp;E105&amp;"');"</f>
@@ -9455,10 +9471,10 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>6</v>
@@ -9467,7 +9483,7 @@
         <v>6</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F106" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A106&amp;"','"&amp;B106&amp;"', "&amp;C106&amp;", "&amp;D106&amp;", '"&amp;E106&amp;"');"</f>
@@ -9476,10 +9492,10 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>6</v>
@@ -9488,7 +9504,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F107" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A107&amp;"','"&amp;B107&amp;"', "&amp;C107&amp;", "&amp;D107&amp;", '"&amp;E107&amp;"');"</f>
@@ -9497,10 +9513,10 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>6</v>
@@ -9509,7 +9525,7 @@
         <v>6</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F108" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A108&amp;"','"&amp;B108&amp;"', "&amp;C108&amp;", "&amp;D108&amp;", '"&amp;E108&amp;"');"</f>
@@ -9518,10 +9534,10 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>6</v>
@@ -9530,7 +9546,7 @@
         <v>6</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F109" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A109&amp;"','"&amp;B109&amp;"', "&amp;C109&amp;", "&amp;D109&amp;", '"&amp;E109&amp;"');"</f>
@@ -9539,10 +9555,10 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>6</v>
@@ -9551,7 +9567,7 @@
         <v>6</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F110" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A110&amp;"','"&amp;B110&amp;"', "&amp;C110&amp;", "&amp;D110&amp;", '"&amp;E110&amp;"');"</f>
@@ -9560,10 +9576,10 @@
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>6</v>
@@ -9572,7 +9588,7 @@
         <v>6</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F111" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A111&amp;"','"&amp;B111&amp;"', "&amp;C111&amp;", "&amp;D111&amp;", '"&amp;E111&amp;"');"</f>
@@ -9581,10 +9597,10 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>6</v>
@@ -9593,7 +9609,7 @@
         <v>6</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F112" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A112&amp;"','"&amp;B112&amp;"', "&amp;C112&amp;", "&amp;D112&amp;", '"&amp;E112&amp;"');"</f>
@@ -9602,10 +9618,10 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>6</v>
@@ -9614,7 +9630,7 @@
         <v>6</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F113" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A113&amp;"','"&amp;B113&amp;"', "&amp;C113&amp;", "&amp;D113&amp;", '"&amp;E113&amp;"');"</f>
@@ -9623,10 +9639,10 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>6</v>
@@ -9635,7 +9651,7 @@
         <v>6</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F114" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A114&amp;"','"&amp;B114&amp;"', "&amp;C114&amp;", "&amp;D114&amp;", '"&amp;E114&amp;"');"</f>
@@ -9644,10 +9660,10 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>6</v>
@@ -9656,7 +9672,7 @@
         <v>6</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F115" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A115&amp;"','"&amp;B115&amp;"', "&amp;C115&amp;", "&amp;D115&amp;", '"&amp;E115&amp;"');"</f>
@@ -9665,10 +9681,10 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>6</v>
@@ -9677,7 +9693,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F116" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A116&amp;"','"&amp;B116&amp;"', "&amp;C116&amp;", "&amp;D116&amp;", '"&amp;E116&amp;"');"</f>
@@ -9686,10 +9702,10 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>6</v>
@@ -9698,7 +9714,7 @@
         <v>6</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F117" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A117&amp;"','"&amp;B117&amp;"', "&amp;C117&amp;", "&amp;D117&amp;", '"&amp;E117&amp;"');"</f>
@@ -9707,10 +9723,10 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>6</v>
@@ -9719,7 +9735,7 @@
         <v>6</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F118" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A118&amp;"','"&amp;B118&amp;"', "&amp;C118&amp;", "&amp;D118&amp;", '"&amp;E118&amp;"');"</f>
@@ -9728,10 +9744,10 @@
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>6</v>
@@ -9740,7 +9756,7 @@
         <v>6</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F119" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A119&amp;"','"&amp;B119&amp;"', "&amp;C119&amp;", "&amp;D119&amp;", '"&amp;E119&amp;"');"</f>
@@ -9749,10 +9765,10 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>6</v>
@@ -9761,7 +9777,7 @@
         <v>6</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F120" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A120&amp;"','"&amp;B120&amp;"', "&amp;C120&amp;", "&amp;D120&amp;", '"&amp;E120&amp;"');"</f>
@@ -9770,10 +9786,10 @@
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>6</v>
@@ -9782,7 +9798,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F121" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A121&amp;"','"&amp;B121&amp;"', "&amp;C121&amp;", "&amp;D121&amp;", '"&amp;E121&amp;"');"</f>
@@ -9791,10 +9807,10 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>6</v>
@@ -9803,7 +9819,7 @@
         <v>6</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F122" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A122&amp;"','"&amp;B122&amp;"', "&amp;C122&amp;", "&amp;D122&amp;", '"&amp;E122&amp;"');"</f>
@@ -9812,10 +9828,10 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>6</v>
@@ -9824,7 +9840,7 @@
         <v>6</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F123" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A123&amp;"','"&amp;B123&amp;"', "&amp;C123&amp;", "&amp;D123&amp;", '"&amp;E123&amp;"');"</f>
@@ -9833,10 +9849,10 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>6</v>
@@ -9845,7 +9861,7 @@
         <v>6</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F124" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A124&amp;"','"&amp;B124&amp;"', "&amp;C124&amp;", "&amp;D124&amp;", '"&amp;E124&amp;"');"</f>
@@ -9854,10 +9870,10 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>6</v>
@@ -9866,7 +9882,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F125" s="2" t="str">
         <f aca="false">"INSERT INTO courses VALUES('"&amp;A125&amp;"','"&amp;B125&amp;"', "&amp;C125&amp;", "&amp;D125&amp;", '"&amp;E125&amp;"');"</f>
@@ -9909,10 +9925,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -9926,10 +9942,10 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
@@ -9944,10 +9960,10 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
@@ -9962,10 +9978,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -9980,10 +9996,10 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>6</v>
@@ -9998,10 +10014,10 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
@@ -10076,22 +10092,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
